--- a/日文音读.xlsx
+++ b/日文音读.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>汉语声母</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>例字母</t>
+  </si>
+  <si>
+    <t>特例</t>
   </si>
   <si>
     <t>a</t>
@@ -30,6 +33,47 @@
   <si>
     <t>1.「あ段」  
 2.「あ段」+つ</t>
+  </si>
+  <si>
+    <t>１、花、加（か）   
+２、打（う）
+３、圧（あつ）
+４、札（さつ）</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>1.「あ段」  
+2.「あ段」+つ、く</t>
+  </si>
+  <si>
+    <t>１、火（か）
+２、多（た）   
+３、握（あく）
+４、拙（せつ）
+５、剥（は）
+６、莫（ばく）</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>1.「あ段」 
+2.ゃ拗音
+3。～+く、き、つ</t>
+  </si>
+  <si>
+    <t>１、割（わ）
+２、可（か）
+３、社、者（しゃ）
+４、各(かく)
+５、熱（netsu）</t>
+  </si>
+  <si>
+    <t>１、業（ぎよう）
+２、協（きょう）
+２、解、階、介（かい）</t>
   </si>
 </sst>
 </file>
@@ -37,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -65,10 +109,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -80,31 +125,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,11 +147,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,60 +181,59 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,13 +254,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,163 +428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,7 +455,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,7 +509,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,162 +539,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,9 +689,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -971,13 +1018,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14.5833333333333" customWidth="1"/>
     <col min="2" max="2" width="30.275" customWidth="1"/>
@@ -985,7 +1032,7 @@
     <col min="4" max="4" width="29.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42" customHeight="1" spans="1:3">
+    <row r="1" ht="42" customHeight="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -995,15 +1042,47 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" ht="81" customHeight="1" spans="1:2">
+    <row r="2" ht="103" customHeight="1" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
+    <row r="3" ht="84" customHeight="1" spans="1:3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" ht="82" customHeight="1" spans="1:4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="66" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/日文音读.xlsx
+++ b/日文音读.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>汉语声母</t>
   </si>
@@ -68,12 +68,34 @@
 ２、可（か）
 ３、社、者（しゃ）
 ４、各(かく)
-５、熱（netsu）</t>
+５、特（とく）
+６、熱（netsu）</t>
   </si>
   <si>
     <t>１、業（ぎよう）
 ２、協（きょう）
 ２、解、階、介（かい）</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.「い段」 
+2.ゃ拗音
+3。～+く、き、つ、ち
+４、「え段」＋长音 </t>
+  </si>
+  <si>
+    <t>１、医（い）
+２、機、気（き）
+３、知（ち）
+４、日（ひ）
+５、１（いち）
+６、際、菜（さい）
+７、私（わたくし）</t>
+  </si>
+  <si>
+    <t>世（せい）</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="82" customHeight="1" spans="1:4">
+    <row r="4" ht="85" customHeight="1" spans="1:4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1082,7 +1104,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="66" customHeight="1"/>
+    <row r="5" ht="159" customHeight="1" spans="1:4">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/日文音读.xlsx
+++ b/日文音读.xlsx
@@ -68,7 +68,7 @@
 ２、可（か）
 ３、社、者（しゃ）
 ４、各(かく)
-５、特（とく）
+５、特（とく）、得（とく）
 ６、熱（netsu）</t>
   </si>
   <si>
@@ -81,7 +81,7 @@
   </si>
   <si>
     <t xml:space="preserve">1.「い段」 
-2.ゃ拗音
+2.「あ段」+い
 3。～+く、き、つ、ち
 ４、「え段」＋长音 </t>
   </si>
@@ -95,7 +95,7 @@
 ７、私（わたくし）</t>
   </si>
   <si>
-    <t>世（せい）</t>
+    <t>計（けい）</t>
   </si>
 </sst>
 </file>
@@ -103,10 +103,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -126,6 +126,120 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,123 +253,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,97 +276,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,73 +444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,25 +473,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -508,6 +499,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,22 +546,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,94 +566,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,46 +662,46 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,12 +711,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1075,7 +1072,7 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1083,10 +1080,10 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1094,13 +1091,13 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1108,10 +1105,10 @@
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">

--- a/日文音读.xlsx
+++ b/日文音读.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>汉语声母</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>特例</t>
+  </si>
+  <si>
+    <t>例子</t>
   </si>
   <si>
     <t>a</t>
@@ -39,6 +42,44 @@
 ２、打（う）
 ３、圧（あつ）
 ４、札（さつ）</t>
+  </si>
+  <si>
+    <t>ai</t>
+  </si>
+  <si>
+    <t>あ＋わ</t>
+  </si>
+  <si>
+    <t>１、哀（あわ）</t>
+  </si>
+  <si>
+    <t>an</t>
+  </si>
+  <si>
+    <t>か＋ん
+あ＋ん</t>
+  </si>
+  <si>
+    <t>１、感、肝、冠、汗、干、看。。（かん）
+２、案、安</t>
+  </si>
+  <si>
+    <t>扇（あお）</t>
+  </si>
+  <si>
+    <t>ang</t>
+  </si>
+  <si>
+    <t>あ</t>
+  </si>
+  <si>
+    <t>１、上（あ）</t>
+  </si>
+  <si>
+    <t>ao</t>
+  </si>
+  <si>
+    <t>１、飽（あ）</t>
   </si>
   <si>
     <t>o</t>
@@ -56,6 +97,15 @@
 ６、莫（ばく）</t>
   </si>
   <si>
+    <t>ong</t>
+  </si>
+  <si>
+    <t>１、空（あ）</t>
+  </si>
+  <si>
+    <t>ou</t>
+  </si>
+  <si>
     <t>e</t>
   </si>
   <si>
@@ -65,16 +115,25 @@
   </si>
   <si>
     <t>１、割（わ）
-２、可（か）
+２、可、歌（か）
 ３、社、者（しゃ）
-４、各(かく)
+４、各(かく)、惡（あく）
 ５、特（とく）、得（とく）
 ６、熱（netsu）</t>
   </si>
   <si>
     <t>１、業（ぎよう）
 ２、協（きょう）
-２、解、階、介（かい）</t>
+3、解、階、介（かい）</t>
+  </si>
+  <si>
+    <t>ei</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>eng</t>
   </si>
   <si>
     <t>i</t>
@@ -92,10 +151,38 @@
 ４、日（ひ）
 ５、１（いち）
 ６、際、菜（さい）
-７、私（わたくし）</t>
-  </si>
-  <si>
-    <t>計（けい）</t>
+７、開、海、改（かい）
+８、私（わたくし）
+９、確立｜率（りつ）</t>
+  </si>
+  <si>
+    <t>計（けい）
+王子（じ）
+赤（あか）</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>１、「う段」『あ段』
+２、ゃ｜よ拗音
+３、～+く、き、つ、ち
+４、ゃ｜よ拗音＋う</t>
+  </si>
+  <si>
+    <t xml:space="preserve">１、苦（く）
+２、無（む）
+３、朱（しゅ）、樹（じゅ）
+４、竹（ちく）
+５、祝、主、宿（しゅく）
+６、注（ちゅう）
+</t>
+  </si>
+  <si>
+    <t>ui</t>
+  </si>
+  <si>
+    <t>un</t>
   </si>
 </sst>
 </file>
@@ -103,10 +190,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -118,6 +205,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -125,15 +234,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,6 +248,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -155,20 +278,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -179,23 +288,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,8 +325,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,14 +335,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,29 +343,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,55 +357,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,31 +519,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,91 +531,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,30 +548,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -507,7 +570,57 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,37 +640,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,154 +653,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1037,21 +1127,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6"/>
   <cols>
     <col min="1" max="1" width="14.5833333333333" customWidth="1"/>
     <col min="2" max="2" width="30.275" customWidth="1"/>
     <col min="3" max="3" width="27.225" customWidth="1"/>
     <col min="4" max="4" width="29.4416666666667" customWidth="1"/>
+    <col min="6" max="6" width="14.1583333333333" customWidth="1"/>
+    <col min="7" max="7" width="24.3" customWidth="1"/>
+    <col min="8" max="8" width="40.825" customWidth="1"/>
+    <col min="9" max="9" width="15.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42" customHeight="1" spans="1:4">
+    <row r="1" ht="42" customHeight="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1064,55 +1158,176 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" ht="103" customHeight="1" spans="1:3">
+    <row r="2" ht="103" customHeight="1" spans="1:8">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" ht="84" customHeight="1" spans="1:3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
+    <row r="3" ht="103" customHeight="1" spans="2:9">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" ht="85" customHeight="1" spans="1:4">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
+    <row r="4" ht="103" customHeight="1" spans="2:8">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" ht="159" customHeight="1" spans="1:4">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    <row r="5" ht="103" customHeight="1" spans="2:8">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" ht="84" customHeight="1" spans="1:8">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" ht="84" customHeight="1" spans="2:6">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" ht="84" customHeight="1" spans="2:3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" ht="121" customHeight="1" spans="1:6">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" ht="114" customHeight="1" spans="2:6">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" ht="107" customHeight="1" spans="2:6">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" ht="159" customHeight="1" spans="1:4">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" ht="121" customHeight="1" spans="1:6">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" ht="103" customHeight="1" spans="6:6">
+      <c r="F14" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/日文音读.xlsx
+++ b/日文音读.xlsx
@@ -14,11 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>汉语声母</t>
   </si>
   <si>
+    <t>日文音读（纯字）</t>
+  </si>
+  <si>
+    <t>例子</t>
+  </si>
+  <si>
     <t>日文音读</t>
   </si>
   <si>
@@ -28,7 +34,10 @@
     <t>特例</t>
   </si>
   <si>
-    <t>例子</t>
+    <t>日文音读（日中混合）</t>
+  </si>
+  <si>
+    <t>混合</t>
   </si>
   <si>
     <t>a</t>
@@ -41,72 +50,144 @@
     <t>１、花、加（か）   
 ２、打（う）
 ３、圧（あつ）
-４、札（さつ）</t>
+４、札（さつ）
+５、当て嵌（は）まる</t>
   </si>
   <si>
     <t>ai</t>
   </si>
   <si>
-    <t>あ＋わ</t>
-  </si>
-  <si>
-    <t>１、哀（あわ）</t>
+    <t>１、あわ
+２、あや
+３、あらた</t>
+  </si>
+  <si>
+    <t>１、哀（あわ）
+２、怪（あや）
+３、改（あらた）
+4、呆（あき）</t>
   </si>
   <si>
     <t>an</t>
   </si>
   <si>
-    <t>か＋ん
-あ＋ん</t>
-  </si>
-  <si>
-    <t>１、感、肝、冠、汗、干、看。。（かん）
-２、案、安</t>
-  </si>
-  <si>
-    <t>扇（あお）</t>
+    <t xml:space="preserve">１、かん
+２、あん
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">１、感、肝、冠、汗、干、看。。（かん）
+２、案、安、暗（あん）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">１、あ
+２、あらわ
+３、あわ
+４、い
+</t>
+  </si>
+  <si>
+    <t>1、扇（あお）
+２、甘（あま）
+３、宛、当（あ）
+４、現（あらわ）れ
+５、淡（あわ）い
+６、言（い）い</t>
   </si>
   <si>
     <t>ang</t>
   </si>
   <si>
-    <t>あ</t>
-  </si>
-  <si>
-    <t>１、上（あ）</t>
+    <t xml:space="preserve">
+２、きょう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+１、影響（きょう）</t>
+  </si>
+  <si>
+    <t>１、あ</t>
+  </si>
+  <si>
+    <t>１、上、荒（あ）
+２、方（がた）
+３、網（あみ）</t>
   </si>
   <si>
     <t>ao</t>
   </si>
   <si>
-    <t>１、飽（あ）</t>
+    <t xml:space="preserve">１、あわ
+２、あさ
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">１、泡（あわ）
+２、朝（あさ）
+</t>
+  </si>
+  <si>
+    <t>1、あば
+2、あ</t>
+  </si>
+  <si>
+    <t>1、暴（あば）れろ
+2、飽（あ）</t>
   </si>
   <si>
     <t>o</t>
+  </si>
+  <si>
+    <t>１、あく
+２、ま</t>
+  </si>
+  <si>
+    <t>1、握（あく）
+２、悪魔（ま）</t>
   </si>
   <si>
     <t>1.「あ段」  
 2.「あ段」+つ、く</t>
   </si>
   <si>
-    <t>１、火（か）
+    <t xml:space="preserve">１、火（か）
 ２、多（た）   
-３、握（あく）
 ４、拙（せつ）
 ５、剥（は）
-６、莫（ばく）</t>
+６、莫（ばく）
+</t>
   </si>
   <si>
     <t>ong</t>
   </si>
   <si>
-    <t>１、空（あ）</t>
+    <t>１、空（あ）
+２、憧（あこが）</t>
   </si>
   <si>
     <t>ou</t>
   </si>
   <si>
+    <t>しゅ</t>
+  </si>
+  <si>
+    <t>２、握手（しゅ）</t>
+  </si>
+  <si>
+    <t>１、厚（あつ）
+２、後（あと）</t>
+  </si>
+  <si>
     <t>e</t>
+  </si>
+  <si>
+    <t>１、しゃ
+２、かく</t>
+  </si>
+  <si>
+    <t>１、社、者（しゃ）
+２、各(かく)、惡（あく）</t>
   </si>
   <si>
     <t>1.「あ段」 
@@ -116,10 +197,8 @@
   <si>
     <t>１、割（わ）
 ２、可、歌（か）
-３、社、者（しゃ）
-４、各(かく)、惡（あく）
-５、特（とく）、得（とく）
-６、熱（netsu）</t>
+３、特（とく）、得（とく）
+４、熱（ねつ）</t>
   </si>
   <si>
     <t>１、業（ぎよう）
@@ -130,10 +209,24 @@
     <t>ei</t>
   </si>
   <si>
+    <t>１、い
+２、あや</t>
+  </si>
+  <si>
+    <t>１、位（い）
+２、危（あや）</t>
+  </si>
+  <si>
     <t>en</t>
   </si>
   <si>
     <t>eng</t>
+  </si>
+  <si>
+    <t>１、あらそ</t>
+  </si>
+  <si>
+    <t>１、争（あらそ）</t>
   </si>
   <si>
     <t>i</t>
@@ -152,13 +245,27 @@
 ５、１（いち）
 ６、際、菜（さい）
 ７、開、海、改（かい）
+８、確立｜率（りつ）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 ８、私（わたくし）
-９、確立｜率（りつ）</t>
+</t>
   </si>
   <si>
     <t>計（けい）
 王子（じ）
-赤（あか）</t>
+味（あじ）
+赤（あか）
+夕（ゆう）
+足跡（あと）
+炙（あぶ）</t>
+  </si>
+  <si>
+    <t>ing</t>
+  </si>
+  <si>
+    <t>影（えい）</t>
   </si>
   <si>
     <t>u</t>
@@ -170,19 +277,37 @@
 ４、ゃ｜よ拗音＋う</t>
   </si>
   <si>
-    <t xml:space="preserve">１、苦（く）
+    <t>１、苦（く）
 ２、無（む）
 ３、朱（しゅ）、樹（じゅ）
 ４、竹（ちく）
 ５、祝、主、宿（しゅく）
 ６、注（ちゅう）
+７、浴（あ）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 </t>
   </si>
   <si>
+    <t>足（あし）
+誤（あやま）
+粗（あら）</t>
+  </si>
+  <si>
     <t>ui</t>
   </si>
   <si>
     <t>un</t>
+  </si>
+  <si>
+    <t>ue</t>
+  </si>
+  <si>
+    <t>あな</t>
+  </si>
+  <si>
+    <t>１、穴（あな）</t>
   </si>
 </sst>
 </file>
@@ -190,10 +315,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -205,6 +330,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -212,7 +344,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,14 +375,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,36 +443,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -288,61 +453,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,19 +482,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,7 +566,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,151 +656,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,6 +673,33 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -566,39 +718,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -610,17 +729,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,9 +750,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,148 +778,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1127,25 +1252,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6"/>
   <cols>
-    <col min="1" max="1" width="14.5833333333333" customWidth="1"/>
-    <col min="2" max="2" width="30.275" customWidth="1"/>
-    <col min="3" max="3" width="27.225" customWidth="1"/>
-    <col min="4" max="4" width="29.4416666666667" customWidth="1"/>
-    <col min="6" max="6" width="14.1583333333333" customWidth="1"/>
-    <col min="7" max="7" width="24.3" customWidth="1"/>
-    <col min="8" max="8" width="40.825" customWidth="1"/>
-    <col min="9" max="9" width="15.8333333333333" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="23.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="26.525" customWidth="1"/>
+    <col min="4" max="4" width="30.275" customWidth="1"/>
+    <col min="5" max="5" width="27.225" customWidth="1"/>
+    <col min="6" max="6" width="26.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="5.55833333333333" customWidth="1"/>
+    <col min="8" max="8" width="5.55" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="24.3" customWidth="1"/>
+    <col min="11" max="11" width="26.3833333333333" customWidth="1"/>
+    <col min="12" max="12" width="20.275" customWidth="1"/>
+    <col min="13" max="13" width="22.075" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42" customHeight="1" spans="1:9">
+    <row r="1" ht="42" customHeight="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1158,176 +1288,279 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" ht="103" customHeight="1" spans="1:8">
+    <row r="2" ht="103" customHeight="1" spans="1:13">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" ht="103" customHeight="1" spans="2:9">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
-      </c>
+    <row r="3" ht="103" customHeight="1" spans="4:13">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
       <c r="I3" t="s">
         <v>14</v>
       </c>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" ht="103" customHeight="1" spans="2:8">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
+    <row r="4" ht="103" customHeight="1" spans="4:13">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" ht="103" customHeight="1" spans="2:8">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
+    <row r="5" ht="103" customHeight="1" spans="4:13">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="6" ht="84" customHeight="1" spans="1:8">
+    <row r="6" ht="100" customHeight="1" spans="1:13">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
+      <c r="M6" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="7" ht="84" customHeight="1" spans="2:6">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="F7" t="s">
-        <v>25</v>
+    <row r="7" ht="84" customHeight="1" spans="4:13">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="8" ht="84" customHeight="1" spans="2:3">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+    <row r="8" ht="84" customHeight="1" spans="4:5">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
-    <row r="9" ht="121" customHeight="1" spans="1:6">
+    <row r="9" ht="121" customHeight="1" spans="1:13">
       <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
+        <v>43</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="10" ht="114" customHeight="1" spans="2:6">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+    <row r="10" ht="114" customHeight="1" spans="4:9">
       <c r="D10" s="1"/>
-      <c r="F10" t="s">
-        <v>31</v>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="I10" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="11" ht="107" customHeight="1" spans="2:6">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+    <row r="11" ht="107" customHeight="1" spans="4:13">
       <c r="D11" s="1"/>
-      <c r="F11" t="s">
-        <v>32</v>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="I11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="12" ht="159" customHeight="1" spans="1:4">
+    <row r="12" ht="159" customHeight="1" spans="1:10">
       <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="I12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="13" ht="121" customHeight="1" spans="1:6">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" t="s">
-        <v>40</v>
-      </c>
+    <row r="13" ht="159" customHeight="1" spans="4:7">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
     </row>
-    <row r="14" ht="103" customHeight="1" spans="6:6">
-      <c r="F14" t="s">
-        <v>41</v>
+    <row r="14" ht="121" customHeight="1" spans="1:9">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" ht="103" customHeight="1" spans="9:9">
+      <c r="I15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" ht="83" customHeight="1" spans="9:11">
+      <c r="I16" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/日文音读.xlsx
+++ b/日文音读.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
   <si>
     <t>汉语声母</t>
   </si>
@@ -43,8 +43,15 @@
     <t>a</t>
   </si>
   <si>
-    <t>1.「あ段」  
-2.「あ段」+つ</t>
+    <t>１、いだい</t>
+  </si>
+  <si>
+    <t>偉大（だい）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.「あ段」  
+2.「あ段」+つ
+</t>
   </si>
   <si>
     <t>１、花、加（か）   
@@ -54,7 +61,16 @@
 ５、当て嵌（は）まる</t>
   </si>
   <si>
+    <t>１、家（いえ）</t>
+  </si>
+  <si>
     <t>ai</t>
+  </si>
+  <si>
+    <t>１、がい</t>
+  </si>
+  <si>
+    <t>一概（がい）</t>
   </si>
   <si>
     <t>１、あわ
@@ -73,11 +89,19 @@
   <si>
     <t xml:space="preserve">１、かん
 ２、あん
+３、いん
+４、だん
+５、さん
+６、てん
 </t>
   </si>
   <si>
     <t xml:space="preserve">１、感、肝、冠、汗、干、看。。（かん）
 ２、案、安、暗（あん）
+３、医院（いん）
+４、一段（たん）
+５、酸（さん）
+６、一転（てん）
 </t>
   </si>
   <si>
@@ -85,6 +109,7 @@
 ２、あらわ
 ３、あわ
 ４、い
+５、のこ
 </t>
   </si>
   <si>
@@ -93,18 +118,23 @@
 ３、宛、当（あ）
 ４、現（あらわ）れ
 ５、淡（あわ）い
-６、言（い）い</t>
+６、言（い）い
+７、残（のこ）</t>
+  </si>
+  <si>
+    <t>１、板（いた）</t>
   </si>
   <si>
     <t>ang</t>
   </si>
   <si>
-    <t xml:space="preserve">
+    <t>１、こう
 ２、きょう</t>
   </si>
   <si>
-    <t xml:space="preserve">
-１、影響（きょう）</t>
+    <t>１、以降（こう）
+一向（こう）
+２、影響（きょう）</t>
   </si>
   <si>
     <t>１、あ</t>
@@ -112,7 +142,8 @@
   <si>
     <t>１、上、荒（あ）
 ２、方（がた）
-３、網（あみ）</t>
+３、網（あみ）
+４、傷（いた）み</t>
   </si>
   <si>
     <t>ao</t>
@@ -140,15 +171,13 @@
   </si>
   <si>
     <t>１、あく
-２、ま</t>
+２、ま
+３、さく</t>
   </si>
   <si>
     <t>1、握（あく）
-２、悪魔（ま）</t>
-  </si>
-  <si>
-    <t>1.「あ段」  
-2.「あ段」+つ、く</t>
+２、悪魔（ま）
+３、一昨（さく）日</t>
   </si>
   <si>
     <t xml:space="preserve">１、火（か）
@@ -162,17 +191,34 @@
     <t>ong</t>
   </si>
   <si>
+    <t>１、しゅ</t>
+  </si>
+  <si>
+    <t>１、一種（しゅ）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">１、あ
+２、あこが
+３、いさ
+４、いた
+</t>
+  </si>
+  <si>
     <t>１、空（あ）
-２、憧（あこが）</t>
+２、憧（あこが）
+３、勇（いさ）ましい
+４、痛（いた）め</t>
   </si>
   <si>
     <t>ou</t>
   </si>
   <si>
-    <t>しゅ</t>
-  </si>
-  <si>
-    <t>２、握手（しゅ）</t>
+    <t>１、しゅ
+２、いっしゅう</t>
+  </si>
+  <si>
+    <t>１、握手（しゅ）
+２、一週（いっしゅう）</t>
   </si>
   <si>
     <t>１、厚（あつ）
@@ -209,6 +255,12 @@
     <t>ei</t>
   </si>
   <si>
+    <t>１、い</t>
+  </si>
+  <si>
+    <t>１、委（い）員</t>
+  </si>
+  <si>
     <t>１、い
 ２、あや</t>
   </si>
@@ -223,10 +275,18 @@
     <t>eng</t>
   </si>
   <si>
-    <t>１、あらそ</t>
-  </si>
-  <si>
-    <t>１、争（あらそ）</t>
+    <t>１、そう</t>
+  </si>
+  <si>
+    <t>1層（そう）</t>
+  </si>
+  <si>
+    <t>１、あらそ
+２、い</t>
+  </si>
+  <si>
+    <t>１、争（あらそ）
+２、生（い）き</t>
   </si>
   <si>
     <t>i</t>
@@ -240,16 +300,17 @@
   <si>
     <t>１、医（い）
 ２、機、気（き）
-３、知（ち）
+３、知、致（ち）
 ４、日（ひ）
-５、１（いち）
+５、一（いち）
 ６、際、菜（さい）
 ７、開、海、改（かい）
-８、確立｜率（りつ）</t>
+８、確立｜率（りつ）
+９、斉（せい）</t>
   </si>
   <si>
     <t xml:space="preserve">
-８、私（わたくし）
+１、私（わたくし）
 </t>
   </si>
   <si>
@@ -259,13 +320,42 @@
 赤（あか）
 夕（ゆう）
 足跡（あと）
-炙（あぶ）</t>
+炙（あぶ）
+勢（いきお）
+時（とき）
+至（いた）</t>
   </si>
   <si>
     <t>ing</t>
   </si>
   <si>
-    <t>影（えい）</t>
+    <t xml:space="preserve">１、えい
+２、せい
+３、てい
+</t>
+  </si>
+  <si>
+    <t>１、影（えい）
+２、性（せい）
+３、一定（てい）</t>
+  </si>
+  <si>
+    <t>ie</t>
+  </si>
+  <si>
+    <t>１、さい</t>
+  </si>
+  <si>
+    <t>１、一切（さい）</t>
+  </si>
+  <si>
+    <t>iu</t>
+  </si>
+  <si>
+    <t>１、りゅう</t>
+  </si>
+  <si>
+    <t>１、一流（りゅう）</t>
   </si>
   <si>
     <t>u</t>
@@ -280,10 +370,11 @@
     <t>１、苦（く）
 ２、無（む）
 ３、朱（しゅ）、樹（じゅ）
-４、竹（ちく）
+４、竹（ちく）、育（いく）
 ５、祝、主、宿（しゅく）
 ６、注（ちゅう）
-７、浴（あ）</t>
+７、浴（あ）
+８、居（い）</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -292,7 +383,8 @@
   <si>
     <t>足（あし）
 誤（あやま）
-粗（あら）</t>
+粗（あら）
+怒（いか）り</t>
   </si>
   <si>
     <t>ui</t>
@@ -1252,17 +1344,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="23.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="26.525" customWidth="1"/>
+    <col min="3" max="3" width="29.725" customWidth="1"/>
     <col min="4" max="4" width="30.275" customWidth="1"/>
     <col min="5" max="5" width="27.225" customWidth="1"/>
     <col min="6" max="6" width="26.6666666666667" customWidth="1"/>
@@ -1273,9 +1365,10 @@
     <col min="11" max="11" width="26.3833333333333" customWidth="1"/>
     <col min="12" max="12" width="20.275" customWidth="1"/>
     <col min="13" max="13" width="22.075" customWidth="1"/>
+    <col min="14" max="14" width="15.9666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42" customHeight="1" spans="1:13">
+    <row r="1" ht="42" customHeight="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1308,129 +1401,150 @@
       </c>
       <c r="M1" t="s">
         <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" ht="103" customHeight="1" spans="1:13">
       <c r="A2" t="s">
         <v>8</v>
       </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="L2" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="3" ht="103" customHeight="1" spans="4:13">
+    <row r="3" ht="114" customHeight="1" spans="4:14">
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" ht="103" customHeight="1" spans="4:13">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" ht="103" customHeight="1" spans="4:13">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" ht="100" customHeight="1" spans="1:13">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6"/>
-      <c r="K6" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="L6" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" ht="84" customHeight="1" spans="4:13">
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="I7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" ht="84" customHeight="1" spans="4:5">
@@ -1439,34 +1553,38 @@
     </row>
     <row r="9" ht="121" customHeight="1" spans="1:13">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G9" s="1"/>
       <c r="I9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9"/>
-      <c r="K9"/>
+        <v>54</v>
+      </c>
+      <c r="J9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" t="s">
+        <v>56</v>
+      </c>
       <c r="L9" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" ht="114" customHeight="1" spans="4:9">
@@ -1475,7 +1593,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" ht="107" customHeight="1" spans="4:13">
@@ -1484,83 +1602,116 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="I11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" t="s">
-        <v>52</v>
+        <v>60</v>
+      </c>
+      <c r="J11" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="12" ht="159" customHeight="1" spans="1:10">
+    <row r="12" ht="159" customHeight="1" spans="1:11">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G12" s="1"/>
       <c r="I12" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" t="s">
-        <v>59</v>
+        <v>70</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="13" ht="159" customHeight="1" spans="4:7">
+    <row r="13" ht="159" customHeight="1" spans="2:11">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
+      <c r="I13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="14" ht="121" customHeight="1" spans="1:9">
-      <c r="A14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>62</v>
-      </c>
+    <row r="14" ht="159" customHeight="1" spans="4:11">
       <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
       <c r="I14" t="s">
-        <v>65</v>
+        <v>76</v>
+      </c>
+      <c r="J14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="15" ht="103" customHeight="1" spans="9:9">
+    <row r="15" ht="121" customHeight="1" spans="1:9">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="I15" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="16" ht="83" customHeight="1" spans="9:11">
+    <row r="16" ht="103" customHeight="1" spans="9:9">
       <c r="I16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" t="s">
-        <v>68</v>
-      </c>
-      <c r="K16" t="s">
-        <v>69</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" ht="83" customHeight="1" spans="9:11">
+      <c r="I17" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/日文音读.xlsx
+++ b/日文音读.xlsx
@@ -7,14 +7,14 @@
     <workbookView windowHeight="15100"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="日文音读" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
   <si>
     <t>汉语声母</t>
   </si>
@@ -43,7 +43,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>１、いだい</t>
+    <t>１、だい</t>
   </si>
   <si>
     <t>偉大（だい）</t>
@@ -67,10 +67,12 @@
     <t>ai</t>
   </si>
   <si>
-    <t>１、がい</t>
-  </si>
-  <si>
-    <t>一概（がい）</t>
+    <t>１、がい
+２、らい</t>
+  </si>
+  <si>
+    <t>１、一概、外（がい）
+２、依頼（らい）</t>
   </si>
   <si>
     <t>１、あわ
@@ -82,6 +84,9 @@
 ２、怪（あや）
 ３、改（あらた）
 4、呆（あき）</t>
+  </si>
+  <si>
+    <t>埋（う）</t>
   </si>
   <si>
     <t>an</t>
@@ -93,15 +98,19 @@
 ４、だん
 ５、さん
 ６、てん
+７、えん
+８、ぱん
 </t>
   </si>
   <si>
     <t xml:space="preserve">１、感、肝、冠、汗、干、看。。（かん）
 ２、案、安、暗（あん）
 ３、医院（いん）
-４、一段（たん）
+４、一段、横断（たん）
 ５、酸（さん）
 ６、一転（てん）
+７、永遠（えん）、沿、宴、演、園
+８、運搬（ぱん）
 </t>
   </si>
   <si>
@@ -110,6 +119,7 @@
 ３、あわ
 ４、い
 ５、のこ
+６、ねむ
 </t>
   </si>
   <si>
@@ -119,7 +129,8 @@
 ４、現（あらわ）れ
 ５、淡（あわ）い
 ６、言（い）い
-７、残（のこ）</t>
+７、残（のこ）
+８、眠（ねむ）い</t>
   </si>
   <si>
     <t>１、板（いた）</t>
@@ -129,12 +140,18 @@
   </si>
   <si>
     <t>１、こう
-２、きょう</t>
+２、きょう
+３、ぽう
+４、ちょう
+５、おう</t>
   </si>
   <si>
     <t>１、以降（こう）
 一向（こう）
-２、影響（きょう）</t>
+２、影響（きょう）
+３、一方（ぽう）
+４、延長（ちょう）
+５、往（おう）来</t>
   </si>
   <si>
     <t>１、あ</t>
@@ -151,20 +168,29 @@
   <si>
     <t xml:space="preserve">１、あわ
 ２、あさ
+３、りょう
+４、け
 </t>
   </si>
   <si>
     <t xml:space="preserve">１、泡（あわ）
 ２、朝（あさ）
+３、飲料（りょう）
+４、消（け）
 </t>
   </si>
   <si>
     <t>1、あば
-2、あ</t>
+2、あ
+3、うす</t>
   </si>
   <si>
     <t>1、暴（あば）れろ
-2、飽（あ）</t>
+2、飽（あ）
+３、薄</t>
+  </si>
+  <si>
+    <t>１、板</t>
   </si>
   <si>
     <t>o</t>
@@ -180,8 +206,12 @@
 ３、一昨（さく）日</t>
   </si>
   <si>
+    <t>１、うら</t>
+  </si>
+  <si>
     <t xml:space="preserve">１、火（か）
 ２、多（た）   
+３、裏（うら）
 ４、拙（せつ）
 ５、剥（は）
 ６、莫（ばく）
@@ -191,16 +221,23 @@
     <t>ong</t>
   </si>
   <si>
-    <t>１、しゅ</t>
-  </si>
-  <si>
-    <t>１、一種（しゅ）</t>
+    <t>１、しゅ
+２、よう
+３、えい
+４、どう</t>
+  </si>
+  <si>
+    <t>１、一種（しゅ）
+２、引用（よう）
+３、永（えい）遠
+４、運動（どう）</t>
   </si>
   <si>
     <t xml:space="preserve">１、あ
 ２、あこが
 ３、いさ
 ４、いた
+５、おき
 </t>
   </si>
   <si>
@@ -214,11 +251,15 @@
   </si>
   <si>
     <t>１、しゅ
-２、いっしゅう</t>
+２、いっしゅう
+３、う
+４、どう</t>
   </si>
   <si>
     <t>１、握手（しゅ）
-２、一週（いっしゅう）</t>
+２、一週（いっしゅう）
+３、右（う）
+４、運動（ど）</t>
   </si>
   <si>
     <t>１、厚（あつ）
@@ -229,11 +270,13 @@
   </si>
   <si>
     <t>１、しゃ
-２、かく</t>
+２、かく
+３、が</t>
   </si>
   <si>
     <t>１、社、者（しゃ）
-２、各(かく)、惡（あく）</t>
+２、各(かく)、惡（あく）
+３、運河（が）</t>
   </si>
   <si>
     <t>1.「あ段」 
@@ -255,10 +298,15 @@
     <t>ei</t>
   </si>
   <si>
-    <t>１、い</t>
-  </si>
-  <si>
-    <t>１、委（い）員</t>
+    <t>１、い
+２、るい
+３、衛（えい）生
+４、ない</t>
+  </si>
+  <si>
+    <t>１、委（い）員
+２、衣類（るい）
+３、屋内（ない）</t>
   </si>
   <si>
     <t>１、い
@@ -272,13 +320,22 @@
     <t>en</t>
   </si>
   <si>
+    <t>１、ほん</t>
+  </si>
+  <si>
+    <t>１、本（ほん）</t>
+  </si>
+  <si>
     <t>eng</t>
   </si>
   <si>
-    <t>１、そう</t>
-  </si>
-  <si>
-    <t>1層（そう）</t>
+    <t>１、そう
+２、おう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">１、1層（そう）
+２、横（おう）断
+</t>
   </si>
   <si>
     <t>１、あらそ
@@ -289,16 +346,20 @@
 ２、生（い）き</t>
   </si>
   <si>
+    <t>1，承（うけたまわ）り</t>
+  </si>
+  <si>
     <t>i</t>
   </si>
   <si>
-    <t xml:space="preserve">1.「い段」 
+    <t>1.「い段」 
 2.「あ段」+い
 3。～+く、き、つ、ち
-４、「え段」＋长音 </t>
-  </si>
-  <si>
-    <t>１、医（い）
+４、「え段」＋长音
+５、拗音 + く、う</t>
+  </si>
+  <si>
+    <t xml:space="preserve">１、医（い）
 ２、機、気（き）
 ３、知、致（ち）
 ４、日（ひ）
@@ -306,24 +367,41 @@
 ６、際、菜（さい）
 ７、開、海、改（かい）
 ８、確立｜率（りつ）
-９、斉（せい）</t>
+９、斉（せい）
+１０、引力（りょく）
+１１、師（し）
+１２、演習（しゅう）
+</t>
+  </si>
+  <si>
+    <t>１、いの
+２、い
+３、う
+４、も
+５、けい</t>
   </si>
   <si>
     <t xml:space="preserve">
 １、私（わたくし）
+２、祈（いの）り
+３、入（い）
+４、飢（う）えろ
+５、持（も）
+６、計（けい）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">１、疑（うたが）い
+２、王子（じ）
+３、味（あじ）
+４、赤（あか）
+５、夕（ゆう）
+５、足跡（あと）
+６、炙（あぶ）
+７、勢（いきお）
+８、時（とき）
+９、至（いた）
+１０、替（か）
 </t>
-  </si>
-  <si>
-    <t>計（けい）
-王子（じ）
-味（あじ）
-赤（あか）
-夕（ゆう）
-足跡（あと）
-炙（あぶ）
-勢（いきお）
-時（とき）
-至（いた）</t>
   </si>
   <si>
     <t>ing</t>
@@ -332,12 +410,25 @@
     <t xml:space="preserve">１、えい
 ２、せい
 ３、てい
+４、めい
 </t>
   </si>
   <si>
-    <t>１、影（えい）
-２、性（せい）
-３、一定（てい）</t>
+    <t>１、影、映、英（えい）
+２、性、星（せい）
+３、一定（てい）
+４、命（めい）</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>１、いま
+２、いん</t>
+  </si>
+  <si>
+    <t>１、今（いま）
+２、飲（いん）酒</t>
   </si>
   <si>
     <t>ie</t>
@@ -346,16 +437,27 @@
     <t>１、さい</t>
   </si>
   <si>
-    <t>１、一切（さい）</t>
+    <t xml:space="preserve">１、一切（さい）
+</t>
+  </si>
+  <si>
+    <t>１、２、ぎ</t>
+  </si>
+  <si>
+    <t>１、裏切（ぎ）る</t>
   </si>
   <si>
     <t>iu</t>
   </si>
   <si>
-    <t>１、りゅう</t>
-  </si>
-  <si>
-    <t>１、一流（りゅう）</t>
+    <t>１、りゅう
+２、しゅう
+３、きゅう</t>
+  </si>
+  <si>
+    <t>１、一流（りゅう）
+２、飲酒（しゅう）
+３、永久（きゅう）</t>
   </si>
   <si>
     <t>u</t>
@@ -364,21 +466,28 @@
     <t>１、「う段」『あ段』
 ２、ゃ｜よ拗音
 ３、～+く、き、つ、ち
-４、ゃ｜よ拗音＋う</t>
+４、ゃ｜よ拗音＋う
+５、き</t>
   </si>
   <si>
     <t>１、苦（く）
 ２、無（む）
 ３、朱（しゅ）、樹（じゅ）
-４、竹（ちく）、育（いく）
+４、竹（ちく）、育（いく）、服（ふく）
+欲（よく）、速、足（そく）、屋（おく）
 ５、祝、主、宿（しゅく）
 ６、注（ちゅう）
-７、浴（あ）
-８、居（い）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
+７、浴（あ）、居（い）
+８、木（き）
+９、雨（う）天</t>
+  </si>
+  <si>
+    <t>１、う
+２、うった</t>
+  </si>
+  <si>
+    <t>１、浮（う）く、受
+２、訴（うった）え</t>
   </si>
   <si>
     <t>足（あし）
@@ -390,7 +499,27 @@
     <t>ui</t>
   </si>
   <si>
+    <t>１、たい</t>
+  </si>
+  <si>
+    <t>１、引退（たい）</t>
+  </si>
+  <si>
+    <t>１、え
+２、お</t>
+  </si>
+  <si>
+    <t>１、絵（え）の
+２、追（お）いかけて</t>
+  </si>
+  <si>
     <t>un</t>
+  </si>
+  <si>
+    <t>１、うん</t>
+  </si>
+  <si>
+    <t>１、運（うん）転</t>
   </si>
   <si>
     <t>ue</t>
@@ -407,10 +536,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -422,14 +551,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,7 +572,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -452,44 +581,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,6 +589,14 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -519,25 +619,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,7 +651,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,6 +685,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -580,25 +709,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,61 +829,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,25 +865,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,55 +883,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,24 +894,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -806,6 +917,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -865,153 +985,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1344,17 +1473,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="23.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="29.725" customWidth="1"/>
+    <col min="3" max="3" width="42.5" customWidth="1"/>
     <col min="4" max="4" width="30.275" customWidth="1"/>
     <col min="5" max="5" width="27.225" customWidth="1"/>
     <col min="6" max="6" width="26.6666666666667" customWidth="1"/>
@@ -1365,7 +1494,7 @@
     <col min="11" max="11" width="26.3833333333333" customWidth="1"/>
     <col min="12" max="12" width="20.275" customWidth="1"/>
     <col min="13" max="13" width="22.075" customWidth="1"/>
-    <col min="14" max="14" width="15.9666666666667" customWidth="1"/>
+    <col min="14" max="14" width="26.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="42" customHeight="1" spans="1:14">
@@ -1406,7 +1535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="103" customHeight="1" spans="1:13">
+    <row r="2" ht="103" customHeight="1" spans="1:14">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1422,7 +1551,7 @@
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I2" t="s">
@@ -1437,114 +1566,122 @@
       <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" ht="114" customHeight="1" spans="4:14">
+    <row r="3" ht="166" customHeight="1" spans="4:14">
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="M3" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" ht="103" customHeight="1" spans="4:13">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="M4" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" ht="103" customHeight="1" spans="4:13">
+    <row r="5" ht="103" customHeight="1" spans="4:14">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" ht="100" customHeight="1" spans="1:13">
       <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>43</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" ht="84" customHeight="1" spans="4:13">
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="I7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" s="2" t="s">
         <v>47</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" ht="84" customHeight="1" spans="4:5">
@@ -1553,165 +1690,219 @@
     </row>
     <row r="9" ht="121" customHeight="1" spans="1:13">
       <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G9" s="1"/>
       <c r="I9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="J9" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="K9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="10" ht="114" customHeight="1" spans="4:9">
+    <row r="10" ht="114" customHeight="1" spans="4:11">
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="I10" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="J10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="11" ht="107" customHeight="1" spans="4:13">
+    <row r="11" ht="107" customHeight="1" spans="4:14">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="I11" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N11" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="12" ht="159" customHeight="1" spans="1:11">
+    <row r="12" ht="180" customHeight="1" spans="1:11">
       <c r="A12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E12" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G12" s="1"/>
       <c r="I12" t="s">
-        <v>70</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="13" ht="159" customHeight="1" spans="2:11">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="I13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="14" ht="159" customHeight="1" spans="4:11">
+    <row r="14" ht="159" customHeight="1" spans="2:13">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="I14" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" t="s">
-        <v>77</v>
-      </c>
-      <c r="K14" t="s">
-        <v>78</v>
+        <v>83</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" t="s">
+        <v>86</v>
+      </c>
+      <c r="M14" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="15" ht="121" customHeight="1" spans="1:9">
-      <c r="A15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>81</v>
-      </c>
+    <row r="15" ht="159" customHeight="1" spans="4:11">
       <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
       <c r="I15" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="16" ht="103" customHeight="1" spans="9:9">
+    <row r="16" ht="160" customHeight="1" spans="1:13">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="I16" t="s">
-        <v>85</v>
+        <v>97</v>
+      </c>
+      <c r="J16" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="17" ht="83" customHeight="1" spans="9:11">
+    <row r="17" ht="103" customHeight="1" spans="9:11">
       <c r="I17" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="J17" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="K17" t="s">
-        <v>88</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" ht="83" customHeight="1" spans="9:11">
+      <c r="I18" t="s">
+        <v>105</v>
+      </c>
+      <c r="J18" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/日文音读.xlsx
+++ b/日文音读.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
   <si>
     <t>汉语声母</t>
   </si>
@@ -43,10 +43,16 @@
     <t>a</t>
   </si>
   <si>
-    <t>１、だい</t>
-  </si>
-  <si>
-    <t>偉大（だい）</t>
+    <t>１、だい
+２、とう
+３、ぱつ
+４、か</t>
+  </si>
+  <si>
+    <t>１、偉大（だい）
+２、解答（とう）
+３、海抜（ばつ）
+４、画家、架空（か）</t>
   </si>
   <si>
     <t xml:space="preserve">1.「あ段」  
@@ -58,7 +64,8 @@
 ２、打（う）
 ３、圧（あつ）
 ４、札（さつ）
-５、当て嵌（は）まる</t>
+５、当て嵌（は）まる
+６、押（お）し寄せ</t>
   </si>
   <si>
     <t>１、家（いえ）</t>
@@ -68,22 +75,26 @@
   </si>
   <si>
     <t>１、がい
-２、らい</t>
+２、らい
+３、かい</t>
   </si>
   <si>
     <t>１、一概、外（がい）
-２、依頼（らい）</t>
+２、依頼、外来（らい）
+３、日本海、快感、開花、外交、改札（かい）</t>
   </si>
   <si>
     <t>１、あわ
 ２、あや
-３、あらた</t>
+３、あらた
+４、か</t>
   </si>
   <si>
     <t>１、哀（あわ）
 ２、怪（あや）
 ３、改（あらた）
-4、呆（あき）</t>
+4、呆（あき）
+５、買（か）い</t>
   </si>
   <si>
     <t>埋（う）</t>
@@ -100,17 +111,21 @@
 ６、てん
 ７、えん
 ８、ぱん
+９、めん
+１０、らん
 </t>
   </si>
   <si>
     <t xml:space="preserve">１、感、肝、冠、汗、干、看。。（かん）
 ２、案、安、暗（あん）
 ３、医院（いん）
-４、一段、横断（たん）
+４、一段、横断（たん）、温暖（だん）
 ５、酸（さん）
 ６、一転（てん）
 ７、永遠（えん）、沿、宴、演、園
 ８、運搬（ぱん）
+９、界面（めん）
+１０、回覧（らん）
 </t>
   </si>
   <si>
@@ -120,6 +135,9 @@
 ４、い
 ５、のこ
 ６、ねむ
+７、かえ
+８、かぎ
+９、か
 </t>
   </si>
   <si>
@@ -130,7 +148,10 @@
 ５、淡（あわ）い
 ６、言（い）い
 ７、残（のこ）
-８、眠（ねむ）い</t>
+８、眠（ねむ）い
+９、返（かえ）ろ
+１０、限（かぎ）り
+１１、欠（か）く</t>
   </si>
   <si>
     <t>１、板（いた）</t>
@@ -143,7 +164,8 @@
 ２、きょう
 ３、ぽう
 ４、ちょう
-５、おう</t>
+５、おう
+６、よう</t>
   </si>
   <si>
     <t>１、以降（こう）
@@ -151,16 +173,22 @@
 ２、影響（きょう）
 ３、一方（ぽう）
 ４、延長（ちょう）
-５、往（おう）来</t>
-  </si>
-  <si>
-    <t>１、あ</t>
+５、往（おう）来
+６、海洋（よう）</t>
+  </si>
+  <si>
+    <t>１、あ
+２、がた
+３、あみ
+４、いた
+５、おとず</t>
   </si>
   <si>
     <t>１、上、荒（あ）
 ２、方（がた）
 ３、網（あみ）
-４、傷（いた）み</t>
+４、傷（いた）み
+５、訪（おとず）れ</t>
   </si>
   <si>
     <t>ao</t>
@@ -170,6 +198,7 @@
 ２、あさ
 ３、りょう
 ４、け
+５、ぞう
 </t>
   </si>
   <si>
@@ -177,17 +206,22 @@
 ２、朝（あさ）
 ３、飲料（りょう）
 ４、消（け）
+５、改造（ぞう）
 </t>
   </si>
   <si>
     <t>1、あば
 2、あ
-3、うす</t>
+3、うす
+４、おし
+５、かか</t>
   </si>
   <si>
     <t>1、暴（あば）れろ
 2、飽（あ）
-３、薄</t>
+３、薄
+４、教（おし）え
+５、抱（かか）えた</t>
   </si>
   <si>
     <t>１、板</t>
@@ -206,7 +240,8 @@
 ３、一昨（さく）日</t>
   </si>
   <si>
-    <t>１、うら</t>
+    <t>１、うら
+２、お</t>
   </si>
   <si>
     <t xml:space="preserve">１、火（か）
@@ -215,6 +250,7 @@
 ４、拙（せつ）
 ５、剥（は）
 ６、莫（ばく）
+７、落（お）
 </t>
   </si>
   <si>
@@ -224,13 +260,15 @@
     <t>１、しゅ
 ２、よう
 ３、えい
-４、どう</t>
+４、どう
+５、ちゅう</t>
   </si>
   <si>
     <t>１、一種（しゅ）
 ２、引用（よう）
 ３、永（えい）遠
-４、運動（どう）</t>
+４、運動（どう）
+５、懐中（ちゅう）</t>
   </si>
   <si>
     <t xml:space="preserve">１、あ
@@ -238,13 +276,17 @@
 ３、いさ
 ４、いた
 ５、おき
+６、おそ
+７、おも
 </t>
   </si>
   <si>
     <t>１、空（あ）
 ２、憧（あこが）
 ３、勇（いさ）ましい
-４、痛（いた）め</t>
+４、痛（いた）め
+５、恐（おそ）れ
+６、重（おも）い</t>
   </si>
   <si>
     <t>ou</t>
@@ -275,19 +317,21 @@
   </si>
   <si>
     <t>１、社、者（しゃ）
-２、各(かく)、惡（あく）
+２、各、改革、额(かく)、惡（あく）
 ３、運河（が）</t>
   </si>
   <si>
     <t>1.「あ段」 
 2.ゃ拗音
-3。～+く、き、つ</t>
-  </si>
-  <si>
-    <t>１、割（わ）
+3。～+く、き、つ
+4、おご</t>
+  </si>
+  <si>
+    <t>１、割（わ）、折（お）に
 ２、可、歌（か）
 ３、特（とく）、得（とく）
-４、熱（ねつ）</t>
+４、熱（ねつ）
+５、奢（おご）る</t>
   </si>
   <si>
     <t>１、業（ぎよう）
@@ -301,7 +345,8 @@
     <t>１、い
 ２、るい
 ３、衛（えい）生
-４、ない</t>
+４、ない
+５、かい</t>
   </si>
   <si>
     <t>１、委（い）員
@@ -320,10 +365,12 @@
     <t>en</t>
   </si>
   <si>
-    <t>１、ほん</t>
-  </si>
-  <si>
-    <t>１、本（ほん）</t>
+    <t>１、ほん
+２、おん</t>
+  </si>
+  <si>
+    <t>１、本（ほん）
+２、恩（おん）恵、温（おん）室</t>
   </si>
   <si>
     <t>eng</t>
@@ -352,11 +399,12 @@
     <t>i</t>
   </si>
   <si>
-    <t>1.「い段」 
+    <t xml:space="preserve">1.「い段」 
 2.「あ段」+い
 3。～+く、き、つ、ち
 ４、「え段」＋长音
-５、拗音 + く、う</t>
+５、拗音 + く、う
+</t>
   </si>
   <si>
     <t xml:space="preserve">１、医（い）
@@ -378,7 +426,12 @@
 ２、い
 ３、う
 ４、も
-５、けい</t>
+５、けい
+６、おさ
+７、お
+８、よ
+９、せ
+１０、おも</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -387,7 +440,12 @@
 ３、入（い）
 ４、飢（う）えろ
 ５、持（も）
-６、計（けい）</t>
+６、計（けい）
+７、抑（おさ）えて、治、収（おさ）まろ
+８、惜（お）しま
+９、押し寄（よ）せ
+１０、お世（せ）辞
+１１、思（おも）う</t>
   </si>
   <si>
     <t xml:space="preserve">１、疑（うたが）い
@@ -401,6 +459,7 @@
 ８、時（とき）
 ９、至（いた）
 １０、替（か）
+１１、溺（おば）
 </t>
   </si>
   <si>
@@ -424,27 +483,37 @@
   </si>
   <si>
     <t>１、いま
-２、いん</t>
+２、いん
+３、おん
+４、しん</t>
   </si>
   <si>
     <t>１、今（いま）
-２、飲（いん）酒</t>
+２、飲（いん）酒
+３、音（おん）量
+４、確信（しん）</t>
   </si>
   <si>
     <t>ie</t>
   </si>
   <si>
-    <t>１、さい</t>
+    <t>１、さい
+２、かい</t>
   </si>
   <si>
     <t xml:space="preserve">１、一切（さい）
+２、界、大街、解散（かい）
 </t>
   </si>
   <si>
-    <t>１、２、ぎ</t>
-  </si>
-  <si>
-    <t>１、裏切（ぎ）る</t>
+    <t>１、ぎ
+２、おと
+３、おろ</t>
+  </si>
+  <si>
+    <t>１、裏切（ぎ）る
+２、劣（おと）る
+３、卸（おろ）す</t>
   </si>
   <si>
     <t>iu</t>
@@ -452,12 +521,14 @@
   <si>
     <t>１、りゅう
 ２、しゅう
-３、きゅう</t>
+３、きゅう
+４、と</t>
   </si>
   <si>
     <t>１、一流（りゅう）
 ２、飲酒（しゅう）
-３、永久（きゅう）</t>
+３、永久（きゅう）
+４、書き留（と）め</t>
   </si>
   <si>
     <t>u</t>
@@ -474,12 +545,14 @@
 ２、無（む）
 ３、朱（しゅ）、樹（じゅ）
 ４、竹（ちく）、育（いく）、服（ふく）
-欲（よく）、速、足（そく）、屋（おく）
+欲、海水浴（よく）、速、足（そく）、屋（おく）
 ５、祝、主、宿（しゅく）
 ６、注（ちゅう）
 ７、浴（あ）、居（い）
 ８、木（き）
-９、雨（う）天</t>
+９、雨（う）天
+10、回部（ぶ）
+11、書（か）き</t>
   </si>
   <si>
     <t>１、う
@@ -499,10 +572,14 @@
     <t>ui</t>
   </si>
   <si>
-    <t>１、たい</t>
-  </si>
-  <si>
-    <t>１、引退（たい）</t>
+    <t>１、たい
+２、けい
+３、かい</t>
+  </si>
+  <si>
+    <t>１、引退（たい）
+２、恩恵（けい）
+３、開会、回数（かい）</t>
   </si>
   <si>
     <t>１、え
@@ -516,19 +593,36 @@
     <t>un</t>
   </si>
   <si>
-    <t>１、うん</t>
-  </si>
-  <si>
-    <t>１、運（うん）転</t>
+    <t>１、うん
+２、ろん</t>
+  </si>
+  <si>
+    <t>１、運（うん）転
+２、概論（ろん）</t>
   </si>
   <si>
     <t>ue</t>
   </si>
   <si>
-    <t>あな</t>
-  </si>
-  <si>
-    <t>１、穴（あな）</t>
+    <t>１、あな
+２、かく
+３、がく</t>
+  </si>
+  <si>
+    <t>１、穴（あな）
+２、覚（かく）悟、確実
+３、学（がく）事</t>
+  </si>
+  <si>
+    <t>uo</t>
+  </si>
+  <si>
+    <t>１、かく
+２、せつ</t>
+  </si>
+  <si>
+    <t>１、拡（かく）充
+２、学説（せつ）</t>
   </si>
 </sst>
 </file>
@@ -1473,10 +1567,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6"/>
@@ -1535,351 +1629,351 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="103" customHeight="1" spans="1:14">
+    <row r="2" ht="128" customHeight="1" spans="1:14">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" ht="166" customHeight="1" spans="4:14">
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+    <row r="3" ht="208" customHeight="1" spans="4:14">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
       <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="N3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" ht="103" customHeight="1" spans="4:13">
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+    <row r="4" ht="129" customHeight="1" spans="4:13">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
       <c r="I4" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" ht="103" customHeight="1" spans="4:14">
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
       <c r="I5" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="N5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" ht="100" customHeight="1" spans="1:13">
+    <row r="6" ht="178" customHeight="1" spans="1:13">
       <c r="A6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>41</v>
       </c>
       <c r="I6" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" ht="84" customHeight="1" spans="4:13">
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="I7" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" ht="84" customHeight="1" spans="4:5">
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" ht="121" customHeight="1" spans="1:13">
       <c r="A9" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="2"/>
       <c r="I9" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" ht="114" customHeight="1" spans="4:11">
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="I10" t="s">
         <v>62</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" ht="107" customHeight="1" spans="4:14">
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
       <c r="I11" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="2" t="s">
         <v>69</v>
       </c>
       <c r="N11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" ht="180" customHeight="1" spans="1:11">
+    <row r="12" ht="229" customHeight="1" spans="1:11">
       <c r="A12" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="2"/>
       <c r="I12" t="s">
         <v>77</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" ht="159" customHeight="1" spans="2:11">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
       <c r="I13" t="s">
         <v>80</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="14" ht="159" customHeight="1" spans="2:13">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
       <c r="I14" t="s">
         <v>83</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="15" ht="159" customHeight="1" spans="4:11">
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
       <c r="I15" t="s">
         <v>88</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" ht="160" customHeight="1" spans="1:13">
+    <row r="16" ht="212" customHeight="1" spans="1:13">
       <c r="A16" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>96</v>
       </c>
       <c r="I16" t="s">
         <v>97</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="1" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1887,10 +1981,10 @@
       <c r="I17" t="s">
         <v>102</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1898,11 +1992,22 @@
       <c r="I18" t="s">
         <v>105</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="1" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="19" ht="83" customHeight="1" spans="9:11">
+      <c r="I19" t="s">
+        <v>108</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/日文音读.xlsx
+++ b/日文音读.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
   <si>
     <t>汉语声母</t>
   </si>
@@ -46,13 +46,15 @@
     <t>１、だい
 ２、とう
 ３、ぱつ
-４、か</t>
+４、か
+５、さつ</t>
   </si>
   <si>
     <t>１、偉大（だい）
 ２、解答（とう）
 ３、海抜（ばつ）
-４、画家、架空（か）</t>
+４、画家、架空（か）
+５、観察（さつ）</t>
   </si>
   <si>
     <t xml:space="preserve">1.「あ段」  
@@ -60,7 +62,7 @@
 </t>
   </si>
   <si>
-    <t>１、花、加（か）   
+    <t>１、花、加、下降（か）   
 ２、打（う）
 ３、圧（あつ）
 ４、札（さつ）
@@ -94,7 +96,7 @@
 ２、怪（あや）
 ３、改（あらた）
 4、呆（あき）
-５、買（か）い</t>
+５、買（か）い、貸し</t>
   </si>
   <si>
     <t>埋（う）</t>
@@ -113,10 +115,15 @@
 ８、ぱん
 ９、めん
 １０、らん
+１１、けん
+１２、せん
+１３、かた
+１４、ねん
+１５、れん
 </t>
   </si>
   <si>
-    <t xml:space="preserve">１、感、肝、冠、汗、干、看。。（かん）
+    <t xml:space="preserve">１、感、肝、冠、汗、干、看、勘、刊、願書、寒帯、官庁、機関（かん）
 ２、案、安、暗（あん）
 ３、医院（いん）
 ４、一段、横断（たん）、温暖（だん）
@@ -126,6 +133,11 @@
 ８、運搬（ぱん）
 ９、界面（めん）
 １０、回覧（らん）
+１１、加減（けん）
+１２、架線（せん）、感染
+１３、片（かた）方
+１４、可燃（ねん）、観念
+１５、関連（れん）
 </t>
   </si>
   <si>
@@ -138,6 +150,7 @@
 ７、かえ
 ８、かぎ
 ９、か
+１０、かつ
 </t>
   </si>
   <si>
@@ -151,10 +164,12 @@
 ８、眠（ねむ）い
 ９、返（かえ）ろ
 １０、限（かぎ）り
-１１、欠（か）く</t>
-  </si>
-  <si>
-    <t>１、板（いた）</t>
+１１、欠（か）く
+１２、担（かつか）ぐ</t>
+  </si>
+  <si>
+    <t>１、板（いた）
+２、冠（かんむり）</t>
   </si>
   <si>
     <t>ang</t>
@@ -165,7 +180,10 @@
 ３、ぽう
 ４、ちょう
 ５、おう
-６、よう</t>
+６、よう
+７、しょう
+８、かみ
+９、きず</t>
   </si>
   <si>
     <t>１、以降（こう）
@@ -174,21 +192,26 @@
 ３、一方（ぽう）
 ４、延長（ちょう）
 ５、往（おう）来
-６、海洋（よう）</t>
+６、海洋（よう）
+７、合唱（しょう）、観賞
+８、上（かみ）
+９、傷（きず）口</t>
   </si>
   <si>
     <t>１、あ
 ２、がた
 ３、あみ
 ４、いた
-５、おとず</t>
+５、おとず
+６、きず</t>
   </si>
   <si>
     <t>１、上、荒（あ）
 ２、方（がた）
 ３、網（あみ）
 ４、傷（いた）み
-５、訪（おとず）れ</t>
+５、訪（おとず）れ
+６、傷（きず）ついた</t>
   </si>
   <si>
     <t>ao</t>
@@ -199,6 +222,8 @@
 ３、りょう
 ４、け
 ５、ぞう
+６、ろう
+７、かんが
 </t>
   </si>
   <si>
@@ -206,7 +231,9 @@
 ２、朝（あさ）
 ３、飲料（りょう）
 ４、消（け）
-５、改造（ぞう）
+５、改造（ぞう）、乾燥
+６、過労（ろう）
+７、考（かんが）え
 </t>
   </si>
   <si>
@@ -214,14 +241,16 @@
 2、あ
 3、うす
 ４、おし
-５、かか</t>
+５、かか
+６、き</t>
   </si>
   <si>
     <t>1、暴（あば）れろ
 2、飽（あ）
 ３、薄
 ４、教（おし）え
-５、抱（かか）えた</t>
+５、抱（かか）えた
+６、消（き）え</t>
   </si>
   <si>
     <t>１、板</t>
@@ -261,14 +290,16 @@
 ２、よう
 ３、えい
 ４、どう
-５、ちゅう</t>
+５、ちゅう
+６、しゅう</t>
   </si>
   <si>
     <t>１、一種（しゅ）
 ２、引用（よう）
 ３、永（えい）遠
 ４、運動（どう）
-５、懐中（ちゅう）</t>
+５、懐中（ちゅう）
+６、観衆（しゅう）</t>
   </si>
   <si>
     <t xml:space="preserve">１、あ
@@ -278,6 +309,7 @@
 ５、おき
 ６、おそ
 ７、おも
+８、から
 </t>
   </si>
   <si>
@@ -286,7 +318,8 @@
 ３、勇（いさ）ましい
 ４、痛（いた）め
 ５、恐（おそ）れ
-６、重（おも）い</t>
+６、重（おも）い
+７、空（から）回り</t>
   </si>
   <si>
     <t>ou</t>
@@ -301,7 +334,7 @@
     <t>１、握手（しゅ）
 ２、一週（いっしゅう）
 ３、右（う）
-４、運動（ど）</t>
+４、運動（どう）、花道</t>
   </si>
   <si>
     <t>１、厚（あつ）
@@ -313,12 +346,18 @@
   <si>
     <t>１、しゃ
 ２、かく
-３、が</t>
+３、が
+４、きゃく
+５、そく
+６、しゃ</t>
   </si>
   <si>
     <t>１、社、者（しゃ）
 ２、各、改革、额(かく)、惡（あく）
-３、運河（が）</t>
+３、運河（が）
+４、観客（きゃく）
+５、観測（そく）
+６、車（しゃ）</t>
   </si>
   <si>
     <t>1.「あ段」 
@@ -346,12 +385,14 @@
 ２、るい
 ３、衛（えい）生
 ４、ない
-５、かい</t>
+５、かい
+６、き</t>
   </si>
   <si>
     <t>１、委（い）員
 ２、衣類（るい）
-３、屋内（ない）</t>
+３、屋内（ない）
+４、危（き）機</t>
   </si>
   <si>
     <t>１、い
@@ -376,12 +417,19 @@
     <t>eng</t>
   </si>
   <si>
-    <t>１、そう
-２、おう</t>
+    <t xml:space="preserve">１、そう
+２、おう
+３、じょう
+４、てい
+５、せい
+</t>
   </si>
   <si>
     <t xml:space="preserve">１、1層（そう）
 ２、横（おう）断
+３、過剰（じょう）
+４、過程（てい）
+５、歓声（せい）
 </t>
   </si>
   <si>
@@ -393,14 +441,15 @@
 ２、生（い）き</t>
   </si>
   <si>
-    <t>1，承（うけたまわ）り</t>
+    <t>1，承（うけたまわ）り
+２、かた</t>
   </si>
   <si>
     <t>i</t>
   </si>
   <si>
     <t xml:space="preserve">1.「い段」 
-2.「あ段」+い
+2.「あ段」「え段」+い
 3。～+く、き、つ、ち
 ４、「え段」＋长音
 ５、拗音 + く、う
@@ -408,21 +457,23 @@
   </si>
   <si>
     <t xml:space="preserve">１、医（い）
-２、機、気（き）
+２、機、気、記号、基準（き）
 ３、知、致（ち）
 ４、日（ひ）
 ５、一（いち）
 ６、際、菜（さい）
 ７、開、海、改（かい）
 ８、確立｜率（りつ）
-９、斉（せい）
+９、斉（せい）、家計（けい）
 １０、引力（りょく）
-１１、師（し）
+１１、師（し）、監事
 １２、演習（しゅう）
+１３、課題（だい）
+１４、儀式（しき）
 </t>
   </si>
   <si>
-    <t>１、いの
+    <t xml:space="preserve">１、いの
 ２、い
 ３、う
 ４、も
@@ -431,7 +482,8 @@
 ７、お
 ８、よ
 ９、せ
-１０、おも</t>
+１０、おも
+</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -460,6 +512,7 @@
 ９、至（いた）
 １０、替（か）
 １１、溺（おば）
+１２、身体（からだ）
 </t>
   </si>
   <si>
@@ -470,13 +523,23 @@
 ２、せい
 ３、てい
 ４、めい
+５、ちょう
 </t>
   </si>
   <si>
     <t>１、影、映、英（えい）
 ２、性、星（せい）
 ３、一定（てい）
-４、命（めい）</t>
+４、命（めい）
+５、官庁（ちょう）</t>
+  </si>
+  <si>
+    <t>１、かた
+２、かたむ</t>
+  </si>
+  <si>
+    <t>１、型（かた）
+２、傾（かたむ）け</t>
   </si>
   <si>
     <t>in</t>
@@ -485,35 +548,40 @@
     <t>１、いま
 ２、いん
 ３、おん
-４、しん</t>
+４、しん
+５、かな</t>
   </si>
   <si>
     <t>１、今（いま）
 ２、飲（いん）酒
 ３、音（おん）量
-４、確信（しん）</t>
+４、確信（しん）
+５、金（かな）網</t>
   </si>
   <si>
     <t>ie</t>
   </si>
   <si>
-    <t>１、さい
-２、かい</t>
+    <t xml:space="preserve">１、さい
+２、かい
+</t>
   </si>
   <si>
     <t xml:space="preserve">１、一切（さい）
-２、界、大街、解散（かい）
+２、界、大街、解散（かい）、機械
 </t>
   </si>
   <si>
     <t>１、ぎ
 ２、おと
-３、おろ</t>
+３、おろ
+４、か</t>
   </si>
   <si>
     <t>１、裏切（ぎ）る
 ２、劣（おと）る
-３、卸（おろ）す</t>
+３、卸（おろ）す
+４、借（か）り</t>
   </si>
   <si>
     <t>iu</t>
@@ -538,7 +606,8 @@
 ２、ゃ｜よ拗音
 ３、～+く、き、つ、ち
 ４、ゃ｜よ拗音＋う
-５、き</t>
+５、き
+６、かぶ</t>
   </si>
   <si>
     <t>１、苦（く）
@@ -552,15 +621,19 @@
 ８、木（き）
 ９、雨（う）天
 10、回部（ぶ）
-11、書（か）き</t>
+11、書（か）き、駆け
+１２、半数（すう）
+１３、株（かぶ）式</t>
   </si>
   <si>
     <t>１、う
-２、うった</t>
+２、うった
+３、かた</t>
   </si>
   <si>
     <t>１、浮（う）く、受
-２、訴（うった）え</t>
+２、訴（うった）え
+３、固（かた）めて</t>
   </si>
   <si>
     <t>足（あし）
@@ -574,12 +647,14 @@
   <si>
     <t>１、たい
 ２、けい
-３、かい</t>
+３、かい
+４、ぜい</t>
   </si>
   <si>
     <t>１、引退（たい）
 ２、恩恵（けい）
-３、開会、回数（かい）</t>
+３、開会、回数（かい）
+４、課税（ぜい）</t>
   </si>
   <si>
     <t>１、え
@@ -594,11 +669,13 @@
   </si>
   <si>
     <t>１、うん
-２、ろん</t>
+２、ろん
+３、じゅう</t>
   </si>
   <si>
     <t>１、運（うん）転
-２、概論（ろん）</t>
+２、概論（ろん）
+３、基準（じゅう）</t>
   </si>
   <si>
     <t>ue</t>
@@ -618,11 +695,13 @@
   </si>
   <si>
     <t>１、かく
-２、せつ</t>
-  </si>
-  <si>
-    <t>１、拡（かく）充
-２、学説（せつ）</t>
+２、せつ
+３、か</t>
+  </si>
+  <si>
+    <t>１、拡充、獲得（かく）
+２、学説（せつ）
+３、過失（か）、果実、括弧、活気、貨物</t>
   </si>
 </sst>
 </file>
@@ -631,9 +710,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -645,14 +724,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -666,6 +745,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -673,9 +768,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -691,61 +817,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -760,14 +832,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -779,14 +866,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -803,85 +882,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,91 +1050,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,6 +1067,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1015,11 +1127,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1039,21 +1157,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1064,153 +1167,129 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1219,22 +1298,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1569,8 +1648,8 @@
   <sheetPr/>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6"/>
@@ -1639,91 +1718,91 @@
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="N2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" ht="208" customHeight="1" spans="4:14">
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+    <row r="3" ht="309" customHeight="1" spans="4:14">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
       <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" ht="129" customHeight="1" spans="4:13">
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+    <row r="4" ht="199" customHeight="1" spans="4:13">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
       <c r="I4" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="103" customHeight="1" spans="4:14">
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+    <row r="5" ht="148" customHeight="1" spans="4:14">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
       <c r="I5" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="N5" t="s">
@@ -1734,95 +1813,95 @@
       <c r="A6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I6" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" ht="84" customHeight="1" spans="4:13">
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
       <c r="I7" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" ht="84" customHeight="1" spans="4:5">
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
-    <row r="9" ht="121" customHeight="1" spans="1:13">
+    <row r="9" ht="160" customHeight="1" spans="1:13">
       <c r="A9" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="1"/>
       <c r="I9" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" ht="114" customHeight="1" spans="4:11">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
       <c r="I10" t="s">
         <v>62</v>
       </c>
@@ -1833,11 +1912,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" ht="107" customHeight="1" spans="4:14">
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+    <row r="11" ht="129" customHeight="1" spans="4:14">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
       <c r="I11" t="s">
         <v>65</v>
       </c>
@@ -1847,167 +1926,173 @@
       <c r="K11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" ht="229" customHeight="1" spans="1:11">
+    <row r="12" ht="229" customHeight="1" spans="1:13">
       <c r="A12" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="1"/>
       <c r="I12" t="s">
         <v>77</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="1" t="s">
         <v>79</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="13" ht="159" customHeight="1" spans="2:11">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
       <c r="I13" t="s">
-        <v>80</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K13" s="2" t="s">
         <v>82</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14" ht="159" customHeight="1" spans="2:13">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
       <c r="I14" t="s">
-        <v>83</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K14" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="J14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="L14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" ht="159" customHeight="1" spans="4:11">
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
       <c r="I15" t="s">
-        <v>88</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K15" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="J15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="16" ht="212" customHeight="1" spans="1:13">
+    <row r="16" ht="264" customHeight="1" spans="1:13">
       <c r="A16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="E16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="I16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" ht="103" customHeight="1" spans="9:11">
       <c r="I17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" ht="83" customHeight="1" spans="9:11">
       <c r="I18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="19" ht="83" customHeight="1" spans="9:11">
+    <row r="19" ht="116" customHeight="1" spans="9:11">
       <c r="I19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/日文音读.xlsx
+++ b/日文音读.xlsx
@@ -126,15 +126,15 @@
     <t xml:space="preserve">１、感、肝、冠、汗、干、看、勘、刊、願書、寒帯、官庁、機関（かん）
 ２、案、安、暗（あん）
 ３、医院（いん）
-４、一段、横断（たん）、温暖（だん）
+４、一段、横断（たん）、温暖（だん）、極端
 ５、酸（さん）
 ６、一転（てん）
 ７、永遠（えん）、沿、宴、演、園
-８、運搬（ぱん）
+８、運搬、基盤（ぱん）
 ９、界面（めん）
 １０、回覧（らん）
 １１、加減（けん）
-１２、架線（せん）、感染
+１２、架線（せん）、感染、漁船
 １３、片（かた）方
 １４、可燃（ねん）、観念
 １５、関連（れん）
@@ -151,6 +151,7 @@
 ８、かぎ
 ９、か
 １０、かつ
+１１、くぐ
 </t>
   </si>
   <si>
@@ -165,7 +166,8 @@
 ９、返（かえ）ろ
 １０、限（かぎ）り
 １１、欠（か）く
-１２、担（かつか）ぐ</t>
+１２、担（かつか）ぐ
+１３、潜（くぐ）ろ</t>
   </si>
   <si>
     <t>１、板（いた）
@@ -183,19 +185,21 @@
 ６、よう
 ７、しょう
 ８、かみ
-９、きず</t>
+９、きず
+１０、そう</t>
   </si>
   <si>
     <t>１、以降（こう）
 一向（こう）
-２、影響（きょう）
+２、影響（きょう）、强化
 ３、一方（ぽう）
 ４、延長（ちょう）
 ５、往（おう）来
-６、海洋（よう）
+６、海洋（よう）、休養
 ７、合唱（しょう）、観賞
 ８、上（かみ）
-９、傷（きず）口</t>
+９、傷（きず）口
+１０、空想（そう）</t>
   </si>
   <si>
     <t>１、あ
@@ -203,7 +207,8 @@
 ３、あみ
 ４、いた
 ５、おとず
-６、きず</t>
+６、きず
+７、くる</t>
   </si>
   <si>
     <t>１、上、荒（あ）
@@ -211,7 +216,8 @@
 ３、網（あみ）
 ４、傷（いた）み
 ５、訪（おとず）れ
-６、傷（きず）ついた</t>
+６、傷（きず）ついた
+７、狂（くる）う</t>
   </si>
   <si>
     <t>ao</t>
@@ -224,6 +230,9 @@
 ５、ぞう
 ６、ろう
 ７、かんが
+８、みょう
+９、きょう
+１０、くちょう
 </t>
   </si>
   <si>
@@ -234,6 +243,9 @@
 ５、改造（ぞう）、乾燥
 ６、過労（ろう）
 ７、考（かんが）え
+８、奇妙（みょう）
+１０、教（きょう）官
+１１、口調（ちょう）
 </t>
   </si>
   <si>
@@ -291,15 +303,25 @@
 ３、えい
 ４、どう
 ５、ちゅう
-６、しゅう</t>
+６、しゅう
+７、きゅう
+８、きょう
+９、つう
+１０、ゆう
+１１、くう</t>
   </si>
   <si>
     <t>１、一種（しゅ）
 ２、引用（よう）
 ３、永（えい）遠
-４、運動（どう）
+４、運動（どう）、共（同）
 ５、懐中（ちゅう）
-６、観衆（しゅう）</t>
+６、観衆（しゅう）
+７、共（きゅう）益
+８、供（きょう）給、恐怖
+９、共通（つう）
+１０、金融（ゆう）
+１１、空（くう）想</t>
   </si>
   <si>
     <t xml:space="preserve">１、あ
@@ -328,13 +350,17 @@
     <t>１、しゅ
 ２、いっしゅう
 ３、う
-４、どう</t>
+４、どう
+５、そう
+６、ぐう</t>
   </si>
   <si>
     <t>１、握手（しゅ）
 ２、一週（いっしゅう）
 ３、右（う）
-４、運動（どう）、花道</t>
+４、運動（どう）、花道
+５、競走（そう）
+６、偶（ぐう）数</t>
   </si>
   <si>
     <t>１、厚（あつ）
@@ -349,7 +375,8 @@
 ３、が
 ４、きゃく
 ５、そく
-６、しゃ</t>
+６、しゃ
+７、ぎょう</t>
   </si>
   <si>
     <t>１、社、者（しゃ）
@@ -357,7 +384,8 @@
 ３、運河（が）
 ４、観客（きゃく）
 ５、観測（そく）
-６、車（しゃ）</t>
+６、車（しゃ）
+７、休業（ぎょう）</t>
   </si>
   <si>
     <t>1.「あ段」 
@@ -386,13 +414,15 @@
 ３、衛（えい）生
 ４、ない
 ５、かい
-６、き</t>
+６、き
+７、くろ</t>
   </si>
   <si>
     <t>１、委（い）員
 ２、衣類（るい）
 ３、屋内（ない）
-４、危（き）機</t>
+４、危（き）機
+５、黒（くろ）</t>
   </si>
   <si>
     <t>１、い
@@ -407,11 +437,13 @@
   </si>
   <si>
     <t>１、ほん
-２、おん</t>
+２、おん
+３、ぶん</t>
   </si>
   <si>
     <t>１、本（ほん）
-２、恩（おん）恵、温（おん）室</t>
+２、恩（おん）恵、温（おん）室
+３、区分（ぶん）</t>
   </si>
   <si>
     <t>eng</t>
@@ -422,6 +454,7 @@
 ３、じょう
 ４、てい
 ５、せい
+６、のう
 </t>
   </si>
   <si>
@@ -429,7 +462,8 @@
 ２、横（おう）断
 ３、過剰（じょう）
 ４、過程（てい）
-５、歓声（せい）
+５、歓声（せい）、行政
+６、機能（のう）
 </t>
   </si>
   <si>
@@ -457,7 +491,7 @@
   </si>
   <si>
     <t xml:space="preserve">１、医（い）
-２、機、気、記号、基準（き）
+２、機、気、記号、基準、起動（き）
 ３、知、致（ち）
 ４、日（ひ）
 ５、一（いち）
@@ -470,6 +504,14 @@
 １２、演習（しゅう）
 １３、課題（だい）
 １４、儀式（しき）
+１５、喫（きつ）煙
+１６、客席（せき）
+１７、〜級（きゅう）、（急）激、吸収
+１８、急（激）（げき）
+１９、求職（しょく）
+２０、給（きゅう）食
+２１、休息（そく）
+２２、極（きょく）端
 </t>
   </si>
   <si>
@@ -483,6 +525,7 @@
 ８、よ
 ９、せ
 １０、おも
+１１、こま
 </t>
   </si>
   <si>
@@ -497,7 +540,8 @@
 ８、惜（お）しま
 ９、押し寄（よ）せ
 １０、お世（せ）辞
-１１、思（おも）う</t>
+１１、思（おも）う
+１２、きめ細（こま）か</t>
   </si>
   <si>
     <t xml:space="preserve">１、疑（うたが）い
@@ -524,6 +568,11 @@
 ３、てい
 ４、めい
 ５、ちょう
+６、けい
+７、ぎょう
+８、きょう
+９、じょう
+１０、けい
 </t>
   </si>
   <si>
@@ -531,7 +580,11 @@
 ２、性、星（せい）
 ３、一定（てい）
 ４、命（めい）
-５、官庁（ちょう）</t>
+５、官庁（ちょう）
+６、球形（けい）
+７、行（ぎょう）儀、競走
+８、苦情（じょう）
+９、敬（けい）意</t>
   </si>
   <si>
     <t>１、かた
@@ -549,14 +602,16 @@
 ２、いん
 ３、おん
 ４、しん
-５、かな</t>
+５、かな
+６、きん</t>
   </si>
   <si>
     <t>１、今（いま）
 ２、飲（いん）酒
 ３、音（おん）量
-４、確信（しん）
-５、金（かな）網</t>
+４、確信（しん）、苦心
+５、金（かな）網
+６、金（きん）庫、禁止、筋肉</t>
   </si>
   <si>
     <t>ie</t>
@@ -564,11 +619,13 @@
   <si>
     <t xml:space="preserve">１、さい
 ２、かい
+３、きょう
 </t>
   </si>
   <si>
     <t xml:space="preserve">１、一切（さい）
 ２、界、大街、解散（かい）、機械
+３、協（きょう）会
 </t>
   </si>
   <si>
@@ -595,7 +652,7 @@
   <si>
     <t>１、一流（りゅう）
 ２、飲酒（しゅう）
-３、永久（きゅう）
+３、永久（きゅう）、救援、休暇、球形、求婚
 ４、書き留（と）め</t>
   </si>
   <si>
@@ -607,23 +664,30 @@
 ３、～+く、き、つ、ち
 ４、ゃ｜よ拗音＋う
 ５、き
-６、かぶ</t>
+６、かぶ
+７、かず</t>
   </si>
   <si>
     <t>１、苦（く）
 ２、無（む）
-３、朱（しゅ）、樹（じゅ）
-４、竹（ちく）、育（いく）、服（ふく）
+３、具（ぐ）体
+４、朱（しゅ）、樹（じゅ）
+５、竹（ちく）、育（いく）、服（ふく）
 欲、海水浴（よく）、速、足（そく）、屋（おく）
-５、祝、主、宿（しゅく）
-６、注（ちゅう）
-７、浴（あ）、居（い）
-８、木（き）
-９、雨（う）天
-10、回部（ぶ）
-11、書（か）き、駆け
-１２、半数（すう）
-１３、株（かぶ）式</t>
+６、祝、主、宿（しゅく）
+７、曲（きょく）
+８、注（ちゅう）
+９、浴（あ）、居（い）
+１０、木（き）
+１１、雨（う）天
+１２、回部（ぶ）
+１３、書（か）き、駆け
+１４、半数（すう）
+１５、株（かぶ）式
+１６、給与（よ）
+１７、漁（ぎょう）
+１８、居（きょ）住（じょう）、巨大
+１９、口数（かず）</t>
   </si>
   <si>
     <t>１、う
@@ -648,21 +712,21 @@
     <t>１、たい
 ２、けい
 ３、かい
-４、ぜい</t>
-  </si>
-  <si>
-    <t>１、引退（たい）
-２、恩恵（けい）
-３、開会、回数（かい）
-４、課税（ぜい）</t>
+４、ぜい
+５、き</t>
+  </si>
+  <si>
+    <t>１、規（き）律</t>
   </si>
   <si>
     <t>１、え
-２、お</t>
+２、お
+３、く</t>
   </si>
   <si>
     <t>１、絵（え）の
-２、追（お）いかけて</t>
+２、追（お）いかけて
+３、悔（く）い</t>
   </si>
   <si>
     <t>un</t>
@@ -670,12 +734,18 @@
   <si>
     <t>１、うん
 ２、ろん
-３、じゅう</t>
+３、じゅう
+４、こん
+５、くん
+６、ぐん</t>
   </si>
   <si>
     <t>１、運（うん）転
 ２、概論（ろん）
-３、基準（じゅう）</t>
+３、基準（じゅう）
+４、求婚（こん）
+５、教訓（くん）、
+６、軍、郡（ぐん）</t>
   </si>
   <si>
     <t>ue</t>
@@ -711,8 +781,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -737,13 +807,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -752,9 +815,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -768,24 +875,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -799,9 +890,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -817,51 +931,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -882,181 +952,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1089,6 +1159,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1113,16 +1198,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1142,21 +1227,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1172,142 +1242,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1317,12 +1387,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1648,8 +1715,8 @@
   <sheetPr/>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="D11" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6"/>
@@ -1708,7 +1775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="128" customHeight="1" spans="1:14">
+    <row r="2" ht="181" customHeight="1" spans="1:14">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1764,7 +1831,7 @@
       <c r="M3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1787,7 +1854,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="148" customHeight="1" spans="4:14">
+    <row r="5" ht="185" customHeight="1" spans="4:14">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="I5" t="s">
@@ -1809,7 +1876,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" ht="178" customHeight="1" spans="1:13">
+    <row r="6" ht="211" customHeight="1" spans="1:13">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1841,7 +1908,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" ht="84" customHeight="1" spans="4:13">
+    <row r="7" ht="184" customHeight="1" spans="4:13">
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="I7" t="s">
@@ -1932,11 +1999,11 @@
       <c r="M11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="N11" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" ht="229" customHeight="1" spans="1:13">
+    <row r="12" ht="363" customHeight="1" spans="1:13">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -1965,10 +2032,10 @@
       <c r="K12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="1" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2027,7 +2094,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" ht="264" customHeight="1" spans="1:13">
+    <row r="16" ht="333" customHeight="1" spans="1:13">
       <c r="A16" t="s">
         <v>93</v>
       </c>
@@ -2062,7 +2129,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" ht="103" customHeight="1" spans="9:11">
+    <row r="17" ht="135" customHeight="1" spans="9:11">
       <c r="I17" t="s">
         <v>104</v>
       </c>

--- a/日文音读.xlsx
+++ b/日文音读.xlsx
@@ -78,12 +78,14 @@
   <si>
     <t>１、がい
 ２、らい
-３、かい</t>
+３、かい
+４、さい</t>
   </si>
   <si>
     <t>１、一概、外（がい）
 ２、依頼、外来（らい）
-３、日本海、快感、開花、外交、改札（かい）</t>
+３、日本海、快感、開花、外交、改札（かい）
+４、掲載（さい）</t>
   </si>
   <si>
     <t>１、あわ
@@ -116,10 +118,12 @@
 ９、めん
 １０、らん
 １１、けん
-１２、せん
-１３、かた
-１４、ねん
-１５、れん
+１２、げん
+１３、せん
+１５、ぜん
+１４、かた
+１５、ねん
+１６、れん
 </t>
   </si>
   <si>
@@ -127,14 +131,16 @@
 ２、案、安、暗（あん）
 ３、医院（いん）
 ４、一段、横断（たん）、温暖（だん）、極端
-５、酸（さん）
-６、一転（てん）
+５、酸（さん）、原産
+６、一転（てん）、原点
 ７、永遠（えん）、沿、宴、演、園
 ８、運搬、基盤（ぱん）
 ９、界面（めん）
 １０、回覧（らん）
-１１、加減（けん）
+１１、加減（けん）、見解、限界、原稿、剣道
+１２、現（げん）役
 １２、架線（せん）、感染、漁船
+１３、健全（ぜん）
 １３、片（かた）方
 １４、可燃（ねん）、観念
 １５、関連（れん）
@@ -177,29 +183,34 @@
     <t>ang</t>
   </si>
   <si>
-    <t>１、こう
-２、きょう
-３、ぽう
-４、ちょう
-５、おう
-６、よう
-７、しょう
-８、かみ
-９、きず
-１０、そう</t>
-  </si>
-  <si>
-    <t>１、以降（こう）
-一向（こう）
-２、影響（きょう）、强化
-３、一方（ぽう）
-４、延長（ちょう）
-５、往（おう）来
-６、海洋（よう）、休養
-７、合唱（しょう）、観賞
-８、上（かみ）
-９、傷（きず）口
-１０、空想（そう）</t>
+    <t>x、こう
+x、ごう
+x、きょう
+x、ぽう
+x、ちょう
+x、おう
+x、よう
+x、しょう
+x、じょう
+x、かみ
+x、きず
+x、そう
+x、とう</t>
+  </si>
+  <si>
+    <t>x、以降（こう）、一向、講演、抗議、航空、光景、香水
+x、強（ごう）引
+x、影響（きょう）、强化、好況
+x、一方（ぽう）
+x、延長（ちょう）
+x、往（おう）来
+x、海洋（よう）、休養
+x、合唱（しょう）、観賞
+x、現状（じょう）
+x、上（かみ）
+x、傷（きず）口
+x、空想（そう）
+x、見当（とう）</t>
   </si>
   <si>
     <t>１、あ
@@ -229,10 +240,14 @@
 ４、け
 ５、ぞう
 ６、ろう
-７、かんが
-８、みょう
-９、きょう
-１０、くちょう
+７、こう
+、ごう
+８、かんが
+９、みょう
+１０、きょう
+x、ちょう
+x、ひょう
+１１、くちょう
 </t>
   </si>
   <si>
@@ -242,10 +257,13 @@
 ４、消（け）
 ５、改造（ぞう）、乾燥
 ６、過労（ろう）
-７、考（かんが）え
-８、奇妙（みょう）
+７、好（こう）意、高価、後悔、孝行
+、豪（ごう）華
+８、考（かんが）え
+９、奇妙（みょう）
 １０、教（きょう）官
 １１、口調（ちょう）
+１２、公表（ひょう）
 </t>
   </si>
   <si>
@@ -308,20 +326,24 @@
 ８、きょう
 ９、つう
 １０、ゆう
-１１、くう</t>
+１１、くう
+１２、こう
+１２、じゅう</t>
   </si>
   <si>
     <t>１、一種（しゅ）
 ２、引用（よう）
 ３、永（えい）遠
-４、運動（どう）、共（同）
+４、運動（どう）、共（同）、系統
 ５、懐中（ちゅう）
 ６、観衆（しゅう）
 ７、共（きゅう）益
 ８、供（きょう）給、恐怖
 ９、共通（つう）
 １０、金融（ゆう）
-１１、空（くう）想</t>
+１１、空（くう）想
+１２、工（こう）員、貢献
+１２、厳重（じゅう）</t>
   </si>
   <si>
     <t xml:space="preserve">１、あ
@@ -352,7 +374,8 @@
 ３、う
 ４、どう
 ５、そう
-６、ぐう</t>
+６、ぐう
+x、こう</t>
   </si>
   <si>
     <t>１、握手（しゅ）
@@ -360,7 +383,8 @@
 ３、右（う）
 ４、運動（どう）、花道
 ５、競走（そう）
-６、偶（ぐう）数</t>
+６、偶（ぐう）数
+７、候（こう）補</t>
   </si>
   <si>
     <t>１、厚（あつ）
@@ -376,16 +400,20 @@
 ４、きゃく
 ５、そく
 ６、しゃ
-７、ぎょう</t>
+７、ぎょう
+８、せつ
+９、ごう</t>
   </si>
   <si>
     <t>１、社、者（しゃ）
 ２、各、改革、额(かく)、惡（あく）
 ３、運河（が）
 ４、観客（きゃく）
-５、観測（そく）
+５、観測（そく）、原則
 ６、車（しゃ）
-７、休業（ぎょう）</t>
+７、休業（ぎょう）
+８、建設（せつ）
+x、合（ごう）計</t>
   </si>
   <si>
     <t>1.「あ段」 
@@ -443,7 +471,7 @@
   <si>
     <t>１、本（ほん）
 ２、恩（おん）恵、温（おん）室
-３、区分（ぶん）</t>
+３、区分（ぶん）、原文</t>
   </si>
   <si>
     <t>eng</t>
@@ -455,6 +483,7 @@
 ４、てい
 ５、せい
 ６、のう
+x、とう
 </t>
   </si>
   <si>
@@ -462,8 +491,9 @@
 ２、横（おう）断
 ３、過剰（じょう）
 ４、過程（てい）
-５、歓声（せい）、行政
+５、歓声（せい）、行政、公正
 ６、機能（のう）
+x、高等（とう）
 </t>
   </si>
   <si>
@@ -498,20 +528,24 @@
 ６、際、菜（さい）
 ７、開、海、改（かい）
 ８、確立｜率（りつ）
-９、斉（せい）、家計（けい）
-１０、引力（りょく）
-１１、師（し）、監事
-１２、演習（しゅう）
-１３、課題（だい）
-１４、儀式（しき）
-１５、喫（きつ）煙
-１６、客席（せき）
-１７、〜級（きゅう）、（急）激、吸収
-１８、急（激）（げき）
-１９、求職（しょく）
-２０、給（きゅう）食
-２１、休息（そく）
-２２、極（きょく）端
+９、斉（せい）
+１０、家計（けい）、継続
+１１、引力（りょく）
+１２、師（し）、監事
+１３、演習（しゅう）
+１４、課題（だい）
+１５、儀式（しき）
+１６、喫（きつ）煙
+１７、客席（せき）
+１８、〜級（きゅう）、（急）激、吸収
+１９、急（激）（げき）、劇場
+２０、求職（しょく）、軽食
+２１、給（きゅう）食
+２２、休息（そく）
+２３、極（きょく）端
+２４、契（けい）機、継続、計測、系統
+２５、激（げき）減
+２６、現役（えき）
 </t>
   </si>
   <si>
@@ -573,18 +607,20 @@
 ８、きょう
 ９、じょう
 １０、けい
+１１、こう
 </t>
   </si>
   <si>
     <t>１、影、映、英（えい）
 ２、性、星（せい）
-３、一定（てい）
+３、一定（てい）、校庭
 ４、命（めい）
 ５、官庁（ちょう）
 ６、球形（けい）
 ７、行（ぎょう）儀、競走
 ８、苦情（じょう）
-９、敬（けい）意</t>
+９、敬（けい）意、蛍光、警告、軽視、刑事、形容、経由
+１０、行（こう）為、幸運、興奮</t>
   </si>
   <si>
     <t>１、かた
@@ -620,12 +656,14 @@
     <t xml:space="preserve">１、さい
 ２、かい
 ３、きょう
+４、けい
 </t>
   </si>
   <si>
     <t xml:space="preserve">１、一切（さい）
 ２、界、大街、解散（かい）、機械
 ３、協（きょう）会
+４、掲（けい）載、携帯
 </t>
   </si>
   <si>
@@ -687,7 +725,8 @@
 １６、給与（よ）
 １７、漁（ぎょう）
 １８、居（きょ）住（じょう）、巨大
-１９、口数（かず）</t>
+１９、口数（かず）
+２０、好物（ぶつ）</t>
   </si>
   <si>
     <t>１、う
@@ -753,12 +792,16 @@
   <si>
     <t>１、あな
 ２、かく
-３、がく</t>
+３、がく
+４、けつ
+５、りゃく</t>
   </si>
   <si>
     <t>１、穴（あな）
 ２、覚（かく）悟、確実
-３、学（がく）事</t>
+３、学（がく）事
+４、決（けつ）意、血液
+x、攻略（りゃく）</t>
   </si>
   <si>
     <t>uo</t>
@@ -766,7 +809,8 @@
   <si>
     <t>１、かく
 ２、せつ
-３、か</t>
+３、か
+x、こうざ</t>
   </si>
   <si>
     <t>１、拡充、獲得（かく）
@@ -780,9 +824,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -794,24 +838,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -822,46 +851,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -898,11 +897,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -915,23 +975,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -952,31 +996,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,31 +1146,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,109 +1170,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1142,9 +1186,59 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1173,45 +1267,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1226,164 +1281,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1715,8 +1759,8 @@
   <sheetPr/>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D11" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="D18" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6"/>
@@ -1813,7 +1857,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" ht="309" customHeight="1" spans="4:14">
+    <row r="3" ht="380" customHeight="1" spans="4:14">
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="I3" t="s">
@@ -1835,7 +1879,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" ht="199" customHeight="1" spans="4:13">
+    <row r="4" ht="241" customHeight="1" spans="4:13">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="I4" t="s">
@@ -1854,7 +1898,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="185" customHeight="1" spans="4:14">
+    <row r="5" ht="243" customHeight="1" spans="4:14">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="I5" t="s">
@@ -1876,7 +1920,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" ht="211" customHeight="1" spans="1:13">
+    <row r="6" ht="289" customHeight="1" spans="1:13">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1908,7 +1952,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" ht="184" customHeight="1" spans="4:13">
+    <row r="7" ht="247" customHeight="1" spans="4:13">
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="I7" t="s">
@@ -1928,7 +1972,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" ht="160" customHeight="1" spans="1:13">
+    <row r="9" ht="201" customHeight="1" spans="1:13">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -1979,7 +2023,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" ht="129" customHeight="1" spans="4:14">
+    <row r="11" ht="186" customHeight="1" spans="4:14">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -2003,7 +2047,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" ht="363" customHeight="1" spans="1:13">
+    <row r="12" ht="405" customHeight="1" spans="1:13">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -2094,7 +2138,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" ht="333" customHeight="1" spans="1:13">
+    <row r="16" ht="401" customHeight="1" spans="1:13">
       <c r="A16" t="s">
         <v>93</v>
       </c>
@@ -2140,7 +2184,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" ht="83" customHeight="1" spans="9:11">
+    <row r="18" ht="186" customHeight="1" spans="9:11">
       <c r="I18" t="s">
         <v>107</v>
       </c>

--- a/日文音读.xlsx
+++ b/日文音读.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
   <si>
     <t>汉语声母</t>
   </si>
@@ -47,6 +47,8 @@
 ２、とう
 ３、ぱつ
 ４、か
+x、さ
+x、ざつ
 ５、さつ</t>
   </si>
   <si>
@@ -54,7 +56,9 @@
 ２、解答（とう）
 ３、海抜（ばつ）
 ４、画家、架空（か）
-５、観察（さつ）</t>
+x、茶（さ）道、砂漠
+x、雑（ざつ）音
+５、観察（さつ）、殺陣</t>
   </si>
   <si>
     <t xml:space="preserve">1.「あ段」  
@@ -79,13 +83,19 @@
     <t>１、がい
 ２、らい
 ３、かい
-４、さい</t>
+４、さい
+x、さい
+x、ざい
+x、だい</t>
   </si>
   <si>
     <t>１、一概、外（がい）
 ２、依頼、外来（らい）
 ３、日本海、快感、開花、外交、改札（かい）
-４、掲載（さい）</t>
+４、掲載（さい）、再会
+x、裁（さい）判
+x、在（ざい）学
+x、古代（だい）</t>
   </si>
   <si>
     <t>１、あわ
@@ -124,6 +134,7 @@
 １４、かた
 １５、ねん
 １６、れん
+x、こん
 </t>
   </si>
   <si>
@@ -132,18 +143,19 @@
 ３、医院（いん）
 ４、一段、横断（たん）、温暖（だん）、極端
 ５、酸（さん）、原産
-６、一転（てん）、原点
+６、一転（てん）、原点、古典
 ７、永遠（えん）、沿、宴、演、園
 ８、運搬、基盤（ぱん）
 ９、界面（めん）
 １０、回覧（らん）
-１１、加減（けん）、見解、限界、原稿、剣道
+１１、加減（けん）、見解、限界、原稿、剣道、語源
 １２、現（げん）役
 １２、架線（せん）、感染、漁船
 １３、健全（ぜん）
 １３、片（かた）方
 １４、可燃（ねん）、観念
 １５、関連（れん）
+x、献（こん）立
 </t>
   </si>
   <si>
@@ -158,6 +170,9 @@
 ９、か
 １０、かつ
 １１、くぐ
+x、づか
+x、こと
+x、こら
 </t>
   </si>
   <si>
@@ -173,7 +188,10 @@
 １０、限（かぎ）り
 １１、欠（か）く
 １２、担（かつか）ぐ
-１３、潜（くぐ）ろ</t>
+１３、潜（くぐ）ろ
+x、心遣（づか）い
+x、言（こと）付け
+x、堪（こら）え</t>
   </si>
   <si>
     <t>１、板（いた）
@@ -257,7 +275,7 @@
 ４、消（け）
 ５、改造（ぞう）、乾燥
 ６、過労（ろう）
-７、好（こう）意、高価、後悔、孝行
+７、好（こう）意、高価、後悔、孝行、考慮、効力
 、豪（ごう）華
 ８、考（かんが）え
 ９、奇妙（みょう）
@@ -272,7 +290,8 @@
 3、うす
 ４、おし
 ５、かか
-６、き</t>
+６、き
+x、こ</t>
   </si>
   <si>
     <t>1、暴（あば）れろ
@@ -280,7 +299,8 @@
 ３、薄
 ４、教（おし）え
 ５、抱（かか）えた
-６、消（き）え</t>
+６、消（き）え
+x、焦（こ）がす、漕（こ）ぐ</t>
   </si>
   <si>
     <t>１、板</t>
@@ -334,8 +354,8 @@
     <t>１、一種（しゅ）
 ２、引用（よう）
 ３、永（えい）遠
-４、運動（どう）、共（同）、系統
-５、懐中（ちゅう）
+４、運動（どう）、混同、系統
+５、懐中（ちゅう）、昆虫
 ６、観衆（しゅう）
 ７、共（きゅう）益
 ８、供（きょう）給、恐怖
@@ -396,6 +416,8 @@
   <si>
     <t>１、しゃ
 ２、かく
+x、こく
+x、らく
 ３、が
 ４、きゃく
 ５、そく
@@ -407,6 +429,8 @@
   <si>
     <t>１、社、者（しゃ）
 ２、各、改革、额(かく)、惡（あく）
+x、克（こく）服
+x、娯楽（らく）
 ３、運河（が）
 ４、観客（きゃく）
 ５、観測（そく）、原則
@@ -425,8 +449,10 @@
     <t>１、割（わ）、折（お）に
 ２、可、歌（か）
 ３、特（とく）、得（とく）
+x、割（さ）く
 ４、熱（ねつ）
-５、奢（おご）る</t>
+５、奢（おご）る
+x、遮（さえぎ）る</t>
   </si>
   <si>
     <t>１、業（ぎよう）
@@ -466,12 +492,14 @@
   <si>
     <t>１、ほん
 ２、おん
-３、ぶん</t>
+３、ぶん
+x、こん</t>
   </si>
   <si>
     <t>１、本（ほん）
 ２、恩（おん）恵、温（おん）室
-３、区分（ぶん）、原文</t>
+３、区分（ぶん）、原文
+x、根（こん）拠</t>
   </si>
   <si>
     <t>eng</t>
@@ -491,7 +519,7 @@
 ２、横（おう）断
 ３、過剰（じょう）
 ４、過程（てい）
-５、歓声（せい）、行政、公正
+５、歓声（せい）、行政、公正、作成
 ６、機能（のう）
 x、高等（とう）
 </t>
@@ -525,7 +553,7 @@
 ３、知、致（ち）
 ４、日（ひ）
 ５、一（いち）
-６、際、菜（さい）
+６、際、菜、細工、（さい）
 ７、開、海、改（かい）
 ８、確立｜率（りつ）
 ９、斉（せい）
@@ -591,6 +619,7 @@
 １０、替（か）
 １１、溺（おば）
 １２、身体（からだ）
+１３、逆（さか）らう
 </t>
   </si>
   <si>
@@ -607,6 +636,7 @@
 ８、きょう
 ９、じょう
 １０、けい
+x、れい
 １１、こう
 </t>
   </si>
@@ -617,9 +647,11 @@
 ４、命（めい）
 ５、官庁（ちょう）
 ６、球形（けい）
-７、行（ぎょう）儀、競走
+７、行（ぎょう）儀
+x、競（ぎょう）走
 ８、苦情（じょう）
 ９、敬（けい）意、蛍光、警告、軽視、刑事、形容、経由
+x、高齢（れい）
 １０、行（こう）為、幸運、興奮</t>
   </si>
   <si>
@@ -634,12 +666,14 @@
     <t>in</t>
   </si>
   <si>
-    <t>１、いま
+    <t xml:space="preserve">１、いま
 ２、いん
 ３、おん
 ４、しん
 ５、かな
-６、きん</t>
+６、きん
+x、こん
+</t>
   </si>
   <si>
     <t>１、今（いま）
@@ -647,7 +681,8 @@
 ３、音（おん）量
 ４、確信（しん）、苦心
 ５、金（かな）網
-６、金（きん）庫、禁止、筋肉</t>
+６、金（きん）庫、禁止、筋肉
+x、古今（こん）</t>
   </si>
   <si>
     <t>ie</t>
@@ -670,13 +705,15 @@
     <t>１、ぎ
 ２、おと
 ３、おろ
-４、か</t>
+４、か
+x、さ</t>
   </si>
   <si>
     <t>１、裏切（ぎ）る
 ２、劣（おと）る
 ３、卸（おろ）す
-４、借（か）り</t>
+４、借（か）り
+x、裂（さ）く</t>
   </si>
   <si>
     <t>iu</t>
@@ -707,9 +744,14 @@
   </si>
   <si>
     <t>１、苦（く）
+x、国土（ど）
 ２、無（む）
 ３、具（ぐ）体
+x、雇（こ）用
+x、娯（ご）楽
+x、古屋（や）
 ４、朱（しゅ）、樹（じゅ）
+x、削除（じょ）
 ５、竹（ちく）、育（いく）、服（ふく）
 欲、海水浴（よく）、速、足（そく）、屋（おく）
 ６、祝、主、宿（しゅく）
@@ -731,12 +773,14 @@
   <si>
     <t>１、う
 ２、うった
-３、かた</t>
+３、かた
+x、こだわ</t>
   </si>
   <si>
     <t>１、浮（う）く、受
 ２、訴（うった）え
-３、固（かた）めて</t>
+３、固（かた）めて
+x、拘（こだわ）り</t>
   </si>
   <si>
     <t>足（あし）
@@ -752,10 +796,12 @@
 ２、けい
 ３、かい
 ４、ぜい
+x、さい
 ５、き</t>
   </si>
   <si>
-    <t>１、規（き）律</t>
+    <t>１、規（き）律
+x、催（さい）促</t>
   </si>
   <si>
     <t>１、え
@@ -768,21 +814,31 @@
 ３、悔（く）い</t>
   </si>
   <si>
+    <t>ua</t>
+  </si>
+  <si>
+    <t>x、かけ</t>
+  </si>
+  <si>
+    <t>x、腰掛（かけ）</t>
+  </si>
+  <si>
     <t>un</t>
   </si>
   <si>
-    <t>１、うん
+    <t xml:space="preserve">１、うん
 ２、ろん
 ３、じゅう
 ４、こん
 ５、くん
-６、ぐん</t>
+６、ぐん
+</t>
   </si>
   <si>
     <t>１、運（うん）転
 ２、概論（ろん）
 ３、基準（じゅう）
-４、求婚（こん）
+４、求婚（こん）、混雑、昆虫
 ５、教訓（くん）、
 ６、軍、郡（ぐん）</t>
   </si>
@@ -793,6 +849,7 @@
     <t>１、あな
 ２、かく
 ３、がく
+x、さく
 ４、けつ
 ５、りゃく</t>
   </si>
@@ -801,21 +858,28 @@
 ２、覚（かく）悟、確実
 ３、学（がく）事
 ４、決（けつ）意、血液
-x、攻略（りゃく）</t>
+x、攻略（りゃく）
+x、削（さく）減</t>
   </si>
   <si>
     <t>uo</t>
   </si>
   <si>
     <t>１、かく
+x、こく
+x、さく
 ２、せつ
 ３、か
+x、さ
 x、こうざ</t>
   </si>
   <si>
     <t>１、拡充、獲得（かく）
+２、国（こく）王
+x、昨（さく）
 ２、学説（せつ）
-３、過失（か）、果実、括弧、活気、貨物</t>
+３、過失（か）、果実、括弧、活気、貨物
+x、左（さ）折、錯（さ）覚</t>
   </si>
 </sst>
 </file>
@@ -1757,10 +1821,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D18" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6"/>
@@ -1775,7 +1839,7 @@
     <col min="8" max="8" width="5.55" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="10" width="24.3" customWidth="1"/>
-    <col min="11" max="11" width="26.3833333333333" customWidth="1"/>
+    <col min="11" max="11" width="30.9666666666667" customWidth="1"/>
     <col min="12" max="12" width="20.275" customWidth="1"/>
     <col min="13" max="13" width="22.075" customWidth="1"/>
     <col min="14" max="14" width="26.3833333333333" customWidth="1"/>
@@ -1819,7 +1883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="181" customHeight="1" spans="1:14">
+    <row r="2" ht="239" customHeight="1" spans="1:14">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1972,7 +2036,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" ht="201" customHeight="1" spans="1:13">
+    <row r="9" ht="251" customHeight="1" spans="1:13">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -2008,7 +2072,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" ht="114" customHeight="1" spans="4:11">
+    <row r="10" ht="155" customHeight="1" spans="4:11">
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -2023,7 +2087,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" ht="186" customHeight="1" spans="4:14">
+    <row r="11" ht="224" customHeight="1" spans="4:14">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -2047,7 +2111,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" ht="405" customHeight="1" spans="1:13">
+    <row r="12" ht="409" customHeight="1" spans="1:13">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -2083,7 +2147,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" ht="159" customHeight="1" spans="2:11">
+    <row r="13" ht="177" customHeight="1" spans="2:11">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2123,7 +2187,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" ht="159" customHeight="1" spans="4:11">
+    <row r="15" ht="124" customHeight="1" spans="4:11">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -2138,7 +2202,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" ht="401" customHeight="1" spans="1:13">
+    <row r="16" ht="408" customHeight="1" spans="1:13">
       <c r="A16" t="s">
         <v>93</v>
       </c>
@@ -2173,7 +2237,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" ht="135" customHeight="1" spans="9:11">
+    <row r="17" ht="129" customHeight="1" spans="2:13">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
       <c r="I17" t="s">
         <v>104</v>
       </c>
@@ -2183,8 +2252,10 @@
       <c r="K17" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
     </row>
-    <row r="18" ht="186" customHeight="1" spans="9:11">
+    <row r="18" ht="202" customHeight="1" spans="9:11">
       <c r="I18" t="s">
         <v>107</v>
       </c>
@@ -2195,7 +2266,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" ht="116" customHeight="1" spans="9:11">
+    <row r="19" ht="186" customHeight="1" spans="9:11">
       <c r="I19" t="s">
         <v>110</v>
       </c>
@@ -2204,6 +2275,17 @@
       </c>
       <c r="K19" s="1" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="20" ht="169" customHeight="1" spans="9:11">
+      <c r="I20" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/日文音读.xlsx
+++ b/日文音读.xlsx
@@ -1824,7 +1824,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6"/>

--- a/日文音读.xlsx
+++ b/日文音读.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120">
   <si>
     <t>汉语声母</t>
   </si>
@@ -46,6 +46,7 @@
     <t>１、だい
 ２、とう
 ３、ぱつ
+x、はつ
 ４、か
 x、さ
 x、ざつ
@@ -55,6 +56,7 @@
     <t>１、偉大（だい）
 ２、解答（とう）
 ３、海抜（ばつ）
+x、始発（はつ）
 ４、画家、架空（か）
 x、茶（さ）道、砂漠
 x、雑（ざつ）音
@@ -86,7 +88,9 @@
 ４、さい
 x、さい
 x、ざい
-x、だい</t>
+x、だい
+x、たい
+x、てき</t>
   </si>
   <si>
     <t>１、一概、外（がい）
@@ -95,7 +99,9 @@
 ４、掲載（さい）、再会
 x、裁（さい）判
 x、在（ざい）学
-x、古代（だい）</t>
+x、古代（だい）
+x、事態（たい）
+x、指摘（てき）</t>
   </si>
   <si>
     <t>１、あわ
@@ -122,6 +128,7 @@
 ３、いん
 ４、だん
 ５、さん
+x、ざん
 ６、てん
 ７、えん
 ８、ぱん
@@ -142,7 +149,8 @@
 ２、案、安、暗（あん）
 ３、医院（いん）
 ４、一段、横断（たん）、温暖（だん）、極端
-５、酸（さん）、原産
+５、酸（さん）、原産、山地
+x、残（ざん）酷
 ６、一転（てん）、原点、古典
 ７、永遠（えん）、沿、宴、演、園
 ８、運搬、基盤（ぱん）
@@ -150,8 +158,8 @@
 １０、回覧（らん）
 １１、加減（けん）、見解、限界、原稿、剣道、語源
 １２、現（げん）役
-１２、架線（せん）、感染、漁船
-１３、健全（ぜん）
+１２、架線（せん）、感染、漁船、実践
+１３、健全（ぜん）、事前
 １３、片（かた）方
 １４、可燃（ねん）、観念
 １５、関連（れん）
@@ -173,6 +181,7 @@
 x、づか
 x、こと
 x、こら
+x、し
 </t>
   </si>
   <si>
@@ -191,7 +200,8 @@
 １３、潜（くぐ）ろ
 x、心遣（づか）い
 x、言（こと）付け
-x、堪（こら）え</t>
+x、堪（こら）え
+x、占（し）める</t>
   </si>
   <si>
     <t>１、板（いた）
@@ -219,11 +229,11 @@
     <t>x、以降（こう）、一向、講演、抗議、航空、光景、香水
 x、強（ごう）引
 x、影響（きょう）、强化、好況
-x、一方（ぽう）
+x、一方（ぽう）、脂肪、志望
 x、延長（ちょう）
 x、往（おう）来
 x、海洋（よう）、休養
-x、合唱（しょう）、観賞
+x、合唱（しょう）、観賞、車掌
 x、現状（じょう）
 x、上（かみ）
 x、傷（きず）口
@@ -237,7 +247,8 @@
 ４、いた
 ５、おとず
 ６、きず
-７、くる</t>
+７、くる
+x、さまた</t>
   </si>
   <si>
     <t>１、上、荒（あ）
@@ -246,7 +257,8 @@
 ４、傷（いた）み
 ５、訪（おとず）れ
 ６、傷（きず）ついた
-７、狂（くる）う</t>
+７、狂（くる）う
+x、妨（さまた）げて</t>
   </si>
   <si>
     <t>ao</t>
@@ -291,7 +303,8 @@
 ４、おし
 ５、かか
 ６、き
-x、こ</t>
+x、こ
+x、しば</t>
   </si>
   <si>
     <t>1、暴（あば）れろ
@@ -300,7 +313,8 @@
 ４、教（おし）え
 ５、抱（かか）えた
 ６、消（き）え
-x、焦（こ）がす、漕（こ）ぐ</t>
+x、焦（こ）がす、漕（こ）ぐ
+x、绞（しば）る</t>
   </si>
   <si>
     <t>１、板</t>
@@ -336,27 +350,28 @@
     <t>ong</t>
   </si>
   <si>
-    <t>１、しゅ
+    <t xml:space="preserve">１、しゅ
 ２、よう
 ３、えい
 ４、どう
 ５、ちゅう
-６、しゅう
+６、しゅう　
+x、じゅう
 ７、きゅう
 ８、きょう
 ９、つう
 １０、ゆう
 １１、くう
 １２、こう
-１２、じゅう</t>
+</t>
   </si>
   <si>
     <t>１、一種（しゅ）
-２、引用（よう）
+２、引用（よう）、収容
 ３、永（えい）遠
 ４、運動（どう）、混同、系統
 ５、懐中（ちゅう）、昆虫
-６、観衆（しゅう）
+６、観衆（しゅう）、終始
 ７、共（きゅう）益
 ８、供（きょう）給、恐怖
 ９、共通（つう）
@@ -390,7 +405,7 @@
   </si>
   <si>
     <t>１、しゅ
-２、いっしゅう
+２、しゅう
 ３、う
 ４、どう
 ５、そう
@@ -399,7 +414,7 @@
   </si>
   <si>
     <t>１、握手（しゅ）
-２、一週（いっしゅう）
+２、一週（しゅう）、五大州、周囲、収穫
 ３、右（う）
 ４、運動（どう）、花道
 ５、競走（そう）
@@ -418,6 +433,7 @@
 ２、かく
 x、こく
 x、らく
+x、とく
 ３、が
 ４、きゃく
 ５、そく
@@ -431,6 +447,7 @@
 ２、各、改革、额(かく)、惡（あく）
 x、克（こく）服
 x、娯楽（らく）
+x、習得（とく）
 ３、運河（が）
 ４、観客（きゃく）
 ５、観測（そく）、原則
@@ -468,23 +485,30 @@
 ３、衛（えい）生
 ４、ない
 ５、かい
+x、はい
+x、まい
 ６、き
 ７、くろ</t>
   </si>
   <si>
-    <t>１、委（い）員
+    <t xml:space="preserve">１、委（い）員
 ２、衣類（るい）
 ３、屋内（ない）
+x、支配（はい）
+x、姉妹（まい）
 ４、危（き）機
-５、黒（くろ）</t>
+５、黒（くろ）
+</t>
   </si>
   <si>
     <t>１、い
-２、あや</t>
+２、あや
+x、しばむ</t>
   </si>
   <si>
     <t>１、位（い）
-２、危（あや）</t>
+２、危（あや）
+x、萎（しば）む</t>
   </si>
   <si>
     <t>en</t>
@@ -500,6 +524,12 @@
 ２、恩（おん）恵、温（おん）室
 ３、区分（ぶん）、原文
 x、根（こん）拠</t>
+  </si>
+  <si>
+    <t>１、しず</t>
+  </si>
+  <si>
+    <t>１、沈（しず）める</t>
   </si>
   <si>
     <t>eng</t>
@@ -526,11 +556,13 @@
   </si>
   <si>
     <t>１、あらそ
-２、い</t>
+２、い
+３、さ</t>
   </si>
   <si>
     <t>１、争（あらそ）
-２、生（い）き</t>
+２、生（い）き
+３、冷（さ）ます</t>
   </si>
   <si>
     <t>1，承（うけたまわ）り
@@ -550,20 +582,23 @@
   <si>
     <t xml:space="preserve">１、医（い）
 ２、機、気、記号、基準、起動（き）
-３、知、致（ち）
+３、知、致、治安（ち）
 ４、日（ひ）
+x、師（し）、監事、施設、思想、資金
+x、自（じ）宅、実地
 ５、一（いち）
 ６、際、菜、細工、（さい）
 ７、開、海、改（かい）
-８、確立｜率（りつ）
 ９、斉（せい）
 １０、家計（けい）、継続
-１１、引力（りょく）
-１２、師（し）、監事
+x、実例（れい）＿
+１１、引力（りょく）｜x、就職（しょく）
 １３、演習（しゅう）
 １４、課題（だい）
 １５、儀式（しき）
 １６、喫（きつ）煙
+x、確立｜率（りつ）
+x、室（しつ）外
 １７、客席（せき）
 １８、〜級（きゅう）、（急）激、吸収
 １９、急（激）（げき）、劇場
@@ -572,8 +607,8 @@
 ２２、休息（そく）
 ２３、極（きょく）端
 ２４、契（けい）機、継続、計測、系統
-２５、激（げき）減
-２６、現役（えき）
+２５、激（げき）減｜２６、現役（えき）
+２７、集（しゅう）字
 </t>
   </si>
   <si>
@@ -588,6 +623,7 @@
 ９、せ
 １０、おも
 １１、こま
+x、さみ
 </t>
   </si>
   <si>
@@ -603,7 +639,8 @@
 ９、押し寄（よ）せ
 １０、お世（せ）辞
 １１、思（おも）う
-１２、きめ細（こま）か</t>
+１２、きめ細（こま）か
+x、寂（さみ）し</t>
   </si>
   <si>
     <t xml:space="preserve">１、疑（うたが）い
@@ -642,10 +679,10 @@
   </si>
   <si>
     <t>１、影、映、英（えい）
-２、性、星（せい）
+２、酸性（せい）、星
 ３、一定（てい）、校庭
 ４、命（めい）
-５、官庁（ちょう）
+５、官庁（ちょう）、視聴
 ６、球形（けい）
 ７、行（ぎょう）儀
 x、競（ぎょう）走
@@ -656,11 +693,13 @@
   </si>
   <si>
     <t>１、かた
-２、かたむ</t>
+２、かたむ
+x、しず</t>
   </si>
   <si>
     <t>１、型（かた）
-２、傾（かたむ）け</t>
+２、傾（かたむ）け
+x、静（しず）か</t>
   </si>
   <si>
     <t>in</t>
@@ -673,6 +712,7 @@
 ５、かな
 ６、きん
 x、こん
+x、りん
 </t>
   </si>
   <si>
@@ -682,17 +722,20 @@
 ４、確信（しん）、苦心
 ５、金（かな）網
 ６、金（きん）庫、禁止、筋肉
-x、古今（こん）</t>
+x、古今（こん）
+x、山林（りん）</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>x、した</t>
+  </si>
+  <si>
+    <t>x、下（した）町</t>
   </si>
   <si>
     <t>ie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">１、さい
-２、かい
-３、きょう
-４、けい
-</t>
   </si>
   <si>
     <t xml:space="preserve">１、一切（さい）
@@ -726,7 +769,7 @@
   </si>
   <si>
     <t>１、一流（りゅう）
-２、飲酒（しゅう）
+２、飲酒（しゅう）、修学、就学
 ３、永久（きゅう）、救援、休暇、球形、求婚
 ４、書き留（と）め</t>
   </si>
@@ -750,6 +793,8 @@
 x、雇（こ）用
 x、娯（ご）楽
 x、古屋（や）
+x、木（き）
+X、給与（よ）
 ４、朱（しゅ）、樹（じゅ）
 x、削除（じょ）
 ５、竹（ちく）、育（いく）、服（ふく）
@@ -758,29 +803,32 @@
 ７、曲（きょく）
 ８、注（ちゅう）
 ９、浴（あ）、居（い）
-１０、木（き）
 １１、雨（う）天
 １２、回部（ぶ）
 １３、書（か）き、駆け
 １４、半数（すう）
 １５、株（かぶ）式
-１６、給与（よ）
 １７、漁（ぎょう）
 １８、居（きょ）住（じょう）、巨大
 １９、口数（かず）
-２０、好物（ぶつ）</t>
+２０、好物（ぶつ）
+２１、産出（しゅつ）</t>
   </si>
   <si>
     <t>１、う
 ２、うった
 ３、かた
-x、こだわ</t>
+x、こだわ
+x、さ
+x、ざわ</t>
   </si>
   <si>
     <t>１、浮（う）く、受
 ２、訴（うった）え
 ３、固（かた）めて
-x、拘（こだわ）り</t>
+x、拘（こだわ）り
+x、去（さ）る
+x、触（ざわ）り</t>
   </si>
   <si>
     <t>足（あし）
@@ -832,6 +880,7 @@
 ４、こん
 ５、くん
 ６、ぐん
+x、そん
 </t>
   </si>
   <si>
@@ -840,7 +889,8 @@
 ３、基準（じゅう）
 ４、求婚（こん）、混雑、昆虫
 ５、教訓（くん）、
-６、軍、郡（ぐん）</t>
+６、軍、郡（ぐん）
+x、子孫（そん）、村長</t>
   </si>
   <si>
     <t>ue</t>
@@ -871,7 +921,10 @@
 ２、せつ
 ３、か
 x、さ
-x、こうざ</t>
+x、れ
+x、こうざ
+x、じゃく
+x、ちゃく</t>
   </si>
   <si>
     <t>１、拡充、獲得（かく）
@@ -879,7 +932,10 @@
 x、昨（さく）
 ２、学説（せつ）
 ３、過失（か）、果実、括弧、活気、貨物
-x、左（さ）折、錯（さ）覚</t>
+x、左（さ）折、作法、錯覚
+x、洒落（れ）
+x、弱（じゃく）点
+x、終着（ちゃく）</t>
   </si>
 </sst>
 </file>
@@ -887,10 +943,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -902,29 +958,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -938,18 +979,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -961,8 +1033,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -978,9 +1059,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -993,52 +1095,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1054,37 +1110,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1096,145 +1278,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1250,11 +1306,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1264,6 +1318,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1283,11 +1352,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1306,192 +1401,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1821,17 +1877,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="23.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="42.5" customWidth="1"/>
+    <col min="3" max="3" width="63.6083333333333" customWidth="1"/>
     <col min="4" max="4" width="30.275" customWidth="1"/>
     <col min="5" max="5" width="27.225" customWidth="1"/>
     <col min="6" max="6" width="26.6666666666667" customWidth="1"/>
@@ -1839,7 +1895,7 @@
     <col min="8" max="8" width="5.55" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="10" width="24.3" customWidth="1"/>
-    <col min="11" max="11" width="30.9666666666667" customWidth="1"/>
+    <col min="11" max="11" width="37.2166666666667" customWidth="1"/>
     <col min="12" max="12" width="20.275" customWidth="1"/>
     <col min="13" max="13" width="22.075" customWidth="1"/>
     <col min="14" max="14" width="26.3833333333333" customWidth="1"/>
@@ -2072,7 +2128,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" ht="155" customHeight="1" spans="4:11">
+    <row r="10" ht="155" customHeight="1" spans="4:13">
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -2085,6 +2141,12 @@
       </c>
       <c r="K10" s="1" t="s">
         <v>64</v>
+      </c>
+      <c r="L10" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" ht="224" customHeight="1" spans="4:14">
@@ -2093,58 +2155,58 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" ht="409" customHeight="1" spans="1:13">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G12" s="1"/>
       <c r="I12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" ht="177" customHeight="1" spans="2:11">
@@ -2155,16 +2217,16 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="I13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="14" ht="159" customHeight="1" spans="2:13">
+    <row r="14" ht="177" customHeight="1" spans="2:11">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2172,22 +2234,18 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="I14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M14" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" ht="124" customHeight="1" spans="4:11">
+    <row r="15" ht="159" customHeight="1" spans="2:13">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -2195,97 +2253,116 @@
       <c r="I15" t="s">
         <v>90</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="M15" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="16" ht="408" customHeight="1" spans="1:13">
-      <c r="A16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    <row r="16" ht="124" customHeight="1" spans="4:11">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="I16" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="1" t="s">
+    </row>
+    <row r="17" ht="408" customHeight="1" spans="1:13">
+      <c r="A17" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I16" t="s">
+      <c r="C17" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="I17" t="s">
         <v>103</v>
       </c>
+      <c r="J17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="17" ht="129" customHeight="1" spans="2:13">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="I17" t="s">
-        <v>104</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+    <row r="18" ht="129" customHeight="1" spans="2:13">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="I18" t="s">
+        <v>108</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
     </row>
-    <row r="18" ht="202" customHeight="1" spans="9:11">
-      <c r="I18" t="s">
-        <v>107</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>109</v>
+    <row r="19" ht="202" customHeight="1" spans="9:11">
+      <c r="I19" t="s">
+        <v>111</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="19" ht="186" customHeight="1" spans="9:11">
-      <c r="I19" t="s">
-        <v>110</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>112</v>
+    <row r="20" ht="186" customHeight="1" spans="9:11">
+      <c r="I20" t="s">
+        <v>114</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="20" ht="169" customHeight="1" spans="9:11">
-      <c r="I20" t="s">
-        <v>113</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>115</v>
+    <row r="21" ht="202" customHeight="1" spans="9:11">
+      <c r="I21" t="s">
+        <v>117</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/日文音读.xlsx
+++ b/日文音读.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119">
   <si>
     <t>汉语声母</t>
   </si>
@@ -86,22 +86,24 @@
 ２、らい
 ３、かい
 ４、さい
-x、さい
+x、ざい
 x、ざい
 x、だい
 x、たい
-x、てき</t>
+x、てき
+x、しら</t>
   </si>
   <si>
     <t>１、一概、外（がい）
 ２、依頼、外来（らい）
 ３、日本海、快感、開花、外交、改札（かい）
 ４、掲載（さい）、再会
-x、裁（さい）判
+x、裁（さい）判、取材
 x、在（ざい）学
 x、古代（だい）
 x、事態（たい）
-x、指摘（てき）</t>
+x、指摘（てき）
+x、白髪（しら）</t>
   </si>
   <si>
     <t>１、あわ
@@ -142,10 +144,11 @@
 １５、ねん
 １６、れん
 x、こん
+x、べん
 </t>
   </si>
   <si>
-    <t xml:space="preserve">１、感、肝、冠、汗、干、看、勘、刊、願書、寒帯、官庁、機関（かん）
+    <t xml:space="preserve">１、感、肝、冠、汗、干、看、勘、刊、願書、寒帯、官庁、機関、瞬間（かん）
 ２、案、安、暗（あん）
 ３、医院（いん）
 ４、一段、横断（たん）、温暖（だん）、極端
@@ -156,7 +159,7 @@
 ８、運搬、基盤（ぱん）
 ９、界面（めん）
 １０、回覧（らん）
-１１、加減（けん）、見解、限界、原稿、剣道、語源
+１１、加減（けん）、見解、限界、原稿、剣道、語源、真剣
 １２、現（げん）役
 １２、架線（せん）、感染、漁船、実践
 １３、健全（ぜん）、事前
@@ -164,6 +167,7 @@
 １４、可燃（ねん）、観念
 １５、関連（れん）
 x、献（こん）立
+x、小便（べん）
 </t>
   </si>
   <si>
@@ -229,12 +233,12 @@
     <t>x、以降（こう）、一向、講演、抗議、航空、光景、香水
 x、強（ごう）引
 x、影響（きょう）、强化、好況
-x、一方（ぽう）、脂肪、志望
+x、一方（ぽう）、脂肪、志望、消防
 x、延長（ちょう）
 x、往（おう）来
-x、海洋（よう）、休養
-x、合唱（しょう）、観賞、車掌
-x、現状（じょう）
+x、海洋（よう）、休養、仕様
+x、合唱（しょう）、観賞、車掌、商人、障害、将棋、奨励、象徴
+x、現状、出場、上映（じょう）、常勤
 x、上（かみ）
 x、傷（きず）口
 x、空想（そう）
@@ -271,10 +275,12 @@
 ５、ぞう
 ６、ろう
 ７、こう
-、ごう
+x、ごう
+x、もう
 ８、かんが
 ９、みょう
 １０、きょう
+x、しょう
 x、ちょう
 x、ひょう
 １１、くちょう
@@ -283,15 +289,17 @@
   <si>
     <t xml:space="preserve">１、泡（あわ）
 ２、朝（あさ）
-３、飲料（りょう）
+３、飲料（りょう）、修了
 ４、消（け）
 ５、改造（ぞう）、乾燥
 ６、過労（ろう）
 ７、好（こう）意、高価、後悔、孝行、考慮、効力
 、豪（ごう）華
+x、消耗（もう）
 ８、考（かんが）え
 ９、奇妙（みょう）
 １０、教（きょう）官
+x、消化（しょう）、少数、照明
 １１、口調（ちょう）
 １２、公表（ひょう）
 </t>
@@ -371,7 +379,7 @@
 ３、永（えい）遠
 ４、運動（どう）、混同、系統
 ５、懐中（ちゅう）、昆虫
-６、観衆（しゅう）、終始
+６、観衆（しゅう）、終始、重力
 ７、共（きゅう）益
 ８、供（きょう）給、恐怖
 ９、共通（つう）
@@ -405,6 +413,7 @@
   </si>
   <si>
     <t>１、しゅ
+x、じゅ
 ２、しゅう
 ３、う
 ４、どう
@@ -414,6 +423,7 @@
   </si>
   <si>
     <t>１、握手（しゅ）
+x、受賞（じゅ）
 ２、一週（しゅう）、五大州、周囲、収穫
 ３、右（う）
 ４、運動（どう）、花道
@@ -481,6 +491,7 @@
   </si>
   <si>
     <t>１、い
+x、み
 ２、るい
 ３、衛（えい）生
 ４、ない
@@ -492,6 +503,7 @@
   </si>
   <si>
     <t xml:space="preserve">１、委（い）員
+x、情味（み）
 ２、衣類（るい）
 ３、屋内（ない）
 x、支配（はい）
@@ -517,13 +529,17 @@
     <t>１、ほん
 ２、おん
 ３、ぶん
-x、こん</t>
+x、こん
+x、にん
+x、しん</t>
   </si>
   <si>
     <t>１、本（ほん）
 ２、恩（おん）恵、温（おん）室
 ３、区分（ぶん）、原文
-x、根（こん）拠</t>
+x、根（こん）拠
+x、承認、商人（にん）
+x、真（しん）空、神経</t>
   </si>
   <si>
     <t>１、しず</t>
@@ -533,21 +549,13 @@
   </si>
   <si>
     <t>eng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">１、そう
-２、おう
-３、じょう
-４、てい
-５、せい
-６、のう
-x、とう
-</t>
   </si>
   <si>
     <t xml:space="preserve">１、1層（そう）
 ２、横（おう）断
-３、過剰（じょう）
+x、出生（しょう）、上昇、症状、省略
+３、過剰（じょう）、蒸発
+x、象徴（ちょう）
 ４、過程（てい）
 ５、歓声（せい）、行政、公正、作成
 ６、機能（のう）
@@ -566,7 +574,8 @@
   </si>
   <si>
     <t>1，承（うけたまわ）り
-２、かた</t>
+２、かた
+x、出生（せい、しょう）两种读音都行</t>
   </si>
   <si>
     <t>i</t>
@@ -584,7 +593,7 @@
 ２、機、気、記号、基準、起動（き）
 ３、知、致、治安（ち）
 ４、日（ひ）
-x、師（し）、監事、施設、思想、資金
+x、師（し）、監事、施設、思想、飼料、資金、（私）立、（市）立
 x、自（じ）宅、実地
 ５、一（いち）
 ６、際、菜、細工、（さい）
@@ -592,7 +601,7 @@
 ９、斉（せい）
 １０、家計（けい）、継続
 x、実例（れい）＿
-１１、引力（りょく）｜x、就職（しょく）
+１１、引力（りょく）
 １３、演習（しゅう）
 １４、課題（だい）
 １５、儀式（しき）
@@ -602,7 +611,7 @@
 １７、客席（せき）
 １８、〜級（きゅう）、（急）激、吸収
 １９、急（激）（げき）、劇場
-２０、求職（しょく）、軽食
+２０、求職（しょく）、軽食、食事
 ２１、給（きゅう）食
 ２２、休息（そく）
 ２３、極（きょく）端
@@ -614,6 +623,7 @@
   <si>
     <t xml:space="preserve">１、いの
 ２、い
+x、し
 ３、う
 ４、も
 ５、けい
@@ -631,6 +641,7 @@
 １、私（わたくし）
 ２、祈（いの）り
 ３、入（い）
+x、知（し）らす
 ４、飢（う）えろ
 ５、持（も）
 ６、計（けい）
@@ -683,10 +694,10 @@
 ３、一定（てい）、校庭
 ４、命（めい）
 ５、官庁（ちょう）、視聴
-６、球形（けい）
+６、球形（けい）、神経
 ７、行（ぎょう）儀
-x、競（ぎょう）走
-８、苦情（じょう）
+x、競（きょう）走、上京
+８、苦情（じょう）、定規、静脈
 ９、敬（けい）意、蛍光、警告、軽視、刑事、形容、経由
 x、高齢（れい）
 １０、行（こう）為、幸運、興奮</t>
@@ -713,17 +724,19 @@
 ６、きん
 x、こん
 x、りん
+x、ひん
 </t>
   </si>
   <si>
     <t>１、今（いま）
 ２、飲（いん）酒
 ３、音（おん）量
-４、確信（しん）、苦心
+４、確信（しん）、進化、侵害、苦心、
 ５、金（かな）網
-６、金（きん）庫、禁止、筋肉
+６、金（きん）庫、禁止、筋肉、常勤
 x、古今（こん）
-x、山林（りん）</t>
+x、山林（りん）
+x、上品（ひん）</t>
   </si>
   <si>
     <t>ia</t>
@@ -795,8 +808,10 @@
 x、古屋（や）
 x、木（き）
 X、給与（よ）
-４、朱（しゅ）、樹（じゅ）
-x、削除（じょ）
+４、朱、主観、趣旨（しゅ）
+x、樹（じゅ）、熟語
+x、初旬（しょ）、書籍、処置、署名
+x、削除、助監（じょ）
 ５、竹（ちく）、育（いく）、服（ふく）
 欲、海水浴（よく）、速、足（そく）、屋（おく）
 ６、祝、主、宿（しゅく）
@@ -815,26 +830,29 @@
 ２１、産出（しゅつ）</t>
   </si>
   <si>
-    <t>１、う
+    <t xml:space="preserve">１、う
 ２、うった
 ３、かた
 x、こだわ
 x、さ
-x、ざわ</t>
-  </si>
-  <si>
-    <t>１、浮（う）く、受
+x、ざわ
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">１、浮（う）く、受
 ２、訴（うった）え
 ３、固（かた）めて
 x、拘（こだわ）り
 x、去（さ）る
-x、触（ざわ）り</t>
+x、触（ざわ）り
+</t>
   </si>
   <si>
     <t>足（あし）
 誤（あやま）
 粗（あら）
-怒（いか）り</t>
+怒（いか）り
+x、書物（もつ）</t>
   </si>
   <si>
     <t>ui</t>
@@ -845,11 +863,13 @@
 ３、かい
 ４、ぜい
 x、さい
-５、き</t>
+５、き
+x、すい</t>
   </si>
   <si>
     <t>１、規（き）律
-x、催（さい）促</t>
+x、催（さい）促
+x、純粋（すい）</t>
   </si>
   <si>
     <t>１、え
@@ -876,6 +896,8 @@
   <si>
     <t xml:space="preserve">１、うん
 ２、ろん
+x、しゅん
+x、じゅん
 ３、じゅう
 ４、こん
 ５、くん
@@ -886,7 +908,9 @@
   <si>
     <t>１、運（うん）転
 ２、概論（ろん）
-３、基準（じゅう）
+x、瞬間（しゅん）
+x、初旬（じゅん）
+３、基準、循環、純情（じゅう）
 ４、求婚（こん）、混雑、昆虫
 ５、教訓（くん）、
 ６、軍、郡（ぐん）
@@ -922,18 +946,22 @@
 ３、か
 x、さ
 x、れ
+x、しょ
 x、こうざ
+x、しゅく
 x、じゃく
 x、ちゃく</t>
   </si>
   <si>
     <t>１、拡充、獲得（かく）
 ２、国（こく）王
-x、昨（さく）
+x、昨、名作（さく）
 ２、学説（せつ）
 ３、過失（か）、果実、括弧、活気、貨物
 x、左（さ）折、作法、錯覚
 x、洒落（れ）
+x、所属（しょ）
+x、縮小（しゅく）
 x、弱（じゃく）点
 x、終着（ちゃく）</t>
   </si>
@@ -943,9 +971,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -971,47 +999,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1026,10 +1015,34 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1043,15 +1056,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1072,8 +1092,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1086,20 +1107,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1110,187 +1138,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1322,6 +1350,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1333,21 +1370,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1367,11 +1389,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1406,145 +1434,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1879,8 +1907,8 @@
   <sheetPr/>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6"/>
@@ -2018,7 +2046,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="243" customHeight="1" spans="4:14">
+    <row r="5" ht="284" customHeight="1" spans="4:14">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="I5" t="s">
@@ -2149,7 +2177,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" ht="224" customHeight="1" spans="4:14">
+    <row r="11" ht="159" customHeight="1" spans="4:14">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -2157,56 +2185,54 @@
       <c r="I11" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="12" ht="409" customHeight="1" spans="1:13">
       <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="G12" s="1"/>
       <c r="I12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="13" ht="177" customHeight="1" spans="2:11">
@@ -2217,13 +2243,13 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="I13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" ht="177" customHeight="1" spans="2:11">
@@ -2234,16 +2260,16 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="I14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>89</v>
-      </c>
     </row>
-    <row r="15" ht="159" customHeight="1" spans="2:13">
+    <row r="15" ht="143" customHeight="1" spans="2:13">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2251,67 +2277,67 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="I15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>93</v>
-      </c>
     </row>
-    <row r="16" ht="124" customHeight="1" spans="4:11">
+    <row r="16" ht="97" customHeight="1" spans="4:11">
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="I16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" ht="408" customHeight="1" spans="1:13">
       <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="I17" t="s">
         <v>102</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="18" ht="129" customHeight="1" spans="2:13">
@@ -2321,48 +2347,48 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="I18" t="s">
+        <v>107</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" ht="202" customHeight="1" spans="9:11">
       <c r="I19" t="s">
+        <v>110</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" ht="186" customHeight="1" spans="9:11">
       <c r="I20" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K20" s="1" t="s">
+    </row>
+    <row r="21" ht="230" customHeight="1" spans="9:11">
+      <c r="I21" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="21" ht="202" customHeight="1" spans="9:11">
-      <c r="I21" t="s">
+      <c r="J21" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/日文音读.xlsx
+++ b/日文音读.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
   <si>
     <t>汉语声母</t>
   </si>
@@ -65,6 +65,7 @@
   <si>
     <t xml:space="preserve">1.「あ段」  
 2.「あ段」+つ
+x、す
 </t>
   </si>
   <si>
@@ -73,7 +74,8 @@
 ３、圧（あつ）
 ４、札（さつ）
 ５、当て嵌（は）まる
-６、押（お）し寄せ</t>
+６、押（お）し寄せ
+x、擦（す）れ違い</t>
   </si>
   <si>
     <t>１、家（いえ）</t>
@@ -97,7 +99,7 @@
     <t>１、一概、外（がい）
 ２、依頼、外来（らい）
 ３、日本海、快感、開花、外交、改札（かい）
-４、掲載（さい）、再会
+４、掲載（さい）、再会、震災
 x、裁（さい）判、取材
 x、在（ざい）学
 x、古代（だい）
@@ -156,10 +158,10 @@
 x、残（ざん）酷
 ６、一転（てん）、原点、古典
 ７、永遠（えん）、沿、宴、演、園
-８、運搬、基盤（ぱん）
+８、運搬、基盤、審判（ぱん）
 ９、界面（めん）
 １０、回覧（らん）
-１１、加減（けん）、見解、限界、原稿、剣道、語源、真剣
+１１、加減（けん）、見解、限界、原稿、剣道、語源、真剣、人件費
 １２、現（げん）役
 １２、架線（せん）、感染、漁船、実践
 １３、健全（ぜん）、事前
@@ -186,6 +188,7 @@
 x、こと
 x、こら
 x、し
+x、すす
 </t>
   </si>
   <si>
@@ -205,7 +208,8 @@
 x、心遣（づか）い
 x、言（こと）付け
 x、堪（こら）え
-x、占（し）める</t>
+x、占（し）める
+x、勧（すす）め</t>
   </si>
   <si>
     <t>１、板（いた）
@@ -230,14 +234,14 @@
 x、とう</t>
   </si>
   <si>
-    <t>x、以降（こう）、一向、講演、抗議、航空、光景、香水
+    <t>x、以降（こう）、一向、講演、抗議、航空、光景、香水、信仰
 x、強（ごう）引
 x、影響（きょう）、强化、好況
 x、一方（ぽう）、脂肪、志望、消防
 x、延長（ちょう）
 x、往（おう）来
 x、海洋（よう）、休養、仕様
-x、合唱（しょう）、観賞、車掌、商人、障害、将棋、奨励、象徴
+x、合唱（しょう），正常、観賞、車掌、商人、障害、将棋、奨励、象徴
 x、現状、出場、上映（じょう）、常勤
 x、上（かみ）
 x、傷（きず）口
@@ -252,6 +256,7 @@
 ５、おとず
 ６、きず
 ７、くる
+x、すず
 x、さまた</t>
   </si>
   <si>
@@ -262,6 +267,7 @@
 ５、訪（おとず）れ
 ６、傷（きず）ついた
 ７、狂（くる）う
+x、涼（すず）む
 x、妨（さまた）げて</t>
   </si>
   <si>
@@ -272,6 +278,7 @@
 ２、あさ
 ３、りょう
 ４、け
+x、そう
 ５、ぞう
 ６、ろう
 ７、こう
@@ -289,8 +296,9 @@
   <si>
     <t xml:space="preserve">１、泡（あわ）
 ２、朝（あさ）
-３、飲料（りょう）、修了
+３、飲料（りょう）、修了、診療
 ４、消（け）
+x、清掃（そう）
 ５、改造（ぞう）、乾燥
 ６、過労（ろう）
 ７、好（こう）意、高価、後悔、孝行、考慮、効力
@@ -390,6 +398,7 @@
   </si>
   <si>
     <t xml:space="preserve">１、あ
+x、す
 ２、あこが
 ３、いさ
 ４、いた
@@ -400,13 +409,15 @@
 </t>
   </si>
   <si>
-    <t>１、空（あ）
+    <t xml:space="preserve">１、空（あ）
+x、空（す）かす
 ２、憧（あこが）
 ３、勇（いさ）ましい
 ４、痛（いた）め
 ５、恐（おそ）れ
 ６、重（おも）い
-７、空（から）回り</t>
+７、空（から）回り
+</t>
   </si>
   <si>
     <t>ou</t>
@@ -419,7 +430,8 @@
 ４、どう
 ５、そう
 ６、ぐう
-x、こう</t>
+x、こう
+x、ゆう</t>
   </si>
   <si>
     <t>１、握手（しゅ）
@@ -429,7 +441,8 @@
 ４、運動（どう）、花道
 ５、競走（そう）
 ６、偶（ぐう）数
-７、候（こう）補</t>
+７、候（こう）補
+x、声優（ゆう）</t>
   </si>
   <si>
     <t>１、厚（あつ）
@@ -439,7 +452,8 @@
     <t>e</t>
   </si>
   <si>
-    <t>１、しゃ
+    <t>x、や
+１、しゃ
 ２、かく
 x、こく
 x、らく
@@ -492,6 +506,7 @@
   <si>
     <t>１、い
 x、み
+x、ひ
 ２、るい
 ３、衛（えい）生
 ４、ない
@@ -510,6 +525,7 @@
 x、姉妹（まい）
 ４、危（き）機
 ５、黒（くろ）
+x、人件費（ひ）
 </t>
   </si>
   <si>
@@ -531,7 +547,9 @@
 ３、ぶん
 x、こん
 x、にん
-x、しん</t>
+x、しん
+x、じん
+x、もん</t>
   </si>
   <si>
     <t>１、本（ほん）
@@ -539,7 +557,9 @@
 ３、区分（ぶん）、原文
 x、根（こん）拠
 x、承認、商人（にん）
-x、真（しん）空、神経</t>
+x、真（しん）空、震災、神経、審査、紳士、申請、診療
+x、人権（じん）
+x、正門（もん）</t>
   </si>
   <si>
     <t>１、しず</t>
@@ -549,6 +569,22 @@
   </si>
   <si>
     <t>eng</t>
+  </si>
+  <si>
+    <t>x、こう
+x、ごう
+x、きょう
+x、ぽう
+x、ちょう
+x、おう
+x、よう
+x、しょう
+x、じょう
+x、かみ
+x、きず
+x、そう
+x、とう
+x、せい</t>
   </si>
   <si>
     <t xml:space="preserve">１、1層（そう）
@@ -560,17 +596,20 @@
 ５、歓声（せい）、行政、公正、作成
 ６、機能（のう）
 x、高等（とう）
+x、成（せい）育、誠実
 </t>
   </si>
   <si>
     <t>１、あらそ
 ２、い
-３、さ</t>
+３、さ
+x、す</t>
   </si>
   <si>
     <t>１、争（あらそ）
 ２、生（い）き
-３、冷（さ）ます</t>
+３、冷（さ）ます
+x、澄（す）む</t>
   </si>
   <si>
     <t>1，承（うけたまわ）り
@@ -590,7 +629,7 @@
   </si>
   <si>
     <t xml:space="preserve">１、医（い）
-２、機、気、記号、基準、起動（き）
+２、機、気、記号、基準、起動、世（紀）（き）
 ３、知、致、治安（ち）
 ４、日（ひ）
 x、師（し）、監事、施設、思想、飼料、資金、（私）立、（市）立
@@ -598,26 +637,18 @@
 ５、一（いち）
 ６、際、菜、細工、（さい）
 ７、開、海、改（かい）
-９、斉（せい）
+９、斉（せい）、製餅、議会制
 １０、家計（けい）、継続
 x、実例（れい）＿
 １１、引力（りょく）
 １３、演習（しゅう）
 １４、課題（だい）
+x、西暦（れき）
 １５、儀式（しき）
 １６、喫（きつ）煙
 x、確立｜率（りつ）
 x、室（しつ）外
-１７、客席（せき）
-１８、〜級（きゅう）、（急）激、吸収
-１９、急（激）（げき）、劇場
-２０、求職（しょく）、軽食、食事
-２１、給（きゅう）食
-２２、休息（そく）
-２３、極（きょく）端
-２４、契（けい）機、継続、計測、系統
-２５、激（げき）減｜２６、現役（えき）
-２７、集（しゅう）字
+x、誠実（じつ）
 </t>
   </si>
   <si>
@@ -690,9 +721,9 @@
   </si>
   <si>
     <t>１、影、映、英（えい）
-２、酸性（せい）、星
+２、酸性（せい）、性、星、申請、青春
 ３、一定（てい）、校庭
-４、命（めい）
+４、人命（めい）
 ５、官庁（ちょう）、視聴
 ６、球形（けい）、神経
 ７、行（ぎょう）儀
@@ -700,17 +731,31 @@
 ８、苦情（じょう）、定規、静脈
 ９、敬（けい）意、蛍光、警告、軽視、刑事、形容、経由
 x、高齢（れい）
-１０、行（こう）為、幸運、興奮</t>
+１０、行（こう）為、進行、幸運、興奮</t>
   </si>
   <si>
     <t>１、かた
 ２、かたむ
-x、しず</t>
+x、しず
+x、せい</t>
   </si>
   <si>
     <t>１、型（かた）
 ２、傾（かたむ）け
-x、静（しず）か</t>
+x、静（しず）か
+x、精（せい）いっぱい</t>
+  </si>
+  <si>
+    <t>１７、客席（せき）
+１８、〜級（きゅう）、（急）激、吸収
+１９、急（激）（げき）、劇場
+２０、求職（しょく）、軽食、食事
+２１、給（きゅう）食
+２２、休息（そく）
+２３、極（きょく）端
+２４、契（けい）機、継続、計測、系統
+２５、激（げき）減｜２６、現役（えき）
+２７、集（しゅう）字</t>
   </si>
   <si>
     <t>in</t>
@@ -739,6 +784,12 @@
 x、上品（ひん）</t>
   </si>
   <si>
+    <t>x、すじ</t>
+  </si>
+  <si>
+    <t>１、筋（すじ）</t>
+  </si>
+  <si>
     <t>ia</t>
   </si>
   <si>
@@ -749,12 +800,20 @@
   </si>
   <si>
     <t>ie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">１、さい
+x、かい
+x、けい
+x、けつ
+</t>
   </si>
   <si>
     <t xml:space="preserve">１、一切（さい）
 ２、界、大街、解散（かい）、機械
 ３、協（きょう）会
 ４、掲（けい）載、携帯
+x、清潔（けつ）
 </t>
   </si>
   <si>
@@ -799,7 +858,7 @@
 ７、かず</t>
   </si>
   <si>
-    <t>１、苦（く）
+    <t xml:space="preserve">１、苦（く）
 x、国土（ど）
 ２、無（む）
 ３、具（ぐ）体
@@ -808,87 +867,110 @@
 x、古屋（や）
 x、木（き）
 X、給与（よ）
-４、朱、主観、趣旨（しゅ）
+１３、書（か）き、駆け。
+９、浴（あ）、
+x、居（い）
+１１、雨（う）天
+１２、回部（ぶ）
+x、進路（ろ）
+x、図（ず）屏風
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">１、う
+２、うった
+３、かた
+x、こだわ
+x、さ
+x、ざわ
+x、す
+x、すみ
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">１、浮（う）く、受
+２、訴（うった）え
+３、固（かた）めて
+x、拘（こだわ）り
+x、去（さ）る
+x、触（ざわ）り
+x、据（す）え、住み
+x、速（すみ）やか
+</t>
+  </si>
+  <si>
+    <t>足（あし）
+誤（あやま）
+粗（あら）
+怒（いか）り
+x、書物（もつ）</t>
+  </si>
+  <si>
+    <t>ui</t>
+  </si>
+  <si>
+    <t>１、たい
+２、けい
+３、かい
+４、ぜい
+x、さい
+５、き
+x、すい
+x、ずい</t>
+  </si>
+  <si>
+    <t>１、規（き）律
+x、所得税（せい）
+x、催（さい）促
+x、純粋（すい）、推測、垂直、水滴
+x、随（ずい）筆</t>
+  </si>
+  <si>
+    <t>１、え
+２、お
+３、く</t>
+  </si>
+  <si>
+    <t>１、絵（え）の
+２、追（お）いかけて
+３、悔（く）い</t>
+  </si>
+  <si>
+    <t>４、朱、主観、趣旨（しゅ）
 x、樹（じゅ）、熟語
 x、初旬（しょ）、書籍、処置、署名
 x、削除、助監（じょ）
 ５、竹（ちく）、育（いく）、服（ふく）
 欲、海水浴（よく）、速、足（そく）、屋（おく）
 ６、祝、主、宿（しゅく）
+x、成熟（じゅく）
 ７、曲（きょく）
 ８、注（ちゅう）
-９、浴（あ）、居（い）
-１１、雨（う）天
-１２、回部（ぶ）
-１３、書（か）き、駆け
 １４、半数（すう）
 １５、株（かぶ）式
 １７、漁（ぎょう）
 １８、居（きょ）住（じょう）、巨大
+x、施入（にゅう）
 １９、口数（かず）
 ２０、好物（ぶつ）
 ２１、産出（しゅつ）</t>
   </si>
   <si>
-    <t xml:space="preserve">１、う
-２、うった
-３、かた
-x、こだわ
-x、さ
-x、ざわ
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">１、浮（う）く、受
-２、訴（うった）え
-３、固（かた）めて
-x、拘（こだわ）り
-x、去（さ）る
-x、触（ざわ）り
-</t>
-  </si>
-  <si>
-    <t>足（あし）
-誤（あやま）
-粗（あら）
-怒（いか）り
-x、書物（もつ）</t>
-  </si>
-  <si>
-    <t>ui</t>
-  </si>
-  <si>
-    <t>１、たい
-２、けい
-３、かい
-４、ぜい
-x、さい
-５、き
-x、すい</t>
-  </si>
-  <si>
-    <t>１、規（き）律
-x、催（さい）促
-x、純粋（すい）</t>
-  </si>
-  <si>
-    <t>１、え
-２、お
-３、く</t>
-  </si>
-  <si>
-    <t>１、絵（え）の
-２、追（お）いかけて
-３、悔（く）い</t>
-  </si>
-  <si>
     <t>ua</t>
   </si>
   <si>
-    <t>x、かけ</t>
-  </si>
-  <si>
-    <t>x、腰掛（かけ）</t>
+    <t>x、かけ
+x、わ</t>
+  </si>
+  <si>
+    <t>x、腰掛（かけ）
+x、神話（わ）</t>
+  </si>
+  <si>
+    <t>x、す</t>
+  </si>
+  <si>
+    <t>x、刷（す）る</t>
   </si>
   <si>
     <t>un</t>
@@ -903,18 +985,20 @@
 ５、くん
 ６、ぐん
 x、そん
+x、すん
 </t>
   </si>
   <si>
     <t>１、運（うん）転
 ２、概論（ろん）
-x、瞬間（しゅん）
-x、初旬（じゅん）
-３、基準、循環、純情（じゅう）
+x、瞬間（しゅん）、青春
+x、初旬、基準（じゅん）
+３、循環、純情（じゅう）
 ４、求婚（こん）、混雑、昆虫
 ５、教訓（くん）、
 ６、軍、郡（ぐん）
-x、子孫（そん）、村長</t>
+x、子孫（そん）、村長
+x、寸（すん）法</t>
   </si>
   <si>
     <t>ue</t>
@@ -1907,8 +1991,8 @@
   <sheetPr/>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6"/>
@@ -2177,7 +2261,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" ht="159" customHeight="1" spans="4:14">
+    <row r="11" ht="242" customHeight="1" spans="4:14">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -2185,71 +2269,81 @@
       <c r="I11" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="K11" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" ht="409" customHeight="1" spans="1:13">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" s="1"/>
       <c r="I12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="13" ht="177" customHeight="1" spans="2:11">
+    <row r="13" ht="177" customHeight="1" spans="2:13">
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="I13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="L13" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14" ht="177" customHeight="1" spans="2:11">
@@ -2260,16 +2354,16 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="I14" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="15" ht="143" customHeight="1" spans="2:13">
+    <row r="15" ht="183" customHeight="1" spans="2:13">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2277,118 +2371,126 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="I15" t="s">
-        <v>89</v>
-      </c>
-      <c r="J15" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="K15" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="16" ht="97" customHeight="1" spans="4:11">
+    <row r="16" ht="139" customHeight="1" spans="4:11">
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="I16" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" ht="408" customHeight="1" spans="1:13">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="I17" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="18" ht="129" customHeight="1" spans="2:13">
+    <row r="18" ht="310" customHeight="1" spans="2:13">
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="I18" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="19" ht="202" customHeight="1" spans="9:11">
       <c r="I19" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" ht="186" customHeight="1" spans="9:11">
       <c r="I20" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" ht="230" customHeight="1" spans="9:11">
       <c r="I21" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/日文音读.xlsx
+++ b/日文音读.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128">
   <si>
     <t>汉语声母</t>
   </si>
@@ -96,7 +96,7 @@
 x、しら</t>
   </si>
   <si>
-    <t>１、一概、外（がい）
+    <t>１、一概、外（がい）、損害
 ２、依頼、外来（らい）
 ３、日本海、快感、開花、外交、改札（かい）
 ４、掲載（さい）、再会、震災
@@ -158,13 +158,13 @@
 x、残（ざん）酷
 ６、一転（てん）、原点、古典
 ７、永遠（えん）、沿、宴、演、園
-８、運搬、基盤、審判（ぱん）
+８、運搬、基盤、審判、先（般）（ぱん）
 ９、界面（めん）
 １０、回覧（らん）
 １１、加減（けん）、見解、限界、原稿、剣道、語源、真剣、人件費
 １２、現（げん）役
-１２、架線（せん）、感染、漁船、実践
-１３、健全（ぜん）、事前
+１２、架線（せん）、感染、漁船、実践、戦士、選考、専有
+１３、健全（ぜん）、事前、全国
 １３、片（かた）方
 １４、可燃（ねん）、観念
 １５、関連（れん）
@@ -177,6 +177,7 @@
 ２、あらわ
 ３、あわ
 ４、い
+x、そ
 ５、のこ
 ６、ねむ
 ７、かえ
@@ -198,6 +199,7 @@
 ４、現（あらわ）れ
 ５、淡（あわ）い
 ６、言（い）い
+x、染（そ）まり
 ７、残（のこ）
 ８、眠（ねむ）い
 ９、返（かえ）ろ
@@ -245,7 +247,7 @@
 x、現状、出場、上映（じょう）、常勤
 x、上（かみ）
 x、傷（きず）口
-x、空想（そう）
+x、空想（そう）、相互、装飾、創造
 x、見当（とう）</t>
   </si>
   <si>
@@ -291,6 +293,7 @@
 x、ちょう
 x、ひょう
 １１、くちょう
+x、こく
 </t>
   </si>
   <si>
@@ -299,7 +302,7 @@
 ３、飲料（りょう）、修了、診療
 ４、消（け）
 x、清掃（そう）
-５、改造（ぞう）、乾燥
+５、改造（ぞう）、乾燥、草履
 ６、過労（ろう）
 ７、好（こう）意、高価、後悔、孝行、考慮、効力
 、豪（ごう）華
@@ -310,6 +313,7 @@
 x、消化（しょう）、少数、照明
 １１、口調（ちょう）
 １２、公表（ひょう）
+x、宣（告）（こく）
 </t>
   </si>
   <si>
@@ -370,21 +374,23 @@
 ２、よう
 ３、えい
 ４、どう
+x、そう
+９、つう
+x、ゆう
+x、くう
+x、こう
 ５、ちゅう
 ６、しゅう　
 x、じゅう
 ７、きゅう
 ８、きょう
-９、つう
-１０、ゆう
-１１、くう
-１２、こう
 </t>
   </si>
   <si>
     <t>１、一種（しゅ）
 ２、引用（よう）、収容
 ３、永（えい）遠
+x、送金（そう）、総合
 ４、運動（どう）、混同、系統
 ５、懐中（ちゅう）、昆虫
 ６、観衆（しゅう）、終始、重力
@@ -399,6 +405,7 @@
   <si>
     <t xml:space="preserve">１、あ
 x、す
+x、せ
 ２、あこが
 ３、いさ
 ４、いた
@@ -410,6 +417,7 @@
   </si>
   <si>
     <t xml:space="preserve">１、空（あ）
+x、攻（せ）め
 x、空（す）かす
 ２、憧（あこが）
 ３、勇（いさ）ましい
@@ -427,6 +435,7 @@
 x、じゅ
 ２、しゅう
 ３、う
+x、とう
 ４、どう
 ５、そう
 ６、ぐう
@@ -438,6 +447,7 @@
 x、受賞（じゅ）
 ２、一週（しゅう）、五大州、周囲、収穫
 ３、右（う）
+x、戦闘（とう）
 ４、運動（どう）、花道
 ５、競走（そう）
 ６、偶（ぐう）数
@@ -468,7 +478,7 @@
   </si>
   <si>
     <t>１、社、者（しゃ）
-２、各、改革、额(かく)、惡（あく）
+２、各、改革、额(かく)、惡（あく）、体格
 x、克（こく）服
 x、娯楽（らく）
 x、習得（とく）
@@ -638,14 +648,17 @@
 ６、際、菜、細工、（さい）
 ７、開、海、改（かい）
 ９、斉（せい）、製餅、議会制
-１０、家計（けい）、継続
+１０、家計（けい）、継続、体系
 x、実例（れい）＿
 １１、引力（りょく）
 １３、演習（しゅう）
 １４、課題（だい）
 x、西暦（れき）
-１５、儀式（しき）
-１６、喫（きつ）煙
+x、儀式（しき）
+x、激（げき）減
+x、現役（えき）
+x、客席（せき）、赤橙
+x、喫（きつ）煙
 x、確立｜率（りつ）
 x、室（しつ）外
 x、誠実（じつ）
@@ -746,15 +759,13 @@
 x、精（せい）いっぱい</t>
   </si>
   <si>
-    <t>１７、客席（せき）
-１８、〜級（きゅう）、（急）激、吸収
+    <t>１８、〜級（きゅう）、（急）激、吸収
 １９、急（激）（げき）、劇場
-２０、求職（しょく）、軽食、食事
+２０、求職（しょく）、軽食、食事、装飾
 ２１、給（きゅう）食
 ２２、休息（そく）
 ２３、極（きょく）端
 ２４、契（けい）機、継続、計測、系統
-２５、激（げき）減｜２６、現役（えき）
 ２７、集（しゅう）字</t>
   </si>
   <si>
@@ -778,7 +789,7 @@
 ３、音（おん）量
 ４、確信（しん）、進化、侵害、苦心、
 ５、金（かな）網
-６、金（きん）庫、禁止、筋肉、常勤
+６、金（きん）庫、禁止、筋肉、接近、常勤
 x、古今（こん）
 x、山林（りん）
 x、上品（ひん）</t>
@@ -806,6 +817,9 @@
 x、かい
 x、けい
 x、けつ
+x、めつ
+x、べつ
+x、せっ
 </t>
   </si>
   <si>
@@ -814,6 +828,9 @@
 ３、協（きょう）会
 ４、掲（けい）載、携帯
 x、清潔（けつ）
+x、絶滅（めつ）
+x、送別（べつ）
+x、接（せっ）近
 </t>
   </si>
   <si>
@@ -874,6 +891,7 @@
 １２、回部（ぶ）
 x、進路（ろ）
 x、図（ず）屏風
+x、組（そ）織、素質
 </t>
   </si>
   <si>
@@ -923,7 +941,8 @@
 x、所得税（せい）
 x、催（さい）促
 x、純粋（すい）、推測、垂直、水滴
-x、随（ずい）筆</t>
+x、随（ずい）筆
+x、（退）（たい）会（かい）</t>
   </si>
   <si>
     <t>１、え
@@ -936,41 +955,51 @@
 ３、悔（く）い</t>
   </si>
   <si>
-    <t>４、朱、主観、趣旨（しゅ）
+    <t xml:space="preserve">４、朱、主観、趣旨（しゅ）
 x、樹（じゅ）、熟語
 x、初旬（しょ）、書籍、処置、署名
 x、削除、助監（じょ）
-５、竹（ちく）、育（いく）、服（ふく）
-欲、海水浴（よく）、速、足（そく）、屋（おく）
-６、祝、主、宿（しゅく）
+x、居（きょ）
+５、竹（ちく）
+x、育（いく）
+x、服（ふく）
+x、海水浴（よく）
+x、速、足、接続（そく）
+x。屋（おく）
+６、祝、主、宿、接触（しゅく）
 x、成熟（じゅく）
 ７、曲（きょく）
 ８、注（ちゅう）
 １４、半数（すう）
+x、待遇（ぐう）
+</t>
+  </si>
+  <si>
+    <t>ua</t>
+  </si>
+  <si>
+    <t>x、かけ
+x、わ</t>
+  </si>
+  <si>
+    <t>x、腰掛（かけ）
+x、神話（わ）</t>
+  </si>
+  <si>
+    <t>x、す</t>
+  </si>
+  <si>
+    <t>x、刷（す）る</t>
+  </si>
+  <si>
+    <t>１７、漁（ぎょう）
+住（じょう）、巨大
+x、施入（にゅう）
 １５、株（かぶ）式
-１７、漁（ぎょう）
-１８、居（きょ）住（じょう）、巨大
-x、施入（にゅう）
 １９、口数（かず）
 ２０、好物（ぶつ）
-２１、産出（しゅつ）</t>
-  </si>
-  <si>
-    <t>ua</t>
-  </si>
-  <si>
-    <t>x、かけ
-x、わ</t>
-  </si>
-  <si>
-    <t>x、腰掛（かけ）
-x、神話（わ）</t>
-  </si>
-  <si>
-    <t>x、す</t>
-  </si>
-  <si>
-    <t>x、刷（す）る</t>
+２１、産出（しゅつ）
+x、戦術（じゅつ）</t>
   </si>
   <si>
     <t>un</t>
@@ -997,7 +1026,7 @@
 ４、求婚（こん）、混雑、昆虫
 ５、教訓（くん）、
 ６、軍、郡（ぐん）
-x、子孫（そん）、村長
+x、子孫（そん）、損害、村長
 x、寸（すん）法</t>
   </si>
   <si>
@@ -1663,9 +1692,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2089,7 +2121,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" ht="380" customHeight="1" spans="4:14">
+    <row r="3" ht="409" customHeight="1" spans="4:14">
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="I3" t="s">
@@ -2460,37 +2492,40 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" ht="202" customHeight="1" spans="9:11">
+    <row r="19" ht="202" customHeight="1" spans="3:11">
+      <c r="C19" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="I19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" ht="186" customHeight="1" spans="9:11">
       <c r="I20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" ht="230" customHeight="1" spans="9:11">
       <c r="I21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/日文音读.xlsx
+++ b/日文音读.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129">
   <si>
     <t>汉语声母</t>
   </si>
@@ -111,14 +111,16 @@
     <t>１、あわ
 ２、あや
 ３、あらた
-４、か</t>
+４、か
+x、たよ</t>
   </si>
   <si>
     <t>１、哀（あわ）
 ２、怪（あや）
 ３、改（あらた）
 4、呆（あき）
-５、買（か）い、貸し</t>
+５、買（か）い、貸し
+x、頼（たよ）り</t>
   </si>
   <si>
     <t>埋（う）</t>
@@ -135,6 +137,7 @@
 x、ざん
 ６、てん
 ７、えん
+x、はん
 ８、ぱん
 ９、めん
 １０、らん
@@ -153,8 +156,9 @@
     <t xml:space="preserve">１、感、肝、冠、汗、干、看、勘、刊、願書、寒帯、官庁、機関、瞬間（かん）
 ２、案、安、暗（あん）
 ３、医院（いん）
-４、一段、横断（たん）、温暖（だん）、極端
-５、酸（さん）、原産、山地
+４、一段、横断、短小、単純、淡水（たん）、
+x、温暖（だん）、極端、経験談、青年団、弾力
+５、酸（さん）、原産、山地、大戦
 x、残（ざん）酷
 ６、一転（てん）、原点、古典
 ７、永遠（えん）、沿、宴、演、園
@@ -169,7 +173,7 @@
 １４、可燃（ねん）、観念
 １５、関連（れん）
 x、献（こん）立
-x、小便（べん）
+x、小便（べん）、短（編）
 </t>
   </si>
   <si>
@@ -324,7 +328,9 @@
 ５、かか
 ６、き
 x、こ
-x、しば</t>
+x、しば
+x、たがら
+x、ただよ</t>
   </si>
   <si>
     <t>1、暴（あば）れろ
@@ -334,7 +340,9 @@
 ５、抱（かか）えた
 ６、消（き）え
 x、焦（こ）がす、漕（こ）ぐ
-x、绞（しば）る</t>
+x、绞（しば）る
+x、宝（たがら）くじ
+x、漂（ただよ）う</t>
   </si>
   <si>
     <t>１、板</t>
@@ -373,6 +381,7 @@
     <t xml:space="preserve">１、しゅ
 ２、よう
 ３、えい
+x、とう
 ４、どう
 x、そう
 ９、つう
@@ -391,6 +400,7 @@
 ２、引用（よう）、収容
 ３、永（えい）遠
 x、送金（そう）、総合
+x、暖冬（とう）
 ４、運動（どう）、混同、系統
 ５、懐中（ちゅう）、昆虫
 ６、観衆（しゅう）、終始、重力
@@ -527,7 +537,7 @@
 ７、くろ</t>
   </si>
   <si>
-    <t xml:space="preserve">１、委（い）員
+    <t xml:space="preserve">１、委（い）員、地位
 x、情味（み）
 ２、衣類（るい）
 ３、屋内（ない）
@@ -541,12 +551,14 @@
   <si>
     <t>１、い
 ２、あや
-x、しばむ</t>
+x、しばむ
+x、ちが</t>
   </si>
   <si>
     <t>１、位（い）
 ２、危（あや）
-x、萎（しば）む</t>
+x、萎（しば）む
+x、違（ちが）える</t>
   </si>
   <si>
     <t>en</t>
@@ -567,8 +579,8 @@
 ３、区分（ぶん）、原文
 x、根（こん）拠
 x、承認、商人（にん）
-x、真（しん）空、震災、神経、審査、紳士、申請、診療
-x、人権（じん）
+x、真（しん）空、震災、神経、単身、審査、紳士、申請、診療、
+x、人権（じん）、大臣
 x、正門（もん）</t>
   </si>
   <si>
@@ -594,7 +606,8 @@
 x、きず
 x、そう
 x、とう
-x、せい</t>
+x、せい
+x、のう</t>
   </si>
   <si>
     <t xml:space="preserve">１、1層（そう）
@@ -607,6 +620,7 @@
 ６、機能（のう）
 x、高等（とう）
 x、成（せい）育、誠実
+x、知能（のう）
 </t>
   </si>
   <si>
@@ -619,7 +633,8 @@
     <t>１、争（あらそ）
 ２、生（い）き
 ３、冷（さ）ます
-x、澄（す）む</t>
+x、澄（す）む
+x、耕（たがや）し</t>
   </si>
   <si>
     <t>1，承（うけたまわ）り
@@ -640,7 +655,7 @@
   <si>
     <t xml:space="preserve">１、医（い）
 ２、機、気、記号、基準、起動、世（紀）（き）
-３、知、致、治安（ち）
+３、知、致、治安、地位（ち）
 ４、日（ひ）
 x、師（し）、監事、施設、思想、飼料、資金、（私）立、（市）立
 x、自（じ）宅、実地
@@ -660,7 +675,7 @@
 x、客席（せき）、赤橙
 x、喫（きつ）煙
 x、確立｜率（りつ）
-x、室（しつ）外
+x、室（しつ）外、地（質）
 x、誠実（じつ）
 </t>
   </si>
@@ -678,6 +693,8 @@
 １０、おも
 １１、こま
 x、さみ
+x、ただ
+x、ちが
 </t>
   </si>
   <si>
@@ -695,7 +712,9 @@
 １０、お世（せ）辞
 １１、思（おも）う
 １２、きめ細（こま）か
-x、寂（さみ）し</t>
+x、寂（さみ）し
+x、直（ただ）ちに
+x、誓（ちか）う</t>
   </si>
   <si>
     <t xml:space="preserve">１、疑（うたが）い
@@ -727,6 +746,7 @@
 ７、ぎょう
 ８、きょう
 ９、じょう
+x、びょう
 １０、けい
 x、れい
 １１、こう
@@ -742,6 +762,7 @@
 ７、行（ぎょう）儀
 x、競（きょう）走、上京
 ８、苦情（じょう）、定規、静脈
+x、大病（びょう）
 ９、敬（けい）意、蛍光、警告、軽視、刑事、形容、経由
 x、高齢（れい）
 １０、行（こう）為、進行、幸運、興奮</t>
@@ -892,10 +913,12 @@
 x、進路（ろ）
 x、図（ず）屏風
 x、組（そ）織、素質
+x、逮捕（ほ）
 </t>
   </si>
   <si>
     <t xml:space="preserve">１、う
+x、た
 ２、うった
 ３、かた
 x、こだわ
@@ -903,10 +926,12 @@
 x、ざわ
 x、す
 x、すみ
+x、たくわ
 </t>
   </si>
   <si>
     <t xml:space="preserve">１、浮（う）く、受
+x、足（た）る
 ２、訴（うった）え
 ３、固（かた）めて
 x、拘（こだわ）り
@@ -914,6 +939,7 @@
 x、触（ざわ）り
 x、据（す）え、住み
 x、速（すみ）やか
+x、蓄（たくわ）え
 </t>
   </si>
   <si>
@@ -933,6 +959,7 @@
 ４、ぜい
 x、さい
 ５、き
+x、え
 x、すい
 x、ずい</t>
   </si>
@@ -942,17 +969,20 @@
 x、催（さい）促
 x、純粋（すい）、推測、垂直、水滴
 x、随（ずい）筆
-x、（退）（たい）会（かい）</t>
+x、（退）（たい）会（かい）x、
+x、知恵（え）</t>
   </si>
   <si>
     <t>１、え
 ２、お
-３、く</t>
+３、く
+x、た</t>
   </si>
   <si>
     <t>１、絵（え）の
 ２、追（お）いかけて
-３、悔（く）い</t>
+３、悔（く）い
+x、垂（た）れろ</t>
   </si>
   <si>
     <t xml:space="preserve">４、朱、主観、趣旨（しゅ）
@@ -966,6 +996,7 @@
 x、海水浴（よく）
 x、速、足、接続（そく）
 x。屋（おく）
+x、目的（もく）
 ６、祝、主、宿、接触（しゅく）
 x、成熟（じゅく）
 ７、曲（きょく）
@@ -980,10 +1011,6 @@
   <si>
     <t>x、かけ
 x、わ</t>
-  </si>
-  <si>
-    <t>x、腰掛（かけ）
-x、神話（わ）</t>
   </si>
   <si>
     <t>x、す</t>
@@ -1021,7 +1048,7 @@
     <t>１、運（うん）転
 ２、概論（ろん）
 x、瞬間（しゅん）、青春
-x、初旬、基準（じゅん）
+x、初旬、基準、単純（じゅん）
 ３、循環、純情（じゅう）
 ４、求婚（こん）、混雑、昆虫
 ５、教訓（くん）、
@@ -1049,13 +1076,21 @@
 x、削（さく）減</t>
   </si>
   <si>
+    <t>x、た</t>
+  </si>
+  <si>
+    <t>x、絶（た）え</t>
+  </si>
+  <si>
     <t>uo</t>
   </si>
   <si>
     <t>１、かく
 x、こく
 x、さく
+x、たく
 ２、せつ
+x、た
 ３、か
 x、さ
 x、れ
@@ -1069,8 +1104,10 @@
     <t>１、拡充、獲得（かく）
 ２、国（こく）王
 x、昨、名作（さく）
+x、託児（たく）
 ２、学説（せつ）
 ３、過失（か）、果実、括弧、活気、貨物
+x、多忙（た）
 x、左（さ）折、作法、錯覚
 x、洒落（れ）
 x、所属（しょ）
@@ -1084,9 +1121,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -1112,8 +1149,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1128,24 +1180,76 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1161,84 +1265,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1251,31 +1288,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1287,151 +1468,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1463,11 +1500,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1487,6 +1530,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1497,21 +1555,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1528,17 +1571,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1547,124 +1584,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1673,31 +1710,28 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2023,8 +2057,8 @@
   <sheetPr/>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6"/>
@@ -2482,50 +2516,54 @@
       <c r="J18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="1"/>
+      <c r="L18" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="19" ht="202" customHeight="1" spans="3:11">
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" t="s">
         <v>118</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="K19" s="1" t="s">
+    </row>
+    <row r="20" ht="186" customHeight="1" spans="9:13">
+      <c r="I20" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="20" ht="186" customHeight="1" spans="9:11">
-      <c r="I20" t="s">
+      <c r="J20" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" t="s">
         <v>124</v>
+      </c>
+      <c r="M20" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="21" ht="230" customHeight="1" spans="9:11">
       <c r="I21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/日文音读.xlsx
+++ b/日文音读.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
   <si>
     <t>汉语声母</t>
   </si>
@@ -112,7 +112,8 @@
 ２、あや
 ３、あらた
 ４、か
-x、たよ</t>
+x、たよ
+x、つ</t>
   </si>
   <si>
     <t>１、哀（あわ）
@@ -120,7 +121,8 @@
 ３、改（あらた）
 4、呆（あき）
 ５、買（か）い、貸し
-x、頼（たよ）り</t>
+x、頼（たよ）り
+x、摘（つ）む</t>
   </si>
   <si>
     <t>埋（う）</t>
@@ -178,10 +180,10 @@
   </si>
   <si>
     <t xml:space="preserve">１、あ
-２、あらわ
-３、あわ
 ４、い
 x、そ
+x、し
+x、さ
 ５、のこ
 ６、ねむ
 ７、かえ
@@ -192,7 +194,8 @@
 x、づか
 x、こと
 x、こら
-x、し
+２、あらわ
+３、あわ
 x、すす
 </t>
   </si>
@@ -204,6 +207,7 @@
 ５、淡（あわ）い
 ６、言（い）い
 x、染（そ）まり
+x、散（ち）らす
 ７、残（のこ）
 ８、眠（ねむ）い
 ９、返（かえ）ろ
@@ -237,6 +241,7 @@
 x、かみ
 x、きず
 x、そう
+x、ぞう
 x、とう</t>
   </si>
   <si>
@@ -245,13 +250,14 @@
 x、影響（きょう）、强化、好況
 x、一方（ぽう）、脂肪、志望、消防
 x、延長（ちょう）
-x、往（おう）来
+x、往（おう）来、中央
 x、海洋（よう）、休養、仕様
 x、合唱（しょう），正常、観賞、車掌、商人、障害、将棋、奨励、象徴
 x、現状、出場、上映（じょう）、常勤
 x、上（かみ）
 x、傷（きず）口
 x、空想（そう）、相互、装飾、創造
+x、貯蔵（ぞう）
 x、見当（とう）</t>
   </si>
   <si>
@@ -298,6 +304,7 @@
 x、ひょう
 １１、くちょう
 x、こく
+x、かく
 </t>
   </si>
   <si>
@@ -313,11 +320,12 @@
 x、消耗（もう）
 ８、考（かんが）え
 ９、奇妙（みょう）
-１０、教（きょう）官
-x、消化（しょう）、少数、照明
-１１、口調（ちょう）
+１０、教（きょう）官、鉄橋
+x、消化（しょう）、中小、少数、照明
+１１、口調（ちょう）、彫刻、朝刊、超過、挑戦
 １２、公表（ひょう）
 x、宣（告）（こく）
+x、直角（かく）
 </t>
   </si>
   <si>
@@ -328,9 +336,11 @@
 ５、かか
 ６、き
 x、こ
+x、つ
 x、しば
 x、たがら
-x、ただよ</t>
+x、ただよ
+x、つよ</t>
   </si>
   <si>
     <t>1、暴（あば）れろ
@@ -340,9 +350,11 @@
 ５、抱（かか）えた
 ６、消（き）え
 x、焦（こ）がす、漕（こ）ぐ
+x、釣（つ）り、吊る
 x、绞（しば）る
 x、宝（たがら）くじ
-x、漂（ただよ）う</t>
+x、漂（ただよ）う
+x、強（つよ）い</t>
   </si>
   <si>
     <t>１、板</t>
@@ -402,7 +414,7 @@
 x、送金（そう）、総合
 x、暖冬（とう）
 ４、運動（どう）、混同、系統
-５、懐中（ちゅう）、昆虫
+５、懐中（ちゅう）、忠告、昆虫
 ６、観衆（しゅう）、終始、重力
 ７、共（きゅう）益
 ８、供（きょう）給、恐怖
@@ -444,6 +456,7 @@
     <t>１、しゅ
 x、じゅ
 ２、しゅう
+x、ちゅう
 ３、う
 x、とう
 ４、どう
@@ -456,6 +469,7 @@
     <t>１、握手（しゅ）
 x、受賞（じゅ）
 ２、一週（しゅう）、五大州、周囲、収穫
+x、抽象（ちゅう）
 ３、右（う）
 x、戦闘（とう）
 ４、運動（どう）、花道
@@ -465,8 +479,14 @@
 x、声優（ゆう）</t>
   </si>
   <si>
+    <t>１、あつ
+２、あと
+３、て</t>
+  </si>
+  <si>
     <t>１、厚（あつ）
-２、後（あと）</t>
+２、後（あと）
+３、手（て）取り</t>
   </si>
   <si>
     <t>e</t>
@@ -493,6 +513,8 @@
 x、娯楽（らく）
 x、習得（とく）
 ３、運河（が）
+x、徹夜（や）
+x、徹底（てっ）
 ４、観客（きゃく）
 ５、観測（そく）、原則
 ６、車（しゃ）
@@ -619,7 +641,7 @@
 ５、歓声（せい）、行政、公正、作成
 ６、機能（のう）
 x、高等（とう）
-x、成（せい）育、誠実
+x、成（せい）育、誠実、調整
 x、知能（のう）
 </t>
   </si>
@@ -662,10 +684,12 @@
 ５、一（いち）
 ６、際、菜、細工、（さい）
 ７、開、海、改（かい）
-９、斉（せい）、製餅、議会制
+８、低（てい）下、徹底
+９、斉（せい）、中世、製餅、議会制
 １０、家計（けい）、継続、体系
 x、実例（れい）＿
 １１、引力（りょく）
+x、直後（ちょく）
 １３、演習（しゅう）
 １４、課題（だい）
 x、西暦（れき）
@@ -673,6 +697,7 @@
 x、激（げき）減
 x、現役（えき）
 x、客席（せき）、赤橙
+x、的（でき）確
 x、喫（きつ）煙
 x、確立｜率（りつ）
 x、室（しつ）外、地（質）
@@ -695,6 +720,8 @@
 x、さみ
 x、ただ
 x、ちが
+x、つか
+x、ぬぐ
 </t>
   </si>
   <si>
@@ -714,7 +741,9 @@
 １２、きめ細（こま）か
 x、寂（さみ）し
 x、直（ただ）ちに
-x、誓（ちか）う</t>
+x、誓（ちか）う
+x、使（つか）い
+x、手拭（ぬぐ）い</t>
   </si>
   <si>
     <t xml:space="preserve">１、疑（うたが）い
@@ -755,7 +784,7 @@
   <si>
     <t>１、影、映、英（えい）
 ２、酸性（せい）、性、星、申請、青春
-３、一定（てい）、校庭
+３、一定（てい）、校庭、停止
 ４、人命（めい）
 ５、官庁（ちょう）、視聴
 ６、球形（けい）、神経
@@ -802,6 +831,7 @@
 x、こん
 x、りん
 x、ひん
+x、ちん
 </t>
   </si>
   <si>
@@ -813,13 +843,16 @@
 ６、金（きん）庫、禁止、筋肉、接近、常勤
 x、古今（こん）
 x、山林（りん）
-x、上品（ひん）</t>
-  </si>
-  <si>
-    <t>x、すじ</t>
-  </si>
-  <si>
-    <t>１、筋（すじ）</t>
+x、上品（ひん）
+x、賃金（ちん）</t>
+  </si>
+  <si>
+    <t>x、すじ
+x、つ</t>
+  </si>
+  <si>
+    <t>１、筋（すじ）
+x、尽（つ）きる</t>
   </si>
   <si>
     <t>ia</t>
@@ -897,6 +930,7 @@
   </si>
   <si>
     <t xml:space="preserve">１、苦（く）
+x、中途（と）
 x、国土（ど）
 ２、無（む）
 ３、具（ぐ）体
@@ -914,6 +948,7 @@
 x、図（ず）屏風
 x、組（そ）織、素質
 x、逮捕（ほ）
+x、出（で）来
 </t>
   </si>
   <si>
@@ -923,6 +958,8 @@
 ３、かた
 x、こだわ
 x、さ
+x、つ
+x、つと
 x、ざわ
 x、す
 x、すみ
@@ -940,6 +977,7 @@
 x、据（す）え、住み
 x、速（すみ）やか
 x、蓄（たくわ）え
+x、突（つ）き当り、付き
 </t>
   </si>
   <si>
@@ -953,24 +991,27 @@
     <t>ui</t>
   </si>
   <si>
-    <t>１、たい
+    <t>５、き
+１、たい
 ２、けい
 ３、かい
 ４、ぜい
 x、さい
-５、き
 x、え
 x、すい
-x、ずい</t>
-  </si>
-  <si>
-    <t>１、規（き）律
+x、ずい
+x、つい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x、知恵（え）
+１、規（き）律
 x、所得税（せい）
 x、催（さい）促
 x、純粋（すい）、推測、垂直、水滴
 x、随（ずい）筆
 x、（退）（たい）会（かい）x、
-x、知恵（え）</t>
+x、追加（つい）
+</t>
   </si>
   <si>
     <t>１、え
@@ -990,9 +1031,10 @@
 x、初旬（しょ）、書籍、処置、署名
 x、削除、助監（じょ）
 x、居（きょ）
+x、中毒（どく）
 ５、竹（ちく）
 x、育（いく）
-x、服（ふく）
+x、服（ふく）、重複
 x、海水浴（よく）
 x、速、足、接続（そく）
 x。屋（おく）
@@ -1121,10 +1163,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1136,6 +1178,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1143,7 +1216,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1157,15 +1238,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1173,15 +1248,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1203,21 +1278,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1225,31 +1286,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1263,19 +1300,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1288,13 +1330,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1306,55 +1468,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1366,109 +1498,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1485,8 +1527,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1511,36 +1583,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1574,8 +1616,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1584,154 +1626,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2057,8 +2102,8 @@
   <sheetPr/>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6"/>
@@ -2196,7 +2241,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="284" customHeight="1" spans="4:14">
+    <row r="5" ht="302" customHeight="1" spans="4:14">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="I5" t="s">
@@ -2262,48 +2307,51 @@
       <c r="K7" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="L7" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="M7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" ht="84" customHeight="1" spans="4:5">
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" ht="251" customHeight="1" spans="1:13">
+    <row r="9" ht="269" customHeight="1" spans="1:13">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1"/>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" ht="155" customHeight="1" spans="4:13">
@@ -2312,19 +2360,19 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="I10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" ht="242" customHeight="1" spans="4:14">
@@ -2333,83 +2381,83 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" ht="409" customHeight="1" spans="1:13">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="1"/>
       <c r="I12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" ht="177" customHeight="1" spans="2:13">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="I13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L13" t="s">
         <v>88</v>
       </c>
-      <c r="M13" t="s">
+      <c r="L13" s="1" t="s">
         <v>89</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="14" ht="177" customHeight="1" spans="2:11">
@@ -2420,13 +2468,13 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="I14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" ht="183" customHeight="1" spans="2:13">
@@ -2437,19 +2485,19 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="I15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" ht="139" customHeight="1" spans="4:11">
@@ -2458,112 +2506,112 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="I16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" ht="408" customHeight="1" spans="1:13">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" ht="310" customHeight="1" spans="2:13">
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="I18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" ht="202" customHeight="1" spans="3:11">
       <c r="C19" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" ht="186" customHeight="1" spans="9:13">
       <c r="I20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" ht="230" customHeight="1" spans="9:11">
       <c r="I21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/日文音读.xlsx
+++ b/日文音读.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131">
   <si>
     <t>汉语声母</t>
   </si>
@@ -100,7 +100,7 @@
 ２、依頼、外来（らい）
 ３、日本海、快感、開花、外交、改札（かい）
 ４、掲載（さい）、再会、震災
-x、裁（さい）判、取材
+x、裁（さい）判、取材、天才
 x、在（ざい）学
 x、古代（だい）
 x、事態（たい）
@@ -151,6 +151,7 @@
 １５、ねん
 １６、れん
 x、こん
+x、ごん
 x、べん
 </t>
   </si>
@@ -162,20 +163,11 @@
 x、温暖（だん）、極端、経験談、青年団、弾力
 ５、酸（さん）、原産、山地、大戦
 x、残（ざん）酷
-６、一転（てん）、原点、古典
+６、一転（てん）、原点、古典、天国
 ７、永遠（えん）、沿、宴、演、園
 ８、運搬、基盤、審判、先（般）（ぱん）
 ９、界面（めん）
 １０、回覧（らん）
-１１、加減（けん）、見解、限界、原稿、剣道、語源、真剣、人件費
-１２、現（げん）役
-１２、架線（せん）、感染、漁船、実践、戦士、選考、専有
-１３、健全（ぜん）、事前、全国
-１３、片（かた）方
-１４、可燃（ねん）、観念
-１５、関連（れん）
-x、献（こん）立
-x、小便（べん）、短（編）
 </t>
   </si>
   <si>
@@ -226,6 +218,18 @@
 ２、冠（かんむり）</t>
   </si>
   <si>
+    <t>１１、加減（けん）、見解、限界、原稿、剣道、語源、真剣、人件費
+１２、現（げん）役
+１２、架線（せん）、感染、漁船、実践、戦士、選考、専有
+１３、健全（ぜん）、事前、全国
+１３、片（かた）方
+１４、可燃（ねん）、観念
+１５、関連（れん）
+x、献（こん）立
+x、伝（言）（ごん）
+x、小便（べん）、短（編）</t>
+  </si>
+  <si>
     <t>ang</t>
   </si>
   <si>
@@ -242,7 +246,8 @@
 x、きず
 x、そう
 x、ぞう
-x、とう</t>
+x、とう
+x、のう</t>
   </si>
   <si>
     <t>x、以降（こう）、一向、講演、抗議、航空、光景、香水、信仰
@@ -251,7 +256,7 @@
 x、一方（ぽう）、脂肪、志望、消防
 x、延長（ちょう）
 x、往（おう）来、中央
-x、海洋（よう）、休養、仕様
+x、海洋（よう）、休養、仕様、
 x、合唱（しょう），正常、観賞、車掌、商人、障害、将棋、奨励、象徴
 x、現状、出場、上映（じょう）、常勤
 x、上（かみ）
@@ -295,7 +300,9 @@
 ６、ろう
 ７、こう
 x、ごう
+x、どう
 x、もう
+x、よう　
 ８、かんが
 ９、みょう
 １０、きょう
@@ -315,15 +322,17 @@
 x、清掃（そう）
 ５、改造（ぞう）、乾燥、草履
 ６、過労（ろう）
-７、好（こう）意、高価、後悔、孝行、考慮、効力
+７、好（こう）意、高価、後悔、孝行、効力、転校、考慮、
 、豪（ごう）華
+x、導入（どう）
 x、消耗（もう）
+x、東洋（よう）
 ８、考（かんが）え
 ９、奇妙（みょう）
 １０、教（きょう）官、鉄橋
 x、消化（しょう）、中小、少数、照明
 １１、口調（ちょう）、彫刻、朝刊、超過、挑戦
-１２、公表（ひょう）
+１２、公表（ひょう）、投票
 x、宣（告）（こく）
 x、直角（かく）
 </t>
@@ -337,6 +346,8 @@
 ６、き
 x、こ
 x、つ
+x、て
+x、と
 x、しば
 x、たがら
 x、ただよ
@@ -351,7 +362,9 @@
 ６、消（き）え
 x、焦（こ）がす、漕（こ）ぐ
 x、釣（つ）り、吊る
+x、照（て）らす
 x、绞（しば）る
+x、跳（と）ぶ
 x、宝（たがら）くじ
 x、漂（ただよ）う
 x、強（つよ）い</t>
@@ -412,8 +425,8 @@
 ２、引用（よう）、収容
 ３、永（えい）遠
 x、送金（そう）、総合
-x、暖冬（とう）
-４、運動（どう）、混同、系統
+x、暖冬（とう）、病棟
+４、運動（どう）、混同、系統、
 ５、懐中（ちゅう）、忠告、昆虫
 ６、観衆（しゅう）、終始、重力
 ７、共（きゅう）益
@@ -471,7 +484,7 @@
 ２、一週（しゅう）、五大州、周囲、収穫
 x、抽象（ちゅう）
 ３、右（う）
-x、戦闘（とう）
+x、戦闘（とう）、投書
 ４、運動（どう）、花道
 ５、競走（そう）
 ６、偶（ぐう）数
@@ -508,10 +521,10 @@
   </si>
   <si>
     <t>１、社、者（しゃ）
-２、各、改革、额(かく)、惡（あく）、体格
+２、各、改革、同格、额(かく)、惡（あく）、体格
 x、克（こく）服
 x、娯楽（らく）
-x、習得（とく）
+x、習得（とく）、特技
 ３、運河（が）
 x、徹夜（や）
 x、徹底（てっ）
@@ -574,13 +587,15 @@
     <t>１、い
 ２、あや
 x、しばむ
-x、ちが</t>
+x、ちが
+x、と</t>
   </si>
   <si>
     <t>１、位（い）
 ２、危（あや）
 x、萎（しば）む
-x、違（ちが）える</t>
+x、違（ちが）える
+x、飛（と）ばし</t>
   </si>
   <si>
     <t>en</t>
@@ -606,10 +621,12 @@
 x、正門（もん）</t>
   </si>
   <si>
-    <t>１、しず</t>
-  </si>
-  <si>
-    <t>１、沈（しず）める</t>
+    <t>１、しず
+x、と</t>
+  </si>
+  <si>
+    <t>１、沈（しず）める
+x、問（と）い合わせ</t>
   </si>
   <si>
     <t>eng</t>
@@ -640,7 +657,7 @@
 ４、過程（てい）
 ５、歓声（せい）、行政、公正、作成
 ６、機能（のう）
-x、高等（とう）
+x、高等（とう）、登下校、灯台
 x、成（せい）育、誠実、調整
 x、知能（のう）
 </t>
@@ -683,6 +700,7 @@
 x、自（じ）宅、実地
 ５、一（いち）
 ６、際、菜、細工、（さい）
+x、東西（ざい）
 ７、開、海、改（かい）
 ８、低（てい）下、徹底
 ９、斉（せい）、中世、製餅、議会制
@@ -787,7 +805,7 @@
 ３、一定（てい）、校庭、停止
 ４、人命（めい）
 ５、官庁（ちょう）、視聴
-６、球形（けい）、神経
+６、球形（けい）、典型、神経
 ７、行（ぎょう）儀
 x、競（きょう）走、上京
 ８、苦情（じょう）、定規、静脈
@@ -812,7 +830,7 @@
     <t>１８、〜級（きゅう）、（急）激、吸収
 １９、急（激）（げき）、劇場
 ２０、求職（しょく）、軽食、食事、装飾
-２１、給（きゅう）食
+２１、給（きゅう）食、同級
 ２２、休息（そく）
 ２３、極（きょく）端
 ２４、契（けい）機、継続、計測、系統
@@ -947,7 +965,7 @@
 x、進路（ろ）
 x、図（ず）屏風
 x、組（そ）織、素質
-x、逮捕（ほ）
+x、逮捕（ほ）、徒（歩）
 x、出（で）来
 </t>
   </si>
@@ -959,6 +977,7 @@
 x、こだわ
 x、さ
 x、つ
+x、と
 x、つと
 x、ざわ
 x、す
@@ -973,6 +992,7 @@
 ３、固（かた）めて
 x、拘（こだわ）り
 x、去（さ）る
+x、と（と）り
 x、触（ざわ）り
 x、据（す）え、住み
 x、速（すみ）やか
@@ -1009,7 +1029,8 @@
 x、催（さい）促
 x、純粋（すい）、推測、垂直、水滴
 x、随（ずい）筆
-x、（退）（たい）会（かい）x、
+x、（退）（たい）
+x、会（かい）、転回
 x、追加（つい）
 </t>
   </si>
@@ -1017,21 +1038,23 @@
     <t>１、え
 ２、お
 ３、く
-x、た</t>
+x、た
+x、ど</t>
   </si>
   <si>
     <t>１、絵（え）の
 ２、追（お）いかけて
 ３、悔（く）い
-x、垂（た）れろ</t>
+x、垂（た）れろ
+x、退（ど）かす</t>
   </si>
   <si>
     <t xml:space="preserve">４、朱、主観、趣旨（しゅ）
-x、樹（じゅ）、熟語
+x、樹（じゅ）、熟語、特殊
 x、初旬（しょ）、書籍、処置、署名
 x、削除、助監（じょ）
-x、居（きょ）
-x、中毒（どく）
+x、同居（きょ）
+x、中毒（どく）、独角
 ５、竹（ちく）
 x、育（いく）
 x、服（ふく）、重複
@@ -1179,6 +1202,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1208,17 +1239,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1231,10 +1255,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1248,7 +1272,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1256,7 +1280,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1269,24 +1300,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1308,13 +1338,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1330,25 +1353,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1360,13 +1491,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1378,139 +1509,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1529,36 +1552,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1613,6 +1606,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1621,162 +1629,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2100,10 +2120,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6"/>
@@ -2222,262 +2242,256 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" ht="241" customHeight="1" spans="4:13">
+    <row r="4" ht="222" customHeight="1" spans="4:14">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="I4" t="s">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
     </row>
-    <row r="5" ht="302" customHeight="1" spans="4:14">
+    <row r="5" ht="241" customHeight="1" spans="4:13">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="1" t="s">
+    </row>
+    <row r="6" ht="345" customHeight="1" spans="4:14">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="I6" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N5" t="s">
+      <c r="M6" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="N6" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="6" ht="289" customHeight="1" spans="1:13">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="7" ht="289" customHeight="1" spans="1:13">
+      <c r="A7" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I6" t="s">
+      <c r="E7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="I7" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="M7" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="7" ht="247" customHeight="1" spans="4:13">
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="I7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" ht="84" customHeight="1" spans="4:5">
+    <row r="8" ht="247" customHeight="1" spans="4:13">
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
+      <c r="I8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="9" ht="269" customHeight="1" spans="1:13">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="9" ht="84" customHeight="1" spans="4:5">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" ht="269" customHeight="1" spans="1:13">
+      <c r="A10" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="I9" t="s">
+      <c r="F10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" ht="155" customHeight="1" spans="4:13">
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="I10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" t="s">
-        <v>66</v>
-      </c>
-      <c r="M10" t="s">
-        <v>67</v>
-      </c>
     </row>
-    <row r="11" ht="242" customHeight="1" spans="4:14">
+    <row r="11" ht="155" customHeight="1" spans="4:13">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="I11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>73</v>
-      </c>
     </row>
-    <row r="12" ht="409" customHeight="1" spans="1:13">
-      <c r="A12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>79</v>
-      </c>
+    <row r="12" ht="242" customHeight="1" spans="4:14">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="I12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" ht="409" customHeight="1" spans="1:13">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" ht="177" customHeight="1" spans="2:13">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="I13" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" ht="177" customHeight="1" spans="2:13">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" ht="177" customHeight="1" spans="2:11">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="I14" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>93</v>
-      </c>
     </row>
-    <row r="15" ht="183" customHeight="1" spans="2:13">
+    <row r="15" ht="177" customHeight="1" spans="2:11">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2485,133 +2499,150 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="I15" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>98</v>
-      </c>
     </row>
-    <row r="16" ht="139" customHeight="1" spans="4:11">
+    <row r="16" ht="183" customHeight="1" spans="2:13">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="I16" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J16" s="1" t="s">
+    </row>
+    <row r="17" ht="139" customHeight="1" spans="4:11">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="I17" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="K17" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="17" ht="408" customHeight="1" spans="1:13">
-      <c r="A17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="18" ht="408" customHeight="1" spans="1:13">
+      <c r="A18" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I17" t="s">
+      <c r="F18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="I18" t="s">
         <v>109</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="M18" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="18" ht="310" customHeight="1" spans="2:13">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="I18" t="s">
+    <row r="19" ht="310" customHeight="1" spans="2:13">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="I19" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="K19" s="1"/>
+      <c r="L19" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="M19" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
-    <row r="19" ht="202" customHeight="1" spans="3:11">
-      <c r="C19" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I19" t="s">
+    <row r="20" ht="202" customHeight="1" spans="3:11">
+      <c r="C20" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="I20" t="s">
         <v>120</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>121</v>
       </c>
+      <c r="K20" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
-    <row r="20" ht="186" customHeight="1" spans="9:13">
-      <c r="I20" t="s">
-        <v>122</v>
-      </c>
-      <c r="J20" s="1" t="s">
+    <row r="21" ht="186" customHeight="1" spans="9:13">
+      <c r="I21" t="s">
         <v>123</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="L20" t="s">
+      <c r="K21" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="M20" t="s">
+      <c r="L21" t="s">
         <v>126</v>
       </c>
+      <c r="M21" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="21" ht="230" customHeight="1" spans="9:11">
-      <c r="I21" t="s">
-        <v>127</v>
-      </c>
-      <c r="J21" s="1" t="s">
+    <row r="22" ht="230" customHeight="1" spans="9:11">
+      <c r="I22" t="s">
         <v>128</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>129</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/日文音读.xlsx
+++ b/日文音读.xlsx
@@ -150,6 +150,7 @@
 １４、かた
 １５、ねん
 １６、れん
+x、なん
 x、こん
 x、ごん
 x、べん
@@ -168,6 +169,8 @@
 ８、運搬、基盤、審判、先（般）（ぱん）
 ９、界面（めん）
 １０、回覧（らん）
+１１、内線（せん）
+x、難（なん）問
 </t>
   </si>
   <si>
@@ -176,6 +179,7 @@
 x、そ
 x、し
 x、さ
+x、な
 ５、のこ
 ６、ねむ
 ７、かえ
@@ -189,6 +193,7 @@
 ２、あらわ
 ３、あわ
 x、すす
+x、なか
 </t>
   </si>
   <si>
@@ -200,6 +205,7 @@
 ６、言（い）い
 x、染（そ）まり
 x、散（ち）らす
+x、慣（な）れ
 ７、残（のこ）
 ８、眠（ねむ）い
 ９、返（かえ）ろ
@@ -211,7 +217,8 @@
 x、言（こと）付け
 x、堪（こら）え
 x、占（し）める
-x、勧（すす）め</t>
+x、勧（すす）め
+x、半（なか）ば</t>
   </si>
   <si>
     <t>１、板（いた）
@@ -223,7 +230,7 @@
 １２、架線（せん）、感染、漁船、実践、戦士、選考、専有
 １３、健全（ぜん）、事前、全国
 １３、片（かた）方
-１４、可燃（ねん）、観念
+１４、可燃（ねん）、観念、年金
 １５、関連（れん）
 x、献（こん）立
 x、伝（言）（ごん）
@@ -262,7 +269,7 @@
 x、上（かみ）
 x、傷（きず）口
 x、空想（そう）、相互、装飾、創造
-x、貯蔵（ぞう）
+x、貯蔵（ぞう）、内臓
 x、見当（とう）</t>
   </si>
   <si>
@@ -274,7 +281,9 @@
 ６、きず
 ７、くる
 x、すず
-x、さまた</t>
+x、さまた
+x、ながい
+x、なくす</t>
   </si>
   <si>
     <t>１、上、荒（あ）
@@ -285,7 +294,9 @@
 ６、傷（きず）ついた
 ７、狂（くる）う
 x、涼（すず）む
-x、妨（さまた）げて</t>
+x、妨（さまた）げて
+x、長（なが）い
+x、亡（な）くす</t>
   </si>
   <si>
     <t>ao</t>
@@ -302,7 +313,8 @@
 x、ごう
 x、どう
 x、もう
-x、よう　
+x、よう
+x、のう　
 ８、かんが
 ９、みょう
 １０、きょう
@@ -327,6 +339,7 @@
 x、導入（どう）
 x、消耗（もう）
 x、東洋（よう）
+x、脳（のう）裏
 ８、考（かんが）え
 ９、奇妙（みょう）
 １０、教（きょう）官、鉄橋
@@ -348,10 +361,13 @@
 x、つ
 x、て
 x、と
+x、に
 x、しば
 x、たがら
 x、ただよ
-x、つよ</t>
+x、つよ
+x、なや
+x、ぬす</t>
   </si>
   <si>
     <t>1、暴（あば）れろ
@@ -361,13 +377,16 @@
 ５、抱（かか）えた
 ６、消（き）え
 x、焦（こ）がす、漕（こ）ぐ
+x、逃（に）げ
 x、釣（つ）り、吊る
 x、照（て）らす
 x、绞（しば）る
 x、跳（と）ぶ
 x、宝（たがら）くじ
 x、漂（ただよ）う
-x、強（つよ）い</t>
+x、強（つよ）い
+x、悩（なや）み
+x、盗（ぬす）み</t>
   </si>
   <si>
     <t>１、板</t>
@@ -413,6 +432,7 @@
 x、ゆう
 x、くう
 x、こう
+x、のう
 ５、ちゅう
 ６、しゅう　
 x、じゅう
@@ -435,6 +455,7 @@
 １０、金融（ゆう）
 １１、空（くう）想
 １２、工（こう）員、貢献
+x、農（のう）耕、濃度
 １２、厳重（じゅう）</t>
   </si>
   <si>
@@ -494,18 +515,22 @@
   <si>
     <t>１、あつ
 ２、あと
-３、て</t>
+３、て
+x、のち</t>
   </si>
   <si>
     <t>１、厚（あつ）
 ２、後（あと）
-３、手（て）取り</t>
+３、手（て）取り
+x、後（のち）の世</t>
   </si>
   <si>
     <t>e</t>
   </si>
   <si>
     <t>x、や
+x、の
+x、ねっ
 １、しゃ
 ２、かく
 x、こく
@@ -521,7 +546,9 @@
   </si>
   <si>
     <t>１、社、者（しゃ）
-２、各、改革、同格、额(かく)、惡（あく）、体格
+x、熱（ねっ）帯
+x、野（の）兎
+２、各、改革、同格、内閣、额(かく)、惡（あく）、体格
 x、克（こく）服
 x、娯楽（らく）
 x、習得（とく）、特技
@@ -559,7 +586,7 @@
     <t>ei</t>
   </si>
   <si>
-    <t>１、い
+    <t xml:space="preserve">１、い
 x、み
 x、ひ
 ２、るい
@@ -567,16 +594,19 @@
 ４、ない
 ５、かい
 x、はい
+x、ぱい
 x、まい
 ６、き
-７、くろ</t>
+７、くろ
+</t>
   </si>
   <si>
     <t xml:space="preserve">１、委（い）員、地位
 x、情味（み）
 ２、衣類（るい）
 ３、屋内（ない）
-x、支配（はい）
+x、支配（はい）、背景
+x、年配（ぱい）
 x、姉妹（まい）
 ４、危（き）機
 ５、黒（くろ）
@@ -588,27 +618,31 @@
 ２、あや
 x、しばむ
 x、ちが
-x、と</t>
+x、と
+x、なぐさ</t>
   </si>
   <si>
     <t>１、位（い）
 ２、危（あや）
 x、萎（しば）む
 x、違（ちが）える
-x、飛（と）ばし</t>
+x、飛（と）ばし
+x、慰（なぐさ）めて</t>
   </si>
   <si>
     <t>en</t>
   </si>
   <si>
-    <t>１、ほん
+    <t xml:space="preserve">１、ほん
 ２、おん
 ３、ぶん
 x、こん
 x、にん
 x、しん
 x、じん
-x、もん</t>
+x、もん
+x、ね
+</t>
   </si>
   <si>
     <t>１、本（ほん）
@@ -618,7 +652,8 @@
 x、承認、商人（にん）
 x、真（しん）空、震災、神経、単身、審査、紳士、申請、診療、
 x、人権（じん）、大臣
-x、正門（もん）</t>
+x、正門（もん）、難（問）
+x、根（ね）</t>
   </si>
   <si>
     <t>１、しず
@@ -646,7 +681,8 @@
 x、そう
 x、とう
 x、せい
-x、のう</t>
+x、のう
+x、の</t>
   </si>
   <si>
     <t xml:space="preserve">１、1層（そう）
@@ -660,20 +696,23 @@
 x、高等（とう）、登下校、灯台
 x、成（せい）育、誠実、調整
 x、知能（のう）
+x、乗（の）り越える
 </t>
   </si>
   <si>
     <t>１、あらそ
 ２、い
 ３、さ
-x、す</t>
+x、す
+x、な</t>
   </si>
   <si>
     <t>１、争（あらそ）
 ２、生（い）き
 ３、冷（さ）ます
 x、澄（す）む
-x、耕（たがや）し</t>
+x、耕（たがや）し
+x、成（な）し遂げ</t>
   </si>
   <si>
     <t>1，承（うけたまわ）り
@@ -697,7 +736,7 @@
 ３、知、致、治安、地位（ち）
 ４、日（ひ）
 x、師（し）、監事、施設、思想、飼料、資金、（私）立、（市）立
-x、自（じ）宅、実地
+x、自（じ）宅、実地、二次
 ５、一（いち）
 ６、際、菜、細工、（さい）
 x、東西（ざい）
@@ -711,7 +750,7 @@
 １３、演習（しゅう）
 １４、課題（だい）
 x、西暦（れき）
-x、儀式（しき）
+x、儀式（しき）、認（識）
 x、激（げき）減
 x、現役（えき）
 x、客席（せき）、赤橙
@@ -725,6 +764,7 @@
   <si>
     <t xml:space="preserve">１、いの
 ２、い
+x、た
 x、し
 ３、う
 ４、も
@@ -733,6 +773,8 @@
 ７、お
 ８、よ
 ９、せ
+x、ぬ
+x、ね
 １０、おも
 １１、こま
 x、さみ
@@ -747,9 +789,12 @@
 １、私（わたくし）
 ２、祈（いの）り
 ３、入（い）
+x、立（た）つ
 x、知（し）らす
 ４、飢（う）えろ
 ５、持（も）
+x、抜（ぬ）き
+x、値（ね）下げ
 ６、計（けい）
 ７、抑（おさ）えて、治、収（おさ）まろ
 ８、惜（お）しま
@@ -810,7 +855,7 @@
 x、競（きょう）走、上京
 ８、苦情（じょう）、定規、静脈
 x、大病（びょう）
-９、敬（けい）意、蛍光、警告、軽視、刑事、形容、経由
+９、敬（けい）意、蛍光、警告、軽視、刑事、形容、経由、背景
 x、高齢（れい）
 １０、行（こう）為、進行、幸運、興奮</t>
   </si>
@@ -818,13 +863,15 @@
     <t>１、かた
 ２、かたむ
 x、しず
-x、せい</t>
+x、せい
+x、なさ</t>
   </si>
   <si>
     <t>１、型（かた）
 ２、傾（かたむ）け
 x、静（しず）か
-x、精（せい）いっぱい</t>
+x、精（せい）いっぱい
+x、情（なさ）け</t>
   </si>
   <si>
     <t>１８、〜級（きゅう）、（急）激、吸収
@@ -849,6 +896,7 @@
 x、こん
 x、りん
 x、ひん
+x、び
 x、ちん
 </t>
   </si>
@@ -862,6 +910,7 @@
 x、古今（こん）
 x、山林（りん）
 x、上品（ひん）
+x、引（び）き
 x、賃金（ちん）</t>
   </si>
   <si>
@@ -983,6 +1032,7 @@
 x、す
 x、すみ
 x、たくわ
+x、ねら
 </t>
   </si>
   <si>
@@ -998,6 +1048,7 @@
 x、速（すみ）やか
 x、蓄（たくわ）え
 x、突（つ）き当り、付き
+x、狙（ねら）い
 </t>
   </si>
   <si>
@@ -1039,14 +1090,16 @@
 ２、お
 ３、く
 x、た
-x、ど</t>
+x、ど
+x、の</t>
   </si>
   <si>
     <t>１、絵（え）の
 ２、追（お）いかけて
 ３、悔（く）い
 x、垂（た）れろ
-x、退（ど）かす</t>
+x、退（ど）かす
+x、退（の）け</t>
   </si>
   <si>
     <t xml:space="preserve">４、朱、主観、趣旨（しゅ）
@@ -1084,14 +1137,16 @@
     <t>x、刷（す）る</t>
   </si>
   <si>
-    <t>１７、漁（ぎょう）
+    <t xml:space="preserve">１７、漁（ぎょう）
 住（じょう）、巨大
 x、施入（にゅう）
 １５、株（かぶ）式
 １９、口数（かず）
 ２０、好物（ぶつ）
 ２１、産出（しゅつ）
-x、戦術（じゅつ）</t>
+x、戦術（じゅつ）
+x、入（にゅう）力
+</t>
   </si>
   <si>
     <t>un</t>
@@ -1130,6 +1185,7 @@
 ３、がく
 x、さく
 ４、けつ
+x、げつ
 ５、りゃく</t>
   </si>
   <si>
@@ -1137,6 +1193,7 @@
 ２、覚（かく）悟、確実
 ３、学（がく）事
 ４、決（けつ）意、血液
+x、年月（げつ）
 x、攻略（りゃく）
 x、削（さく）減</t>
   </si>
@@ -1186,10 +1243,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1201,7 +1258,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1216,7 +1273,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1224,14 +1288,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1255,6 +1311,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -1262,17 +1326,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1281,6 +1336,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1316,29 +1387,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1353,37 +1410,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1395,145 +1584,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1544,15 +1601,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1580,6 +1628,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1591,17 +1659,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1621,15 +1678,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1644,153 +1692,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2122,8 +2179,8 @@
   <sheetPr/>
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="E9" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6"/>
@@ -2253,7 +2310,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" ht="241" customHeight="1" spans="4:13">
+    <row r="5" ht="275" customHeight="1" spans="4:13">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="I5" t="s">
@@ -2385,7 +2442,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" ht="155" customHeight="1" spans="4:13">
+    <row r="11" ht="237" customHeight="1" spans="4:13">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -2406,7 +2463,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" ht="242" customHeight="1" spans="4:14">
+    <row r="12" ht="261" customHeight="1" spans="4:14">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>

--- a/日文音读.xlsx
+++ b/日文音读.xlsx
@@ -66,6 +66,7 @@
     <t xml:space="preserve">1.「あ段」  
 2.「あ段」+つ
 x、す
+x、はなし
 </t>
   </si>
   <si>
@@ -75,7 +76,8 @@
 ４、札（さつ）
 ５、当て嵌（は）まる
 ６、押（お）し寄せ
-x、擦（す）れ違い</t>
+x、擦（す）れ違い
+x、話し</t>
   </si>
   <si>
     <t>１、家（いえ）</t>
@@ -92,8 +94,10 @@
 x、ざい
 x、だい
 x、たい
+x、はい
 x、てき
-x、しら</t>
+x、しら
+x、は</t>
   </si>
   <si>
     <t>１、一概、外（がい）、損害
@@ -104,8 +108,10 @@
 x、在（ざい）学
 x、古代（だい）
 x、事態（たい）
+x、排（はい）除
 x、指摘（てき）
-x、白髪（しら）</t>
+x、白髪（しら）
+x、派（は）遣</t>
   </si>
   <si>
     <t>１、あわ
@@ -141,6 +147,7 @@
 ７、えん
 x、はん
 ８、ぱん
+x、ばん
 ９、めん
 １０、らん
 １１、けん
@@ -154,6 +161,7 @@
 x、こん
 x、ごん
 x、べん
+x、こい
 </t>
   </si>
   <si>
@@ -162,20 +170,24 @@
 ３、医院（いん）
 ４、一段、横断、短小、単純、淡水（たん）、
 x、温暖（だん）、極端、経験談、青年団、弾力
-５、酸（さん）、原産、山地、大戦
-x、残（ざん）酷
+７、永遠（えん）、沿、宴、演、園
+５、酸（さん）、原産、山地、大戦、悲惨
+x、残（ざん）酷、破産
 ６、一転（てん）、原点、古典、天国
-７、永遠（えん）、沿、宴、演、園
 ８、運搬、基盤、審判、先（般）（ぱん）
+x、番（ばん）
+x、反（はん）映、繁栄、半径、判決、犯行
 ９、界面（めん）
 １０、回覧（らん）
 １１、内線（せん）
 x、難（なん）問
+x、初恋（こい）
 </t>
   </si>
   <si>
     <t xml:space="preserve">１、あ
 ４、い
+x、は
 x、そ
 x、し
 x、さ
@@ -203,6 +215,7 @@
 ４、現（あらわ）れ
 ５、淡（あわ）い
 ６、言（い）い
+x、嵌（は）め
 x、染（そ）まり
 x、散（ち）らす
 x、慣（な）れ
@@ -225,9 +238,9 @@
 ２、冠（かんむり）</t>
   </si>
   <si>
-    <t>１１、加減（けん）、見解、限界、原稿、剣道、語源、真剣、人件費
-１２、現（げん）役
-１２、架線（せん）、感染、漁船、実践、戦士、選考、専有
+    <t>１１、加減（けん）、見解、限界、原稿、剣道、語源、真剣、人件費、派遣
+１２、現（げん）役、発言
+１２、架線（せん）、感染、漁船、実践、戦士、選考、専有、破線
 １３、健全（ぜん）、事前、全国
 １３、片（かた）方
 １４、可燃（ねん）、観念、年金
@@ -324,6 +337,7 @@
 １１、くちょう
 x、こく
 x、かく
+x、ばく
 </t>
   </si>
   <si>
@@ -348,6 +362,7 @@
 １２、公表（ひょう）、投票
 x、宣（告）（こく）
 x、直角（かく）
+x、爆（ばく）弾
 </t>
   </si>
   <si>
@@ -367,6 +382,7 @@
 x、ただよ
 x、つよ
 x、なや
+x、はや
 x、ぬす</t>
   </si>
   <si>
@@ -386,6 +402,7 @@
 x、漂（ただよ）う
 x、強（つよ）い
 x、悩（なや）み
+x、早（はや）く
 x、盗（ぬす）み</t>
   </si>
   <si>
@@ -395,14 +412,22 @@
     <t>o</t>
   </si>
   <si>
-    <t>１、あく
+    <t xml:space="preserve">１、あく
 ２、ま
-３、さく</t>
-  </si>
-  <si>
-    <t>1、握（あく）
+x、は
+x、はく
+x、ばく
+３、さく
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、握（あく）
 ２、悪魔（ま）
-３、一昨（さく）日</t>
+３、一昨（さく）日
+x、破（は）壊
+x、迫（はく）力
+x、莫（ばく）大
+</t>
   </si>
   <si>
     <t>１、うら
@@ -414,7 +439,6 @@
 ３、裏（うら）
 ４、拙（せつ）
 ５、剥（は）
-６、莫（ばく）
 ７、落（お）
 </t>
   </si>
@@ -557,7 +581,7 @@
 x、徹底（てっ）
 ４、観客（きゃく）
 ５、観測（そく）、原則
-６、車（しゃ）
+６、車（しゃ）、発射
 ７、休業（ぎょう）
 ８、建設（せつ）
 x、合（ごう）計</t>
@@ -589,6 +613,7 @@
     <t xml:space="preserve">１、い
 x、み
 x、ひ
+x、び
 ２、るい
 ３、衛（えい）生
 ４、ない
@@ -602,6 +627,8 @@
   </si>
   <si>
     <t xml:space="preserve">１、委（い）員、地位
+x、非（ひ）、交通費、悲劇、飛行、被災
+x、美（び）眉、微笑
 x、情味（み）
 ２、衣類（るい）
 ３、屋内（ない）
@@ -734,7 +761,7 @@
     <t xml:space="preserve">１、医（い）
 ２、機、気、記号、基準、起動、世（紀）（き）
 ３、知、致、治安、地位（ち）
-４、日（ひ）
+４、日（ひ）、（筆）記
 x、師（し）、監事、施設、思想、飼料、資金、（私）立、（市）立
 x、自（じ）宅、実地、二次
 ５、一（いち）
@@ -782,6 +809,7 @@
 x、ちが
 x、つか
 x、ぬぐ
+x、はげ
 </t>
   </si>
   <si>
@@ -806,7 +834,8 @@
 x、直（ただ）ちに
 x、誓（ちか）う
 x、使（つか）い
-x、手拭（ぬぐ）い</t>
+x、手拭（ぬぐ）い
+x、励（はげ）まし</t>
   </si>
   <si>
     <t xml:space="preserve">１、疑（うたが）い
@@ -835,6 +864,7 @@
 ４、めい
 ５、ちょう
 ６、けい
+x、こう
 ７、ぎょう
 ８、きょう
 ９、じょう
@@ -846,16 +876,17 @@
   </si>
   <si>
     <t>１、影、映、英（えい）
-２、酸性（せい）、性、星、申請、青春
+２、酸性（せい）、性、星、申請、青春、反省
 ３、一定（てい）、校庭、停止
 ４、人命（めい）
 ５、官庁（ちょう）、視聴
 ６、球形（けい）、典型、神経
+x、発行（こう）
 ７、行（ぎょう）儀
 x、競（きょう）走、上京
 ８、苦情（じょう）、定規、静脈
 x、大病（びょう）
-９、敬（けい）意、蛍光、警告、軽視、刑事、形容、経由、背景
+９、敬（けい）意、蛍光、警告、軽視、刑事、形容、経由、背景、半径
 x、高齢（れい）
 １０、行（こう）為、進行、幸運、興奮</t>
   </si>
@@ -876,7 +907,7 @@
   <si>
     <t>１８、〜級（きゅう）、（急）激、吸収
 １９、急（激）（げき）、劇場
-２０、求職（しょく）、軽食、食事、装飾
+２０、求職（しょく）、軽食、食事、装飾、繁殖
 ２１、給（きゅう）食、同級
 ２２、休息（そく）
 ２３、極（きょく）端
@@ -896,7 +927,7 @@
 x、こん
 x、りん
 x、ひん
-x、び
+x、ひ
 x、ちん
 </t>
   </si>
@@ -910,7 +941,7 @@
 x、古今（こん）
 x、山林（りん）
 x、上品（ひん）
-x、引（び）き
+x、引（ひ）き
 x、賃金（ちん）</t>
   </si>
   <si>
@@ -993,7 +1024,8 @@
 ４、ゃ｜よ拗音＋う
 ５、き
 ６、かぶ
-７、かず</t>
+７、かず
+x、げき</t>
   </si>
   <si>
     <t xml:space="preserve">１、苦（く）
@@ -1005,6 +1037,7 @@
 x、娯（ご）楽
 x、古屋（や）
 x、木（き）
+x、悲劇（げき）
 X、給与（よ）
 １３、書（か）き、駆け。
 ９、浴（あ）、
@@ -1075,7 +1108,7 @@
   </si>
   <si>
     <t xml:space="preserve">x、知恵（え）
-１、規（き）律
+１、規（き）律、発揮
 x、所得税（せい）
 x、催（さい）促
 x、純粋（すい）、推測、垂直、水滴
@@ -1103,6 +1136,7 @@
   </si>
   <si>
     <t xml:space="preserve">４、朱、主観、趣旨（しゅ）
+x、必需（じゅ）
 x、樹（じゅ）、熟語、特殊
 x、初旬（しょ）、書籍、処置、署名
 x、削除、助監（じょ）
@@ -1143,6 +1177,7 @@
 １５、株（かぶ）式
 １９、口数（かず）
 ２０、好物（ぶつ）
+x、初（はつ）物
 ２１、産出（しゅつ）
 x、戦術（じゅつ）
 x、入（にゅう）力
@@ -1244,8 +1279,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -1258,15 +1293,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1274,6 +1301,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1295,7 +1329,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1311,16 +1345,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1341,17 +1367,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1364,10 +1405,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1379,8 +1421,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1392,14 +1435,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1410,181 +1445,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1607,22 +1642,37 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1643,22 +1693,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1679,25 +1723,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1706,148 +1741,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2179,8 +2214,8 @@
   <sheetPr/>
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E9" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6"/>
@@ -2329,7 +2364,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" ht="345" customHeight="1" spans="4:14">
+    <row r="6" ht="370" customHeight="1" spans="4:14">
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="I6" t="s">
@@ -2406,7 +2441,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" ht="269" customHeight="1" spans="1:13">
+    <row r="10" ht="299" customHeight="1" spans="1:13">
       <c r="A10" t="s">
         <v>53</v>
       </c>

--- a/日文音读.xlsx
+++ b/日文音读.xlsx
@@ -179,7 +179,6 @@
 x、反（はん）映、繁栄、半径、判決、犯行
 ９、界面（めん）
 １０、回覧（らん）
-１１、内線（せん）
 x、難（なん）問
 x、初恋（こい）
 </t>
@@ -334,6 +333,7 @@
 x、しょう
 x、ちょう
 x、ひょう
+x、びょう
 １１、くちょう
 x、こく
 x、かく
@@ -359,7 +359,8 @@
 １０、教（きょう）官、鉄橋
 x、消化（しょう）、中小、少数、照明
 １１、口調（ちょう）、彫刻、朝刊、超過、挑戦
-１２、公表（ひょう）、投票
+１２、公表（ひょう）、投票、標識
+x、描（びょう）写
 x、宣（告）（こく）
 x、直角（かく）
 x、爆（ばく）弾
@@ -493,6 +494,7 @@
 ６、おそ
 ７、おも
 ８、から
+x、ひとみ
 </t>
   </si>
   <si>
@@ -505,6 +507,7 @@
 ５、恐（おそ）れ
 ６、重（おも）い
 ７、空（から）回り
+x、瞳（ひとみ）
 </t>
   </si>
   <si>
@@ -731,7 +734,8 @@
 ２、い
 ３、さ
 x、す
-x、な</t>
+x、な
+x、ふく</t>
   </si>
   <si>
     <t>１、争（あらそ）
@@ -739,7 +743,8 @@
 ３、冷（さ）ます
 x、澄（す）む
 x、耕（たがや）し
-x、成（な）し遂げ</t>
+x、成（な）し遂げ
+x、膨（ふく）らみ</t>
   </si>
   <si>
     <t>1，承（うけたまわ）り
@@ -761,7 +766,7 @@
     <t xml:space="preserve">１、医（い）
 ２、機、気、記号、基準、起動、世（紀）（き）
 ３、知、致、治安、地位（ち）
-４、日（ひ）、（筆）記
+４、日（ひ）、（筆）記、避難、皮肉
 x、師（し）、監事、施設、思想、飼料、資金、（私）立、（市）立
 x、自（じ）宅、実地、二次
 ５、一（いち）
@@ -869,6 +874,7 @@
 ８、きょう
 ９、じょう
 x、びょう
+x、ひょう
 １０、けい
 x、れい
 １１、こう
@@ -878,7 +884,7 @@
     <t>１、影、映、英（えい）
 ２、酸性（せい）、性、星、申請、青春、反省
 ３、一定（てい）、校庭、停止
-４、人命（めい）
+４、人命（めい）、不明
 ５、官庁（ちょう）、視聴
 ６、球形（けい）、典型、神経
 x、発行（こう）
@@ -886,6 +892,7 @@
 x、競（きょう）走、上京
 ８、苦情（じょう）、定規、静脈
 x、大病（びょう）
+x、評（ひょう）論
 ９、敬（けい）意、蛍光、警告、軽視、刑事、形容、経由、背景、半径
 x、高齢（れい）
 １０、行（こう）為、進行、幸運、興奮</t>
@@ -1044,6 +1051,7 @@
 x、居（い）
 １１、雨（う）天
 １２、回部（ぶ）
+x、符（ふ）号
 x、進路（ろ）
 x、図（ず）屏風
 x、組（そ）織、素質
@@ -1205,7 +1213,7 @@
 x、瞬間（しゅん）、青春
 x、初旬、基準、単純（じゅん）
 ３、循環、純情（じゅう）
-４、求婚（こん）、混雑、昆虫
+４、求婚（こん）、混雑、昆虫、貧困
 ５、教訓（くん）、
 ６、軍、郡（ぐん）
 x、子孫（そん）、損害、村長
@@ -2214,8 +2222,8 @@
   <sheetPr/>
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6"/>

--- a/日文音读.xlsx
+++ b/日文音读.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15100"/>
+    <workbookView windowHeight="15100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="日文音读" sheetId="1" r:id="rId1"/>
+    <sheet name="音分类" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366">
   <si>
     <t>汉语声母</t>
   </si>
@@ -171,7 +172,7 @@
 ４、一段、横断、短小、単純、淡水（たん）、
 x、温暖（だん）、極端、経験談、青年団、弾力
 ７、永遠（えん）、沿、宴、演、園
-５、酸（さん）、原産、山地、大戦、悲惨
+５、酸（さん）、原産、山地、悲惨
 x、残（ざん）酷、破産
 ６、一転（てん）、原点、古典、天国
 ８、運搬、基盤、審判、先（般）（ぱん）
@@ -270,7 +271,6 @@
   </si>
   <si>
     <t>x、以降（こう）、一向、講演、抗議、航空、光景、香水、信仰
-x、強（ごう）引
 x、影響（きょう）、强化、好況
 x、一方（ぽう）、脂肪、志望、消防
 x、延長（ちょう）
@@ -327,7 +327,6 @@
 x、もう
 x、よう
 x、のう　
-８、かんが
 ９、みょう
 １０、きょう
 x、しょう
@@ -352,9 +351,7 @@
 、豪（ごう）華
 x、導入（どう）
 x、消耗（もう）
-x、東洋（よう）
 x、脳（のう）裏
-８、考（かんが）え
 ９、奇妙（みょう）
 １０、教（きょう）官、鉄橋
 x、消化（しょう）、中小、少数、照明
@@ -384,7 +381,8 @@
 x、つよ
 x、なや
 x、はや
-x、ぬす</t>
+x、ぬす
+８、かんが</t>
   </si>
   <si>
     <t>1、暴（あば）れろ
@@ -404,7 +402,8 @@
 x、強（つよ）い
 x、悩（なや）み
 x、早（はや）く
-x、盗（ぬす）み</t>
+x、盗（ぬす）み
+８、考（かんが）え</t>
   </si>
   <si>
     <t>１、板</t>
@@ -697,7 +696,7 @@
     <t>eng</t>
   </si>
   <si>
-    <t>x、こう
+    <t xml:space="preserve">x、こう
 x、ごう
 x、きょう
 x、ぽう
@@ -712,7 +711,7 @@
 x、とう
 x、せい
 x、のう
-x、の</t>
+</t>
   </si>
   <si>
     <t xml:space="preserve">１、1層（そう）
@@ -726,7 +725,6 @@
 x、高等（とう）、登下校、灯台
 x、成（せい）育、誠実、調整
 x、知能（のう）
-x、乗（の）り越える
 </t>
   </si>
   <si>
@@ -735,6 +733,7 @@
 ３、さ
 x、す
 x、な
+x、の
 x、ふく</t>
   </si>
   <si>
@@ -744,7 +743,8 @@
 x、澄（す）む
 x、耕（たがや）し
 x、成（な）し遂げ
-x、膨（ふく）らみ</t>
+x、膨（ふく）らみ
+x、乗（の）り越える</t>
   </si>
   <si>
     <t>1，承（うけたまわ）り
@@ -987,7 +987,6 @@
 ３、協（きょう）会
 ４、掲（けい）載、携帯
 x、清潔（けつ）
-x、絶滅（めつ）
 x、送別（べつ）
 x、接（せっ）近
 </t>
@@ -1103,16 +1102,7 @@
     <t>ui</t>
   </si>
   <si>
-    <t>５、き
-１、たい
-２、けい
-３、かい
-４、ぜい
-x、さい
-x、え
-x、すい
-x、ずい
-x、つい</t>
+    <t>すい</t>
   </si>
   <si>
     <t xml:space="preserve">x、知恵（え）
@@ -1125,14 +1115,6 @@
 x、会（かい）、転回
 x、追加（つい）
 </t>
-  </si>
-  <si>
-    <t>１、え
-２、お
-３、く
-x、た
-x、ど
-x、の</t>
   </si>
   <si>
     <t>１、絵（え）の
@@ -1280,20 +1262,845 @@
 x、弱（じゃく）点
 x、終着（ちゃく）</t>
   </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>ひ、び
+は、ば、
+へ、
+ふ</t>
+  </si>
+  <si>
+    <t>さ、す、そ、ぞ</t>
+  </si>
+  <si>
+    <t>さ、し、じ、す、せ、
+ち、て</t>
+  </si>
+  <si>
+    <t xml:space="preserve">だ、ち、て、と、ど、
+</t>
+  </si>
+  <si>
+    <t>け</t>
+  </si>
+  <si>
+    <t>は、ぼ、ひ、ぶ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">が、か、き、こ、
+</t>
+  </si>
+  <si>
+    <t>か、が、こ、ご</t>
+  </si>
+  <si>
+    <t xml:space="preserve">か、き、こ、
+け、げ、
+じ、し、せ
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">か、き、く、こ、
+</t>
+  </si>
+  <si>
+    <t>ら、り、る
+ち</t>
+  </si>
+  <si>
+    <t>か、
+び、
+み、め、も、</t>
+  </si>
+  <si>
+    <t>な、の
+だ</t>
+  </si>
+  <si>
+    <t>ぐ、</t>
+  </si>
+  <si>
+    <t>ひ、ふ、は  （半浊音：ぴ、ぷ、ぱ）</t>
+  </si>
+  <si>
+    <t>か、き、け、
+さ、し、せ、</t>
+  </si>
+  <si>
+    <t>せ、
+に、ね、
+よ、ゆ</t>
+  </si>
+  <si>
+    <t>さ、ず、そ</t>
+  </si>
+  <si>
+    <t>し、じ、す、せ、ぜ</t>
+  </si>
+  <si>
+    <t>た、だ、ち、て、と
+す</t>
+  </si>
+  <si>
+    <t>あ、お
+び、ぶ、み
+が、き</t>
+  </si>
+  <si>
+    <t>か、き、け、こ、
+せ、し、そ</t>
+  </si>
+  <si>
+    <t>い、う、え、お
+か、け、げ、こ、
+よ、ゆ</t>
+  </si>
+  <si>
+    <t>さ、ざ、そ、ぞ</t>
+  </si>
+  <si>
+    <t>し、じ、せ、そ、
+ち、て</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>sh</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>zh</t>
+  </si>
+  <si>
+    <t>審査（しんさ）</t>
+  </si>
+  <si>
+    <t>爆弾（ばくだん）</t>
+  </si>
+  <si>
+    <t>草履（ぞうり）</t>
+  </si>
+  <si>
+    <t>超極（ちょうごく</t>
+  </si>
+  <si>
+    <t>導入（どうにゅう）
+覇道（はどう）</t>
+  </si>
+  <si>
+    <t>高地（こうち）
+宣告（せんこく）</t>
+  </si>
+  <si>
+    <t>豪華（ごうか）
+好意（こうい）</t>
+  </si>
+  <si>
+    <t>功労（こうろう）</t>
+  </si>
+  <si>
+    <t>脳裏（のうり）</t>
+  </si>
+  <si>
+    <t>少数（しょうすう）</t>
+  </si>
+  <si>
+    <t>造船（ぞうせん）</t>
+  </si>
+  <si>
+    <t>朝刊（ちょうかん）
+照明（しょうめい）</t>
+  </si>
+  <si>
+    <t>天才（てんさい）</t>
+  </si>
+  <si>
+    <t>代替（だいたい）、</t>
+  </si>
+  <si>
+    <t>改装（かいそう）
+一概（いちがい）</t>
+  </si>
+  <si>
+    <t>沿海（えんかい)
+侵害（しんがい）</t>
+  </si>
+  <si>
+    <t>開閉（かいへい）</t>
+  </si>
+  <si>
+    <t>外来（らい）</t>
+  </si>
+  <si>
+    <t>買物（かいもの）</t>
+  </si>
+  <si>
+    <t>排出（はいしゅ）
+派生（はせい）</t>
+  </si>
+  <si>
+    <t>灯台（とうだい）、
+事態（じたい）</t>
+  </si>
+  <si>
+    <t>外来（がいらい）</t>
+  </si>
+  <si>
+    <t>記載（きさい）
+在学（ざいがく）</t>
+  </si>
+  <si>
+    <t>指摘（してき）</t>
+  </si>
+  <si>
+    <t>伴奏（ばんそ）、半径（はんけい）</t>
+  </si>
+  <si>
+    <t>参謀（さんぼう）</t>
+  </si>
+  <si>
+    <t>産地（さんち）</t>
+  </si>
+  <si>
+    <t>単身（たんしん）</t>
+  </si>
+  <si>
+    <t>新番（しんばん）
+反映（はんえい）</t>
+  </si>
+  <si>
+    <t>快感（かいかん）</t>
+  </si>
+  <si>
+    <t>漢字（かんじ）</t>
+  </si>
+  <si>
+    <t>勘亭（かんてい）</t>
+  </si>
+  <si>
+    <t>回覧（かいらん）</t>
+  </si>
+  <si>
+    <t>難問( なんもん )</t>
+  </si>
+  <si>
+    <t>新盤（しんばん）</t>
+  </si>
+  <si>
+    <t>感染（かんせん）
+可燃( かねん )</t>
+  </si>
+  <si>
+    <t>三人（さんにん）</t>
+  </si>
+  <si>
+    <t>弾力（だんりょく）</t>
+  </si>
+  <si>
+    <t>語研（けん）、厳重（げんじゅう）、胃炎（いえん）、
+宴会（えんかい）</t>
+  </si>
+  <si>
+    <t>大戦（たいせん）</t>
+  </si>
+  <si>
+    <t>仲蔵（ちゅうぞう）</t>
+  </si>
+  <si>
+    <t>延長（えんちょう）、常勤（じょうきん）
+合唱（がっしょう）</t>
+  </si>
+  <si>
+    <t>脂肪（しぼう）</t>
+  </si>
+  <si>
+    <t>航空（こうくう）</t>
+  </si>
+  <si>
+    <t>商品（しょうひん）
+鑑賞（かんしょう）、
+上映（じょうえい）</t>
+  </si>
+  <si>
+    <t>往来（おうらい）</t>
+  </si>
+  <si>
+    <t>中央（ちゅうおう）、
+海洋（かいよう）、
+信仰（しんこう）、
+仕様（しよう）</t>
+  </si>
+  <si>
+    <t>内臓（ないぞう）</t>
+  </si>
+  <si>
+    <t>車掌（しゃしょう）、障害（しょうがい）</t>
+  </si>
+  <si>
+    <t>握手（あくしゅ）</t>
+  </si>
+  <si>
+    <t>昆虫（こんちゅう）</t>
+  </si>
+  <si>
+    <t>暖冬（だんとう）、
+病棟（びょうとう）、運動（うんどう）</t>
+  </si>
+  <si>
+    <t>公園（こうえん）、供給（きょうきゅう）、
+貢献（こうけん）</t>
+  </si>
+  <si>
+    <t>航空（こうくう）、
+恐怖（きょうふ）</t>
+  </si>
+  <si>
+    <t>農機（のうき）</t>
+  </si>
+  <si>
+    <t>容易（ようい）、金融（きんゆう）</t>
+  </si>
+  <si>
+    <t>送金（そうきん）</t>
+  </si>
+  <si>
+    <t>系統（けいとう）</t>
+  </si>
+  <si>
+    <t>引用（いんよう）</t>
+  </si>
+  <si>
+    <t>総合（そうごう）</t>
+  </si>
+  <si>
+    <t>終止（しゅうし）、 
+一種（いっしゅ）、
+観衆（かんしゅう）、厳重（げんじゅう）</t>
+  </si>
+  <si>
+    <t>抽象（ちゅうしょう）</t>
+  </si>
+  <si>
+    <t>戦闘（せんとう）</t>
+  </si>
+  <si>
+    <t>後悔（こうかい）</t>
+  </si>
+  <si>
+    <t>偶数（ぐうすう）</t>
+  </si>
+  <si>
+    <t>収穫（しゅうかく）
+受賞（じゅしょう）</t>
+  </si>
+  <si>
+    <t>投書（とうしょ）</t>
+  </si>
+  <si>
+    <t>声優（せいゆう）
+右掌（うしょう）</t>
+  </si>
+  <si>
+    <t>競走（きょうそう）</t>
+  </si>
+  <si>
+    <t>一週（いちしゅう）</t>
+  </si>
+  <si>
+    <t>推測（すいそく）</t>
+  </si>
+  <si>
+    <t>彫刻（ちょうこく）</t>
+  </si>
+  <si>
+    <t>悲劇（ひげき）
+被災（ひさい）、背景（はいけい）</t>
+  </si>
+  <si>
+    <t>飛行（ひこう）
+費用（ひよう）</t>
+  </si>
+  <si>
+    <t>供給（きょうきゅう）</t>
+  </si>
+  <si>
+    <t>衣類（いるい）</t>
+  </si>
+  <si>
+    <t>美名（びめい）</t>
+  </si>
+  <si>
+    <t>宇内（うない）</t>
+  </si>
+  <si>
+    <t>支配（しはい）</t>
+  </si>
+  <si>
+    <t>微笑（びしょう）、危機（きき）
+胃炎（いえん）、賞味（しょうみ）</t>
+  </si>
+  <si>
+    <t>記事本（きじほん）</t>
+  </si>
+  <si>
+    <t>大臣（だいじん）</t>
+  </si>
+  <si>
+    <t>恩恵（おんけい）</t>
+  </si>
+  <si>
+    <t>区分（くぶん）</t>
+  </si>
+  <si>
+    <t>根拠（こんきょ）</t>
+  </si>
+  <si>
+    <t>大門（だいもん）</t>
+  </si>
+  <si>
+    <t>千人（せんにん） 、人災（じんさい）
+選任（せんにん）、</t>
+  </si>
+  <si>
+    <t>単身（たんしん）、
+神経（しんけい）、
+審査（しんさ）</t>
+  </si>
+  <si>
+    <t>原文（げんぶん）</t>
+  </si>
+  <si>
+    <t>真空（しんくう）、
+診療（しんりょう）、
+震災（しんさい）</t>
+  </si>
+  <si>
+    <t>1層（そう）</t>
+  </si>
+  <si>
+    <t>承認（しょうにん）、過程（かてい）、誠実（せいじつ）</t>
+  </si>
+  <si>
+    <t>灯台（とうだい）
+高等（こうとう）</t>
+  </si>
+  <si>
+    <t>横断（おうだん）</t>
+  </si>
+  <si>
+    <t>機能（きのう）</t>
+  </si>
+  <si>
+    <t>声優（せいゆう）、出生（しゅっせい）</t>
+  </si>
+  <si>
+    <t>象徴（しょうちょう）、
+調整（ちょうせい）、
+症状（しょうじょう）、行政（ぎょうせい）</t>
+  </si>
+  <si>
+    <t>筆記（ひっき）</t>
+  </si>
+  <si>
+    <t>披露（ひろう）</t>
+  </si>
+  <si>
+    <t>随筆（ずいひ）</t>
+  </si>
+  <si>
+    <t>水底（すいてい）</t>
+  </si>
+  <si>
+    <t>代替（だいたい）</t>
+  </si>
+  <si>
+    <t>垂直（すいちょく）、
+終止（しゅうし）</t>
+  </si>
+  <si>
+    <t>下町（したまち）</t>
+  </si>
+  <si>
+    <t>iao</t>
+  </si>
+  <si>
+    <t>表示(ひょうじ )</t>
+  </si>
+  <si>
+    <t>彫刻（ちょうこく）、好調（こうちょう）</t>
+  </si>
+  <si>
+    <t>角栓（かくせん）、
+教官（きょうかん）、</t>
+  </si>
+  <si>
+    <t>飲料（いんりょう）</t>
+  </si>
+  <si>
+    <t>描写（びょうしゃ）、
+奇妙（きみょう）</t>
+  </si>
+  <si>
+    <t>投票（とうひょう）</t>
+  </si>
+  <si>
+    <t>調整（ちょうせい）、
+挑戦（ちょうせん）、</t>
+  </si>
+  <si>
+    <t>消化（しょうか）、
+中小（ちゅうしょう）、
+孝行（こうこう）、微笑（びしょう）</t>
+  </si>
+  <si>
+    <t>ian</t>
+  </si>
+  <si>
+    <t>便利（べんり）</t>
+  </si>
+  <si>
+    <t>栄典（えいてん）</t>
+  </si>
+  <si>
+    <t>間学（かんがく）、
+会見（かいけん）、実践（じっせん）</t>
+  </si>
+  <si>
+    <t>連絡（れんらく）</t>
+  </si>
+  <si>
+    <t>毛面（けめん）</t>
+  </si>
+  <si>
+    <t>牽引（けんいん）
+事前（じぜん）</t>
+  </si>
+  <si>
+    <t>天国（てんごく）</t>
+  </si>
+  <si>
+    <t>賢才（けんさい）、
+回線（かいせん）、献血（けんけつ）</t>
+  </si>
+  <si>
+    <t>iang</t>
+  </si>
+  <si>
+    <t>奨励（しょうれい）、
+将器（しょうき）、以降（いこう）、</t>
+  </si>
+  <si>
+    <t>強大（きょうだい）</t>
+  </si>
+  <si>
+    <t>相違（そうい）、
+影響(えいきょう)、構想（こうそう）、
+意向( いこう )、 抽象（ちゅうしょう）</t>
+  </si>
+  <si>
+    <t>送別（そうべつ）</t>
+  </si>
+  <si>
+    <t>階層（かいそう）、掲載（けいさい）、接近（せっきん）
+清潔（せいけつ）
+解散（かいさん）、
+界面（かいめん）</t>
+  </si>
+  <si>
+    <t>一切（いっさい）</t>
+  </si>
+  <si>
+    <t>協会（きょうかい）、携帯（けいたい）
+機械（きかい）</t>
+  </si>
+  <si>
+    <t>金庫（きんこ）
+緊張（きんちょう）
+進化（しんか）</t>
+  </si>
+  <si>
+    <t>山林（さんりん）
+賃金（ちんきん）</t>
+  </si>
+  <si>
+    <t>商品（しょうひん）</t>
+  </si>
+  <si>
+    <t>侵害（しんがい）</t>
+  </si>
+  <si>
+    <t>苦心（くしん）、
+確信（かくしん）</t>
+  </si>
+  <si>
+    <t>音量（おんりょう）
+飲料（いんりょう）</t>
+  </si>
+  <si>
+    <t>病状（びょうじょう）</t>
+  </si>
+  <si>
+    <t>鑑定（かんてい）</t>
+  </si>
+  <si>
+    <t>神経（しんけい）
+背景（はいけい）
+敬意（けいい）</t>
+  </si>
+  <si>
+    <t>高齢（こうれい）</t>
+  </si>
+  <si>
+    <t>照明（しょうめい）</t>
+  </si>
+  <si>
+    <t>評論（ひょうろん）</t>
+  </si>
+  <si>
+    <t>清掃（せいそう）、軽視（けいし）
+申請（しんせい）</t>
+  </si>
+  <si>
+    <t>官庁（かんちょう）</t>
+  </si>
+  <si>
+    <t>孝行（こうこう）、行政（ぎょうせい）、長形（ちょうけい）
+酸性（さんせい）</t>
+  </si>
+  <si>
+    <t>英語（えいご）、
+蛍光（けいこう）
+電影（でんえい）、
+上映（じょうえい）</t>
+  </si>
+  <si>
+    <t>就学（しゅうがく）
+飲酒（いんしゅ）、永久（えいきゅう）
+救援（きゅうえん）</t>
+  </si>
+  <si>
+    <t>一流（いちりゅう）</t>
+  </si>
+  <si>
+    <t>球形（きゅうけい）</t>
+  </si>
+  <si>
+    <t>修改（しゅうかい）</t>
+  </si>
+  <si>
+    <t>恐怖（きょうふ）</t>
+  </si>
+  <si>
+    <t>催促（さいそく）</t>
+  </si>
+  <si>
+    <t>出生（しゅっせい）</t>
+  </si>
+  <si>
+    <t>悲劇（ひげき）</t>
+  </si>
+  <si>
+    <t>普遍（ふへん）</t>
+  </si>
+  <si>
+    <t>導入（どうにゅう）</t>
+  </si>
+  <si>
+    <t>消化（しょうか）</t>
+  </si>
+  <si>
+    <t>uai</t>
+  </si>
+  <si>
+    <t>uan</t>
+  </si>
+  <si>
+    <t>船倉 ( せんそう )</t>
+  </si>
+  <si>
+    <t>端子（たんし）</t>
+  </si>
+  <si>
+    <t>官邸（かんてい）</t>
+  </si>
+  <si>
+    <t>歓声（かんせい）
+換水（かんすい）</t>
+  </si>
+  <si>
+    <t>暖冬（だんとう）</t>
+  </si>
+  <si>
+    <t>権限（けんげん）、全然（ぜんぜん）</t>
+  </si>
+  <si>
+    <t>酸性（さんせい）
+算定（さんてい）</t>
+  </si>
+  <si>
+    <t>角栓（かくせん）</t>
+  </si>
+  <si>
+    <t>団地（だんち）</t>
+  </si>
+  <si>
+    <t>宣告（せんこく）
+選任（せんにん）</t>
+  </si>
+  <si>
+    <t>原文（げんぶん）、 
+永遠（えいえん）、
+願書（かんしょ）、医院（いいん）</t>
+  </si>
+  <si>
+    <t>専門（せんもん）、
+転校（てんこう）</t>
+  </si>
+  <si>
+    <t>uang</t>
+  </si>
+  <si>
+    <t>光景（こうけい）</t>
+  </si>
+  <si>
+    <t>好況（こうきょう）</t>
+  </si>
+  <si>
+    <t>装飾（そうしょく）
+症状（しょうじょう）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">催促（さいそく）
+純粋（じゅんすい）
+</t>
+  </si>
+  <si>
+    <t>垂直（すいちょく）</t>
+  </si>
+  <si>
+    <t>規律（きりつ）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">後悔（こうかい）
+開会（かいかい）
+</t>
+  </si>
+  <si>
+    <t>水花（すいはな）
+税金（ぜいきん）</t>
+  </si>
+  <si>
+    <t>推測（すいそく）
+退会（たいかい）</t>
+  </si>
+  <si>
+    <t>心酔（しんすい）</t>
+  </si>
+  <si>
+    <t>追加（ついか）</t>
+  </si>
+  <si>
+    <t>過程（かてい）</t>
+  </si>
+  <si>
+    <t>作成（さくせい）</t>
+  </si>
+  <si>
+    <t>確信（かくしん）</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1307,10 +2114,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1336,8 +2159,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1367,40 +2206,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1414,10 +2221,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1438,7 +2245,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1453,13 +2260,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1471,49 +2302,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1525,43 +2314,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1579,7 +2344,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1591,19 +2380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1615,7 +2392,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1627,13 +2416,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1652,6 +2459,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1686,6 +2502,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1701,31 +2532,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1749,85 +2556,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1836,70 +2643,85 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2222,8 +3044,8 @@
   <sheetPr/>
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView topLeftCell="E17" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6"/>
@@ -2675,74 +3497,3015 @@
         <v>111</v>
       </c>
       <c r="L18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="19" ht="310" customHeight="1" spans="2:13">
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="I19" t="s">
+        <v>114</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="20" ht="202" customHeight="1" spans="3:11">
       <c r="C20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I20" t="s">
         <v>119</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" ht="186" customHeight="1" spans="9:13">
       <c r="I21" t="s">
+        <v>122</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" t="s">
         <v>125</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>126</v>
-      </c>
-      <c r="M21" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="22" ht="230" customHeight="1" spans="9:11">
       <c r="I22" t="s">
+        <v>127</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K22" s="1" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:BT34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AA23" workbookViewId="0">
+      <selection activeCell="AC28" sqref="AC28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6"/>
+  <cols>
+    <col min="1" max="1" width="25.4166666666667" customWidth="1"/>
+    <col min="2" max="5" width="36.3833333333333" customWidth="1"/>
+    <col min="6" max="6" width="52.775" customWidth="1"/>
+    <col min="7" max="9" width="36.3833333333333" customWidth="1"/>
+    <col min="10" max="10" width="41.3833333333333" customWidth="1"/>
+    <col min="11" max="12" width="36.3833333333333" customWidth="1"/>
+    <col min="13" max="13" width="54.7166666666667" customWidth="1"/>
+    <col min="14" max="25" width="36.3833333333333" customWidth="1"/>
+    <col min="26" max="26" width="57.775" customWidth="1"/>
+    <col min="27" max="27" width="52.5" customWidth="1"/>
+    <col min="28" max="28" width="36.3833333333333" customWidth="1"/>
+    <col min="29" max="29" width="41.8083333333333" customWidth="1"/>
+    <col min="30" max="109" width="36.3833333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="137" customHeight="1" spans="1:29">
+      <c r="A1" t="s">
         <v>130</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="R1" t="s">
+        <v>144</v>
+      </c>
+      <c r="S1" t="s">
+        <v>145</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="V1" t="s">
+        <v>148</v>
+      </c>
+      <c r="W1" t="s">
+        <v>149</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" ht="48" customHeight="1" spans="2:72">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="6"/>
+      <c r="BB2" s="6"/>
+      <c r="BC2" s="6"/>
+      <c r="BD2" s="6"/>
+      <c r="BE2" s="6"/>
+      <c r="BF2" s="6"/>
+      <c r="BG2" s="6"/>
+      <c r="BH2" s="6"/>
+      <c r="BI2" s="6"/>
+      <c r="BJ2" s="6"/>
+      <c r="BK2" s="6"/>
+      <c r="BL2" s="6"/>
+      <c r="BM2" s="6"/>
+      <c r="BN2" s="6"/>
+      <c r="BO2" s="6"/>
+      <c r="BP2" s="6"/>
+      <c r="BQ2" s="6"/>
+      <c r="BR2" s="6"/>
+      <c r="BS2" s="6"/>
+      <c r="BT2" s="6"/>
+    </row>
+    <row r="3" ht="48" customHeight="1" spans="2:72">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="6"/>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="6"/>
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="6"/>
+      <c r="AY3" s="6"/>
+      <c r="AZ3" s="6"/>
+      <c r="BA3" s="6"/>
+      <c r="BB3" s="6"/>
+      <c r="BC3" s="6"/>
+      <c r="BD3" s="6"/>
+      <c r="BE3" s="6"/>
+      <c r="BF3" s="6"/>
+      <c r="BG3" s="6"/>
+      <c r="BH3" s="6"/>
+      <c r="BI3" s="6"/>
+      <c r="BJ3" s="6"/>
+      <c r="BK3" s="6"/>
+      <c r="BL3" s="6"/>
+      <c r="BM3" s="6"/>
+      <c r="BN3" s="6"/>
+      <c r="BO3" s="6"/>
+      <c r="BP3" s="6"/>
+      <c r="BQ3" s="6"/>
+      <c r="BR3" s="6"/>
+      <c r="BS3" s="6"/>
+      <c r="BT3" s="6"/>
+    </row>
+    <row r="4" ht="64" customHeight="1" spans="2:72">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="6"/>
+      <c r="AU4" s="6"/>
+      <c r="AV4" s="6"/>
+      <c r="AW4" s="6"/>
+      <c r="AX4" s="6"/>
+      <c r="AY4" s="6"/>
+      <c r="AZ4" s="6"/>
+      <c r="BA4" s="6"/>
+      <c r="BB4" s="6"/>
+      <c r="BC4" s="6"/>
+      <c r="BD4" s="6"/>
+      <c r="BE4" s="6"/>
+      <c r="BF4" s="6"/>
+      <c r="BG4" s="6"/>
+      <c r="BH4" s="6"/>
+      <c r="BI4" s="6"/>
+      <c r="BJ4" s="6"/>
+      <c r="BK4" s="6"/>
+      <c r="BL4" s="6"/>
+      <c r="BM4" s="6"/>
+      <c r="BN4" s="6"/>
+      <c r="BO4" s="6"/>
+      <c r="BP4" s="6"/>
+      <c r="BQ4" s="6"/>
+      <c r="BR4" s="6"/>
+      <c r="BS4" s="6"/>
+      <c r="BT4" s="6"/>
+    </row>
+    <row r="5" ht="64" customHeight="1" spans="2:72">
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="6"/>
+      <c r="AU5" s="6"/>
+      <c r="AV5" s="6"/>
+      <c r="AW5" s="6"/>
+      <c r="AX5" s="6"/>
+      <c r="AY5" s="6"/>
+      <c r="AZ5" s="6"/>
+      <c r="BA5" s="6"/>
+      <c r="BB5" s="6"/>
+      <c r="BC5" s="6"/>
+      <c r="BD5" s="6"/>
+      <c r="BE5" s="6"/>
+      <c r="BF5" s="6"/>
+      <c r="BG5" s="6"/>
+      <c r="BH5" s="6"/>
+      <c r="BI5" s="6"/>
+      <c r="BJ5" s="6"/>
+      <c r="BK5" s="6"/>
+      <c r="BL5" s="6"/>
+      <c r="BM5" s="6"/>
+      <c r="BN5" s="6"/>
+      <c r="BO5" s="6"/>
+      <c r="BP5" s="6"/>
+      <c r="BQ5" s="6"/>
+      <c r="BR5" s="6"/>
+      <c r="BS5" s="6"/>
+      <c r="BT5" s="6"/>
+    </row>
+    <row r="6" ht="64" customHeight="1" spans="2:72">
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="6"/>
+      <c r="AU6" s="6"/>
+      <c r="AV6" s="6"/>
+      <c r="AW6" s="6"/>
+      <c r="AX6" s="6"/>
+      <c r="AY6" s="6"/>
+      <c r="AZ6" s="6"/>
+      <c r="BA6" s="6"/>
+      <c r="BB6" s="6"/>
+      <c r="BC6" s="6"/>
+      <c r="BD6" s="6"/>
+      <c r="BE6" s="6"/>
+      <c r="BF6" s="6"/>
+      <c r="BG6" s="6"/>
+      <c r="BH6" s="6"/>
+      <c r="BI6" s="6"/>
+      <c r="BJ6" s="6"/>
+      <c r="BK6" s="6"/>
+      <c r="BL6" s="6"/>
+      <c r="BM6" s="6"/>
+      <c r="BN6" s="6"/>
+      <c r="BO6" s="6"/>
+      <c r="BP6" s="6"/>
+      <c r="BQ6" s="6"/>
+      <c r="BR6" s="6"/>
+      <c r="BS6" s="6"/>
+      <c r="BT6" s="6"/>
+    </row>
+    <row r="7" ht="64" customHeight="1" spans="2:72">
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="T7" s="2"/>
+      <c r="U7" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="6"/>
+      <c r="BK7" s="6"/>
+      <c r="BL7" s="6"/>
+      <c r="BM7" s="6"/>
+      <c r="BN7" s="6"/>
+      <c r="BO7" s="6"/>
+      <c r="BP7" s="6"/>
+      <c r="BQ7" s="6"/>
+      <c r="BR7" s="6"/>
+      <c r="BS7" s="6"/>
+      <c r="BT7" s="6"/>
+    </row>
+    <row r="8" ht="64" customHeight="1" spans="2:72">
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="6"/>
+      <c r="AZ8" s="6"/>
+      <c r="BA8" s="6"/>
+      <c r="BB8" s="6"/>
+      <c r="BC8" s="6"/>
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="6"/>
+      <c r="BF8" s="6"/>
+      <c r="BG8" s="6"/>
+      <c r="BH8" s="6"/>
+      <c r="BI8" s="6"/>
+      <c r="BJ8" s="6"/>
+      <c r="BK8" s="6"/>
+      <c r="BL8" s="6"/>
+      <c r="BM8" s="6"/>
+      <c r="BN8" s="6"/>
+      <c r="BO8" s="6"/>
+      <c r="BP8" s="6"/>
+      <c r="BQ8" s="6"/>
+      <c r="BR8" s="6"/>
+      <c r="BS8" s="6"/>
+      <c r="BT8" s="6"/>
+    </row>
+    <row r="9" ht="64" customHeight="1" spans="2:72">
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="6"/>
+      <c r="AU9" s="6"/>
+      <c r="AV9" s="6"/>
+      <c r="AW9" s="6"/>
+      <c r="AX9" s="6"/>
+      <c r="AY9" s="6"/>
+      <c r="AZ9" s="6"/>
+      <c r="BA9" s="6"/>
+      <c r="BB9" s="6"/>
+      <c r="BC9" s="6"/>
+      <c r="BD9" s="6"/>
+      <c r="BE9" s="6"/>
+      <c r="BF9" s="6"/>
+      <c r="BG9" s="6"/>
+      <c r="BH9" s="6"/>
+      <c r="BI9" s="6"/>
+      <c r="BJ9" s="6"/>
+      <c r="BK9" s="6"/>
+      <c r="BL9" s="6"/>
+      <c r="BM9" s="6"/>
+      <c r="BN9" s="6"/>
+      <c r="BO9" s="6"/>
+      <c r="BP9" s="6"/>
+      <c r="BQ9" s="6"/>
+      <c r="BR9" s="6"/>
+      <c r="BS9" s="6"/>
+      <c r="BT9" s="6"/>
+    </row>
+    <row r="10" ht="64" customHeight="1" spans="2:72">
+      <c r="B10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="6"/>
+      <c r="AU10" s="6"/>
+      <c r="AV10" s="6"/>
+      <c r="AW10" s="6"/>
+      <c r="AX10" s="6"/>
+      <c r="AY10" s="6"/>
+      <c r="AZ10" s="6"/>
+      <c r="BA10" s="6"/>
+      <c r="BB10" s="6"/>
+      <c r="BC10" s="6"/>
+      <c r="BD10" s="6"/>
+      <c r="BE10" s="6"/>
+      <c r="BF10" s="6"/>
+      <c r="BG10" s="6"/>
+      <c r="BH10" s="6"/>
+      <c r="BI10" s="6"/>
+      <c r="BJ10" s="6"/>
+      <c r="BK10" s="6"/>
+      <c r="BL10" s="6"/>
+      <c r="BM10" s="6"/>
+      <c r="BN10" s="6"/>
+      <c r="BO10" s="6"/>
+      <c r="BP10" s="6"/>
+      <c r="BQ10" s="6"/>
+      <c r="BR10" s="6"/>
+      <c r="BS10" s="6"/>
+      <c r="BT10" s="6"/>
+    </row>
+    <row r="11" ht="64" customHeight="1" spans="2:72">
+      <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="6"/>
+      <c r="AU11" s="6"/>
+      <c r="AV11" s="6"/>
+      <c r="AW11" s="6"/>
+      <c r="AX11" s="6"/>
+      <c r="AY11" s="6"/>
+      <c r="AZ11" s="6"/>
+      <c r="BA11" s="6"/>
+      <c r="BB11" s="6"/>
+      <c r="BC11" s="6"/>
+      <c r="BD11" s="6"/>
+      <c r="BE11" s="6"/>
+      <c r="BF11" s="6"/>
+      <c r="BG11" s="6"/>
+      <c r="BH11" s="6"/>
+      <c r="BI11" s="6"/>
+      <c r="BJ11" s="6"/>
+      <c r="BK11" s="6"/>
+      <c r="BL11" s="6"/>
+      <c r="BM11" s="6"/>
+      <c r="BN11" s="6"/>
+      <c r="BO11" s="6"/>
+      <c r="BP11" s="6"/>
+      <c r="BQ11" s="6"/>
+      <c r="BR11" s="6"/>
+      <c r="BS11" s="6"/>
+      <c r="BT11" s="6"/>
+    </row>
+    <row r="12" ht="64" customHeight="1" spans="2:72">
+      <c r="B12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="6"/>
+      <c r="AU12" s="6"/>
+      <c r="AV12" s="6"/>
+      <c r="AW12" s="6"/>
+      <c r="AX12" s="6"/>
+      <c r="AY12" s="6"/>
+      <c r="AZ12" s="6"/>
+      <c r="BA12" s="6"/>
+      <c r="BB12" s="6"/>
+      <c r="BC12" s="6"/>
+      <c r="BD12" s="6"/>
+      <c r="BE12" s="6"/>
+      <c r="BF12" s="6"/>
+      <c r="BG12" s="6"/>
+      <c r="BH12" s="6"/>
+      <c r="BI12" s="6"/>
+      <c r="BJ12" s="6"/>
+      <c r="BK12" s="6"/>
+      <c r="BL12" s="6"/>
+      <c r="BM12" s="6"/>
+      <c r="BN12" s="6"/>
+      <c r="BO12" s="6"/>
+      <c r="BP12" s="6"/>
+      <c r="BQ12" s="6"/>
+      <c r="BR12" s="6"/>
+      <c r="BS12" s="6"/>
+      <c r="BT12" s="6"/>
+    </row>
+    <row r="13" ht="64" customHeight="1" spans="2:72">
+      <c r="B13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="R13" s="2"/>
+      <c r="S13" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="6"/>
+      <c r="AU13" s="6"/>
+      <c r="AV13" s="6"/>
+      <c r="AW13" s="6"/>
+      <c r="AX13" s="6"/>
+      <c r="AY13" s="6"/>
+      <c r="AZ13" s="6"/>
+      <c r="BA13" s="6"/>
+      <c r="BB13" s="6"/>
+      <c r="BC13" s="6"/>
+      <c r="BD13" s="6"/>
+      <c r="BE13" s="6"/>
+      <c r="BF13" s="6"/>
+      <c r="BG13" s="6"/>
+      <c r="BH13" s="6"/>
+      <c r="BI13" s="6"/>
+      <c r="BJ13" s="6"/>
+      <c r="BK13" s="6"/>
+      <c r="BL13" s="6"/>
+      <c r="BM13" s="6"/>
+      <c r="BN13" s="6"/>
+      <c r="BO13" s="6"/>
+      <c r="BP13" s="6"/>
+      <c r="BQ13" s="6"/>
+      <c r="BR13" s="6"/>
+      <c r="BS13" s="6"/>
+      <c r="BT13" s="6"/>
+    </row>
+    <row r="14" ht="64" customHeight="1" spans="2:72">
+      <c r="B14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="V14" s="2"/>
+      <c r="W14" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="6"/>
+      <c r="AU14" s="6"/>
+      <c r="AV14" s="6"/>
+      <c r="AW14" s="6"/>
+      <c r="AX14" s="6"/>
+      <c r="AY14" s="6"/>
+      <c r="AZ14" s="6"/>
+      <c r="BA14" s="6"/>
+      <c r="BB14" s="6"/>
+      <c r="BC14" s="6"/>
+      <c r="BD14" s="6"/>
+      <c r="BE14" s="6"/>
+      <c r="BF14" s="6"/>
+      <c r="BG14" s="6"/>
+      <c r="BH14" s="6"/>
+      <c r="BI14" s="6"/>
+      <c r="BJ14" s="6"/>
+      <c r="BK14" s="6"/>
+      <c r="BL14" s="6"/>
+      <c r="BM14" s="6"/>
+      <c r="BN14" s="6"/>
+      <c r="BO14" s="6"/>
+      <c r="BP14" s="6"/>
+      <c r="BQ14" s="6"/>
+      <c r="BR14" s="6"/>
+      <c r="BS14" s="6"/>
+      <c r="BT14" s="6"/>
+    </row>
+    <row r="15" ht="64" customHeight="1" spans="2:72">
+      <c r="B15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="6"/>
+      <c r="AU15" s="6"/>
+      <c r="AV15" s="6"/>
+      <c r="AW15" s="6"/>
+      <c r="AX15" s="6"/>
+      <c r="AY15" s="6"/>
+      <c r="AZ15" s="6"/>
+      <c r="BA15" s="6"/>
+      <c r="BB15" s="6"/>
+      <c r="BC15" s="6"/>
+      <c r="BD15" s="6"/>
+      <c r="BE15" s="6"/>
+      <c r="BF15" s="6"/>
+      <c r="BG15" s="6"/>
+      <c r="BH15" s="6"/>
+      <c r="BI15" s="6"/>
+      <c r="BJ15" s="6"/>
+      <c r="BK15" s="6"/>
+      <c r="BL15" s="6"/>
+      <c r="BM15" s="6"/>
+      <c r="BN15" s="6"/>
+      <c r="BO15" s="6"/>
+      <c r="BP15" s="6"/>
+      <c r="BQ15" s="6"/>
+      <c r="BR15" s="6"/>
+      <c r="BS15" s="6"/>
+      <c r="BT15" s="6"/>
+    </row>
+    <row r="16" ht="64" customHeight="1" spans="2:72">
+      <c r="B16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="2"/>
+      <c r="AQ16" s="2"/>
+      <c r="AR16" s="2"/>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="6"/>
+      <c r="AU16" s="6"/>
+      <c r="AV16" s="6"/>
+      <c r="AW16" s="6"/>
+      <c r="AX16" s="6"/>
+      <c r="AY16" s="6"/>
+      <c r="AZ16" s="6"/>
+      <c r="BA16" s="6"/>
+      <c r="BB16" s="6"/>
+      <c r="BC16" s="6"/>
+      <c r="BD16" s="6"/>
+      <c r="BE16" s="6"/>
+      <c r="BF16" s="6"/>
+      <c r="BG16" s="6"/>
+      <c r="BH16" s="6"/>
+      <c r="BI16" s="6"/>
+      <c r="BJ16" s="6"/>
+      <c r="BK16" s="6"/>
+      <c r="BL16" s="6"/>
+      <c r="BM16" s="6"/>
+      <c r="BN16" s="6"/>
+      <c r="BO16" s="6"/>
+      <c r="BP16" s="6"/>
+      <c r="BQ16" s="6"/>
+      <c r="BR16" s="6"/>
+      <c r="BS16" s="6"/>
+      <c r="BT16" s="6"/>
+    </row>
+    <row r="17" ht="64" customHeight="1" spans="2:72">
+      <c r="B17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="6"/>
+      <c r="AU17" s="6"/>
+      <c r="AV17" s="6"/>
+      <c r="AW17" s="6"/>
+      <c r="AX17" s="6"/>
+      <c r="AY17" s="6"/>
+      <c r="AZ17" s="6"/>
+      <c r="BA17" s="6"/>
+      <c r="BB17" s="6"/>
+      <c r="BC17" s="6"/>
+      <c r="BD17" s="6"/>
+      <c r="BE17" s="6"/>
+      <c r="BF17" s="6"/>
+      <c r="BG17" s="6"/>
+      <c r="BH17" s="6"/>
+      <c r="BI17" s="6"/>
+      <c r="BJ17" s="6"/>
+      <c r="BK17" s="6"/>
+      <c r="BL17" s="6"/>
+      <c r="BM17" s="6"/>
+      <c r="BN17" s="6"/>
+      <c r="BO17" s="6"/>
+      <c r="BP17" s="6"/>
+      <c r="BQ17" s="6"/>
+      <c r="BR17" s="6"/>
+      <c r="BS17" s="6"/>
+      <c r="BT17" s="6"/>
+    </row>
+    <row r="18" ht="64" customHeight="1" spans="2:72">
+      <c r="B18" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2"/>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="6"/>
+      <c r="AU18" s="6"/>
+      <c r="AV18" s="6"/>
+      <c r="AW18" s="6"/>
+      <c r="AX18" s="6"/>
+      <c r="AY18" s="6"/>
+      <c r="AZ18" s="6"/>
+      <c r="BA18" s="6"/>
+      <c r="BB18" s="6"/>
+      <c r="BC18" s="6"/>
+      <c r="BD18" s="6"/>
+      <c r="BE18" s="6"/>
+      <c r="BF18" s="6"/>
+      <c r="BG18" s="6"/>
+      <c r="BH18" s="6"/>
+      <c r="BI18" s="6"/>
+      <c r="BJ18" s="6"/>
+      <c r="BK18" s="6"/>
+      <c r="BL18" s="6"/>
+      <c r="BM18" s="6"/>
+      <c r="BN18" s="6"/>
+      <c r="BO18" s="6"/>
+      <c r="BP18" s="6"/>
+      <c r="BQ18" s="6"/>
+      <c r="BR18" s="6"/>
+      <c r="BS18" s="6"/>
+      <c r="BT18" s="6"/>
+    </row>
+    <row r="19" ht="64" customHeight="1" spans="2:72">
+      <c r="B19" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="6"/>
+      <c r="AU19" s="6"/>
+      <c r="AV19" s="6"/>
+      <c r="AW19" s="6"/>
+      <c r="AX19" s="6"/>
+      <c r="AY19" s="6"/>
+      <c r="AZ19" s="6"/>
+      <c r="BA19" s="6"/>
+      <c r="BB19" s="6"/>
+      <c r="BC19" s="6"/>
+      <c r="BD19" s="6"/>
+      <c r="BE19" s="6"/>
+      <c r="BF19" s="6"/>
+      <c r="BG19" s="6"/>
+      <c r="BH19" s="6"/>
+      <c r="BI19" s="6"/>
+      <c r="BJ19" s="6"/>
+      <c r="BK19" s="6"/>
+      <c r="BL19" s="6"/>
+      <c r="BM19" s="6"/>
+      <c r="BN19" s="6"/>
+      <c r="BO19" s="6"/>
+      <c r="BP19" s="6"/>
+      <c r="BQ19" s="6"/>
+      <c r="BR19" s="6"/>
+      <c r="BS19" s="6"/>
+      <c r="BT19" s="6"/>
+    </row>
+    <row r="20" ht="64" customHeight="1" spans="2:72">
+      <c r="B20" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="6"/>
+      <c r="AU20" s="6"/>
+      <c r="AV20" s="6"/>
+      <c r="AW20" s="6"/>
+      <c r="AX20" s="6"/>
+      <c r="AY20" s="6"/>
+      <c r="AZ20" s="6"/>
+      <c r="BA20" s="6"/>
+      <c r="BB20" s="6"/>
+      <c r="BC20" s="6"/>
+      <c r="BD20" s="6"/>
+      <c r="BE20" s="6"/>
+      <c r="BF20" s="6"/>
+      <c r="BG20" s="6"/>
+      <c r="BH20" s="6"/>
+      <c r="BI20" s="6"/>
+      <c r="BJ20" s="6"/>
+      <c r="BK20" s="6"/>
+      <c r="BL20" s="6"/>
+      <c r="BM20" s="6"/>
+      <c r="BN20" s="6"/>
+      <c r="BO20" s="6"/>
+      <c r="BP20" s="6"/>
+      <c r="BQ20" s="6"/>
+      <c r="BR20" s="6"/>
+      <c r="BS20" s="6"/>
+      <c r="BT20" s="6"/>
+    </row>
+    <row r="21" ht="64" customHeight="1" spans="2:72">
+      <c r="B21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="6"/>
+      <c r="AU21" s="6"/>
+      <c r="AV21" s="6"/>
+      <c r="AW21" s="6"/>
+      <c r="AX21" s="6"/>
+      <c r="AY21" s="6"/>
+      <c r="AZ21" s="6"/>
+      <c r="BA21" s="6"/>
+      <c r="BB21" s="6"/>
+      <c r="BC21" s="6"/>
+      <c r="BD21" s="6"/>
+      <c r="BE21" s="6"/>
+      <c r="BF21" s="6"/>
+      <c r="BG21" s="6"/>
+      <c r="BH21" s="6"/>
+      <c r="BI21" s="6"/>
+      <c r="BJ21" s="6"/>
+      <c r="BK21" s="6"/>
+      <c r="BL21" s="6"/>
+      <c r="BM21" s="6"/>
+      <c r="BN21" s="6"/>
+      <c r="BO21" s="6"/>
+      <c r="BP21" s="6"/>
+      <c r="BQ21" s="6"/>
+      <c r="BR21" s="6"/>
+      <c r="BS21" s="6"/>
+      <c r="BT21" s="6"/>
+    </row>
+    <row r="22" ht="64" customHeight="1" spans="2:72">
+      <c r="B22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="6"/>
+      <c r="AU22" s="6"/>
+      <c r="AV22" s="6"/>
+      <c r="AW22" s="6"/>
+      <c r="AX22" s="6"/>
+      <c r="AY22" s="6"/>
+      <c r="AZ22" s="6"/>
+      <c r="BA22" s="6"/>
+      <c r="BB22" s="6"/>
+      <c r="BC22" s="6"/>
+      <c r="BD22" s="6"/>
+      <c r="BE22" s="6"/>
+      <c r="BF22" s="6"/>
+      <c r="BG22" s="6"/>
+      <c r="BH22" s="6"/>
+      <c r="BI22" s="6"/>
+      <c r="BJ22" s="6"/>
+      <c r="BK22" s="6"/>
+      <c r="BL22" s="6"/>
+      <c r="BM22" s="6"/>
+      <c r="BN22" s="6"/>
+      <c r="BO22" s="6"/>
+      <c r="BP22" s="6"/>
+      <c r="BQ22" s="6"/>
+      <c r="BR22" s="6"/>
+      <c r="BS22" s="6"/>
+      <c r="BT22" s="6"/>
+    </row>
+    <row r="23" ht="64" customHeight="1" spans="2:72">
+      <c r="B23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA23" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="6"/>
+      <c r="AU23" s="6"/>
+      <c r="AV23" s="6"/>
+      <c r="AW23" s="6"/>
+      <c r="AX23" s="6"/>
+      <c r="AY23" s="6"/>
+      <c r="AZ23" s="6"/>
+      <c r="BA23" s="6"/>
+      <c r="BB23" s="6"/>
+      <c r="BC23" s="6"/>
+      <c r="BD23" s="6"/>
+      <c r="BE23" s="6"/>
+      <c r="BF23" s="6"/>
+      <c r="BG23" s="6"/>
+      <c r="BH23" s="6"/>
+      <c r="BI23" s="6"/>
+      <c r="BJ23" s="6"/>
+      <c r="BK23" s="6"/>
+      <c r="BL23" s="6"/>
+      <c r="BM23" s="6"/>
+      <c r="BN23" s="6"/>
+      <c r="BO23" s="6"/>
+      <c r="BP23" s="6"/>
+      <c r="BQ23" s="6"/>
+      <c r="BR23" s="6"/>
+      <c r="BS23" s="6"/>
+      <c r="BT23" s="6"/>
+    </row>
+    <row r="24" ht="64" customHeight="1" spans="2:72">
+      <c r="B24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="2"/>
+      <c r="AS24" s="2"/>
+      <c r="AT24" s="6"/>
+      <c r="AU24" s="6"/>
+      <c r="AV24" s="6"/>
+      <c r="AW24" s="6"/>
+      <c r="AX24" s="6"/>
+      <c r="AY24" s="6"/>
+      <c r="AZ24" s="6"/>
+      <c r="BA24" s="6"/>
+      <c r="BB24" s="6"/>
+      <c r="BC24" s="6"/>
+      <c r="BD24" s="6"/>
+      <c r="BE24" s="6"/>
+      <c r="BF24" s="6"/>
+      <c r="BG24" s="6"/>
+      <c r="BH24" s="6"/>
+      <c r="BI24" s="6"/>
+      <c r="BJ24" s="6"/>
+      <c r="BK24" s="6"/>
+      <c r="BL24" s="6"/>
+      <c r="BM24" s="6"/>
+      <c r="BN24" s="6"/>
+      <c r="BO24" s="6"/>
+      <c r="BP24" s="6"/>
+      <c r="BQ24" s="6"/>
+      <c r="BR24" s="6"/>
+      <c r="BS24" s="6"/>
+      <c r="BT24" s="6"/>
+    </row>
+    <row r="25" ht="64" customHeight="1" spans="2:72">
+      <c r="B25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="V25" s="2"/>
+      <c r="W25" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="2"/>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="6"/>
+      <c r="AU25" s="6"/>
+      <c r="AV25" s="6"/>
+      <c r="AW25" s="6"/>
+      <c r="AX25" s="6"/>
+      <c r="AY25" s="6"/>
+      <c r="AZ25" s="6"/>
+      <c r="BA25" s="6"/>
+      <c r="BB25" s="6"/>
+      <c r="BC25" s="6"/>
+      <c r="BD25" s="6"/>
+      <c r="BE25" s="6"/>
+      <c r="BF25" s="6"/>
+      <c r="BG25" s="6"/>
+      <c r="BH25" s="6"/>
+      <c r="BI25" s="6"/>
+      <c r="BJ25" s="6"/>
+      <c r="BK25" s="6"/>
+      <c r="BL25" s="6"/>
+      <c r="BM25" s="6"/>
+      <c r="BN25" s="6"/>
+      <c r="BO25" s="6"/>
+      <c r="BP25" s="6"/>
+      <c r="BQ25" s="6"/>
+      <c r="BR25" s="6"/>
+      <c r="BS25" s="6"/>
+      <c r="BT25" s="6"/>
+    </row>
+    <row r="26" ht="64" customHeight="1" spans="2:72">
+      <c r="B26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="2"/>
+      <c r="AS26" s="2"/>
+      <c r="AT26" s="6"/>
+      <c r="AU26" s="6"/>
+      <c r="AV26" s="6"/>
+      <c r="AW26" s="6"/>
+      <c r="AX26" s="6"/>
+      <c r="AY26" s="6"/>
+      <c r="AZ26" s="6"/>
+      <c r="BA26" s="6"/>
+      <c r="BB26" s="6"/>
+      <c r="BC26" s="6"/>
+      <c r="BD26" s="6"/>
+      <c r="BE26" s="6"/>
+      <c r="BF26" s="6"/>
+      <c r="BG26" s="6"/>
+      <c r="BH26" s="6"/>
+      <c r="BI26" s="6"/>
+      <c r="BJ26" s="6"/>
+      <c r="BK26" s="6"/>
+      <c r="BL26" s="6"/>
+      <c r="BM26" s="6"/>
+      <c r="BN26" s="6"/>
+      <c r="BO26" s="6"/>
+      <c r="BP26" s="6"/>
+      <c r="BQ26" s="6"/>
+      <c r="BR26" s="6"/>
+      <c r="BS26" s="6"/>
+      <c r="BT26" s="6"/>
+    </row>
+    <row r="27" ht="64" customHeight="1" spans="2:72">
+      <c r="B27" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="2"/>
+      <c r="AQ27" s="2"/>
+      <c r="AR27" s="2"/>
+      <c r="AS27" s="2"/>
+      <c r="AT27" s="6"/>
+      <c r="AU27" s="6"/>
+      <c r="AV27" s="6"/>
+      <c r="AW27" s="6"/>
+      <c r="AX27" s="6"/>
+      <c r="AY27" s="6"/>
+      <c r="AZ27" s="6"/>
+      <c r="BA27" s="6"/>
+      <c r="BB27" s="6"/>
+      <c r="BC27" s="6"/>
+      <c r="BD27" s="6"/>
+      <c r="BE27" s="6"/>
+      <c r="BF27" s="6"/>
+      <c r="BG27" s="6"/>
+      <c r="BH27" s="6"/>
+      <c r="BI27" s="6"/>
+      <c r="BJ27" s="6"/>
+      <c r="BK27" s="6"/>
+      <c r="BL27" s="6"/>
+      <c r="BM27" s="6"/>
+      <c r="BN27" s="6"/>
+      <c r="BO27" s="6"/>
+      <c r="BP27" s="6"/>
+      <c r="BQ27" s="6"/>
+      <c r="BR27" s="6"/>
+      <c r="BS27" s="6"/>
+      <c r="BT27" s="6"/>
+    </row>
+    <row r="28" ht="64" customHeight="1" spans="2:72">
+      <c r="B28" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="U28" s="2"/>
+      <c r="V28" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="W28" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="X28" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA28" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="2"/>
+      <c r="AR28" s="2"/>
+      <c r="AS28" s="2"/>
+      <c r="AT28" s="6"/>
+      <c r="AU28" s="6"/>
+      <c r="AV28" s="6"/>
+      <c r="AW28" s="6"/>
+      <c r="AX28" s="6"/>
+      <c r="AY28" s="6"/>
+      <c r="AZ28" s="6"/>
+      <c r="BA28" s="6"/>
+      <c r="BB28" s="6"/>
+      <c r="BC28" s="6"/>
+      <c r="BD28" s="6"/>
+      <c r="BE28" s="6"/>
+      <c r="BF28" s="6"/>
+      <c r="BG28" s="6"/>
+      <c r="BH28" s="6"/>
+      <c r="BI28" s="6"/>
+      <c r="BJ28" s="6"/>
+      <c r="BK28" s="6"/>
+      <c r="BL28" s="6"/>
+      <c r="BM28" s="6"/>
+      <c r="BN28" s="6"/>
+      <c r="BO28" s="6"/>
+      <c r="BP28" s="6"/>
+      <c r="BQ28" s="6"/>
+      <c r="BR28" s="6"/>
+      <c r="BS28" s="6"/>
+      <c r="BT28" s="6"/>
+    </row>
+    <row r="29" ht="64" customHeight="1" spans="2:72">
+      <c r="B29" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="2"/>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="2"/>
+      <c r="AS29" s="2"/>
+      <c r="AT29" s="6"/>
+      <c r="AU29" s="6"/>
+      <c r="AV29" s="6"/>
+      <c r="AW29" s="6"/>
+      <c r="AX29" s="6"/>
+      <c r="AY29" s="6"/>
+      <c r="AZ29" s="6"/>
+      <c r="BA29" s="6"/>
+      <c r="BB29" s="6"/>
+      <c r="BC29" s="6"/>
+      <c r="BD29" s="6"/>
+      <c r="BE29" s="6"/>
+      <c r="BF29" s="6"/>
+      <c r="BG29" s="6"/>
+      <c r="BH29" s="6"/>
+      <c r="BI29" s="6"/>
+      <c r="BJ29" s="6"/>
+      <c r="BK29" s="6"/>
+      <c r="BL29" s="6"/>
+      <c r="BM29" s="6"/>
+      <c r="BN29" s="6"/>
+      <c r="BO29" s="6"/>
+      <c r="BP29" s="6"/>
+      <c r="BQ29" s="6"/>
+      <c r="BR29" s="6"/>
+      <c r="BS29" s="6"/>
+      <c r="BT29" s="6"/>
+    </row>
+    <row r="30" ht="64" customHeight="1" spans="2:72">
+      <c r="B30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="X30" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="AC30" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
+      <c r="AL30" s="2"/>
+      <c r="AM30" s="2"/>
+      <c r="AN30" s="2"/>
+      <c r="AO30" s="2"/>
+      <c r="AP30" s="2"/>
+      <c r="AQ30" s="2"/>
+      <c r="AR30" s="2"/>
+      <c r="AS30" s="2"/>
+      <c r="AT30" s="6"/>
+      <c r="AU30" s="6"/>
+      <c r="AV30" s="6"/>
+      <c r="AW30" s="6"/>
+      <c r="AX30" s="6"/>
+      <c r="AY30" s="6"/>
+      <c r="AZ30" s="6"/>
+      <c r="BA30" s="6"/>
+      <c r="BB30" s="6"/>
+      <c r="BC30" s="6"/>
+      <c r="BD30" s="6"/>
+      <c r="BE30" s="6"/>
+      <c r="BF30" s="6"/>
+      <c r="BG30" s="6"/>
+      <c r="BH30" s="6"/>
+      <c r="BI30" s="6"/>
+      <c r="BJ30" s="6"/>
+      <c r="BK30" s="6"/>
+      <c r="BL30" s="6"/>
+      <c r="BM30" s="6"/>
+      <c r="BN30" s="6"/>
+      <c r="BO30" s="6"/>
+      <c r="BP30" s="6"/>
+      <c r="BQ30" s="6"/>
+      <c r="BR30" s="6"/>
+      <c r="BS30" s="6"/>
+      <c r="BT30" s="6"/>
+    </row>
+    <row r="31" ht="64" customHeight="1" spans="2:72">
+      <c r="B31" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="2"/>
+      <c r="AK31" s="2"/>
+      <c r="AL31" s="2"/>
+      <c r="AM31" s="2"/>
+      <c r="AN31" s="2"/>
+      <c r="AO31" s="2"/>
+      <c r="AP31" s="2"/>
+      <c r="AQ31" s="2"/>
+      <c r="AR31" s="2"/>
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="6"/>
+      <c r="AU31" s="6"/>
+      <c r="AV31" s="6"/>
+      <c r="AW31" s="6"/>
+      <c r="AX31" s="6"/>
+      <c r="AY31" s="6"/>
+      <c r="AZ31" s="6"/>
+      <c r="BA31" s="6"/>
+      <c r="BB31" s="6"/>
+      <c r="BC31" s="6"/>
+      <c r="BD31" s="6"/>
+      <c r="BE31" s="6"/>
+      <c r="BF31" s="6"/>
+      <c r="BG31" s="6"/>
+      <c r="BH31" s="6"/>
+      <c r="BI31" s="6"/>
+      <c r="BJ31" s="6"/>
+      <c r="BK31" s="6"/>
+      <c r="BL31" s="6"/>
+      <c r="BM31" s="6"/>
+      <c r="BN31" s="6"/>
+      <c r="BO31" s="6"/>
+      <c r="BP31" s="6"/>
+      <c r="BQ31" s="6"/>
+      <c r="BR31" s="6"/>
+      <c r="BS31" s="6"/>
+      <c r="BT31" s="6"/>
+    </row>
+    <row r="32" ht="64" customHeight="1" spans="2:72">
+      <c r="B32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="2"/>
+      <c r="AL32" s="2"/>
+      <c r="AM32" s="2"/>
+      <c r="AN32" s="2"/>
+      <c r="AO32" s="2"/>
+      <c r="AP32" s="2"/>
+      <c r="AQ32" s="2"/>
+      <c r="AR32" s="2"/>
+      <c r="AS32" s="2"/>
+      <c r="AT32" s="6"/>
+      <c r="AU32" s="6"/>
+      <c r="AV32" s="6"/>
+      <c r="AW32" s="6"/>
+      <c r="AX32" s="6"/>
+      <c r="AY32" s="6"/>
+      <c r="AZ32" s="6"/>
+      <c r="BA32" s="6"/>
+      <c r="BB32" s="6"/>
+      <c r="BC32" s="6"/>
+      <c r="BD32" s="6"/>
+      <c r="BE32" s="6"/>
+      <c r="BF32" s="6"/>
+      <c r="BG32" s="6"/>
+      <c r="BH32" s="6"/>
+      <c r="BI32" s="6"/>
+      <c r="BJ32" s="6"/>
+      <c r="BK32" s="6"/>
+      <c r="BL32" s="6"/>
+      <c r="BM32" s="6"/>
+      <c r="BN32" s="6"/>
+      <c r="BO32" s="6"/>
+      <c r="BP32" s="6"/>
+      <c r="BQ32" s="6"/>
+      <c r="BR32" s="6"/>
+      <c r="BS32" s="6"/>
+      <c r="BT32" s="6"/>
+    </row>
+    <row r="33" ht="64" customHeight="1" spans="2:72">
+      <c r="B33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="2"/>
+      <c r="AM33" s="2"/>
+      <c r="AN33" s="2"/>
+      <c r="AO33" s="2"/>
+      <c r="AP33" s="2"/>
+      <c r="AQ33" s="2"/>
+      <c r="AR33" s="2"/>
+      <c r="AS33" s="2"/>
+      <c r="AT33" s="6"/>
+      <c r="AU33" s="6"/>
+      <c r="AV33" s="6"/>
+      <c r="AW33" s="6"/>
+      <c r="AX33" s="6"/>
+      <c r="AY33" s="6"/>
+      <c r="AZ33" s="6"/>
+      <c r="BA33" s="6"/>
+      <c r="BB33" s="6"/>
+      <c r="BC33" s="6"/>
+      <c r="BD33" s="6"/>
+      <c r="BE33" s="6"/>
+      <c r="BF33" s="6"/>
+      <c r="BG33" s="6"/>
+      <c r="BH33" s="6"/>
+      <c r="BI33" s="6"/>
+      <c r="BJ33" s="6"/>
+      <c r="BK33" s="6"/>
+      <c r="BL33" s="6"/>
+      <c r="BM33" s="6"/>
+      <c r="BN33" s="6"/>
+      <c r="BO33" s="6"/>
+      <c r="BP33" s="6"/>
+      <c r="BQ33" s="6"/>
+      <c r="BR33" s="6"/>
+      <c r="BS33" s="6"/>
+      <c r="BT33" s="6"/>
+    </row>
+    <row r="34" ht="62" customHeight="1" spans="2:15">
+      <c r="B34" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="O34" t="s">
+        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/日文音读.xlsx
+++ b/日文音读.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="日文音读" sheetId="1" r:id="rId1"/>
-    <sheet name="音分类" sheetId="2" r:id="rId2"/>
+    <sheet name="中文词读音分类" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385">
   <si>
     <t>汉语声母</t>
   </si>
@@ -1266,37 +1266,45 @@
     <t>X</t>
   </si>
   <si>
+    <t>あ</t>
+  </si>
+  <si>
     <t>ひ、び
 は、ば、
 へ、
 ふ</t>
   </si>
   <si>
-    <t>さ、す、そ、ぞ</t>
+    <t>さ、す、そ、ぞ
+あら</t>
   </si>
   <si>
     <t>さ、し、じ、す、せ、
-ち、て</t>
+ち、て
+あか</t>
   </si>
   <si>
     <t xml:space="preserve">だ、ち、て、と、ど、
 </t>
   </si>
   <si>
-    <t>け</t>
+    <t>あ、
+け</t>
   </si>
   <si>
     <t>は、ぼ、ひ、ぶ</t>
   </si>
   <si>
-    <t xml:space="preserve">が、か、き、こ、
+    <t xml:space="preserve">う
+が、か、き、こ、
 </t>
   </si>
   <si>
-    <t>か、が、こ、ご</t>
-  </si>
-  <si>
-    <t xml:space="preserve">か、き、こ、
+    <t>え
+か、が、こ、ご</t>
+  </si>
+  <si>
+    <t xml:space="preserve">か、き、ぎ、こ、
 け、げ、
 じ、し、せ
 </t>
@@ -1312,7 +1320,7 @@
   <si>
     <t>か、
 び、
-み、め、も、</t>
+ま、み、め、も、</t>
   </si>
   <si>
     <t>な、の
@@ -1329,7 +1337,7 @@
 さ、し、せ、</t>
   </si>
   <si>
-    <t>せ、
+    <t>せ、じ、
 に、ね、
 よ、ゆ</t>
   </si>
@@ -1344,25 +1352,26 @@
 す</t>
   </si>
   <si>
-    <t>あ、お
+    <t>あ、い、お
 び、ぶ、み
 が、き</t>
   </si>
   <si>
     <t>か、き、け、こ、
-せ、し、そ</t>
-  </si>
-  <si>
-    <t>い、う、え、お
+し、せ、そ</t>
+  </si>
+  <si>
+    <t>あ、い、う、え、お
 か、け、げ、こ、
 よ、ゆ</t>
   </si>
   <si>
-    <t>さ、ざ、そ、ぞ</t>
-  </si>
-  <si>
-    <t>し、じ、せ、そ、
-ち、て</t>
+    <t>さ、ざ、し、そ、ぞ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">し、じ、せ、そ、
+ち、て
+</t>
   </si>
   <si>
     <t>b</t>
@@ -1434,7 +1443,16 @@
     <t>zh</t>
   </si>
   <si>
+    <t>悪人（あくにん）、悪化（あっか）</t>
+  </si>
+  <si>
+    <t>圧力（あつりょく）</t>
+  </si>
+  <si>
     <t>審査（しんさ）</t>
+  </si>
+  <si>
+    <t>偉大（いだい）</t>
   </si>
   <si>
     <t>爆弾（ばくだん）</t>
@@ -1470,7 +1488,7 @@
     <t>造船（ぞうせん）</t>
   </si>
   <si>
-    <t>朝刊（ちょうかん）
+    <t>朝刊（ちょうかん）、朝飯（あさめし）
 照明（しょうめい）</t>
   </si>
   <si>
@@ -1515,7 +1533,11 @@
     <t>指摘（してき）</t>
   </si>
   <si>
-    <t>伴奏（ばんそ）、半径（はんけい）</t>
+    <t>暗記（あんき）</t>
+  </si>
+  <si>
+    <t>運搬（うんぱん）
+伴奏（ばんそ）、半径（はんけい）</t>
   </si>
   <si>
     <t>参謀（さんぼう）</t>
@@ -1584,7 +1606,8 @@
 上映（じょうえい）</t>
   </si>
   <si>
-    <t>往来（おうらい）</t>
+    <t>王子（おうじ）
+往来（おうらい）</t>
   </si>
   <si>
     <t>中央（ちゅうおう）、
@@ -1599,6 +1622,9 @@
     <t>車掌（しゃしょう）、障害（しょうがい）</t>
   </si>
   <si>
+    <t>悪魔（あくま）</t>
+  </si>
+  <si>
     <t>握手（あくしゅ）</t>
   </si>
   <si>
@@ -1629,7 +1655,8 @@
     <t>系統（けいとう）</t>
   </si>
   <si>
-    <t>引用（いんよう）</t>
+    <t>永遠（えいえん）
+引用（いんよう）</t>
   </si>
   <si>
     <t>総合（そうごう）</t>
@@ -1675,6 +1702,9 @@
     <t>彫刻（ちょうこく）</t>
   </si>
   <si>
+    <t>右折（うせつ）</t>
+  </si>
+  <si>
     <t>悲劇（ひげき）
 被災（ひさい）、背景（はいけい）</t>
   </si>
@@ -1699,7 +1729,9 @@
   </si>
   <si>
     <t>微笑（びしょう）、危機（きき）
-胃炎（いえん）、賞味（しょうみ）</t>
+維持（いじ）
+委員（いいん）
+胃炎（いえん）、賞味（しょうみ）、衛生（えいせい）</t>
   </si>
   <si>
     <t>記事本（きじほん）</t>
@@ -1764,16 +1796,35 @@
     <t>筆記（ひっき）</t>
   </si>
   <si>
+    <t>赤字（あかじ）</t>
+  </si>
+  <si>
+    <t>幾分（いくぶん）
+暗記（あんき）、演技（えんぎ）</t>
+  </si>
+  <si>
     <t>披露（ひろう）</t>
   </si>
   <si>
     <t>随筆（ずいひ）</t>
   </si>
   <si>
-    <t>水底（すいてい）</t>
+    <t>飲食（いんしょく）</t>
   </si>
   <si>
     <t>代替（だいたい）</t>
+  </si>
+  <si>
+    <t>演習（えんしゅう）
+系統（けいとう）</t>
+  </si>
+  <si>
+    <t>医師（いし）
+移転（いてん）
+意思（いし）</t>
+  </si>
+  <si>
+    <t>資本（しほん）</t>
   </si>
   <si>
     <t>垂直（すいちょく）、
@@ -1857,7 +1908,7 @@
   <si>
     <t>相違（そうい）、
 影響(えいきょう)、構想（こうそう）、
-意向( いこう )、 抽象（ちゅうしょう）</t>
+意向( いこう )、 抽象（ちゅうしょう）、映像（えいぞう）</t>
   </si>
   <si>
     <t>送別（そうべつ）</t>
@@ -1872,11 +1923,14 @@
     <t>一切（いっさい）</t>
   </si>
   <si>
+    <t>私鉄（してつ）</t>
+  </si>
+  <si>
     <t>協会（きょうかい）、携帯（けいたい）
 機械（きかい）</t>
   </si>
   <si>
-    <t>金庫（きんこ）
+    <t>金庫（きんこ）、今時（いまとき）
 緊張（きんちょう）
 進化（しんか）</t>
   </si>
@@ -1926,14 +1980,15 @@
     <t>官庁（かんちょう）</t>
   </si>
   <si>
-    <t>孝行（こうこう）、行政（ぎょうせい）、長形（ちょうけい）
+    <t>衛星（えいせい）
+孝行（こうこう）、行政（ぎょうせい）、長形（ちょうけい）
 酸性（さんせい）</t>
   </si>
   <si>
     <t>英語（えいご）、
 蛍光（けいこう）
 電影（でんえい）、
-上映（じょうえい）</t>
+上映（じょうえい）、応答（おうとう）</t>
   </si>
   <si>
     <t>就学（しゅうがく）
@@ -1953,12 +2008,16 @@
     <t>恐怖（きょうふ）</t>
   </si>
   <si>
-    <t>催促（さいそく）</t>
+    <t>粗筋（あらすじ）
+催促（さいそく）</t>
   </si>
   <si>
     <t>出生（しゅっせい）</t>
   </si>
   <si>
+    <t>緯度（いど）</t>
+  </si>
+  <si>
     <t>悲劇（ひげき）</t>
   </si>
   <si>
@@ -1966,6 +2025,16 @@
   </si>
   <si>
     <t>導入（どうにゅう）</t>
+  </si>
+  <si>
+    <t>屋外（おくがい）</t>
+  </si>
+  <si>
+    <t>雨天（うてん）
+育児（いくじ）、意欲（いよく）</t>
+  </si>
+  <si>
+    <t>遠足（えんそく）</t>
   </si>
   <si>
     <t>消化（しょうか）</t>
@@ -2010,7 +2079,7 @@
 選任（せんにん）</t>
   </si>
   <si>
-    <t>原文（げんぶん）、 
+    <t>原文（げんぶん）、 地元（じもと）
 永遠（えいえん）、
 願書（かんしょ）、医院（いいん）</t>
   </si>
@@ -2044,11 +2113,14 @@
   </si>
   <si>
     <t xml:space="preserve">後悔（こうかい）
-開会（かいかい）
+開会（かいかい）、絵本（えほん）
 </t>
   </si>
   <si>
-    <t>水花（すいはな）
+    <t>弱点（じゃくてん）</t>
+  </si>
+  <si>
+    <t>水花（すいはな）、大水（おおみず）
 税金（ぜいきん）</t>
   </si>
   <si>
@@ -2062,13 +2134,17 @@
     <t>追加（ついか）</t>
   </si>
   <si>
-    <t>過程（かてい）</t>
+    <t>裏口（うらくち）
+過程（かてい）</t>
   </si>
   <si>
     <t>作成（さくせい）</t>
   </si>
   <si>
     <t>確信（かくしん）</t>
+  </si>
+  <si>
+    <t>運河（うんが）</t>
   </si>
   <si>
     <t>V</t>
@@ -2079,12 +2155,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2094,6 +2170,13 @@
     </font>
     <font>
       <sz val="22"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2114,16 +2197,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2134,44 +2224,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2191,6 +2243,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -2200,14 +2268,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2228,26 +2304,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2260,139 +2343,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2410,7 +2361,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2422,25 +2469,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2473,16 +2556,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2498,6 +2581,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2519,6 +2617,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2527,181 +2634,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2720,7 +2803,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3578,8 +3667,8 @@
   <sheetPr/>
   <dimension ref="A1:BT34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA23" workbookViewId="0">
-      <selection activeCell="AC28" sqref="AC28"/>
+    <sheetView tabSelected="1" topLeftCell="U21" workbookViewId="0">
+      <selection activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6"/>
@@ -3591,7 +3680,8 @@
     <col min="10" max="10" width="41.3833333333333" customWidth="1"/>
     <col min="11" max="12" width="36.3833333333333" customWidth="1"/>
     <col min="13" max="13" width="54.7166666666667" customWidth="1"/>
-    <col min="14" max="25" width="36.3833333333333" customWidth="1"/>
+    <col min="14" max="24" width="36.3833333333333" customWidth="1"/>
+    <col min="25" max="25" width="51.9416666666667" customWidth="1"/>
     <col min="26" max="26" width="57.775" customWidth="1"/>
     <col min="27" max="27" width="52.5" customWidth="1"/>
     <col min="28" max="28" width="36.3833333333333" customWidth="1"/>
@@ -3603,80 +3693,83 @@
       <c r="A1" t="s">
         <v>130</v>
       </c>
+      <c r="C1" t="s">
+        <v>131</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1" t="s">
         <v>135</v>
       </c>
+      <c r="H1" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="I1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="R1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="S1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="V1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AB1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" ht="48" customHeight="1" spans="2:72">
@@ -3685,82 +3778,82 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>53</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>75</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
@@ -3778,33 +3871,33 @@
       <c r="AQ2" s="2"/>
       <c r="AR2" s="2"/>
       <c r="AS2" s="2"/>
-      <c r="AT2" s="6"/>
-      <c r="AU2" s="6"/>
-      <c r="AV2" s="6"/>
-      <c r="AW2" s="6"/>
-      <c r="AX2" s="6"/>
-      <c r="AY2" s="6"/>
-      <c r="AZ2" s="6"/>
-      <c r="BA2" s="6"/>
-      <c r="BB2" s="6"/>
-      <c r="BC2" s="6"/>
-      <c r="BD2" s="6"/>
-      <c r="BE2" s="6"/>
-      <c r="BF2" s="6"/>
-      <c r="BG2" s="6"/>
-      <c r="BH2" s="6"/>
-      <c r="BI2" s="6"/>
-      <c r="BJ2" s="6"/>
-      <c r="BK2" s="6"/>
-      <c r="BL2" s="6"/>
-      <c r="BM2" s="6"/>
-      <c r="BN2" s="6"/>
-      <c r="BO2" s="6"/>
-      <c r="BP2" s="6"/>
-      <c r="BQ2" s="6"/>
-      <c r="BR2" s="6"/>
-      <c r="BS2" s="6"/>
-      <c r="BT2" s="6"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="8"/>
+      <c r="BC2" s="8"/>
+      <c r="BD2" s="8"/>
+      <c r="BE2" s="8"/>
+      <c r="BF2" s="8"/>
+      <c r="BG2" s="8"/>
+      <c r="BH2" s="8"/>
+      <c r="BI2" s="8"/>
+      <c r="BJ2" s="8"/>
+      <c r="BK2" s="8"/>
+      <c r="BL2" s="8"/>
+      <c r="BM2" s="8"/>
+      <c r="BN2" s="8"/>
+      <c r="BO2" s="8"/>
+      <c r="BP2" s="8"/>
+      <c r="BQ2" s="8"/>
+      <c r="BR2" s="8"/>
+      <c r="BS2" s="8"/>
+      <c r="BT2" s="8"/>
     </row>
     <row r="3" ht="48" customHeight="1" spans="2:72">
       <c r="B3" s="2"/>
@@ -3813,7 +3906,9 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -3832,7 +3927,9 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
+      <c r="AA3" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
@@ -3851,33 +3948,33 @@
       <c r="AQ3" s="2"/>
       <c r="AR3" s="2"/>
       <c r="AS3" s="2"/>
-      <c r="AT3" s="6"/>
-      <c r="AU3" s="6"/>
-      <c r="AV3" s="6"/>
-      <c r="AW3" s="6"/>
-      <c r="AX3" s="6"/>
-      <c r="AY3" s="6"/>
-      <c r="AZ3" s="6"/>
-      <c r="BA3" s="6"/>
-      <c r="BB3" s="6"/>
-      <c r="BC3" s="6"/>
-      <c r="BD3" s="6"/>
-      <c r="BE3" s="6"/>
-      <c r="BF3" s="6"/>
-      <c r="BG3" s="6"/>
-      <c r="BH3" s="6"/>
-      <c r="BI3" s="6"/>
-      <c r="BJ3" s="6"/>
-      <c r="BK3" s="6"/>
-      <c r="BL3" s="6"/>
-      <c r="BM3" s="6"/>
-      <c r="BN3" s="6"/>
-      <c r="BO3" s="6"/>
-      <c r="BP3" s="6"/>
-      <c r="BQ3" s="6"/>
-      <c r="BR3" s="6"/>
-      <c r="BS3" s="6"/>
-      <c r="BT3" s="6"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8"/>
+      <c r="BB3" s="8"/>
+      <c r="BC3" s="8"/>
+      <c r="BD3" s="8"/>
+      <c r="BE3" s="8"/>
+      <c r="BF3" s="8"/>
+      <c r="BG3" s="8"/>
+      <c r="BH3" s="8"/>
+      <c r="BI3" s="8"/>
+      <c r="BJ3" s="8"/>
+      <c r="BK3" s="8"/>
+      <c r="BL3" s="8"/>
+      <c r="BM3" s="8"/>
+      <c r="BN3" s="8"/>
+      <c r="BO3" s="8"/>
+      <c r="BP3" s="8"/>
+      <c r="BQ3" s="8"/>
+      <c r="BR3" s="8"/>
+      <c r="BS3" s="8"/>
+      <c r="BT3" s="8"/>
     </row>
     <row r="4" ht="64" customHeight="1" spans="2:72">
       <c r="B4" s="2" t="s">
@@ -3886,9 +3983,11 @@
       <c r="C4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G4" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>183</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -3927,33 +4026,33 @@
       <c r="AQ4" s="2"/>
       <c r="AR4" s="2"/>
       <c r="AS4" s="2"/>
-      <c r="AT4" s="6"/>
-      <c r="AU4" s="6"/>
-      <c r="AV4" s="6"/>
-      <c r="AW4" s="6"/>
-      <c r="AX4" s="6"/>
-      <c r="AY4" s="6"/>
-      <c r="AZ4" s="6"/>
-      <c r="BA4" s="6"/>
-      <c r="BB4" s="6"/>
-      <c r="BC4" s="6"/>
-      <c r="BD4" s="6"/>
-      <c r="BE4" s="6"/>
-      <c r="BF4" s="6"/>
-      <c r="BG4" s="6"/>
-      <c r="BH4" s="6"/>
-      <c r="BI4" s="6"/>
-      <c r="BJ4" s="6"/>
-      <c r="BK4" s="6"/>
-      <c r="BL4" s="6"/>
-      <c r="BM4" s="6"/>
-      <c r="BN4" s="6"/>
-      <c r="BO4" s="6"/>
-      <c r="BP4" s="6"/>
-      <c r="BQ4" s="6"/>
-      <c r="BR4" s="6"/>
-      <c r="BS4" s="6"/>
-      <c r="BT4" s="6"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="8"/>
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="8"/>
+      <c r="BF4" s="8"/>
+      <c r="BG4" s="8"/>
+      <c r="BH4" s="8"/>
+      <c r="BI4" s="8"/>
+      <c r="BJ4" s="8"/>
+      <c r="BK4" s="8"/>
+      <c r="BL4" s="8"/>
+      <c r="BM4" s="8"/>
+      <c r="BN4" s="8"/>
+      <c r="BO4" s="8"/>
+      <c r="BP4" s="8"/>
+      <c r="BQ4" s="8"/>
+      <c r="BR4" s="8"/>
+      <c r="BS4" s="8"/>
+      <c r="BT4" s="8"/>
     </row>
     <row r="5" ht="64" customHeight="1" spans="2:72">
       <c r="B5" s="2" t="s">
@@ -3961,34 +4060,34 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>185</v>
+      <c r="J5" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
@@ -3996,17 +4095,17 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="AC5" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
@@ -4024,33 +4123,33 @@
       <c r="AQ5" s="2"/>
       <c r="AR5" s="2"/>
       <c r="AS5" s="2"/>
-      <c r="AT5" s="6"/>
-      <c r="AU5" s="6"/>
-      <c r="AV5" s="6"/>
-      <c r="AW5" s="6"/>
-      <c r="AX5" s="6"/>
-      <c r="AY5" s="6"/>
-      <c r="AZ5" s="6"/>
-      <c r="BA5" s="6"/>
-      <c r="BB5" s="6"/>
-      <c r="BC5" s="6"/>
-      <c r="BD5" s="6"/>
-      <c r="BE5" s="6"/>
-      <c r="BF5" s="6"/>
-      <c r="BG5" s="6"/>
-      <c r="BH5" s="6"/>
-      <c r="BI5" s="6"/>
-      <c r="BJ5" s="6"/>
-      <c r="BK5" s="6"/>
-      <c r="BL5" s="6"/>
-      <c r="BM5" s="6"/>
-      <c r="BN5" s="6"/>
-      <c r="BO5" s="6"/>
-      <c r="BP5" s="6"/>
-      <c r="BQ5" s="6"/>
-      <c r="BR5" s="6"/>
-      <c r="BS5" s="6"/>
-      <c r="BT5" s="6"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" s="8"/>
+      <c r="BC5" s="8"/>
+      <c r="BD5" s="8"/>
+      <c r="BE5" s="8"/>
+      <c r="BF5" s="8"/>
+      <c r="BG5" s="8"/>
+      <c r="BH5" s="8"/>
+      <c r="BI5" s="8"/>
+      <c r="BJ5" s="8"/>
+      <c r="BK5" s="8"/>
+      <c r="BL5" s="8"/>
+      <c r="BM5" s="8"/>
+      <c r="BN5" s="8"/>
+      <c r="BO5" s="8"/>
+      <c r="BP5" s="8"/>
+      <c r="BQ5" s="8"/>
+      <c r="BR5" s="8"/>
+      <c r="BS5" s="8"/>
+      <c r="BT5" s="8"/>
     </row>
     <row r="6" ht="64" customHeight="1" spans="2:72">
       <c r="B6" s="2" t="s">
@@ -4059,53 +4158,53 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>194</v>
+      <c r="J6" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="4" t="s">
-        <v>198</v>
+      <c r="S6" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
-      <c r="X6" s="4" t="s">
-        <v>199</v>
+      <c r="X6" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="4" t="s">
-        <v>201</v>
+      <c r="AB6" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
@@ -4123,96 +4222,98 @@
       <c r="AQ6" s="2"/>
       <c r="AR6" s="2"/>
       <c r="AS6" s="2"/>
-      <c r="AT6" s="6"/>
-      <c r="AU6" s="6"/>
-      <c r="AV6" s="6"/>
-      <c r="AW6" s="6"/>
-      <c r="AX6" s="6"/>
-      <c r="AY6" s="6"/>
-      <c r="AZ6" s="6"/>
-      <c r="BA6" s="6"/>
-      <c r="BB6" s="6"/>
-      <c r="BC6" s="6"/>
-      <c r="BD6" s="6"/>
-      <c r="BE6" s="6"/>
-      <c r="BF6" s="6"/>
-      <c r="BG6" s="6"/>
-      <c r="BH6" s="6"/>
-      <c r="BI6" s="6"/>
-      <c r="BJ6" s="6"/>
-      <c r="BK6" s="6"/>
-      <c r="BL6" s="6"/>
-      <c r="BM6" s="6"/>
-      <c r="BN6" s="6"/>
-      <c r="BO6" s="6"/>
-      <c r="BP6" s="6"/>
-      <c r="BQ6" s="6"/>
-      <c r="BR6" s="6"/>
-      <c r="BS6" s="6"/>
-      <c r="BT6" s="6"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="8"/>
+      <c r="AW6" s="8"/>
+      <c r="AX6" s="8"/>
+      <c r="AY6" s="8"/>
+      <c r="AZ6" s="8"/>
+      <c r="BA6" s="8"/>
+      <c r="BB6" s="8"/>
+      <c r="BC6" s="8"/>
+      <c r="BD6" s="8"/>
+      <c r="BE6" s="8"/>
+      <c r="BF6" s="8"/>
+      <c r="BG6" s="8"/>
+      <c r="BH6" s="8"/>
+      <c r="BI6" s="8"/>
+      <c r="BJ6" s="8"/>
+      <c r="BK6" s="8"/>
+      <c r="BL6" s="8"/>
+      <c r="BM6" s="8"/>
+      <c r="BN6" s="8"/>
+      <c r="BO6" s="8"/>
+      <c r="BP6" s="8"/>
+      <c r="BQ6" s="8"/>
+      <c r="BR6" s="8"/>
+      <c r="BS6" s="8"/>
+      <c r="BT6" s="8"/>
     </row>
     <row r="7" ht="64" customHeight="1" spans="2:72">
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3" t="s">
-        <v>203</v>
+      <c r="C7" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="4" t="s">
-        <v>207</v>
+      <c r="I7" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="3" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="3" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="T7" s="2"/>
-      <c r="U7" s="4" t="s">
-        <v>214</v>
+      <c r="U7" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="W7" s="3"/>
       <c r="X7" s="3" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="4" t="s">
-        <v>217</v>
+      <c r="AA7" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="AB7" s="2"/>
       <c r="AC7" s="3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
@@ -4230,33 +4331,33 @@
       <c r="AQ7" s="2"/>
       <c r="AR7" s="2"/>
       <c r="AS7" s="2"/>
-      <c r="AT7" s="6"/>
-      <c r="AU7" s="6"/>
-      <c r="AV7" s="6"/>
-      <c r="AW7" s="6"/>
-      <c r="AX7" s="6"/>
-      <c r="AY7" s="6"/>
-      <c r="AZ7" s="6"/>
-      <c r="BA7" s="6"/>
-      <c r="BB7" s="6"/>
-      <c r="BC7" s="6"/>
-      <c r="BD7" s="6"/>
-      <c r="BE7" s="6"/>
-      <c r="BF7" s="6"/>
-      <c r="BG7" s="6"/>
-      <c r="BH7" s="6"/>
-      <c r="BI7" s="6"/>
-      <c r="BJ7" s="6"/>
-      <c r="BK7" s="6"/>
-      <c r="BL7" s="6"/>
-      <c r="BM7" s="6"/>
-      <c r="BN7" s="6"/>
-      <c r="BO7" s="6"/>
-      <c r="BP7" s="6"/>
-      <c r="BQ7" s="6"/>
-      <c r="BR7" s="6"/>
-      <c r="BS7" s="6"/>
-      <c r="BT7" s="6"/>
+      <c r="AT7" s="8"/>
+      <c r="AU7" s="8"/>
+      <c r="AV7" s="8"/>
+      <c r="AW7" s="8"/>
+      <c r="AX7" s="8"/>
+      <c r="AY7" s="8"/>
+      <c r="AZ7" s="8"/>
+      <c r="BA7" s="8"/>
+      <c r="BB7" s="8"/>
+      <c r="BC7" s="8"/>
+      <c r="BD7" s="8"/>
+      <c r="BE7" s="8"/>
+      <c r="BF7" s="8"/>
+      <c r="BG7" s="8"/>
+      <c r="BH7" s="8"/>
+      <c r="BI7" s="8"/>
+      <c r="BJ7" s="8"/>
+      <c r="BK7" s="8"/>
+      <c r="BL7" s="8"/>
+      <c r="BM7" s="8"/>
+      <c r="BN7" s="8"/>
+      <c r="BO7" s="8"/>
+      <c r="BP7" s="8"/>
+      <c r="BQ7" s="8"/>
+      <c r="BR7" s="8"/>
+      <c r="BS7" s="8"/>
+      <c r="BT7" s="8"/>
     </row>
     <row r="8" ht="64" customHeight="1" spans="2:72">
       <c r="B8" s="2" t="s">
@@ -4265,19 +4366,19 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>220</v>
+        <v>224</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>225</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="3" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="3" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -4290,22 +4391,22 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
-      <c r="W8" s="4" t="s">
-        <v>223</v>
+      <c r="W8" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="X8" s="2"/>
-      <c r="Y8" s="3" t="s">
-        <v>224</v>
+      <c r="Y8" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="4" t="s">
-        <v>225</v>
+      <c r="AA8" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
@@ -4323,33 +4424,33 @@
       <c r="AQ8" s="2"/>
       <c r="AR8" s="2"/>
       <c r="AS8" s="2"/>
-      <c r="AT8" s="6"/>
-      <c r="AU8" s="6"/>
-      <c r="AV8" s="6"/>
-      <c r="AW8" s="6"/>
-      <c r="AX8" s="6"/>
-      <c r="AY8" s="6"/>
-      <c r="AZ8" s="6"/>
-      <c r="BA8" s="6"/>
-      <c r="BB8" s="6"/>
-      <c r="BC8" s="6"/>
-      <c r="BD8" s="6"/>
-      <c r="BE8" s="6"/>
-      <c r="BF8" s="6"/>
-      <c r="BG8" s="6"/>
-      <c r="BH8" s="6"/>
-      <c r="BI8" s="6"/>
-      <c r="BJ8" s="6"/>
-      <c r="BK8" s="6"/>
-      <c r="BL8" s="6"/>
-      <c r="BM8" s="6"/>
-      <c r="BN8" s="6"/>
-      <c r="BO8" s="6"/>
-      <c r="BP8" s="6"/>
-      <c r="BQ8" s="6"/>
-      <c r="BR8" s="6"/>
-      <c r="BS8" s="6"/>
-      <c r="BT8" s="6"/>
+      <c r="AT8" s="8"/>
+      <c r="AU8" s="8"/>
+      <c r="AV8" s="8"/>
+      <c r="AW8" s="8"/>
+      <c r="AX8" s="8"/>
+      <c r="AY8" s="8"/>
+      <c r="AZ8" s="8"/>
+      <c r="BA8" s="8"/>
+      <c r="BB8" s="8"/>
+      <c r="BC8" s="8"/>
+      <c r="BD8" s="8"/>
+      <c r="BE8" s="8"/>
+      <c r="BF8" s="8"/>
+      <c r="BG8" s="8"/>
+      <c r="BH8" s="8"/>
+      <c r="BI8" s="8"/>
+      <c r="BJ8" s="8"/>
+      <c r="BK8" s="8"/>
+      <c r="BL8" s="8"/>
+      <c r="BM8" s="8"/>
+      <c r="BN8" s="8"/>
+      <c r="BO8" s="8"/>
+      <c r="BP8" s="8"/>
+      <c r="BQ8" s="8"/>
+      <c r="BR8" s="8"/>
+      <c r="BS8" s="8"/>
+      <c r="BT8" s="8"/>
     </row>
     <row r="9" ht="64" customHeight="1" spans="2:72">
       <c r="B9" s="2" t="s">
@@ -4358,7 +4459,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -4368,7 +4469,9 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+      <c r="P9" s="3" t="s">
+        <v>233</v>
+      </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
@@ -4378,7 +4481,7 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="3" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
@@ -4400,33 +4503,33 @@
       <c r="AQ9" s="2"/>
       <c r="AR9" s="2"/>
       <c r="AS9" s="2"/>
-      <c r="AT9" s="6"/>
-      <c r="AU9" s="6"/>
-      <c r="AV9" s="6"/>
-      <c r="AW9" s="6"/>
-      <c r="AX9" s="6"/>
-      <c r="AY9" s="6"/>
-      <c r="AZ9" s="6"/>
-      <c r="BA9" s="6"/>
-      <c r="BB9" s="6"/>
-      <c r="BC9" s="6"/>
-      <c r="BD9" s="6"/>
-      <c r="BE9" s="6"/>
-      <c r="BF9" s="6"/>
-      <c r="BG9" s="6"/>
-      <c r="BH9" s="6"/>
-      <c r="BI9" s="6"/>
-      <c r="BJ9" s="6"/>
-      <c r="BK9" s="6"/>
-      <c r="BL9" s="6"/>
-      <c r="BM9" s="6"/>
-      <c r="BN9" s="6"/>
-      <c r="BO9" s="6"/>
-      <c r="BP9" s="6"/>
-      <c r="BQ9" s="6"/>
-      <c r="BR9" s="6"/>
-      <c r="BS9" s="6"/>
-      <c r="BT9" s="6"/>
+      <c r="AT9" s="8"/>
+      <c r="AU9" s="8"/>
+      <c r="AV9" s="8"/>
+      <c r="AW9" s="8"/>
+      <c r="AX9" s="8"/>
+      <c r="AY9" s="8"/>
+      <c r="AZ9" s="8"/>
+      <c r="BA9" s="8"/>
+      <c r="BB9" s="8"/>
+      <c r="BC9" s="8"/>
+      <c r="BD9" s="8"/>
+      <c r="BE9" s="8"/>
+      <c r="BF9" s="8"/>
+      <c r="BG9" s="8"/>
+      <c r="BH9" s="8"/>
+      <c r="BI9" s="8"/>
+      <c r="BJ9" s="8"/>
+      <c r="BK9" s="8"/>
+      <c r="BL9" s="8"/>
+      <c r="BM9" s="8"/>
+      <c r="BN9" s="8"/>
+      <c r="BO9" s="8"/>
+      <c r="BP9" s="8"/>
+      <c r="BQ9" s="8"/>
+      <c r="BR9" s="8"/>
+      <c r="BS9" s="8"/>
+      <c r="BT9" s="8"/>
     </row>
     <row r="10" ht="64" customHeight="1" spans="2:72">
       <c r="B10" s="2" t="s">
@@ -4435,51 +4538,51 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>230</v>
+      <c r="F10" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>236</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="4" t="s">
-        <v>231</v>
+      <c r="J10" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="4" t="s">
-        <v>232</v>
+      <c r="N10" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="3" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="3" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="W10" s="3"/>
       <c r="X10" s="3" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="3" t="s">
-        <v>237</v>
+      <c r="AA10" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>239</v>
+        <v>244</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>245</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
@@ -4497,33 +4600,33 @@
       <c r="AQ10" s="2"/>
       <c r="AR10" s="2"/>
       <c r="AS10" s="2"/>
-      <c r="AT10" s="6"/>
-      <c r="AU10" s="6"/>
-      <c r="AV10" s="6"/>
-      <c r="AW10" s="6"/>
-      <c r="AX10" s="6"/>
-      <c r="AY10" s="6"/>
-      <c r="AZ10" s="6"/>
-      <c r="BA10" s="6"/>
-      <c r="BB10" s="6"/>
-      <c r="BC10" s="6"/>
-      <c r="BD10" s="6"/>
-      <c r="BE10" s="6"/>
-      <c r="BF10" s="6"/>
-      <c r="BG10" s="6"/>
-      <c r="BH10" s="6"/>
-      <c r="BI10" s="6"/>
-      <c r="BJ10" s="6"/>
-      <c r="BK10" s="6"/>
-      <c r="BL10" s="6"/>
-      <c r="BM10" s="6"/>
-      <c r="BN10" s="6"/>
-      <c r="BO10" s="6"/>
-      <c r="BP10" s="6"/>
-      <c r="BQ10" s="6"/>
-      <c r="BR10" s="6"/>
-      <c r="BS10" s="6"/>
-      <c r="BT10" s="6"/>
+      <c r="AT10" s="8"/>
+      <c r="AU10" s="8"/>
+      <c r="AV10" s="8"/>
+      <c r="AW10" s="8"/>
+      <c r="AX10" s="8"/>
+      <c r="AY10" s="8"/>
+      <c r="AZ10" s="8"/>
+      <c r="BA10" s="8"/>
+      <c r="BB10" s="8"/>
+      <c r="BC10" s="8"/>
+      <c r="BD10" s="8"/>
+      <c r="BE10" s="8"/>
+      <c r="BF10" s="8"/>
+      <c r="BG10" s="8"/>
+      <c r="BH10" s="8"/>
+      <c r="BI10" s="8"/>
+      <c r="BJ10" s="8"/>
+      <c r="BK10" s="8"/>
+      <c r="BL10" s="8"/>
+      <c r="BM10" s="8"/>
+      <c r="BN10" s="8"/>
+      <c r="BO10" s="8"/>
+      <c r="BP10" s="8"/>
+      <c r="BQ10" s="8"/>
+      <c r="BR10" s="8"/>
+      <c r="BS10" s="8"/>
+      <c r="BT10" s="8"/>
     </row>
     <row r="11" ht="64" customHeight="1" spans="2:72">
       <c r="B11" s="2" t="s">
@@ -4532,17 +4635,17 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="4" t="s">
-        <v>240</v>
+      <c r="F11" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="3" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -4551,28 +4654,28 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="3" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
-      <c r="W11" s="4" t="s">
-        <v>244</v>
+      <c r="W11" s="5" t="s">
+        <v>250</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="4" t="s">
-        <v>246</v>
+      <c r="AA11" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
@@ -4590,33 +4693,33 @@
       <c r="AQ11" s="2"/>
       <c r="AR11" s="2"/>
       <c r="AS11" s="2"/>
-      <c r="AT11" s="6"/>
-      <c r="AU11" s="6"/>
-      <c r="AV11" s="6"/>
-      <c r="AW11" s="6"/>
-      <c r="AX11" s="6"/>
-      <c r="AY11" s="6"/>
-      <c r="AZ11" s="6"/>
-      <c r="BA11" s="6"/>
-      <c r="BB11" s="6"/>
-      <c r="BC11" s="6"/>
-      <c r="BD11" s="6"/>
-      <c r="BE11" s="6"/>
-      <c r="BF11" s="6"/>
-      <c r="BG11" s="6"/>
-      <c r="BH11" s="6"/>
-      <c r="BI11" s="6"/>
-      <c r="BJ11" s="6"/>
-      <c r="BK11" s="6"/>
-      <c r="BL11" s="6"/>
-      <c r="BM11" s="6"/>
-      <c r="BN11" s="6"/>
-      <c r="BO11" s="6"/>
-      <c r="BP11" s="6"/>
-      <c r="BQ11" s="6"/>
-      <c r="BR11" s="6"/>
-      <c r="BS11" s="6"/>
-      <c r="BT11" s="6"/>
+      <c r="AT11" s="8"/>
+      <c r="AU11" s="8"/>
+      <c r="AV11" s="8"/>
+      <c r="AW11" s="8"/>
+      <c r="AX11" s="8"/>
+      <c r="AY11" s="8"/>
+      <c r="AZ11" s="8"/>
+      <c r="BA11" s="8"/>
+      <c r="BB11" s="8"/>
+      <c r="BC11" s="8"/>
+      <c r="BD11" s="8"/>
+      <c r="BE11" s="8"/>
+      <c r="BF11" s="8"/>
+      <c r="BG11" s="8"/>
+      <c r="BH11" s="8"/>
+      <c r="BI11" s="8"/>
+      <c r="BJ11" s="8"/>
+      <c r="BK11" s="8"/>
+      <c r="BL11" s="8"/>
+      <c r="BM11" s="8"/>
+      <c r="BN11" s="8"/>
+      <c r="BO11" s="8"/>
+      <c r="BP11" s="8"/>
+      <c r="BQ11" s="8"/>
+      <c r="BR11" s="8"/>
+      <c r="BS11" s="8"/>
+      <c r="BT11" s="8"/>
     </row>
     <row r="12" ht="64" customHeight="1" spans="2:72">
       <c r="B12" s="2" t="s">
@@ -4625,7 +4728,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -4636,7 +4739,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="3" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -4652,7 +4755,9 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
+      <c r="AC12" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
@@ -4669,76 +4774,76 @@
       <c r="AQ12" s="2"/>
       <c r="AR12" s="2"/>
       <c r="AS12" s="2"/>
-      <c r="AT12" s="6"/>
-      <c r="AU12" s="6"/>
-      <c r="AV12" s="6"/>
-      <c r="AW12" s="6"/>
-      <c r="AX12" s="6"/>
-      <c r="AY12" s="6"/>
-      <c r="AZ12" s="6"/>
-      <c r="BA12" s="6"/>
-      <c r="BB12" s="6"/>
-      <c r="BC12" s="6"/>
-      <c r="BD12" s="6"/>
-      <c r="BE12" s="6"/>
-      <c r="BF12" s="6"/>
-      <c r="BG12" s="6"/>
-      <c r="BH12" s="6"/>
-      <c r="BI12" s="6"/>
-      <c r="BJ12" s="6"/>
-      <c r="BK12" s="6"/>
-      <c r="BL12" s="6"/>
-      <c r="BM12" s="6"/>
-      <c r="BN12" s="6"/>
-      <c r="BO12" s="6"/>
-      <c r="BP12" s="6"/>
-      <c r="BQ12" s="6"/>
-      <c r="BR12" s="6"/>
-      <c r="BS12" s="6"/>
-      <c r="BT12" s="6"/>
+      <c r="AT12" s="8"/>
+      <c r="AU12" s="8"/>
+      <c r="AV12" s="8"/>
+      <c r="AW12" s="8"/>
+      <c r="AX12" s="8"/>
+      <c r="AY12" s="8"/>
+      <c r="AZ12" s="8"/>
+      <c r="BA12" s="8"/>
+      <c r="BB12" s="8"/>
+      <c r="BC12" s="8"/>
+      <c r="BD12" s="8"/>
+      <c r="BE12" s="8"/>
+      <c r="BF12" s="8"/>
+      <c r="BG12" s="8"/>
+      <c r="BH12" s="8"/>
+      <c r="BI12" s="8"/>
+      <c r="BJ12" s="8"/>
+      <c r="BK12" s="8"/>
+      <c r="BL12" s="8"/>
+      <c r="BM12" s="8"/>
+      <c r="BN12" s="8"/>
+      <c r="BO12" s="8"/>
+      <c r="BP12" s="8"/>
+      <c r="BQ12" s="8"/>
+      <c r="BR12" s="8"/>
+      <c r="BS12" s="8"/>
+      <c r="BT12" s="8"/>
     </row>
     <row r="13" ht="64" customHeight="1" spans="2:72">
       <c r="B13" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="4" t="s">
-        <v>251</v>
+      <c r="D13" s="5" t="s">
+        <v>258</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="4" t="s">
-        <v>252</v>
+      <c r="I13" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="3" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="3" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="4" t="s">
-        <v>258</v>
+      <c r="Y13" s="5" t="s">
+        <v>265</v>
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
@@ -4760,33 +4865,33 @@
       <c r="AQ13" s="2"/>
       <c r="AR13" s="2"/>
       <c r="AS13" s="2"/>
-      <c r="AT13" s="6"/>
-      <c r="AU13" s="6"/>
-      <c r="AV13" s="6"/>
-      <c r="AW13" s="6"/>
-      <c r="AX13" s="6"/>
-      <c r="AY13" s="6"/>
-      <c r="AZ13" s="6"/>
-      <c r="BA13" s="6"/>
-      <c r="BB13" s="6"/>
-      <c r="BC13" s="6"/>
-      <c r="BD13" s="6"/>
-      <c r="BE13" s="6"/>
-      <c r="BF13" s="6"/>
-      <c r="BG13" s="6"/>
-      <c r="BH13" s="6"/>
-      <c r="BI13" s="6"/>
-      <c r="BJ13" s="6"/>
-      <c r="BK13" s="6"/>
-      <c r="BL13" s="6"/>
-      <c r="BM13" s="6"/>
-      <c r="BN13" s="6"/>
-      <c r="BO13" s="6"/>
-      <c r="BP13" s="6"/>
-      <c r="BQ13" s="6"/>
-      <c r="BR13" s="6"/>
-      <c r="BS13" s="6"/>
-      <c r="BT13" s="6"/>
+      <c r="AT13" s="8"/>
+      <c r="AU13" s="8"/>
+      <c r="AV13" s="8"/>
+      <c r="AW13" s="8"/>
+      <c r="AX13" s="8"/>
+      <c r="AY13" s="8"/>
+      <c r="AZ13" s="8"/>
+      <c r="BA13" s="8"/>
+      <c r="BB13" s="8"/>
+      <c r="BC13" s="8"/>
+      <c r="BD13" s="8"/>
+      <c r="BE13" s="8"/>
+      <c r="BF13" s="8"/>
+      <c r="BG13" s="8"/>
+      <c r="BH13" s="8"/>
+      <c r="BI13" s="8"/>
+      <c r="BJ13" s="8"/>
+      <c r="BK13" s="8"/>
+      <c r="BL13" s="8"/>
+      <c r="BM13" s="8"/>
+      <c r="BN13" s="8"/>
+      <c r="BO13" s="8"/>
+      <c r="BP13" s="8"/>
+      <c r="BQ13" s="8"/>
+      <c r="BR13" s="8"/>
+      <c r="BS13" s="8"/>
+      <c r="BT13" s="8"/>
     </row>
     <row r="14" ht="64" customHeight="1" spans="2:72">
       <c r="B14" s="2" t="s">
@@ -4794,21 +4899,21 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="3" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="3" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -4816,28 +4921,28 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="3" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-      <c r="U14" s="4" t="s">
-        <v>265</v>
+      <c r="U14" s="5" t="s">
+        <v>272</v>
       </c>
       <c r="V14" s="2"/>
-      <c r="W14" s="4" t="s">
-        <v>266</v>
+      <c r="W14" s="5" t="s">
+        <v>273</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" s="3" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="4" t="s">
-        <v>268</v>
+      <c r="AC14" s="5" t="s">
+        <v>275</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
@@ -4855,33 +4960,33 @@
       <c r="AQ14" s="2"/>
       <c r="AR14" s="2"/>
       <c r="AS14" s="2"/>
-      <c r="AT14" s="6"/>
-      <c r="AU14" s="6"/>
-      <c r="AV14" s="6"/>
-      <c r="AW14" s="6"/>
-      <c r="AX14" s="6"/>
-      <c r="AY14" s="6"/>
-      <c r="AZ14" s="6"/>
-      <c r="BA14" s="6"/>
-      <c r="BB14" s="6"/>
-      <c r="BC14" s="6"/>
-      <c r="BD14" s="6"/>
-      <c r="BE14" s="6"/>
-      <c r="BF14" s="6"/>
-      <c r="BG14" s="6"/>
-      <c r="BH14" s="6"/>
-      <c r="BI14" s="6"/>
-      <c r="BJ14" s="6"/>
-      <c r="BK14" s="6"/>
-      <c r="BL14" s="6"/>
-      <c r="BM14" s="6"/>
-      <c r="BN14" s="6"/>
-      <c r="BO14" s="6"/>
-      <c r="BP14" s="6"/>
-      <c r="BQ14" s="6"/>
-      <c r="BR14" s="6"/>
-      <c r="BS14" s="6"/>
-      <c r="BT14" s="6"/>
+      <c r="AT14" s="8"/>
+      <c r="AU14" s="8"/>
+      <c r="AV14" s="8"/>
+      <c r="AW14" s="8"/>
+      <c r="AX14" s="8"/>
+      <c r="AY14" s="8"/>
+      <c r="AZ14" s="8"/>
+      <c r="BA14" s="8"/>
+      <c r="BB14" s="8"/>
+      <c r="BC14" s="8"/>
+      <c r="BD14" s="8"/>
+      <c r="BE14" s="8"/>
+      <c r="BF14" s="8"/>
+      <c r="BG14" s="8"/>
+      <c r="BH14" s="8"/>
+      <c r="BI14" s="8"/>
+      <c r="BJ14" s="8"/>
+      <c r="BK14" s="8"/>
+      <c r="BL14" s="8"/>
+      <c r="BM14" s="8"/>
+      <c r="BN14" s="8"/>
+      <c r="BO14" s="8"/>
+      <c r="BP14" s="8"/>
+      <c r="BQ14" s="8"/>
+      <c r="BR14" s="8"/>
+      <c r="BS14" s="8"/>
+      <c r="BT14" s="8"/>
     </row>
     <row r="15" ht="64" customHeight="1" spans="2:72">
       <c r="B15" s="2" t="s">
@@ -4890,19 +4995,19 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>271</v>
+        <v>277</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>278</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="3" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -4910,7 +5015,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="3" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -4918,15 +5023,15 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="3" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
-      <c r="AC15" s="4" t="s">
-        <v>275</v>
+      <c r="AC15" s="5" t="s">
+        <v>282</v>
       </c>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
@@ -4944,33 +5049,33 @@
       <c r="AQ15" s="2"/>
       <c r="AR15" s="2"/>
       <c r="AS15" s="2"/>
-      <c r="AT15" s="6"/>
-      <c r="AU15" s="6"/>
-      <c r="AV15" s="6"/>
-      <c r="AW15" s="6"/>
-      <c r="AX15" s="6"/>
-      <c r="AY15" s="6"/>
-      <c r="AZ15" s="6"/>
-      <c r="BA15" s="6"/>
-      <c r="BB15" s="6"/>
-      <c r="BC15" s="6"/>
-      <c r="BD15" s="6"/>
-      <c r="BE15" s="6"/>
-      <c r="BF15" s="6"/>
-      <c r="BG15" s="6"/>
-      <c r="BH15" s="6"/>
-      <c r="BI15" s="6"/>
-      <c r="BJ15" s="6"/>
-      <c r="BK15" s="6"/>
-      <c r="BL15" s="6"/>
-      <c r="BM15" s="6"/>
-      <c r="BN15" s="6"/>
-      <c r="BO15" s="6"/>
-      <c r="BP15" s="6"/>
-      <c r="BQ15" s="6"/>
-      <c r="BR15" s="6"/>
-      <c r="BS15" s="6"/>
-      <c r="BT15" s="6"/>
+      <c r="AT15" s="8"/>
+      <c r="AU15" s="8"/>
+      <c r="AV15" s="8"/>
+      <c r="AW15" s="8"/>
+      <c r="AX15" s="8"/>
+      <c r="AY15" s="8"/>
+      <c r="AZ15" s="8"/>
+      <c r="BA15" s="8"/>
+      <c r="BB15" s="8"/>
+      <c r="BC15" s="8"/>
+      <c r="BD15" s="8"/>
+      <c r="BE15" s="8"/>
+      <c r="BF15" s="8"/>
+      <c r="BG15" s="8"/>
+      <c r="BH15" s="8"/>
+      <c r="BI15" s="8"/>
+      <c r="BJ15" s="8"/>
+      <c r="BK15" s="8"/>
+      <c r="BL15" s="8"/>
+      <c r="BM15" s="8"/>
+      <c r="BN15" s="8"/>
+      <c r="BO15" s="8"/>
+      <c r="BP15" s="8"/>
+      <c r="BQ15" s="8"/>
+      <c r="BR15" s="8"/>
+      <c r="BS15" s="8"/>
+      <c r="BT15" s="8"/>
     </row>
     <row r="16" ht="64" customHeight="1" spans="2:72">
       <c r="B16" s="2" t="s">
@@ -4978,44 +5083,52 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="3" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="7" t="s">
+        <v>284</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
+      <c r="M16" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="3" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="3" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="Y16" s="2"/>
-      <c r="Z16" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
+      <c r="Z16" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>292</v>
+      </c>
       <c r="AC16" s="5" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
@@ -5033,33 +5146,33 @@
       <c r="AQ16" s="2"/>
       <c r="AR16" s="2"/>
       <c r="AS16" s="2"/>
-      <c r="AT16" s="6"/>
-      <c r="AU16" s="6"/>
-      <c r="AV16" s="6"/>
-      <c r="AW16" s="6"/>
-      <c r="AX16" s="6"/>
-      <c r="AY16" s="6"/>
-      <c r="AZ16" s="6"/>
-      <c r="BA16" s="6"/>
-      <c r="BB16" s="6"/>
-      <c r="BC16" s="6"/>
-      <c r="BD16" s="6"/>
-      <c r="BE16" s="6"/>
-      <c r="BF16" s="6"/>
-      <c r="BG16" s="6"/>
-      <c r="BH16" s="6"/>
-      <c r="BI16" s="6"/>
-      <c r="BJ16" s="6"/>
-      <c r="BK16" s="6"/>
-      <c r="BL16" s="6"/>
-      <c r="BM16" s="6"/>
-      <c r="BN16" s="6"/>
-      <c r="BO16" s="6"/>
-      <c r="BP16" s="6"/>
-      <c r="BQ16" s="6"/>
-      <c r="BR16" s="6"/>
-      <c r="BS16" s="6"/>
-      <c r="BT16" s="6"/>
+      <c r="AT16" s="8"/>
+      <c r="AU16" s="8"/>
+      <c r="AV16" s="8"/>
+      <c r="AW16" s="8"/>
+      <c r="AX16" s="8"/>
+      <c r="AY16" s="8"/>
+      <c r="AZ16" s="8"/>
+      <c r="BA16" s="8"/>
+      <c r="BB16" s="8"/>
+      <c r="BC16" s="8"/>
+      <c r="BD16" s="8"/>
+      <c r="BE16" s="8"/>
+      <c r="BF16" s="8"/>
+      <c r="BG16" s="8"/>
+      <c r="BH16" s="8"/>
+      <c r="BI16" s="8"/>
+      <c r="BJ16" s="8"/>
+      <c r="BK16" s="8"/>
+      <c r="BL16" s="8"/>
+      <c r="BM16" s="8"/>
+      <c r="BN16" s="8"/>
+      <c r="BO16" s="8"/>
+      <c r="BP16" s="8"/>
+      <c r="BQ16" s="8"/>
+      <c r="BR16" s="8"/>
+      <c r="BS16" s="8"/>
+      <c r="BT16" s="8"/>
     </row>
     <row r="17" ht="64" customHeight="1" spans="2:72">
       <c r="B17" s="2" t="s">
@@ -5075,7 +5188,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="4"/>
+      <c r="M17" s="5"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -5089,7 +5202,7 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="3" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
@@ -5110,77 +5223,77 @@
       <c r="AQ17" s="2"/>
       <c r="AR17" s="2"/>
       <c r="AS17" s="2"/>
-      <c r="AT17" s="6"/>
-      <c r="AU17" s="6"/>
-      <c r="AV17" s="6"/>
-      <c r="AW17" s="6"/>
-      <c r="AX17" s="6"/>
-      <c r="AY17" s="6"/>
-      <c r="AZ17" s="6"/>
-      <c r="BA17" s="6"/>
-      <c r="BB17" s="6"/>
-      <c r="BC17" s="6"/>
-      <c r="BD17" s="6"/>
-      <c r="BE17" s="6"/>
-      <c r="BF17" s="6"/>
-      <c r="BG17" s="6"/>
-      <c r="BH17" s="6"/>
-      <c r="BI17" s="6"/>
-      <c r="BJ17" s="6"/>
-      <c r="BK17" s="6"/>
-      <c r="BL17" s="6"/>
-      <c r="BM17" s="6"/>
-      <c r="BN17" s="6"/>
-      <c r="BO17" s="6"/>
-      <c r="BP17" s="6"/>
-      <c r="BQ17" s="6"/>
-      <c r="BR17" s="6"/>
-      <c r="BS17" s="6"/>
-      <c r="BT17" s="6"/>
+      <c r="AT17" s="8"/>
+      <c r="AU17" s="8"/>
+      <c r="AV17" s="8"/>
+      <c r="AW17" s="8"/>
+      <c r="AX17" s="8"/>
+      <c r="AY17" s="8"/>
+      <c r="AZ17" s="8"/>
+      <c r="BA17" s="8"/>
+      <c r="BB17" s="8"/>
+      <c r="BC17" s="8"/>
+      <c r="BD17" s="8"/>
+      <c r="BE17" s="8"/>
+      <c r="BF17" s="8"/>
+      <c r="BG17" s="8"/>
+      <c r="BH17" s="8"/>
+      <c r="BI17" s="8"/>
+      <c r="BJ17" s="8"/>
+      <c r="BK17" s="8"/>
+      <c r="BL17" s="8"/>
+      <c r="BM17" s="8"/>
+      <c r="BN17" s="8"/>
+      <c r="BO17" s="8"/>
+      <c r="BP17" s="8"/>
+      <c r="BQ17" s="8"/>
+      <c r="BR17" s="8"/>
+      <c r="BS17" s="8"/>
+      <c r="BT17" s="8"/>
     </row>
     <row r="18" ht="64" customHeight="1" spans="2:72">
       <c r="B18" s="2" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="3" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="3" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="4" t="s">
-        <v>286</v>
+      <c r="M18" s="5" t="s">
+        <v>298</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>288</v>
+        <v>299</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>300</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="3" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
-      <c r="X18" s="4" t="s">
-        <v>290</v>
+      <c r="X18" s="5" t="s">
+        <v>302</v>
       </c>
       <c r="Y18" s="2"/>
-      <c r="Z18" s="4" t="s">
-        <v>291</v>
+      <c r="Z18" s="5" t="s">
+        <v>303</v>
       </c>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
@@ -5201,77 +5314,77 @@
       <c r="AQ18" s="2"/>
       <c r="AR18" s="2"/>
       <c r="AS18" s="2"/>
-      <c r="AT18" s="6"/>
-      <c r="AU18" s="6"/>
-      <c r="AV18" s="6"/>
-      <c r="AW18" s="6"/>
-      <c r="AX18" s="6"/>
-      <c r="AY18" s="6"/>
-      <c r="AZ18" s="6"/>
-      <c r="BA18" s="6"/>
-      <c r="BB18" s="6"/>
-      <c r="BC18" s="6"/>
-      <c r="BD18" s="6"/>
-      <c r="BE18" s="6"/>
-      <c r="BF18" s="6"/>
-      <c r="BG18" s="6"/>
-      <c r="BH18" s="6"/>
-      <c r="BI18" s="6"/>
-      <c r="BJ18" s="6"/>
-      <c r="BK18" s="6"/>
-      <c r="BL18" s="6"/>
-      <c r="BM18" s="6"/>
-      <c r="BN18" s="6"/>
-      <c r="BO18" s="6"/>
-      <c r="BP18" s="6"/>
-      <c r="BQ18" s="6"/>
-      <c r="BR18" s="6"/>
-      <c r="BS18" s="6"/>
-      <c r="BT18" s="6"/>
+      <c r="AT18" s="8"/>
+      <c r="AU18" s="8"/>
+      <c r="AV18" s="8"/>
+      <c r="AW18" s="8"/>
+      <c r="AX18" s="8"/>
+      <c r="AY18" s="8"/>
+      <c r="AZ18" s="8"/>
+      <c r="BA18" s="8"/>
+      <c r="BB18" s="8"/>
+      <c r="BC18" s="8"/>
+      <c r="BD18" s="8"/>
+      <c r="BE18" s="8"/>
+      <c r="BF18" s="8"/>
+      <c r="BG18" s="8"/>
+      <c r="BH18" s="8"/>
+      <c r="BI18" s="8"/>
+      <c r="BJ18" s="8"/>
+      <c r="BK18" s="8"/>
+      <c r="BL18" s="8"/>
+      <c r="BM18" s="8"/>
+      <c r="BN18" s="8"/>
+      <c r="BO18" s="8"/>
+      <c r="BP18" s="8"/>
+      <c r="BQ18" s="8"/>
+      <c r="BR18" s="8"/>
+      <c r="BS18" s="8"/>
+      <c r="BT18" s="8"/>
     </row>
     <row r="19" ht="64" customHeight="1" spans="2:72">
       <c r="B19" s="2" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="3" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="3" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="4" t="s">
-        <v>295</v>
+      <c r="M19" s="5" t="s">
+        <v>307</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="3" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
-      <c r="T19" s="4" t="s">
-        <v>298</v>
+      <c r="T19" s="5" t="s">
+        <v>310</v>
       </c>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="3" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="Y19" s="2"/>
-      <c r="Z19" s="4" t="s">
-        <v>300</v>
+      <c r="Z19" s="5" t="s">
+        <v>312</v>
       </c>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
@@ -5292,37 +5405,37 @@
       <c r="AQ19" s="2"/>
       <c r="AR19" s="2"/>
       <c r="AS19" s="2"/>
-      <c r="AT19" s="6"/>
-      <c r="AU19" s="6"/>
-      <c r="AV19" s="6"/>
-      <c r="AW19" s="6"/>
-      <c r="AX19" s="6"/>
-      <c r="AY19" s="6"/>
-      <c r="AZ19" s="6"/>
-      <c r="BA19" s="6"/>
-      <c r="BB19" s="6"/>
-      <c r="BC19" s="6"/>
-      <c r="BD19" s="6"/>
-      <c r="BE19" s="6"/>
-      <c r="BF19" s="6"/>
-      <c r="BG19" s="6"/>
-      <c r="BH19" s="6"/>
-      <c r="BI19" s="6"/>
-      <c r="BJ19" s="6"/>
-      <c r="BK19" s="6"/>
-      <c r="BL19" s="6"/>
-      <c r="BM19" s="6"/>
-      <c r="BN19" s="6"/>
-      <c r="BO19" s="6"/>
-      <c r="BP19" s="6"/>
-      <c r="BQ19" s="6"/>
-      <c r="BR19" s="6"/>
-      <c r="BS19" s="6"/>
-      <c r="BT19" s="6"/>
+      <c r="AT19" s="8"/>
+      <c r="AU19" s="8"/>
+      <c r="AV19" s="8"/>
+      <c r="AW19" s="8"/>
+      <c r="AX19" s="8"/>
+      <c r="AY19" s="8"/>
+      <c r="AZ19" s="8"/>
+      <c r="BA19" s="8"/>
+      <c r="BB19" s="8"/>
+      <c r="BC19" s="8"/>
+      <c r="BD19" s="8"/>
+      <c r="BE19" s="8"/>
+      <c r="BF19" s="8"/>
+      <c r="BG19" s="8"/>
+      <c r="BH19" s="8"/>
+      <c r="BI19" s="8"/>
+      <c r="BJ19" s="8"/>
+      <c r="BK19" s="8"/>
+      <c r="BL19" s="8"/>
+      <c r="BM19" s="8"/>
+      <c r="BN19" s="8"/>
+      <c r="BO19" s="8"/>
+      <c r="BP19" s="8"/>
+      <c r="BQ19" s="8"/>
+      <c r="BR19" s="8"/>
+      <c r="BS19" s="8"/>
+      <c r="BT19" s="8"/>
     </row>
     <row r="20" ht="64" customHeight="1" spans="2:72">
       <c r="B20" s="2" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
@@ -5334,8 +5447,8 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="4" t="s">
-        <v>302</v>
+      <c r="M20" s="5" t="s">
+        <v>314</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -5344,15 +5457,15 @@
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="3" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
-      <c r="Z20" s="4" t="s">
-        <v>304</v>
+      <c r="Z20" s="5" t="s">
+        <v>316</v>
       </c>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
@@ -5373,33 +5486,33 @@
       <c r="AQ20" s="2"/>
       <c r="AR20" s="2"/>
       <c r="AS20" s="2"/>
-      <c r="AT20" s="6"/>
-      <c r="AU20" s="6"/>
-      <c r="AV20" s="6"/>
-      <c r="AW20" s="6"/>
-      <c r="AX20" s="6"/>
-      <c r="AY20" s="6"/>
-      <c r="AZ20" s="6"/>
-      <c r="BA20" s="6"/>
-      <c r="BB20" s="6"/>
-      <c r="BC20" s="6"/>
-      <c r="BD20" s="6"/>
-      <c r="BE20" s="6"/>
-      <c r="BF20" s="6"/>
-      <c r="BG20" s="6"/>
-      <c r="BH20" s="6"/>
-      <c r="BI20" s="6"/>
-      <c r="BJ20" s="6"/>
-      <c r="BK20" s="6"/>
-      <c r="BL20" s="6"/>
-      <c r="BM20" s="6"/>
-      <c r="BN20" s="6"/>
-      <c r="BO20" s="6"/>
-      <c r="BP20" s="6"/>
-      <c r="BQ20" s="6"/>
-      <c r="BR20" s="6"/>
-      <c r="BS20" s="6"/>
-      <c r="BT20" s="6"/>
+      <c r="AT20" s="8"/>
+      <c r="AU20" s="8"/>
+      <c r="AV20" s="8"/>
+      <c r="AW20" s="8"/>
+      <c r="AX20" s="8"/>
+      <c r="AY20" s="8"/>
+      <c r="AZ20" s="8"/>
+      <c r="BA20" s="8"/>
+      <c r="BB20" s="8"/>
+      <c r="BC20" s="8"/>
+      <c r="BD20" s="8"/>
+      <c r="BE20" s="8"/>
+      <c r="BF20" s="8"/>
+      <c r="BG20" s="8"/>
+      <c r="BH20" s="8"/>
+      <c r="BI20" s="8"/>
+      <c r="BJ20" s="8"/>
+      <c r="BK20" s="8"/>
+      <c r="BL20" s="8"/>
+      <c r="BM20" s="8"/>
+      <c r="BN20" s="8"/>
+      <c r="BO20" s="8"/>
+      <c r="BP20" s="8"/>
+      <c r="BQ20" s="8"/>
+      <c r="BR20" s="8"/>
+      <c r="BS20" s="8"/>
+      <c r="BT20" s="8"/>
     </row>
     <row r="21" ht="64" customHeight="1" spans="2:72">
       <c r="B21" s="2" t="s">
@@ -5407,7 +5520,7 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="3" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -5417,8 +5530,8 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="4" t="s">
-        <v>306</v>
+      <c r="M21" s="5" t="s">
+        <v>318</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -5427,15 +5540,17 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="3" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
+      <c r="X21" s="3" t="s">
+        <v>320</v>
+      </c>
       <c r="Y21" s="2"/>
-      <c r="Z21" s="4" t="s">
-        <v>308</v>
+      <c r="Z21" s="5" t="s">
+        <v>321</v>
       </c>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
@@ -5456,33 +5571,33 @@
       <c r="AQ21" s="2"/>
       <c r="AR21" s="2"/>
       <c r="AS21" s="2"/>
-      <c r="AT21" s="6"/>
-      <c r="AU21" s="6"/>
-      <c r="AV21" s="6"/>
-      <c r="AW21" s="6"/>
-      <c r="AX21" s="6"/>
-      <c r="AY21" s="6"/>
-      <c r="AZ21" s="6"/>
-      <c r="BA21" s="6"/>
-      <c r="BB21" s="6"/>
-      <c r="BC21" s="6"/>
-      <c r="BD21" s="6"/>
-      <c r="BE21" s="6"/>
-      <c r="BF21" s="6"/>
-      <c r="BG21" s="6"/>
-      <c r="BH21" s="6"/>
-      <c r="BI21" s="6"/>
-      <c r="BJ21" s="6"/>
-      <c r="BK21" s="6"/>
-      <c r="BL21" s="6"/>
-      <c r="BM21" s="6"/>
-      <c r="BN21" s="6"/>
-      <c r="BO21" s="6"/>
-      <c r="BP21" s="6"/>
-      <c r="BQ21" s="6"/>
-      <c r="BR21" s="6"/>
-      <c r="BS21" s="6"/>
-      <c r="BT21" s="6"/>
+      <c r="AT21" s="8"/>
+      <c r="AU21" s="8"/>
+      <c r="AV21" s="8"/>
+      <c r="AW21" s="8"/>
+      <c r="AX21" s="8"/>
+      <c r="AY21" s="8"/>
+      <c r="AZ21" s="8"/>
+      <c r="BA21" s="8"/>
+      <c r="BB21" s="8"/>
+      <c r="BC21" s="8"/>
+      <c r="BD21" s="8"/>
+      <c r="BE21" s="8"/>
+      <c r="BF21" s="8"/>
+      <c r="BG21" s="8"/>
+      <c r="BH21" s="8"/>
+      <c r="BI21" s="8"/>
+      <c r="BJ21" s="8"/>
+      <c r="BK21" s="8"/>
+      <c r="BL21" s="8"/>
+      <c r="BM21" s="8"/>
+      <c r="BN21" s="8"/>
+      <c r="BO21" s="8"/>
+      <c r="BP21" s="8"/>
+      <c r="BQ21" s="8"/>
+      <c r="BR21" s="8"/>
+      <c r="BS21" s="8"/>
+      <c r="BT21" s="8"/>
     </row>
     <row r="22" ht="64" customHeight="1" spans="2:72">
       <c r="B22" s="2" t="s">
@@ -5498,32 +5613,32 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="4" t="s">
-        <v>309</v>
+      <c r="M22" s="5" t="s">
+        <v>322</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" s="4" t="s">
-        <v>310</v>
+      <c r="O22" s="5" t="s">
+        <v>323</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="3" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
-      <c r="Z22" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="AA22" s="4" t="s">
-        <v>314</v>
+      <c r="Z22" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA22" s="5" t="s">
+        <v>327</v>
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
@@ -5543,33 +5658,33 @@
       <c r="AQ22" s="2"/>
       <c r="AR22" s="2"/>
       <c r="AS22" s="2"/>
-      <c r="AT22" s="6"/>
-      <c r="AU22" s="6"/>
-      <c r="AV22" s="6"/>
-      <c r="AW22" s="6"/>
-      <c r="AX22" s="6"/>
-      <c r="AY22" s="6"/>
-      <c r="AZ22" s="6"/>
-      <c r="BA22" s="6"/>
-      <c r="BB22" s="6"/>
-      <c r="BC22" s="6"/>
-      <c r="BD22" s="6"/>
-      <c r="BE22" s="6"/>
-      <c r="BF22" s="6"/>
-      <c r="BG22" s="6"/>
-      <c r="BH22" s="6"/>
-      <c r="BI22" s="6"/>
-      <c r="BJ22" s="6"/>
-      <c r="BK22" s="6"/>
-      <c r="BL22" s="6"/>
-      <c r="BM22" s="6"/>
-      <c r="BN22" s="6"/>
-      <c r="BO22" s="6"/>
-      <c r="BP22" s="6"/>
-      <c r="BQ22" s="6"/>
-      <c r="BR22" s="6"/>
-      <c r="BS22" s="6"/>
-      <c r="BT22" s="6"/>
+      <c r="AT22" s="8"/>
+      <c r="AU22" s="8"/>
+      <c r="AV22" s="8"/>
+      <c r="AW22" s="8"/>
+      <c r="AX22" s="8"/>
+      <c r="AY22" s="8"/>
+      <c r="AZ22" s="8"/>
+      <c r="BA22" s="8"/>
+      <c r="BB22" s="8"/>
+      <c r="BC22" s="8"/>
+      <c r="BD22" s="8"/>
+      <c r="BE22" s="8"/>
+      <c r="BF22" s="8"/>
+      <c r="BG22" s="8"/>
+      <c r="BH22" s="8"/>
+      <c r="BI22" s="8"/>
+      <c r="BJ22" s="8"/>
+      <c r="BK22" s="8"/>
+      <c r="BL22" s="8"/>
+      <c r="BM22" s="8"/>
+      <c r="BN22" s="8"/>
+      <c r="BO22" s="8"/>
+      <c r="BP22" s="8"/>
+      <c r="BQ22" s="8"/>
+      <c r="BR22" s="8"/>
+      <c r="BS22" s="8"/>
+      <c r="BT22" s="8"/>
     </row>
     <row r="23" ht="64" customHeight="1" spans="2:72">
       <c r="B23" s="2" t="s">
@@ -5577,48 +5692,48 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="3" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="3" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="4" t="s">
-        <v>317</v>
+      <c r="M23" s="5" t="s">
+        <v>330</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="3" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="T23" s="4" t="s">
-        <v>321</v>
+        <v>333</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="3" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="Y23" s="2"/>
-      <c r="Z23" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="AA23" s="4" t="s">
-        <v>324</v>
+      <c r="Z23" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA23" s="5" t="s">
+        <v>337</v>
       </c>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
@@ -5638,33 +5753,33 @@
       <c r="AQ23" s="2"/>
       <c r="AR23" s="2"/>
       <c r="AS23" s="2"/>
-      <c r="AT23" s="6"/>
-      <c r="AU23" s="6"/>
-      <c r="AV23" s="6"/>
-      <c r="AW23" s="6"/>
-      <c r="AX23" s="6"/>
-      <c r="AY23" s="6"/>
-      <c r="AZ23" s="6"/>
-      <c r="BA23" s="6"/>
-      <c r="BB23" s="6"/>
-      <c r="BC23" s="6"/>
-      <c r="BD23" s="6"/>
-      <c r="BE23" s="6"/>
-      <c r="BF23" s="6"/>
-      <c r="BG23" s="6"/>
-      <c r="BH23" s="6"/>
-      <c r="BI23" s="6"/>
-      <c r="BJ23" s="6"/>
-      <c r="BK23" s="6"/>
-      <c r="BL23" s="6"/>
-      <c r="BM23" s="6"/>
-      <c r="BN23" s="6"/>
-      <c r="BO23" s="6"/>
-      <c r="BP23" s="6"/>
-      <c r="BQ23" s="6"/>
-      <c r="BR23" s="6"/>
-      <c r="BS23" s="6"/>
-      <c r="BT23" s="6"/>
+      <c r="AT23" s="8"/>
+      <c r="AU23" s="8"/>
+      <c r="AV23" s="8"/>
+      <c r="AW23" s="8"/>
+      <c r="AX23" s="8"/>
+      <c r="AY23" s="8"/>
+      <c r="AZ23" s="8"/>
+      <c r="BA23" s="8"/>
+      <c r="BB23" s="8"/>
+      <c r="BC23" s="8"/>
+      <c r="BD23" s="8"/>
+      <c r="BE23" s="8"/>
+      <c r="BF23" s="8"/>
+      <c r="BG23" s="8"/>
+      <c r="BH23" s="8"/>
+      <c r="BI23" s="8"/>
+      <c r="BJ23" s="8"/>
+      <c r="BK23" s="8"/>
+      <c r="BL23" s="8"/>
+      <c r="BM23" s="8"/>
+      <c r="BN23" s="8"/>
+      <c r="BO23" s="8"/>
+      <c r="BP23" s="8"/>
+      <c r="BQ23" s="8"/>
+      <c r="BR23" s="8"/>
+      <c r="BS23" s="8"/>
+      <c r="BT23" s="8"/>
     </row>
     <row r="24" ht="64" customHeight="1" spans="2:72">
       <c r="B24" s="2" t="s">
@@ -5680,19 +5795,19 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="4" t="s">
-        <v>325</v>
+      <c r="M24" s="5" t="s">
+        <v>338</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="3" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="3" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
@@ -5700,7 +5815,7 @@
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="3" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
@@ -5721,33 +5836,33 @@
       <c r="AQ24" s="2"/>
       <c r="AR24" s="2"/>
       <c r="AS24" s="2"/>
-      <c r="AT24" s="6"/>
-      <c r="AU24" s="6"/>
-      <c r="AV24" s="6"/>
-      <c r="AW24" s="6"/>
-      <c r="AX24" s="6"/>
-      <c r="AY24" s="6"/>
-      <c r="AZ24" s="6"/>
-      <c r="BA24" s="6"/>
-      <c r="BB24" s="6"/>
-      <c r="BC24" s="6"/>
-      <c r="BD24" s="6"/>
-      <c r="BE24" s="6"/>
-      <c r="BF24" s="6"/>
-      <c r="BG24" s="6"/>
-      <c r="BH24" s="6"/>
-      <c r="BI24" s="6"/>
-      <c r="BJ24" s="6"/>
-      <c r="BK24" s="6"/>
-      <c r="BL24" s="6"/>
-      <c r="BM24" s="6"/>
-      <c r="BN24" s="6"/>
-      <c r="BO24" s="6"/>
-      <c r="BP24" s="6"/>
-      <c r="BQ24" s="6"/>
-      <c r="BR24" s="6"/>
-      <c r="BS24" s="6"/>
-      <c r="BT24" s="6"/>
+      <c r="AT24" s="8"/>
+      <c r="AU24" s="8"/>
+      <c r="AV24" s="8"/>
+      <c r="AW24" s="8"/>
+      <c r="AX24" s="8"/>
+      <c r="AY24" s="8"/>
+      <c r="AZ24" s="8"/>
+      <c r="BA24" s="8"/>
+      <c r="BB24" s="8"/>
+      <c r="BC24" s="8"/>
+      <c r="BD24" s="8"/>
+      <c r="BE24" s="8"/>
+      <c r="BF24" s="8"/>
+      <c r="BG24" s="8"/>
+      <c r="BH24" s="8"/>
+      <c r="BI24" s="8"/>
+      <c r="BJ24" s="8"/>
+      <c r="BK24" s="8"/>
+      <c r="BL24" s="8"/>
+      <c r="BM24" s="8"/>
+      <c r="BN24" s="8"/>
+      <c r="BO24" s="8"/>
+      <c r="BP24" s="8"/>
+      <c r="BQ24" s="8"/>
+      <c r="BR24" s="8"/>
+      <c r="BS24" s="8"/>
+      <c r="BT24" s="8"/>
     </row>
     <row r="25" ht="64" customHeight="1" spans="2:72">
       <c r="B25" s="2" t="s">
@@ -5755,22 +5870,24 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>330</v>
+        <v>342</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>343</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="G25" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>345</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="3" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5778,25 +5895,29 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="3" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
+      <c r="Y25" s="3" t="s">
+        <v>349</v>
+      </c>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="AB25" s="2"/>
+      <c r="AA25" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>351</v>
+      </c>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
@@ -5814,33 +5935,33 @@
       <c r="AQ25" s="2"/>
       <c r="AR25" s="2"/>
       <c r="AS25" s="2"/>
-      <c r="AT25" s="6"/>
-      <c r="AU25" s="6"/>
-      <c r="AV25" s="6"/>
-      <c r="AW25" s="6"/>
-      <c r="AX25" s="6"/>
-      <c r="AY25" s="6"/>
-      <c r="AZ25" s="6"/>
-      <c r="BA25" s="6"/>
-      <c r="BB25" s="6"/>
-      <c r="BC25" s="6"/>
-      <c r="BD25" s="6"/>
-      <c r="BE25" s="6"/>
-      <c r="BF25" s="6"/>
-      <c r="BG25" s="6"/>
-      <c r="BH25" s="6"/>
-      <c r="BI25" s="6"/>
-      <c r="BJ25" s="6"/>
-      <c r="BK25" s="6"/>
-      <c r="BL25" s="6"/>
-      <c r="BM25" s="6"/>
-      <c r="BN25" s="6"/>
-      <c r="BO25" s="6"/>
-      <c r="BP25" s="6"/>
-      <c r="BQ25" s="6"/>
-      <c r="BR25" s="6"/>
-      <c r="BS25" s="6"/>
-      <c r="BT25" s="6"/>
+      <c r="AT25" s="8"/>
+      <c r="AU25" s="8"/>
+      <c r="AV25" s="8"/>
+      <c r="AW25" s="8"/>
+      <c r="AX25" s="8"/>
+      <c r="AY25" s="8"/>
+      <c r="AZ25" s="8"/>
+      <c r="BA25" s="8"/>
+      <c r="BB25" s="8"/>
+      <c r="BC25" s="8"/>
+      <c r="BD25" s="8"/>
+      <c r="BE25" s="8"/>
+      <c r="BF25" s="8"/>
+      <c r="BG25" s="8"/>
+      <c r="BH25" s="8"/>
+      <c r="BI25" s="8"/>
+      <c r="BJ25" s="8"/>
+      <c r="BK25" s="8"/>
+      <c r="BL25" s="8"/>
+      <c r="BM25" s="8"/>
+      <c r="BN25" s="8"/>
+      <c r="BO25" s="8"/>
+      <c r="BP25" s="8"/>
+      <c r="BQ25" s="8"/>
+      <c r="BR25" s="8"/>
+      <c r="BS25" s="8"/>
+      <c r="BT25" s="8"/>
     </row>
     <row r="26" ht="64" customHeight="1" spans="2:72">
       <c r="B26" s="2" t="s">
@@ -5855,7 +5976,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="3" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -5891,37 +6012,37 @@
       <c r="AQ26" s="2"/>
       <c r="AR26" s="2"/>
       <c r="AS26" s="2"/>
-      <c r="AT26" s="6"/>
-      <c r="AU26" s="6"/>
-      <c r="AV26" s="6"/>
-      <c r="AW26" s="6"/>
-      <c r="AX26" s="6"/>
-      <c r="AY26" s="6"/>
-      <c r="AZ26" s="6"/>
-      <c r="BA26" s="6"/>
-      <c r="BB26" s="6"/>
-      <c r="BC26" s="6"/>
-      <c r="BD26" s="6"/>
-      <c r="BE26" s="6"/>
-      <c r="BF26" s="6"/>
-      <c r="BG26" s="6"/>
-      <c r="BH26" s="6"/>
-      <c r="BI26" s="6"/>
-      <c r="BJ26" s="6"/>
-      <c r="BK26" s="6"/>
-      <c r="BL26" s="6"/>
-      <c r="BM26" s="6"/>
-      <c r="BN26" s="6"/>
-      <c r="BO26" s="6"/>
-      <c r="BP26" s="6"/>
-      <c r="BQ26" s="6"/>
-      <c r="BR26" s="6"/>
-      <c r="BS26" s="6"/>
-      <c r="BT26" s="6"/>
+      <c r="AT26" s="8"/>
+      <c r="AU26" s="8"/>
+      <c r="AV26" s="8"/>
+      <c r="AW26" s="8"/>
+      <c r="AX26" s="8"/>
+      <c r="AY26" s="8"/>
+      <c r="AZ26" s="8"/>
+      <c r="BA26" s="8"/>
+      <c r="BB26" s="8"/>
+      <c r="BC26" s="8"/>
+      <c r="BD26" s="8"/>
+      <c r="BE26" s="8"/>
+      <c r="BF26" s="8"/>
+      <c r="BG26" s="8"/>
+      <c r="BH26" s="8"/>
+      <c r="BI26" s="8"/>
+      <c r="BJ26" s="8"/>
+      <c r="BK26" s="8"/>
+      <c r="BL26" s="8"/>
+      <c r="BM26" s="8"/>
+      <c r="BN26" s="8"/>
+      <c r="BO26" s="8"/>
+      <c r="BP26" s="8"/>
+      <c r="BQ26" s="8"/>
+      <c r="BR26" s="8"/>
+      <c r="BS26" s="8"/>
+      <c r="BT26" s="8"/>
     </row>
     <row r="27" ht="64" customHeight="1" spans="2:72">
       <c r="B27" s="2" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -5935,7 +6056,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="3" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -5968,54 +6089,54 @@
       <c r="AQ27" s="2"/>
       <c r="AR27" s="2"/>
       <c r="AS27" s="2"/>
-      <c r="AT27" s="6"/>
-      <c r="AU27" s="6"/>
-      <c r="AV27" s="6"/>
-      <c r="AW27" s="6"/>
-      <c r="AX27" s="6"/>
-      <c r="AY27" s="6"/>
-      <c r="AZ27" s="6"/>
-      <c r="BA27" s="6"/>
-      <c r="BB27" s="6"/>
-      <c r="BC27" s="6"/>
-      <c r="BD27" s="6"/>
-      <c r="BE27" s="6"/>
-      <c r="BF27" s="6"/>
-      <c r="BG27" s="6"/>
-      <c r="BH27" s="6"/>
-      <c r="BI27" s="6"/>
-      <c r="BJ27" s="6"/>
-      <c r="BK27" s="6"/>
-      <c r="BL27" s="6"/>
-      <c r="BM27" s="6"/>
-      <c r="BN27" s="6"/>
-      <c r="BO27" s="6"/>
-      <c r="BP27" s="6"/>
-      <c r="BQ27" s="6"/>
-      <c r="BR27" s="6"/>
-      <c r="BS27" s="6"/>
-      <c r="BT27" s="6"/>
+      <c r="AT27" s="8"/>
+      <c r="AU27" s="8"/>
+      <c r="AV27" s="8"/>
+      <c r="AW27" s="8"/>
+      <c r="AX27" s="8"/>
+      <c r="AY27" s="8"/>
+      <c r="AZ27" s="8"/>
+      <c r="BA27" s="8"/>
+      <c r="BB27" s="8"/>
+      <c r="BC27" s="8"/>
+      <c r="BD27" s="8"/>
+      <c r="BE27" s="8"/>
+      <c r="BF27" s="8"/>
+      <c r="BG27" s="8"/>
+      <c r="BH27" s="8"/>
+      <c r="BI27" s="8"/>
+      <c r="BJ27" s="8"/>
+      <c r="BK27" s="8"/>
+      <c r="BL27" s="8"/>
+      <c r="BM27" s="8"/>
+      <c r="BN27" s="8"/>
+      <c r="BO27" s="8"/>
+      <c r="BP27" s="8"/>
+      <c r="BQ27" s="8"/>
+      <c r="BR27" s="8"/>
+      <c r="BS27" s="8"/>
+      <c r="BT27" s="8"/>
     </row>
     <row r="28" ht="64" customHeight="1" spans="2:72">
       <c r="B28" s="2" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="3" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>341</v>
+        <v>357</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>358</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -6023,33 +6144,33 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="3" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="3" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="U28" s="2"/>
-      <c r="V28" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="W28" s="4" t="s">
-        <v>345</v>
+      <c r="V28" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="W28" s="5" t="s">
+        <v>362</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="Y28" s="2"/>
-      <c r="Z28" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="AA28" s="4" t="s">
-        <v>348</v>
+      <c r="Z28" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="AA28" s="5" t="s">
+        <v>365</v>
       </c>
       <c r="AB28" s="2"/>
-      <c r="AC28" s="4" t="s">
-        <v>349</v>
+      <c r="AC28" s="5" t="s">
+        <v>366</v>
       </c>
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
@@ -6067,37 +6188,37 @@
       <c r="AQ28" s="2"/>
       <c r="AR28" s="2"/>
       <c r="AS28" s="2"/>
-      <c r="AT28" s="6"/>
-      <c r="AU28" s="6"/>
-      <c r="AV28" s="6"/>
-      <c r="AW28" s="6"/>
-      <c r="AX28" s="6"/>
-      <c r="AY28" s="6"/>
-      <c r="AZ28" s="6"/>
-      <c r="BA28" s="6"/>
-      <c r="BB28" s="6"/>
-      <c r="BC28" s="6"/>
-      <c r="BD28" s="6"/>
-      <c r="BE28" s="6"/>
-      <c r="BF28" s="6"/>
-      <c r="BG28" s="6"/>
-      <c r="BH28" s="6"/>
-      <c r="BI28" s="6"/>
-      <c r="BJ28" s="6"/>
-      <c r="BK28" s="6"/>
-      <c r="BL28" s="6"/>
-      <c r="BM28" s="6"/>
-      <c r="BN28" s="6"/>
-      <c r="BO28" s="6"/>
-      <c r="BP28" s="6"/>
-      <c r="BQ28" s="6"/>
-      <c r="BR28" s="6"/>
-      <c r="BS28" s="6"/>
-      <c r="BT28" s="6"/>
+      <c r="AT28" s="8"/>
+      <c r="AU28" s="8"/>
+      <c r="AV28" s="8"/>
+      <c r="AW28" s="8"/>
+      <c r="AX28" s="8"/>
+      <c r="AY28" s="8"/>
+      <c r="AZ28" s="8"/>
+      <c r="BA28" s="8"/>
+      <c r="BB28" s="8"/>
+      <c r="BC28" s="8"/>
+      <c r="BD28" s="8"/>
+      <c r="BE28" s="8"/>
+      <c r="BF28" s="8"/>
+      <c r="BG28" s="8"/>
+      <c r="BH28" s="8"/>
+      <c r="BI28" s="8"/>
+      <c r="BJ28" s="8"/>
+      <c r="BK28" s="8"/>
+      <c r="BL28" s="8"/>
+      <c r="BM28" s="8"/>
+      <c r="BN28" s="8"/>
+      <c r="BO28" s="8"/>
+      <c r="BP28" s="8"/>
+      <c r="BQ28" s="8"/>
+      <c r="BR28" s="8"/>
+      <c r="BS28" s="8"/>
+      <c r="BT28" s="8"/>
     </row>
     <row r="29" ht="64" customHeight="1" spans="2:72">
       <c r="B29" s="2" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -6107,13 +6228,13 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="3" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="3" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -6123,14 +6244,14 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
-      <c r="W29" s="4"/>
+      <c r="W29" s="5"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
-      <c r="AC29" s="4" t="s">
-        <v>353</v>
+      <c r="AC29" s="5" t="s">
+        <v>370</v>
       </c>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
@@ -6148,33 +6269,33 @@
       <c r="AQ29" s="2"/>
       <c r="AR29" s="2"/>
       <c r="AS29" s="2"/>
-      <c r="AT29" s="6"/>
-      <c r="AU29" s="6"/>
-      <c r="AV29" s="6"/>
-      <c r="AW29" s="6"/>
-      <c r="AX29" s="6"/>
-      <c r="AY29" s="6"/>
-      <c r="AZ29" s="6"/>
-      <c r="BA29" s="6"/>
-      <c r="BB29" s="6"/>
-      <c r="BC29" s="6"/>
-      <c r="BD29" s="6"/>
-      <c r="BE29" s="6"/>
-      <c r="BF29" s="6"/>
-      <c r="BG29" s="6"/>
-      <c r="BH29" s="6"/>
-      <c r="BI29" s="6"/>
-      <c r="BJ29" s="6"/>
-      <c r="BK29" s="6"/>
-      <c r="BL29" s="6"/>
-      <c r="BM29" s="6"/>
-      <c r="BN29" s="6"/>
-      <c r="BO29" s="6"/>
-      <c r="BP29" s="6"/>
-      <c r="BQ29" s="6"/>
-      <c r="BR29" s="6"/>
-      <c r="BS29" s="6"/>
-      <c r="BT29" s="6"/>
+      <c r="AT29" s="8"/>
+      <c r="AU29" s="8"/>
+      <c r="AV29" s="8"/>
+      <c r="AW29" s="8"/>
+      <c r="AX29" s="8"/>
+      <c r="AY29" s="8"/>
+      <c r="AZ29" s="8"/>
+      <c r="BA29" s="8"/>
+      <c r="BB29" s="8"/>
+      <c r="BC29" s="8"/>
+      <c r="BD29" s="8"/>
+      <c r="BE29" s="8"/>
+      <c r="BF29" s="8"/>
+      <c r="BG29" s="8"/>
+      <c r="BH29" s="8"/>
+      <c r="BI29" s="8"/>
+      <c r="BJ29" s="8"/>
+      <c r="BK29" s="8"/>
+      <c r="BL29" s="8"/>
+      <c r="BM29" s="8"/>
+      <c r="BN29" s="8"/>
+      <c r="BO29" s="8"/>
+      <c r="BP29" s="8"/>
+      <c r="BQ29" s="8"/>
+      <c r="BR29" s="8"/>
+      <c r="BS29" s="8"/>
+      <c r="BT29" s="8"/>
     </row>
     <row r="30" ht="64" customHeight="1" spans="2:72">
       <c r="B30" s="2" t="s">
@@ -6182,20 +6303,20 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="4" t="s">
-        <v>354</v>
+      <c r="E30" s="5" t="s">
+        <v>371</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>357</v>
+        <v>373</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>374</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -6206,22 +6327,24 @@
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
+      <c r="U30" s="3" t="s">
+        <v>375</v>
+      </c>
       <c r="V30" s="2"/>
       <c r="W30" s="5" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="X30" s="5" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="3" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="AC30" s="3" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
@@ -6239,33 +6362,33 @@
       <c r="AQ30" s="2"/>
       <c r="AR30" s="2"/>
       <c r="AS30" s="2"/>
-      <c r="AT30" s="6"/>
-      <c r="AU30" s="6"/>
-      <c r="AV30" s="6"/>
-      <c r="AW30" s="6"/>
-      <c r="AX30" s="6"/>
-      <c r="AY30" s="6"/>
-      <c r="AZ30" s="6"/>
-      <c r="BA30" s="6"/>
-      <c r="BB30" s="6"/>
-      <c r="BC30" s="6"/>
-      <c r="BD30" s="6"/>
-      <c r="BE30" s="6"/>
-      <c r="BF30" s="6"/>
-      <c r="BG30" s="6"/>
-      <c r="BH30" s="6"/>
-      <c r="BI30" s="6"/>
-      <c r="BJ30" s="6"/>
-      <c r="BK30" s="6"/>
-      <c r="BL30" s="6"/>
-      <c r="BM30" s="6"/>
-      <c r="BN30" s="6"/>
-      <c r="BO30" s="6"/>
-      <c r="BP30" s="6"/>
-      <c r="BQ30" s="6"/>
-      <c r="BR30" s="6"/>
-      <c r="BS30" s="6"/>
-      <c r="BT30" s="6"/>
+      <c r="AT30" s="8"/>
+      <c r="AU30" s="8"/>
+      <c r="AV30" s="8"/>
+      <c r="AW30" s="8"/>
+      <c r="AX30" s="8"/>
+      <c r="AY30" s="8"/>
+      <c r="AZ30" s="8"/>
+      <c r="BA30" s="8"/>
+      <c r="BB30" s="8"/>
+      <c r="BC30" s="8"/>
+      <c r="BD30" s="8"/>
+      <c r="BE30" s="8"/>
+      <c r="BF30" s="8"/>
+      <c r="BG30" s="8"/>
+      <c r="BH30" s="8"/>
+      <c r="BI30" s="8"/>
+      <c r="BJ30" s="8"/>
+      <c r="BK30" s="8"/>
+      <c r="BL30" s="8"/>
+      <c r="BM30" s="8"/>
+      <c r="BN30" s="8"/>
+      <c r="BO30" s="8"/>
+      <c r="BP30" s="8"/>
+      <c r="BQ30" s="8"/>
+      <c r="BR30" s="8"/>
+      <c r="BS30" s="8"/>
+      <c r="BT30" s="8"/>
     </row>
     <row r="31" ht="64" customHeight="1" spans="2:72">
       <c r="B31" s="2" t="s">
@@ -6278,8 +6401,8 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="3" t="s">
-        <v>362</v>
+      <c r="J31" s="4" t="s">
+        <v>380</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -6299,7 +6422,7 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
       <c r="AB31" s="3" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
@@ -6318,33 +6441,33 @@
       <c r="AQ31" s="2"/>
       <c r="AR31" s="2"/>
       <c r="AS31" s="2"/>
-      <c r="AT31" s="6"/>
-      <c r="AU31" s="6"/>
-      <c r="AV31" s="6"/>
-      <c r="AW31" s="6"/>
-      <c r="AX31" s="6"/>
-      <c r="AY31" s="6"/>
-      <c r="AZ31" s="6"/>
-      <c r="BA31" s="6"/>
-      <c r="BB31" s="6"/>
-      <c r="BC31" s="6"/>
-      <c r="BD31" s="6"/>
-      <c r="BE31" s="6"/>
-      <c r="BF31" s="6"/>
-      <c r="BG31" s="6"/>
-      <c r="BH31" s="6"/>
-      <c r="BI31" s="6"/>
-      <c r="BJ31" s="6"/>
-      <c r="BK31" s="6"/>
-      <c r="BL31" s="6"/>
-      <c r="BM31" s="6"/>
-      <c r="BN31" s="6"/>
-      <c r="BO31" s="6"/>
-      <c r="BP31" s="6"/>
-      <c r="BQ31" s="6"/>
-      <c r="BR31" s="6"/>
-      <c r="BS31" s="6"/>
-      <c r="BT31" s="6"/>
+      <c r="AT31" s="8"/>
+      <c r="AU31" s="8"/>
+      <c r="AV31" s="8"/>
+      <c r="AW31" s="8"/>
+      <c r="AX31" s="8"/>
+      <c r="AY31" s="8"/>
+      <c r="AZ31" s="8"/>
+      <c r="BA31" s="8"/>
+      <c r="BB31" s="8"/>
+      <c r="BC31" s="8"/>
+      <c r="BD31" s="8"/>
+      <c r="BE31" s="8"/>
+      <c r="BF31" s="8"/>
+      <c r="BG31" s="8"/>
+      <c r="BH31" s="8"/>
+      <c r="BI31" s="8"/>
+      <c r="BJ31" s="8"/>
+      <c r="BK31" s="8"/>
+      <c r="BL31" s="8"/>
+      <c r="BM31" s="8"/>
+      <c r="BN31" s="8"/>
+      <c r="BO31" s="8"/>
+      <c r="BP31" s="8"/>
+      <c r="BQ31" s="8"/>
+      <c r="BR31" s="8"/>
+      <c r="BS31" s="8"/>
+      <c r="BT31" s="8"/>
     </row>
     <row r="32" ht="64" customHeight="1" spans="2:72">
       <c r="B32" s="2" t="s">
@@ -6368,7 +6491,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="3" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
@@ -6395,33 +6518,33 @@
       <c r="AQ32" s="2"/>
       <c r="AR32" s="2"/>
       <c r="AS32" s="2"/>
-      <c r="AT32" s="6"/>
-      <c r="AU32" s="6"/>
-      <c r="AV32" s="6"/>
-      <c r="AW32" s="6"/>
-      <c r="AX32" s="6"/>
-      <c r="AY32" s="6"/>
-      <c r="AZ32" s="6"/>
-      <c r="BA32" s="6"/>
-      <c r="BB32" s="6"/>
-      <c r="BC32" s="6"/>
-      <c r="BD32" s="6"/>
-      <c r="BE32" s="6"/>
-      <c r="BF32" s="6"/>
-      <c r="BG32" s="6"/>
-      <c r="BH32" s="6"/>
-      <c r="BI32" s="6"/>
-      <c r="BJ32" s="6"/>
-      <c r="BK32" s="6"/>
-      <c r="BL32" s="6"/>
-      <c r="BM32" s="6"/>
-      <c r="BN32" s="6"/>
-      <c r="BO32" s="6"/>
-      <c r="BP32" s="6"/>
-      <c r="BQ32" s="6"/>
-      <c r="BR32" s="6"/>
-      <c r="BS32" s="6"/>
-      <c r="BT32" s="6"/>
+      <c r="AT32" s="8"/>
+      <c r="AU32" s="8"/>
+      <c r="AV32" s="8"/>
+      <c r="AW32" s="8"/>
+      <c r="AX32" s="8"/>
+      <c r="AY32" s="8"/>
+      <c r="AZ32" s="8"/>
+      <c r="BA32" s="8"/>
+      <c r="BB32" s="8"/>
+      <c r="BC32" s="8"/>
+      <c r="BD32" s="8"/>
+      <c r="BE32" s="8"/>
+      <c r="BF32" s="8"/>
+      <c r="BG32" s="8"/>
+      <c r="BH32" s="8"/>
+      <c r="BI32" s="8"/>
+      <c r="BJ32" s="8"/>
+      <c r="BK32" s="8"/>
+      <c r="BL32" s="8"/>
+      <c r="BM32" s="8"/>
+      <c r="BN32" s="8"/>
+      <c r="BO32" s="8"/>
+      <c r="BP32" s="8"/>
+      <c r="BQ32" s="8"/>
+      <c r="BR32" s="8"/>
+      <c r="BS32" s="8"/>
+      <c r="BT32" s="8"/>
     </row>
     <row r="33" ht="64" customHeight="1" spans="2:72">
       <c r="B33" s="2" t="s">
@@ -6439,7 +6562,7 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="3" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -6453,7 +6576,9 @@
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
-      <c r="AA33" s="2"/>
+      <c r="AA33" s="3" t="s">
+        <v>383</v>
+      </c>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
@@ -6472,40 +6597,40 @@
       <c r="AQ33" s="2"/>
       <c r="AR33" s="2"/>
       <c r="AS33" s="2"/>
-      <c r="AT33" s="6"/>
-      <c r="AU33" s="6"/>
-      <c r="AV33" s="6"/>
-      <c r="AW33" s="6"/>
-      <c r="AX33" s="6"/>
-      <c r="AY33" s="6"/>
-      <c r="AZ33" s="6"/>
-      <c r="BA33" s="6"/>
-      <c r="BB33" s="6"/>
-      <c r="BC33" s="6"/>
-      <c r="BD33" s="6"/>
-      <c r="BE33" s="6"/>
-      <c r="BF33" s="6"/>
-      <c r="BG33" s="6"/>
-      <c r="BH33" s="6"/>
-      <c r="BI33" s="6"/>
-      <c r="BJ33" s="6"/>
-      <c r="BK33" s="6"/>
-      <c r="BL33" s="6"/>
-      <c r="BM33" s="6"/>
-      <c r="BN33" s="6"/>
-      <c r="BO33" s="6"/>
-      <c r="BP33" s="6"/>
-      <c r="BQ33" s="6"/>
-      <c r="BR33" s="6"/>
-      <c r="BS33" s="6"/>
-      <c r="BT33" s="6"/>
+      <c r="AT33" s="8"/>
+      <c r="AU33" s="8"/>
+      <c r="AV33" s="8"/>
+      <c r="AW33" s="8"/>
+      <c r="AX33" s="8"/>
+      <c r="AY33" s="8"/>
+      <c r="AZ33" s="8"/>
+      <c r="BA33" s="8"/>
+      <c r="BB33" s="8"/>
+      <c r="BC33" s="8"/>
+      <c r="BD33" s="8"/>
+      <c r="BE33" s="8"/>
+      <c r="BF33" s="8"/>
+      <c r="BG33" s="8"/>
+      <c r="BH33" s="8"/>
+      <c r="BI33" s="8"/>
+      <c r="BJ33" s="8"/>
+      <c r="BK33" s="8"/>
+      <c r="BL33" s="8"/>
+      <c r="BM33" s="8"/>
+      <c r="BN33" s="8"/>
+      <c r="BO33" s="8"/>
+      <c r="BP33" s="8"/>
+      <c r="BQ33" s="8"/>
+      <c r="BR33" s="8"/>
+      <c r="BS33" s="8"/>
+      <c r="BT33" s="8"/>
     </row>
     <row r="34" ht="62" customHeight="1" spans="2:15">
       <c r="B34" s="2" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="O34" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/日文音读.xlsx
+++ b/日文音读.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395">
   <si>
     <t>汉语声母</t>
   </si>
@@ -1275,7 +1275,7 @@
 ふ</t>
   </si>
   <si>
-    <t>さ、す、そ、ぞ
+    <t>さ、じ、す、そ、ぞ
 あら</t>
   </si>
   <si>
@@ -1301,7 +1301,7 @@
   </si>
   <si>
     <t>え
-か、が、こ、ご</t>
+か、が、ぎ、こ、ご</t>
   </si>
   <si>
     <t xml:space="preserve">か、き、ぎ、こ、
@@ -1357,7 +1357,7 @@
 が、き</t>
   </si>
   <si>
-    <t>か、き、け、こ、
+    <t>か、が、き、け、こ、
 し、せ、そ</t>
   </si>
   <si>
@@ -1369,7 +1369,8 @@
     <t>さ、ざ、し、そ、ぞ</t>
   </si>
   <si>
-    <t xml:space="preserve">し、じ、せ、そ、
+    <t xml:space="preserve">お
+し、じ、せ、そ、
 ち、て
 </t>
   </si>
@@ -1449,10 +1450,14 @@
     <t>圧力（あつりょく）</t>
   </si>
   <si>
+    <t>海抜（かいばつ）</t>
+  </si>
+  <si>
     <t>審査（しんさ）</t>
   </si>
   <si>
-    <t>偉大（いだい）</t>
+    <t>回答（かいとう）
+偉大（いだい）</t>
   </si>
   <si>
     <t>爆弾（ばくだん）</t>
@@ -1575,7 +1580,8 @@
 可燃( かねん )</t>
   </si>
   <si>
-    <t>三人（さんにん）</t>
+    <t>三人（さんにん）
+解散（かいさん）</t>
   </si>
   <si>
     <t>弾力（だんりょく）</t>
@@ -1598,7 +1604,7 @@
     <t>脂肪（しぼう）</t>
   </si>
   <si>
-    <t>航空（こうくう）</t>
+    <t>航空（こうくう）、改行（かいぎょう）</t>
   </si>
   <si>
     <t>商品（しょうひん）
@@ -1628,6 +1634,9 @@
     <t>握手（あくしゅ）</t>
   </si>
   <si>
+    <t>拡充（かくじゅう）</t>
+  </si>
+  <si>
     <t>昆虫（こんちゅう）</t>
   </si>
   <si>
@@ -1673,6 +1682,9 @@
     <t>戦闘（せんとう）</t>
   </si>
   <si>
+    <t>改革（かいかく）</t>
+  </si>
+  <si>
     <t>後悔（こうかい）</t>
   </si>
   <si>
@@ -1697,6 +1709,9 @@
   </si>
   <si>
     <t>推測（すいそく）</t>
+  </si>
+  <si>
+    <t>会合（かいごう）</t>
   </si>
   <si>
     <t>彫刻（ちょうこく）</t>
@@ -1761,7 +1776,8 @@
 審査（しんさ）</t>
   </si>
   <si>
-    <t>原文（げんぶん）</t>
+    <t>温室（おんしつ）
+原文（げんぶん）</t>
   </si>
   <si>
     <t>真空（しんくう）、
@@ -1809,7 +1825,8 @@
     <t>随筆（ずいひ）</t>
   </si>
   <si>
-    <t>飲食（いんしょく）</t>
+    <t>飲食（いんしょく）
+解釈（かいしゃく）、快適（かいてき）</t>
   </si>
   <si>
     <t>代替（だいたい）</t>
@@ -1827,10 +1844,14 @@
     <t>資本（しほん）</t>
   </si>
   <si>
-    <t>垂直（すいちょく）、
+    <t>織物（おりもの）
+垂直（すいちょく）、
 終止（しゅうし）</t>
   </si>
   <si>
+    <t>架空（かくう）</t>
+  </si>
+  <si>
     <t>下町（したまち）</t>
   </si>
   <si>
@@ -1843,7 +1864,8 @@
     <t>彫刻（ちょうこく）、好調（こうちょう）</t>
   </si>
   <si>
-    <t>角栓（かくせん）、
+    <t>外交（がいこう）、
+角栓（かくせん）、
 教官（きょうかん）、</t>
   </si>
   <si>
@@ -1974,6 +1996,7 @@
   </si>
   <si>
     <t>清掃（せいそう）、軽視（けいし）
+快晴（かいせい）
 申請（しんせい）</t>
   </si>
   <si>
@@ -2005,7 +2028,7 @@
     <t>修改（しゅうかい）</t>
   </si>
   <si>
-    <t>恐怖（きょうふ）</t>
+    <t>恐怖（きょうふ）、外部（がいぶ）</t>
   </si>
   <si>
     <t>粗筋（あらすじ）
@@ -2018,6 +2041,9 @@
     <t>緯度（いど）</t>
   </si>
   <si>
+    <t>解雇（かいこ）</t>
+  </si>
+  <si>
     <t>悲劇（ひげき）</t>
   </si>
   <si>
@@ -2025,6 +2051,9 @@
   </si>
   <si>
     <t>導入（どうにゅう）</t>
+  </si>
+  <si>
+    <t>少数（しょうすう）、学術（がくじゅつ）</t>
   </si>
   <si>
     <t>屋外（おくがい）</t>
@@ -2141,7 +2170,16 @@
     <t>作成（さくせい）</t>
   </si>
   <si>
+    <t>覚悟（かくご）</t>
+  </si>
+  <si>
     <t>確信（かくしん）</t>
+  </si>
+  <si>
+    <t>概論（がいろん）</t>
+  </si>
+  <si>
+    <t>学生（がくせい）</t>
   </si>
   <si>
     <t>運河（うんが）</t>
@@ -3667,8 +3705,8 @@
   <sheetPr/>
   <dimension ref="A1:BT34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U21" workbookViewId="0">
-      <selection activeCell="Y28" sqref="Y28"/>
+    <sheetView tabSelected="1" topLeftCell="S23" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6"/>
@@ -3680,7 +3718,9 @@
     <col min="10" max="10" width="41.3833333333333" customWidth="1"/>
     <col min="11" max="12" width="36.3833333333333" customWidth="1"/>
     <col min="13" max="13" width="54.7166666666667" customWidth="1"/>
-    <col min="14" max="24" width="36.3833333333333" customWidth="1"/>
+    <col min="14" max="22" width="36.3833333333333" customWidth="1"/>
+    <col min="23" max="23" width="40.9666666666667" customWidth="1"/>
+    <col min="24" max="24" width="36.3833333333333" customWidth="1"/>
     <col min="25" max="25" width="51.9416666666667" customWidth="1"/>
     <col min="26" max="26" width="57.775" customWidth="1"/>
     <col min="27" max="27" width="52.5" customWidth="1"/>
@@ -3981,12 +4021,15 @@
         <v>8</v>
       </c>
       <c r="C4" s="2"/>
+      <c r="D4" t="s">
+        <v>182</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G4" s="3" t="s">
         <v>183</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -4060,34 +4103,34 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
@@ -4095,17 +4138,17 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
@@ -4158,53 +4201,53 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
@@ -4255,65 +4298,65 @@
         <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="T7" s="2"/>
       <c r="U7" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="V7" s="3" t="s">
         <v>220</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>221</v>
       </c>
       <c r="W7" s="3"/>
       <c r="X7" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB7" s="2"/>
       <c r="AC7" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
@@ -4366,19 +4409,19 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -4392,21 +4435,21 @@
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="X8" s="2"/>
       <c r="Y8" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
@@ -4470,7 +4513,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -4481,7 +4524,7 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
@@ -4537,52 +4580,54 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>236</v>
+      </c>
       <c r="F10" s="5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="W10" s="3"/>
       <c r="X10" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AC10" s="5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
@@ -4636,16 +4681,18 @@
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
       <c r="F11" s="5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="J11" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="K11" s="3" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -4654,28 +4701,28 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="3" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="5" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
@@ -4728,18 +4775,20 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="K12" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="3" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -4756,7 +4805,7 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
@@ -4808,34 +4857,34 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="5" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="5" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="3" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="3" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
@@ -4843,7 +4892,7 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
@@ -4899,21 +4948,21 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="3" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -4921,28 +4970,28 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="3" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="X14" s="2"/>
-      <c r="Y14" s="3" t="s">
-        <v>274</v>
+      <c r="Y14" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="5" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
@@ -4995,19 +5044,19 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="3" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -5015,7 +5064,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="3" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -5023,7 +5072,7 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="3" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
@@ -5031,7 +5080,7 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" s="5" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
@@ -5083,11 +5132,11 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="3" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -5096,7 +5145,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -5104,31 +5153,31 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="3" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>292</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" s="4" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AB16" s="3" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
@@ -5188,7 +5237,9 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="5"/>
+      <c r="M17" s="5" t="s">
+        <v>298</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -5202,7 +5253,7 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="3" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
@@ -5253,16 +5304,16 @@
     </row>
     <row r="18" ht="64" customHeight="1" spans="2:72">
       <c r="B18" s="2" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="3" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="3" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -5270,30 +5321,30 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="5" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="3" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q18" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="Q18" s="3"/>
       <c r="R18" s="2"/>
       <c r="S18" s="3" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="5" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" s="5" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
@@ -5344,16 +5395,16 @@
     </row>
     <row r="19" ht="64" customHeight="1" spans="2:72">
       <c r="B19" s="2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="3" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="3" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -5361,30 +5412,30 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="5" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="3" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="5" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="3" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" s="5" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
@@ -5435,7 +5486,7 @@
     </row>
     <row r="20" ht="64" customHeight="1" spans="2:72">
       <c r="B20" s="2" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
@@ -5448,7 +5499,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="5" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -5457,7 +5508,7 @@
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
@@ -5465,7 +5516,7 @@
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="5" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
@@ -5520,7 +5571,7 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="3" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -5531,7 +5582,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="5" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -5540,17 +5591,17 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="3" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="3" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" s="5" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
@@ -5614,20 +5665,20 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="5" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="5" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
@@ -5635,10 +5686,10 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="5" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
@@ -5692,12 +5743,12 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="3" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="3" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -5705,35 +5756,35 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="5" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="3" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="3" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="3" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" s="5" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
@@ -5796,18 +5847,18 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="5" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="3" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
@@ -5815,7 +5866,7 @@
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="3" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
@@ -5870,24 +5921,26 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="3" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="J25" s="3" t="s">
+        <v>351</v>
+      </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="3" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5895,28 +5948,28 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="3" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="3" t="s">
-        <v>192</v>
+        <v>355</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" s="3" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="4" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="AB25" s="3" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
@@ -5976,7 +6029,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="3" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -6042,7 +6095,7 @@
     </row>
     <row r="27" ht="64" customHeight="1" spans="2:72">
       <c r="B27" s="2" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -6056,7 +6109,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -6119,24 +6172,24 @@
     </row>
     <row r="28" ht="64" customHeight="1" spans="2:72">
       <c r="B28" s="2" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="3" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="3" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -6144,33 +6197,33 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="3" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="3" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="U28" s="2"/>
       <c r="V28" s="5" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" s="5" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="AB28" s="2"/>
       <c r="AC28" s="5" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
@@ -6218,7 +6271,7 @@
     </row>
     <row r="29" ht="64" customHeight="1" spans="2:72">
       <c r="B29" s="2" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -6228,13 +6281,13 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="3" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="3" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -6251,7 +6304,7 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" s="5" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
@@ -6304,19 +6357,19 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="5" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="3" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -6328,23 +6381,23 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="3" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="5" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="X30" s="5" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="3" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="AC30" s="3" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
@@ -6402,7 +6455,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="4" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -6422,7 +6475,7 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
       <c r="AB31" s="3" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
@@ -6483,7 +6536,9 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
+      <c r="M32" s="3" t="s">
+        <v>389</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -6491,7 +6546,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="3" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
@@ -6562,9 +6617,11 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>391</v>
+      </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
@@ -6575,9 +6632,11 @@
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
+      <c r="Z33" s="3" t="s">
+        <v>392</v>
+      </c>
       <c r="AA33" s="3" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
@@ -6627,10 +6686,10 @@
     </row>
     <row r="34" ht="62" customHeight="1" spans="2:15">
       <c r="B34" s="2" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="O34" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>

--- a/日文音读.xlsx
+++ b/日文音读.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409">
   <si>
     <t>汉语声母</t>
   </si>
@@ -1284,7 +1284,8 @@
 あか</t>
   </si>
   <si>
-    <t xml:space="preserve">だ、ち、て、と、ど、
+    <t xml:space="preserve">か
+だ、ち、て、と、ど、
 </t>
   </si>
   <si>
@@ -1301,7 +1302,8 @@
   </si>
   <si>
     <t>え
-か、が、ぎ、こ、ご</t>
+か、が、ぎ、こ、ご
+わ</t>
   </si>
   <si>
     <t xml:space="preserve">か、き、ぎ、こ、
@@ -1323,7 +1325,7 @@
 ま、み、め、も、</t>
   </si>
   <si>
-    <t>な、の
+    <t>な、ね、の
 だ</t>
   </si>
   <si>
@@ -1354,7 +1356,7 @@
   <si>
     <t>あ、い、お
 び、ぶ、み
-が、き</t>
+か、が、き</t>
   </si>
   <si>
     <t>か、が、き、け、こ、
@@ -1362,7 +1364,7 @@
   </si>
   <si>
     <t>あ、い、う、え、お
-か、け、げ、こ、
+か、ぎ、け、げ、こ、
 よ、ゆ</t>
   </si>
   <si>
@@ -1370,6 +1372,7 @@
   </si>
   <si>
     <t xml:space="preserve">お
+か
 し、じ、せ、そ、
 ち、て
 </t>
@@ -1453,13 +1456,16 @@
     <t>海抜（かいばつ）</t>
   </si>
   <si>
-    <t>審査（しんさ）</t>
+    <t>審査（しんさ）、観察（かんさつ）</t>
   </si>
   <si>
     <t>回答（かいとう）
 偉大（いだい）</t>
   </si>
   <si>
+    <t>活発（かっぱつ）</t>
+  </si>
+  <si>
     <t>爆弾（ばくだん）</t>
   </si>
   <si>
@@ -1478,7 +1484,8 @@
   </si>
   <si>
     <t>豪華（ごうか）
-好意（こうい）</t>
+好意（こうい）
+記号（きごう）</t>
   </si>
   <si>
     <t>功労（こうろう）</t>
@@ -1490,7 +1497,10 @@
     <t>少数（しょうすう）</t>
   </si>
   <si>
-    <t>造船（ぞうせん）</t>
+    <t>歌謡（かよう）</t>
+  </si>
+  <si>
+    <t>造船（ぞうせん）、乾燥（かんそう）</t>
   </si>
   <si>
     <t>朝刊（ちょうかん）、朝飯（あさめし）
@@ -1500,7 +1510,7 @@
     <t>天才（てんさい）</t>
   </si>
   <si>
-    <t>代替（だいたい）、</t>
+    <t>代替（だいたい）、貸家（かしや）</t>
   </si>
   <si>
     <t>改装（かいそう）
@@ -1558,7 +1568,8 @@
 反映（はんえい）</t>
   </si>
   <si>
-    <t>快感（かいかん）</t>
+    <t>快感（かいかん）
+幹事（かんじ）</t>
   </si>
   <si>
     <t>漢字（かんじ）</t>
@@ -1601,7 +1612,7 @@
 合唱（がっしょう）</t>
   </si>
   <si>
-    <t>脂肪（しぼう）</t>
+    <t>脂肪（しぼう）、片方（かたほう）</t>
   </si>
   <si>
     <t>航空（こうくう）、改行（かいぎょう）</t>
@@ -1644,8 +1655,8 @@
 病棟（びょうとう）、運動（うんどう）</t>
   </si>
   <si>
-    <t>公園（こうえん）、供給（きょうきゅう）、
-貢献（こうけん）</t>
+    <t>公園（こうえん）、
+貢献（こうけん）、供給（きょうきゅう）</t>
   </si>
   <si>
     <t>航空（こうくう）、
@@ -1688,6 +1699,9 @@
     <t>後悔（こうかい）</t>
   </si>
   <si>
+    <t>火口（かこう）、傷口（きずぐち）</t>
+  </si>
+  <si>
     <t>偶数（ぐうすう）</t>
   </si>
   <si>
@@ -1711,10 +1725,13 @@
     <t>推測（すいそく）</t>
   </si>
   <si>
-    <t>会合（かいごう）</t>
-  </si>
-  <si>
-    <t>彫刻（ちょうこく）</t>
+    <t>獲得（かくとく）</t>
+  </si>
+  <si>
+    <t>会合（かいごう）、漢和（かんわ）</t>
+  </si>
+  <si>
+    <t>彫刻（ちょうこく）、課税（かぜい）、観客（かんきゃく）</t>
   </si>
   <si>
     <t>右折（うせつ）</t>
@@ -1744,7 +1761,7 @@
   </si>
   <si>
     <t>微笑（びしょう）、危機（きき）
-維持（いじ）
+維持（いじ）、為替（かわせ）
 委員（いいん）
 胃炎（いえん）、賞味（しょうみ）、衛生（えいせい）</t>
   </si>
@@ -1816,20 +1833,28 @@
   </si>
   <si>
     <t>幾分（いくぶん）
-暗記（あんき）、演技（えんぎ）</t>
+暗記（あんき）、演技（えんぎ）、家計（かけい）</t>
+  </si>
+  <si>
+    <t>確立（かくりつ）</t>
   </si>
   <si>
     <t>披露（ひろう）</t>
   </si>
   <si>
+    <t>半期（はんき）
+活気（かっき）</t>
+  </si>
+  <si>
     <t>随筆（ずいひ）</t>
   </si>
   <si>
     <t>飲食（いんしょく）
-解釈（かいしゃく）、快適（かいてき）</t>
-  </si>
-  <si>
-    <t>代替（だいたい）</t>
+解釈（かいしゃく）、快適（かいてき）、株式（かぶしき）</t>
+  </si>
+  <si>
+    <t>課題（かだい）
+代替（だいたい）、為替（かわせ）</t>
   </si>
   <si>
     <t>演習（えんしゅう）
@@ -1838,7 +1863,7 @@
   <si>
     <t>医師（いし）
 移転（いてん）
-意思（いし）</t>
+意思（いし）、議会（ぎかい）</t>
   </si>
   <si>
     <t>資本（しほん）</t>
@@ -1852,7 +1877,7 @@
     <t>架空（かくう）</t>
   </si>
   <si>
-    <t>下町（したまち）</t>
+    <t>下町（したまち）、下線（かせん）</t>
   </si>
   <si>
     <t>iao</t>
@@ -1898,6 +1923,7 @@
   </si>
   <si>
     <t>間学（かんがく）、
+加減（かげん）
 会見（かいけん）、実践（じっせん）</t>
   </si>
   <si>
@@ -1905,6 +1931,12 @@
   </si>
   <si>
     <t>毛面（けめん）</t>
+  </si>
+  <si>
+    <t>観念（かんねん）</t>
+  </si>
+  <si>
+    <t>片方（かたほう）</t>
   </si>
   <si>
     <t>牽引（けんいん）
@@ -2009,7 +2041,7 @@
   </si>
   <si>
     <t>英語（えいご）、
-蛍光（けいこう）
+蛍光（けいこう）、歓迎（かんげい）
 電影（でんえい）、
 上映（じょうえい）、応答（おうとう）</t>
   </si>
@@ -2044,6 +2076,9 @@
     <t>解雇（かいこ）</t>
   </si>
   <si>
+    <t>括弧（かっこ）</t>
+  </si>
+  <si>
     <t>悲劇（ひげき）</t>
   </si>
   <si>
@@ -2053,10 +2088,14 @@
     <t>導入（どうにゅう）</t>
   </si>
   <si>
+    <t>加速（かそく）</t>
+  </si>
+  <si>
     <t>少数（しょうすう）、学術（がくじゅつ）</t>
   </si>
   <si>
-    <t>屋外（おくがい）</t>
+    <t>屋外（おくがい）
+貨物（かもつ）</t>
   </si>
   <si>
     <t>雨天（うてん）
@@ -2066,10 +2105,16 @@
     <t>遠足（えんそく）</t>
   </si>
   <si>
+    <t>株式（かぶしき）</t>
+  </si>
+  <si>
     <t>消化（しょうか）</t>
   </si>
   <si>
     <t>uai</t>
+  </si>
+  <si>
+    <t>快感（かいかん）</t>
   </si>
   <si>
     <t>uan</t>
@@ -2163,14 +2208,17 @@
     <t>追加（ついか）</t>
   </si>
   <si>
-    <t>裏口（うらくち）
+    <t>裏口（うらくち）、果実（かじつ）
 過程（かてい）</t>
   </si>
   <si>
+    <t>獲得（かくとく）、貨物（かもつ）</t>
+  </si>
+  <si>
     <t>作成（さくせい）</t>
   </si>
   <si>
-    <t>覚悟（かくご）</t>
+    <t>覚悟（かくご）、可決（かけつ）</t>
   </si>
   <si>
     <t>確信（かくしん）</t>
@@ -2183,6 +2231,9 @@
   </si>
   <si>
     <t>運河（うんが）</t>
+  </si>
+  <si>
+    <t>基準（きじゅん）</t>
   </si>
   <si>
     <t>V</t>
@@ -3705,8 +3756,8 @@
   <sheetPr/>
   <dimension ref="A1:BT34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S23" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+    <sheetView tabSelected="1" topLeftCell="M7" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6"/>
@@ -3718,8 +3769,9 @@
     <col min="10" max="10" width="41.3833333333333" customWidth="1"/>
     <col min="11" max="12" width="36.3833333333333" customWidth="1"/>
     <col min="13" max="13" width="54.7166666666667" customWidth="1"/>
-    <col min="14" max="22" width="36.3833333333333" customWidth="1"/>
-    <col min="23" max="23" width="40.9666666666667" customWidth="1"/>
+    <col min="14" max="14" width="55.4083333333333" customWidth="1"/>
+    <col min="15" max="22" width="36.3833333333333" customWidth="1"/>
+    <col min="23" max="23" width="55.825" customWidth="1"/>
     <col min="24" max="24" width="36.3833333333333" customWidth="1"/>
     <col min="25" max="25" width="51.9416666666667" customWidth="1"/>
     <col min="26" max="26" width="57.775" customWidth="1"/>
@@ -4032,7 +4084,9 @@
         <v>184</v>
       </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="I4" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -4103,34 +4157,34 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
@@ -4138,17 +4192,19 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
+      <c r="AA5" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="AB5" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
@@ -4201,53 +4257,53 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
@@ -4298,65 +4354,65 @@
         <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="T7" s="2"/>
       <c r="U7" s="5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="W7" s="3"/>
       <c r="X7" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="5" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AB7" s="2"/>
       <c r="AC7" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
@@ -4409,19 +4465,19 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -4435,21 +4491,21 @@
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="X8" s="2"/>
       <c r="Y8" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
@@ -4513,7 +4569,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -4524,7 +4580,7 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
@@ -4581,53 +4637,53 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="W10" s="3"/>
       <c r="X10" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AC10" s="5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
@@ -4681,48 +4737,50 @@
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
       <c r="F11" s="5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="N11" s="3" t="s">
+        <v>254</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="3" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="5" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="5" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
@@ -4775,20 +4833,22 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="3" t="s">
+        <v>262</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="3" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="3" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -4805,7 +4865,7 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="3" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
@@ -4857,34 +4917,34 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
@@ -4892,7 +4952,7 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="5" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
@@ -4948,21 +5008,21 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="3" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="3" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -4970,28 +5030,28 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="3" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="5" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="5" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" s="4" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="5" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
@@ -5044,19 +5104,19 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="3" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -5064,7 +5124,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="3" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -5072,7 +5132,7 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="3" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
@@ -5080,7 +5140,7 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" s="5" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
@@ -5132,11 +5192,11 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -5145,39 +5205,43 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="4" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="O16" s="3" t="s">
+        <v>294</v>
+      </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="T16" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>296</v>
+      </c>
       <c r="U16" s="2"/>
       <c r="V16" s="3" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="W16" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>293</v>
+        <v>298</v>
+      </c>
+      <c r="X16" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" s="4" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="AB16" s="3" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
@@ -5238,7 +5302,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="5" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -5253,7 +5317,7 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="3" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
@@ -5304,16 +5368,16 @@
     </row>
     <row r="18" ht="64" customHeight="1" spans="2:72">
       <c r="B18" s="2" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="3" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="3" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -5321,30 +5385,30 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="5" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="3" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q18" s="3"/>
       <c r="R18" s="2"/>
       <c r="S18" s="3" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="5" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" s="5" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
@@ -5395,16 +5459,16 @@
     </row>
     <row r="19" ht="64" customHeight="1" spans="2:72">
       <c r="B19" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="3" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="3" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -5412,30 +5476,34 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="5" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="3" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q19" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>321</v>
+      </c>
       <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
+      <c r="S19" s="3" t="s">
+        <v>322</v>
+      </c>
       <c r="T19" s="5" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="3" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" s="5" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
@@ -5486,7 +5554,7 @@
     </row>
     <row r="20" ht="64" customHeight="1" spans="2:72">
       <c r="B20" s="2" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
@@ -5499,7 +5567,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="5" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -5508,7 +5576,7 @@
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="3" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
@@ -5516,7 +5584,7 @@
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="5" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
@@ -5571,7 +5639,7 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="3" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -5582,7 +5650,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="5" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -5591,17 +5659,17 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="3" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="3" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" s="5" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
@@ -5665,20 +5733,20 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="5" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="5" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="3" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
@@ -5686,10 +5754,10 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="5" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
@@ -5743,12 +5811,12 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="3" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="3" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -5756,35 +5824,35 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="5" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="3" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="3" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="3" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" s="5" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
@@ -5847,18 +5915,18 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="5" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="3" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="3" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
@@ -5866,7 +5934,7 @@
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="3" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
@@ -5921,26 +5989,28 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="3" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="K25" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="L25" s="2"/>
       <c r="M25" s="3" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5948,30 +6018,34 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="3" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="V25" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>364</v>
+      </c>
       <c r="W25" s="3" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="X25" s="2"/>
-      <c r="Y25" s="3" t="s">
-        <v>356</v>
+      <c r="Y25" s="4" t="s">
+        <v>366</v>
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="4" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AB25" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="AC25" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="AC25" s="3" t="s">
+        <v>369</v>
+      </c>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
@@ -6029,7 +6103,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="3" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -6095,7 +6169,7 @@
     </row>
     <row r="27" ht="64" customHeight="1" spans="2:72">
       <c r="B27" s="2" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -6109,7 +6183,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="3" t="s">
-        <v>214</v>
+        <v>372</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -6172,24 +6246,24 @@
     </row>
     <row r="28" ht="64" customHeight="1" spans="2:72">
       <c r="B28" s="2" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="3" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="3" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -6197,33 +6271,33 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="3" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="3" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="U28" s="2"/>
       <c r="V28" s="5" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" s="5" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="AB28" s="2"/>
       <c r="AC28" s="5" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
@@ -6271,7 +6345,7 @@
     </row>
     <row r="29" ht="64" customHeight="1" spans="2:72">
       <c r="B29" s="2" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -6281,13 +6355,13 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="3" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="3" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -6304,7 +6378,7 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" s="5" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
@@ -6357,19 +6431,19 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="5" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="3" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -6381,23 +6455,23 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="3" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="5" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="X30" s="5" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="3" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="AC30" s="3" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
@@ -6455,12 +6529,16 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="K31" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>400</v>
+      </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+      <c r="N31" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
@@ -6475,7 +6553,7 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
       <c r="AB31" s="3" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
@@ -6537,7 +6615,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="3" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6546,7 +6624,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="3" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
@@ -6617,10 +6695,10 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
@@ -6633,13 +6711,15 @@
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
       <c r="Z33" s="3" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="AA33" s="3" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="AB33" s="2"/>
-      <c r="AC33" s="2"/>
+      <c r="AC33" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
@@ -6686,10 +6766,10 @@
     </row>
     <row r="34" ht="62" customHeight="1" spans="2:15">
       <c r="B34" s="2" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="O34" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>

--- a/日文音读.xlsx
+++ b/日文音读.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415">
   <si>
     <t>汉语声母</t>
   </si>
@@ -1306,7 +1306,7 @@
 わ</t>
   </si>
   <si>
-    <t xml:space="preserve">か、き、ぎ、こ、
+    <t xml:space="preserve">か、き、ぎ、ぐ、こ、
 け、げ、
 じ、し、せ
 </t>
@@ -1325,7 +1325,8 @@
 ま、み、め、も、</t>
   </si>
   <si>
-    <t>な、ね、の
+    <t>ぎ
+な、ね、の
 だ</t>
   </si>
   <si>
@@ -1350,13 +1351,15 @@
     <t>し、じ、す、せ、ぜ</t>
   </si>
   <si>
-    <t>た、だ、ち、て、と
-す</t>
+    <t>き
+た、だ、ち、つ、て、と、ど
+す、</t>
   </si>
   <si>
     <t>あ、い、お
 び、ぶ、み
-か、が、き</t>
+か、が、き
+む</t>
   </si>
   <si>
     <t>か、が、き、け、こ、
@@ -1587,8 +1590,9 @@
     <t>新盤（しんばん）</t>
   </si>
   <si>
-    <t>感染（かんせん）
-可燃( かねん )</t>
+    <t xml:space="preserve">可燃( かねん )、偶然（ぐうぜん）
+感染（かんせん）
+</t>
   </si>
   <si>
     <t>三人（さんにん）
@@ -1612,7 +1616,8 @@
 合唱（がっしょう）</t>
   </si>
   <si>
-    <t>脂肪（しぼう）、片方（かたほう）</t>
+    <t>脂肪（しぼう）、片方（かたほう）
+放送（ほうそう）</t>
   </si>
   <si>
     <t>航空（こうくう）、改行（かいぎょう）</t>
@@ -1629,7 +1634,7 @@
   <si>
     <t>中央（ちゅうおう）、
 海洋（かいよう）、
-信仰（しんこう）、
+信仰（しんこう）、休養（きゅうよう）
 仕様（しよう）</t>
   </si>
   <si>
@@ -1639,7 +1644,7 @@
     <t>車掌（しゃしょう）、障害（しょうがい）</t>
   </si>
   <si>
-    <t>悪魔（あくま）</t>
+    <t>悪魔（あくま）、</t>
   </si>
   <si>
     <t>握手（あくしゅ）</t>
@@ -1672,7 +1677,10 @@
     <t>送金（そうきん）</t>
   </si>
   <si>
-    <t>系統（けいとう）</t>
+    <t>共通（きょうつう）
+共同（きょうどう）
+系統（けいとう）
+苦痛（くつう）</t>
   </si>
   <si>
     <t>永遠（えいえん）
@@ -1732,6 +1740,9 @@
   </si>
   <si>
     <t>彫刻（ちょうこく）、課税（かぜい）、観客（かんきゃく）</t>
+  </si>
+  <si>
+    <t>業務（ぎょうむ）</t>
   </si>
   <si>
     <t>右折（うせつ）</t>
@@ -1832,17 +1843,23 @@
     <t>赤字（あかじ）</t>
   </si>
   <si>
-    <t>幾分（いくぶん）
+    <t>基本（きほん）、急激（きゅうげき）
+急激（きゅうげき）、極端（きょくたん）
+幾分（いくぶん）
 暗記（あんき）、演技（えんぎ）、家計（かけい）</t>
   </si>
   <si>
     <t>確立（かくりつ）</t>
   </si>
   <si>
+    <t>逆転（ぎゃくてん）</t>
+  </si>
+  <si>
     <t>披露（ひろう）</t>
   </si>
   <si>
     <t>半期（はんき）
+起動（きどう）
 活気（かっき）</t>
   </si>
   <si>
@@ -1857,24 +1874,22 @@
 代替（だいたい）、為替（かわせ）</t>
   </si>
   <si>
-    <t>演習（えんしゅう）
+    <t>喫茶（きっさ）、喫煙（きつえん）、吸収（きゅうしゅう）
+演習（えんしゅう）、客席（きゃくせき）
 系統（けいとう）</t>
   </si>
   <si>
     <t>医師（いし）
 移転（いてん）
-意思（いし）、議会（ぎかい）</t>
+意思（いし）、議会（ぎかい）、共益（きょうえき）</t>
   </si>
   <si>
     <t>資本（しほん）</t>
   </si>
   <si>
     <t>織物（おりもの）
-垂直（すいちょく）、
+垂直（すいちょく）、求職（きゅうしょく）
 終止（しゅうし）</t>
-  </si>
-  <si>
-    <t>架空（かくう）</t>
   </si>
   <si>
     <t>下町（したまち）、下線（かせん）</t>
@@ -1927,7 +1942,8 @@
 会見（かいけん）、実践（じっせん）</t>
   </si>
   <si>
-    <t>連絡（れんらく）</t>
+    <t>連絡（れんらく）
+訓練（くんれん）</t>
   </si>
   <si>
     <t>毛面（けめん）</t>
@@ -2007,6 +2023,12 @@
 飲料（いんりょう）</t>
   </si>
   <si>
+    <t>iong</t>
+  </si>
+  <si>
+    <t>窮屈(きゅうくつ)</t>
+  </si>
+  <si>
     <t>病状（びょうじょう）</t>
   </si>
   <si>
@@ -2015,7 +2037,7 @@
   <si>
     <t>神経（しんけい）
 背景（はいけい）
-敬意（けいい）</t>
+敬意（けいい）、境界（きょうかい）</t>
   </si>
   <si>
     <t>高齢（こうれい）</t>
@@ -2046,9 +2068,8 @@
 上映（じょうえい）、応答（おうとう）</t>
   </si>
   <si>
-    <t>就学（しゅうがく）
-飲酒（いんしゅ）、永久（えいきゅう）
-救援（きゅうえん）</t>
+    <t>飲酒（いんしゅ）、永久（えいきゅう）
+救援（きゅうえん）、就学（しゅうがく）</t>
   </si>
   <si>
     <t>一流（いちりゅう）</t>
@@ -2057,7 +2078,7 @@
     <t>球形（きゅうけい）</t>
   </si>
   <si>
-    <t>修改（しゅうかい）</t>
+    <t>修改（しゅうかい）、休館（きゅうかん）</t>
   </si>
   <si>
     <t>恐怖（きょうふ）、外部（がいぶ）</t>
@@ -2073,13 +2094,16 @@
     <t>緯度（いど）</t>
   </si>
   <si>
+    <t>空腹（くうふく）</t>
+  </si>
+  <si>
     <t>解雇（かいこ）</t>
   </si>
   <si>
     <t>括弧（かっこ）</t>
   </si>
   <si>
-    <t>悲劇（ひげき）</t>
+    <t>悲劇（ひげき）、具体（ぐたい）</t>
   </si>
   <si>
     <t>普遍（ふへん）</t>
@@ -2095,17 +2119,19 @@
   </si>
   <si>
     <t>屋外（おくがい）
-貨物（かもつ）</t>
-  </si>
-  <si>
-    <t>雨天（うてん）
-育児（いくじ）、意欲（いよく）</t>
+貨物（かもつ）、業務（ぎょうむ）</t>
+  </si>
+  <si>
+    <t>漁船（ぎょせん）
+雨天（うてん）、給与（きゅうよ）
+育児（いくじ）、意欲（いよく）、区域（くいき）</t>
   </si>
   <si>
     <t>遠足（えんそく）</t>
   </si>
   <si>
-    <t>株式（かぶしき）</t>
+    <t>株式（かぶしき）
+救助（きゅうじょ）</t>
   </si>
   <si>
     <t>消化（しょうか）</t>
@@ -2224,10 +2250,16 @@
     <t>確信（かくしん）</t>
   </si>
   <si>
+    <t>学生（がくせい）</t>
+  </si>
+  <si>
+    <t>求婚（きゅうこん）</t>
+  </si>
+  <si>
     <t>概論（がいろん）</t>
   </si>
   <si>
-    <t>学生（がくせい）</t>
+    <t>教訓（きょうくん）</t>
   </si>
   <si>
     <t>運河（うんが）</t>
@@ -2245,9 +2277,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -2293,14 +2325,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -2317,10 +2341,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2332,9 +2371,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2350,6 +2396,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2357,14 +2411,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2379,37 +2426,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2420,6 +2445,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2438,7 +2470,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2450,7 +2500,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2468,7 +2536,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2480,13 +2560,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2498,121 +2638,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2639,37 +2671,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2704,11 +2715,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2723,147 +2740,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2873,7 +2905,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2889,14 +2921,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -3754,10 +3783,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:BT34"/>
+  <dimension ref="A1:BT35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M7" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="L21" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6"/>
@@ -3800,7 +3829,7 @@
       <c r="G1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="1" t="s">
         <v>136</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -3963,33 +3992,33 @@
       <c r="AQ2" s="2"/>
       <c r="AR2" s="2"/>
       <c r="AS2" s="2"/>
-      <c r="AT2" s="8"/>
-      <c r="AU2" s="8"/>
-      <c r="AV2" s="8"/>
-      <c r="AW2" s="8"/>
-      <c r="AX2" s="8"/>
-      <c r="AY2" s="8"/>
-      <c r="AZ2" s="8"/>
-      <c r="BA2" s="8"/>
-      <c r="BB2" s="8"/>
-      <c r="BC2" s="8"/>
-      <c r="BD2" s="8"/>
-      <c r="BE2" s="8"/>
-      <c r="BF2" s="8"/>
-      <c r="BG2" s="8"/>
-      <c r="BH2" s="8"/>
-      <c r="BI2" s="8"/>
-      <c r="BJ2" s="8"/>
-      <c r="BK2" s="8"/>
-      <c r="BL2" s="8"/>
-      <c r="BM2" s="8"/>
-      <c r="BN2" s="8"/>
-      <c r="BO2" s="8"/>
-      <c r="BP2" s="8"/>
-      <c r="BQ2" s="8"/>
-      <c r="BR2" s="8"/>
-      <c r="BS2" s="8"/>
-      <c r="BT2" s="8"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="7"/>
+      <c r="AW2" s="7"/>
+      <c r="AX2" s="7"/>
+      <c r="AY2" s="7"/>
+      <c r="AZ2" s="7"/>
+      <c r="BA2" s="7"/>
+      <c r="BB2" s="7"/>
+      <c r="BC2" s="7"/>
+      <c r="BD2" s="7"/>
+      <c r="BE2" s="7"/>
+      <c r="BF2" s="7"/>
+      <c r="BG2" s="7"/>
+      <c r="BH2" s="7"/>
+      <c r="BI2" s="7"/>
+      <c r="BJ2" s="7"/>
+      <c r="BK2" s="7"/>
+      <c r="BL2" s="7"/>
+      <c r="BM2" s="7"/>
+      <c r="BN2" s="7"/>
+      <c r="BO2" s="7"/>
+      <c r="BP2" s="7"/>
+      <c r="BQ2" s="7"/>
+      <c r="BR2" s="7"/>
+      <c r="BS2" s="7"/>
+      <c r="BT2" s="7"/>
     </row>
     <row r="3" ht="48" customHeight="1" spans="2:72">
       <c r="B3" s="2"/>
@@ -4040,33 +4069,33 @@
       <c r="AQ3" s="2"/>
       <c r="AR3" s="2"/>
       <c r="AS3" s="2"/>
-      <c r="AT3" s="8"/>
-      <c r="AU3" s="8"/>
-      <c r="AV3" s="8"/>
-      <c r="AW3" s="8"/>
-      <c r="AX3" s="8"/>
-      <c r="AY3" s="8"/>
-      <c r="AZ3" s="8"/>
-      <c r="BA3" s="8"/>
-      <c r="BB3" s="8"/>
-      <c r="BC3" s="8"/>
-      <c r="BD3" s="8"/>
-      <c r="BE3" s="8"/>
-      <c r="BF3" s="8"/>
-      <c r="BG3" s="8"/>
-      <c r="BH3" s="8"/>
-      <c r="BI3" s="8"/>
-      <c r="BJ3" s="8"/>
-      <c r="BK3" s="8"/>
-      <c r="BL3" s="8"/>
-      <c r="BM3" s="8"/>
-      <c r="BN3" s="8"/>
-      <c r="BO3" s="8"/>
-      <c r="BP3" s="8"/>
-      <c r="BQ3" s="8"/>
-      <c r="BR3" s="8"/>
-      <c r="BS3" s="8"/>
-      <c r="BT3" s="8"/>
+      <c r="AT3" s="7"/>
+      <c r="AU3" s="7"/>
+      <c r="AV3" s="7"/>
+      <c r="AW3" s="7"/>
+      <c r="AX3" s="7"/>
+      <c r="AY3" s="7"/>
+      <c r="AZ3" s="7"/>
+      <c r="BA3" s="7"/>
+      <c r="BB3" s="7"/>
+      <c r="BC3" s="7"/>
+      <c r="BD3" s="7"/>
+      <c r="BE3" s="7"/>
+      <c r="BF3" s="7"/>
+      <c r="BG3" s="7"/>
+      <c r="BH3" s="7"/>
+      <c r="BI3" s="7"/>
+      <c r="BJ3" s="7"/>
+      <c r="BK3" s="7"/>
+      <c r="BL3" s="7"/>
+      <c r="BM3" s="7"/>
+      <c r="BN3" s="7"/>
+      <c r="BO3" s="7"/>
+      <c r="BP3" s="7"/>
+      <c r="BQ3" s="7"/>
+      <c r="BR3" s="7"/>
+      <c r="BS3" s="7"/>
+      <c r="BT3" s="7"/>
     </row>
     <row r="4" ht="64" customHeight="1" spans="2:72">
       <c r="B4" s="2" t="s">
@@ -4123,33 +4152,33 @@
       <c r="AQ4" s="2"/>
       <c r="AR4" s="2"/>
       <c r="AS4" s="2"/>
-      <c r="AT4" s="8"/>
-      <c r="AU4" s="8"/>
-      <c r="AV4" s="8"/>
-      <c r="AW4" s="8"/>
-      <c r="AX4" s="8"/>
-      <c r="AY4" s="8"/>
-      <c r="AZ4" s="8"/>
-      <c r="BA4" s="8"/>
-      <c r="BB4" s="8"/>
-      <c r="BC4" s="8"/>
-      <c r="BD4" s="8"/>
-      <c r="BE4" s="8"/>
-      <c r="BF4" s="8"/>
-      <c r="BG4" s="8"/>
-      <c r="BH4" s="8"/>
-      <c r="BI4" s="8"/>
-      <c r="BJ4" s="8"/>
-      <c r="BK4" s="8"/>
-      <c r="BL4" s="8"/>
-      <c r="BM4" s="8"/>
-      <c r="BN4" s="8"/>
-      <c r="BO4" s="8"/>
-      <c r="BP4" s="8"/>
-      <c r="BQ4" s="8"/>
-      <c r="BR4" s="8"/>
-      <c r="BS4" s="8"/>
-      <c r="BT4" s="8"/>
+      <c r="AT4" s="7"/>
+      <c r="AU4" s="7"/>
+      <c r="AV4" s="7"/>
+      <c r="AW4" s="7"/>
+      <c r="AX4" s="7"/>
+      <c r="AY4" s="7"/>
+      <c r="AZ4" s="7"/>
+      <c r="BA4" s="7"/>
+      <c r="BB4" s="7"/>
+      <c r="BC4" s="7"/>
+      <c r="BD4" s="7"/>
+      <c r="BE4" s="7"/>
+      <c r="BF4" s="7"/>
+      <c r="BG4" s="7"/>
+      <c r="BH4" s="7"/>
+      <c r="BI4" s="7"/>
+      <c r="BJ4" s="7"/>
+      <c r="BK4" s="7"/>
+      <c r="BL4" s="7"/>
+      <c r="BM4" s="7"/>
+      <c r="BN4" s="7"/>
+      <c r="BO4" s="7"/>
+      <c r="BP4" s="7"/>
+      <c r="BQ4" s="7"/>
+      <c r="BR4" s="7"/>
+      <c r="BS4" s="7"/>
+      <c r="BT4" s="7"/>
     </row>
     <row r="5" ht="64" customHeight="1" spans="2:72">
       <c r="B5" s="2" t="s">
@@ -4165,15 +4194,15 @@
       <c r="F5" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>189</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>191</v>
       </c>
       <c r="L5" s="2"/>
@@ -4203,7 +4232,7 @@
       <c r="AB5" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="AC5" s="5" t="s">
+      <c r="AC5" s="4" t="s">
         <v>197</v>
       </c>
       <c r="AD5" s="2"/>
@@ -4222,33 +4251,33 @@
       <c r="AQ5" s="2"/>
       <c r="AR5" s="2"/>
       <c r="AS5" s="2"/>
-      <c r="AT5" s="8"/>
-      <c r="AU5" s="8"/>
-      <c r="AV5" s="8"/>
-      <c r="AW5" s="8"/>
-      <c r="AX5" s="8"/>
-      <c r="AY5" s="8"/>
-      <c r="AZ5" s="8"/>
-      <c r="BA5" s="8"/>
-      <c r="BB5" s="8"/>
-      <c r="BC5" s="8"/>
-      <c r="BD5" s="8"/>
-      <c r="BE5" s="8"/>
-      <c r="BF5" s="8"/>
-      <c r="BG5" s="8"/>
-      <c r="BH5" s="8"/>
-      <c r="BI5" s="8"/>
-      <c r="BJ5" s="8"/>
-      <c r="BK5" s="8"/>
-      <c r="BL5" s="8"/>
-      <c r="BM5" s="8"/>
-      <c r="BN5" s="8"/>
-      <c r="BO5" s="8"/>
-      <c r="BP5" s="8"/>
-      <c r="BQ5" s="8"/>
-      <c r="BR5" s="8"/>
-      <c r="BS5" s="8"/>
-      <c r="BT5" s="8"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="7"/>
+      <c r="BA5" s="7"/>
+      <c r="BB5" s="7"/>
+      <c r="BC5" s="7"/>
+      <c r="BD5" s="7"/>
+      <c r="BE5" s="7"/>
+      <c r="BF5" s="7"/>
+      <c r="BG5" s="7"/>
+      <c r="BH5" s="7"/>
+      <c r="BI5" s="7"/>
+      <c r="BJ5" s="7"/>
+      <c r="BK5" s="7"/>
+      <c r="BL5" s="7"/>
+      <c r="BM5" s="7"/>
+      <c r="BN5" s="7"/>
+      <c r="BO5" s="7"/>
+      <c r="BP5" s="7"/>
+      <c r="BQ5" s="7"/>
+      <c r="BR5" s="7"/>
+      <c r="BS5" s="7"/>
+      <c r="BT5" s="7"/>
     </row>
     <row r="6" ht="64" customHeight="1" spans="2:72">
       <c r="B6" s="2" t="s">
@@ -4265,10 +4294,10 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>201</v>
       </c>
       <c r="L6" s="2"/>
@@ -4284,14 +4313,14 @@
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="5" t="s">
+      <c r="S6" s="4" t="s">
         <v>205</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
-      <c r="X6" s="5" t="s">
+      <c r="X6" s="4" t="s">
         <v>206</v>
       </c>
       <c r="Y6" s="3" t="s">
@@ -4299,7 +4328,7 @@
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="5" t="s">
+      <c r="AB6" s="4" t="s">
         <v>208</v>
       </c>
       <c r="AC6" s="3" t="s">
@@ -4321,33 +4350,33 @@
       <c r="AQ6" s="2"/>
       <c r="AR6" s="2"/>
       <c r="AS6" s="2"/>
-      <c r="AT6" s="8"/>
-      <c r="AU6" s="8"/>
-      <c r="AV6" s="8"/>
-      <c r="AW6" s="8"/>
-      <c r="AX6" s="8"/>
-      <c r="AY6" s="8"/>
-      <c r="AZ6" s="8"/>
-      <c r="BA6" s="8"/>
-      <c r="BB6" s="8"/>
-      <c r="BC6" s="8"/>
-      <c r="BD6" s="8"/>
-      <c r="BE6" s="8"/>
-      <c r="BF6" s="8"/>
-      <c r="BG6" s="8"/>
-      <c r="BH6" s="8"/>
-      <c r="BI6" s="8"/>
-      <c r="BJ6" s="8"/>
-      <c r="BK6" s="8"/>
-      <c r="BL6" s="8"/>
-      <c r="BM6" s="8"/>
-      <c r="BN6" s="8"/>
-      <c r="BO6" s="8"/>
-      <c r="BP6" s="8"/>
-      <c r="BQ6" s="8"/>
-      <c r="BR6" s="8"/>
-      <c r="BS6" s="8"/>
-      <c r="BT6" s="8"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="7"/>
+      <c r="AW6" s="7"/>
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="7"/>
+      <c r="AZ6" s="7"/>
+      <c r="BA6" s="7"/>
+      <c r="BB6" s="7"/>
+      <c r="BC6" s="7"/>
+      <c r="BD6" s="7"/>
+      <c r="BE6" s="7"/>
+      <c r="BF6" s="7"/>
+      <c r="BG6" s="7"/>
+      <c r="BH6" s="7"/>
+      <c r="BI6" s="7"/>
+      <c r="BJ6" s="7"/>
+      <c r="BK6" s="7"/>
+      <c r="BL6" s="7"/>
+      <c r="BM6" s="7"/>
+      <c r="BN6" s="7"/>
+      <c r="BO6" s="7"/>
+      <c r="BP6" s="7"/>
+      <c r="BQ6" s="7"/>
+      <c r="BR6" s="7"/>
+      <c r="BS6" s="7"/>
+      <c r="BT6" s="7"/>
     </row>
     <row r="7" ht="64" customHeight="1" spans="2:72">
       <c r="B7" s="2" t="s">
@@ -4369,7 +4398,7 @@
         <v>214</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>215</v>
       </c>
       <c r="J7" s="4" t="s">
@@ -4395,7 +4424,7 @@
         <v>221</v>
       </c>
       <c r="T7" s="2"/>
-      <c r="U7" s="5" t="s">
+      <c r="U7" s="4" t="s">
         <v>222</v>
       </c>
       <c r="V7" s="4" t="s">
@@ -4407,7 +4436,7 @@
       </c>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="5" t="s">
+      <c r="AA7" s="4" t="s">
         <v>225</v>
       </c>
       <c r="AB7" s="2"/>
@@ -4430,33 +4459,33 @@
       <c r="AQ7" s="2"/>
       <c r="AR7" s="2"/>
       <c r="AS7" s="2"/>
-      <c r="AT7" s="8"/>
-      <c r="AU7" s="8"/>
-      <c r="AV7" s="8"/>
-      <c r="AW7" s="8"/>
-      <c r="AX7" s="8"/>
-      <c r="AY7" s="8"/>
-      <c r="AZ7" s="8"/>
-      <c r="BA7" s="8"/>
-      <c r="BB7" s="8"/>
-      <c r="BC7" s="8"/>
-      <c r="BD7" s="8"/>
-      <c r="BE7" s="8"/>
-      <c r="BF7" s="8"/>
-      <c r="BG7" s="8"/>
-      <c r="BH7" s="8"/>
-      <c r="BI7" s="8"/>
-      <c r="BJ7" s="8"/>
-      <c r="BK7" s="8"/>
-      <c r="BL7" s="8"/>
-      <c r="BM7" s="8"/>
-      <c r="BN7" s="8"/>
-      <c r="BO7" s="8"/>
-      <c r="BP7" s="8"/>
-      <c r="BQ7" s="8"/>
-      <c r="BR7" s="8"/>
-      <c r="BS7" s="8"/>
-      <c r="BT7" s="8"/>
+      <c r="AT7" s="7"/>
+      <c r="AU7" s="7"/>
+      <c r="AV7" s="7"/>
+      <c r="AW7" s="7"/>
+      <c r="AX7" s="7"/>
+      <c r="AY7" s="7"/>
+      <c r="AZ7" s="7"/>
+      <c r="BA7" s="7"/>
+      <c r="BB7" s="7"/>
+      <c r="BC7" s="7"/>
+      <c r="BD7" s="7"/>
+      <c r="BE7" s="7"/>
+      <c r="BF7" s="7"/>
+      <c r="BG7" s="7"/>
+      <c r="BH7" s="7"/>
+      <c r="BI7" s="7"/>
+      <c r="BJ7" s="7"/>
+      <c r="BK7" s="7"/>
+      <c r="BL7" s="7"/>
+      <c r="BM7" s="7"/>
+      <c r="BN7" s="7"/>
+      <c r="BO7" s="7"/>
+      <c r="BP7" s="7"/>
+      <c r="BQ7" s="7"/>
+      <c r="BR7" s="7"/>
+      <c r="BS7" s="7"/>
+      <c r="BT7" s="7"/>
     </row>
     <row r="8" ht="64" customHeight="1" spans="2:72">
       <c r="B8" s="2" t="s">
@@ -4467,12 +4496,12 @@
       <c r="E8" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>228</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="6" t="s">
         <v>229</v>
       </c>
       <c r="J8" s="2"/>
@@ -4490,7 +4519,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
-      <c r="W8" s="5" t="s">
+      <c r="W8" s="4" t="s">
         <v>231</v>
       </c>
       <c r="X8" s="2"/>
@@ -4498,7 +4527,7 @@
         <v>232</v>
       </c>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="5" t="s">
+      <c r="AA8" s="4" t="s">
         <v>233</v>
       </c>
       <c r="AB8" s="3" t="s">
@@ -4523,33 +4552,33 @@
       <c r="AQ8" s="2"/>
       <c r="AR8" s="2"/>
       <c r="AS8" s="2"/>
-      <c r="AT8" s="8"/>
-      <c r="AU8" s="8"/>
-      <c r="AV8" s="8"/>
-      <c r="AW8" s="8"/>
-      <c r="AX8" s="8"/>
-      <c r="AY8" s="8"/>
-      <c r="AZ8" s="8"/>
-      <c r="BA8" s="8"/>
-      <c r="BB8" s="8"/>
-      <c r="BC8" s="8"/>
-      <c r="BD8" s="8"/>
-      <c r="BE8" s="8"/>
-      <c r="BF8" s="8"/>
-      <c r="BG8" s="8"/>
-      <c r="BH8" s="8"/>
-      <c r="BI8" s="8"/>
-      <c r="BJ8" s="8"/>
-      <c r="BK8" s="8"/>
-      <c r="BL8" s="8"/>
-      <c r="BM8" s="8"/>
-      <c r="BN8" s="8"/>
-      <c r="BO8" s="8"/>
-      <c r="BP8" s="8"/>
-      <c r="BQ8" s="8"/>
-      <c r="BR8" s="8"/>
-      <c r="BS8" s="8"/>
-      <c r="BT8" s="8"/>
+      <c r="AT8" s="7"/>
+      <c r="AU8" s="7"/>
+      <c r="AV8" s="7"/>
+      <c r="AW8" s="7"/>
+      <c r="AX8" s="7"/>
+      <c r="AY8" s="7"/>
+      <c r="AZ8" s="7"/>
+      <c r="BA8" s="7"/>
+      <c r="BB8" s="7"/>
+      <c r="BC8" s="7"/>
+      <c r="BD8" s="7"/>
+      <c r="BE8" s="7"/>
+      <c r="BF8" s="7"/>
+      <c r="BG8" s="7"/>
+      <c r="BH8" s="7"/>
+      <c r="BI8" s="7"/>
+      <c r="BJ8" s="7"/>
+      <c r="BK8" s="7"/>
+      <c r="BL8" s="7"/>
+      <c r="BM8" s="7"/>
+      <c r="BN8" s="7"/>
+      <c r="BO8" s="7"/>
+      <c r="BP8" s="7"/>
+      <c r="BQ8" s="7"/>
+      <c r="BR8" s="7"/>
+      <c r="BS8" s="7"/>
+      <c r="BT8" s="7"/>
     </row>
     <row r="9" ht="64" customHeight="1" spans="2:72">
       <c r="B9" s="2" t="s">
@@ -4558,7 +4587,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="5"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -4602,33 +4631,33 @@
       <c r="AQ9" s="2"/>
       <c r="AR9" s="2"/>
       <c r="AS9" s="2"/>
-      <c r="AT9" s="8"/>
-      <c r="AU9" s="8"/>
-      <c r="AV9" s="8"/>
-      <c r="AW9" s="8"/>
-      <c r="AX9" s="8"/>
-      <c r="AY9" s="8"/>
-      <c r="AZ9" s="8"/>
-      <c r="BA9" s="8"/>
-      <c r="BB9" s="8"/>
-      <c r="BC9" s="8"/>
-      <c r="BD9" s="8"/>
-      <c r="BE9" s="8"/>
-      <c r="BF9" s="8"/>
-      <c r="BG9" s="8"/>
-      <c r="BH9" s="8"/>
-      <c r="BI9" s="8"/>
-      <c r="BJ9" s="8"/>
-      <c r="BK9" s="8"/>
-      <c r="BL9" s="8"/>
-      <c r="BM9" s="8"/>
-      <c r="BN9" s="8"/>
-      <c r="BO9" s="8"/>
-      <c r="BP9" s="8"/>
-      <c r="BQ9" s="8"/>
-      <c r="BR9" s="8"/>
-      <c r="BS9" s="8"/>
-      <c r="BT9" s="8"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="7"/>
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="7"/>
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="7"/>
+      <c r="BB9" s="7"/>
+      <c r="BC9" s="7"/>
+      <c r="BD9" s="7"/>
+      <c r="BE9" s="7"/>
+      <c r="BF9" s="7"/>
+      <c r="BG9" s="7"/>
+      <c r="BH9" s="7"/>
+      <c r="BI9" s="7"/>
+      <c r="BJ9" s="7"/>
+      <c r="BK9" s="7"/>
+      <c r="BL9" s="7"/>
+      <c r="BM9" s="7"/>
+      <c r="BN9" s="7"/>
+      <c r="BO9" s="7"/>
+      <c r="BP9" s="7"/>
+      <c r="BQ9" s="7"/>
+      <c r="BR9" s="7"/>
+      <c r="BS9" s="7"/>
+      <c r="BT9" s="7"/>
     </row>
     <row r="10" ht="64" customHeight="1" spans="2:72">
       <c r="B10" s="2" t="s">
@@ -4639,21 +4668,21 @@
       <c r="E10" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>240</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="4" t="s">
         <v>241</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="4" t="s">
         <v>242</v>
       </c>
       <c r="O10" s="2"/>
@@ -4671,7 +4700,7 @@
         <v>245</v>
       </c>
       <c r="W10" s="3"/>
-      <c r="X10" s="3" t="s">
+      <c r="X10" s="6" t="s">
         <v>246</v>
       </c>
       <c r="Y10" s="2"/>
@@ -4682,7 +4711,7 @@
       <c r="AB10" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="AC10" s="5" t="s">
+      <c r="AC10" s="4" t="s">
         <v>249</v>
       </c>
       <c r="AD10" s="2"/>
@@ -4701,33 +4730,33 @@
       <c r="AQ10" s="2"/>
       <c r="AR10" s="2"/>
       <c r="AS10" s="2"/>
-      <c r="AT10" s="8"/>
-      <c r="AU10" s="8"/>
-      <c r="AV10" s="8"/>
-      <c r="AW10" s="8"/>
-      <c r="AX10" s="8"/>
-      <c r="AY10" s="8"/>
-      <c r="AZ10" s="8"/>
-      <c r="BA10" s="8"/>
-      <c r="BB10" s="8"/>
-      <c r="BC10" s="8"/>
-      <c r="BD10" s="8"/>
-      <c r="BE10" s="8"/>
-      <c r="BF10" s="8"/>
-      <c r="BG10" s="8"/>
-      <c r="BH10" s="8"/>
-      <c r="BI10" s="8"/>
-      <c r="BJ10" s="8"/>
-      <c r="BK10" s="8"/>
-      <c r="BL10" s="8"/>
-      <c r="BM10" s="8"/>
-      <c r="BN10" s="8"/>
-      <c r="BO10" s="8"/>
-      <c r="BP10" s="8"/>
-      <c r="BQ10" s="8"/>
-      <c r="BR10" s="8"/>
-      <c r="BS10" s="8"/>
-      <c r="BT10" s="8"/>
+      <c r="AT10" s="7"/>
+      <c r="AU10" s="7"/>
+      <c r="AV10" s="7"/>
+      <c r="AW10" s="7"/>
+      <c r="AX10" s="7"/>
+      <c r="AY10" s="7"/>
+      <c r="AZ10" s="7"/>
+      <c r="BA10" s="7"/>
+      <c r="BB10" s="7"/>
+      <c r="BC10" s="7"/>
+      <c r="BD10" s="7"/>
+      <c r="BE10" s="7"/>
+      <c r="BF10" s="7"/>
+      <c r="BG10" s="7"/>
+      <c r="BH10" s="7"/>
+      <c r="BI10" s="7"/>
+      <c r="BJ10" s="7"/>
+      <c r="BK10" s="7"/>
+      <c r="BL10" s="7"/>
+      <c r="BM10" s="7"/>
+      <c r="BN10" s="7"/>
+      <c r="BO10" s="7"/>
+      <c r="BP10" s="7"/>
+      <c r="BQ10" s="7"/>
+      <c r="BR10" s="7"/>
+      <c r="BS10" s="7"/>
+      <c r="BT10" s="7"/>
     </row>
     <row r="11" ht="64" customHeight="1" spans="2:72">
       <c r="B11" s="2" t="s">
@@ -4736,7 +4765,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>250</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -4765,7 +4794,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
-      <c r="W11" s="5" t="s">
+      <c r="W11" s="4" t="s">
         <v>256</v>
       </c>
       <c r="X11" s="3" t="s">
@@ -4773,7 +4802,7 @@
       </c>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="5" t="s">
+      <c r="AA11" s="4" t="s">
         <v>258</v>
       </c>
       <c r="AB11" s="3" t="s">
@@ -4798,33 +4827,33 @@
       <c r="AQ11" s="2"/>
       <c r="AR11" s="2"/>
       <c r="AS11" s="2"/>
-      <c r="AT11" s="8"/>
-      <c r="AU11" s="8"/>
-      <c r="AV11" s="8"/>
-      <c r="AW11" s="8"/>
-      <c r="AX11" s="8"/>
-      <c r="AY11" s="8"/>
-      <c r="AZ11" s="8"/>
-      <c r="BA11" s="8"/>
-      <c r="BB11" s="8"/>
-      <c r="BC11" s="8"/>
-      <c r="BD11" s="8"/>
-      <c r="BE11" s="8"/>
-      <c r="BF11" s="8"/>
-      <c r="BG11" s="8"/>
-      <c r="BH11" s="8"/>
-      <c r="BI11" s="8"/>
-      <c r="BJ11" s="8"/>
-      <c r="BK11" s="8"/>
-      <c r="BL11" s="8"/>
-      <c r="BM11" s="8"/>
-      <c r="BN11" s="8"/>
-      <c r="BO11" s="8"/>
-      <c r="BP11" s="8"/>
-      <c r="BQ11" s="8"/>
-      <c r="BR11" s="8"/>
-      <c r="BS11" s="8"/>
-      <c r="BT11" s="8"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="7"/>
+      <c r="AV11" s="7"/>
+      <c r="AW11" s="7"/>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="7"/>
+      <c r="AZ11" s="7"/>
+      <c r="BA11" s="7"/>
+      <c r="BB11" s="7"/>
+      <c r="BC11" s="7"/>
+      <c r="BD11" s="7"/>
+      <c r="BE11" s="7"/>
+      <c r="BF11" s="7"/>
+      <c r="BG11" s="7"/>
+      <c r="BH11" s="7"/>
+      <c r="BI11" s="7"/>
+      <c r="BJ11" s="7"/>
+      <c r="BK11" s="7"/>
+      <c r="BL11" s="7"/>
+      <c r="BM11" s="7"/>
+      <c r="BN11" s="7"/>
+      <c r="BO11" s="7"/>
+      <c r="BP11" s="7"/>
+      <c r="BQ11" s="7"/>
+      <c r="BR11" s="7"/>
+      <c r="BS11" s="7"/>
+      <c r="BT11" s="7"/>
     </row>
     <row r="12" ht="64" customHeight="1" spans="2:72">
       <c r="B12" s="2" t="s">
@@ -4862,10 +4891,12 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
+      <c r="AA12" s="3" t="s">
+        <v>265</v>
+      </c>
       <c r="AB12" s="2"/>
       <c r="AC12" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
@@ -4883,76 +4914,76 @@
       <c r="AQ12" s="2"/>
       <c r="AR12" s="2"/>
       <c r="AS12" s="2"/>
-      <c r="AT12" s="8"/>
-      <c r="AU12" s="8"/>
-      <c r="AV12" s="8"/>
-      <c r="AW12" s="8"/>
-      <c r="AX12" s="8"/>
-      <c r="AY12" s="8"/>
-      <c r="AZ12" s="8"/>
-      <c r="BA12" s="8"/>
-      <c r="BB12" s="8"/>
-      <c r="BC12" s="8"/>
-      <c r="BD12" s="8"/>
-      <c r="BE12" s="8"/>
-      <c r="BF12" s="8"/>
-      <c r="BG12" s="8"/>
-      <c r="BH12" s="8"/>
-      <c r="BI12" s="8"/>
-      <c r="BJ12" s="8"/>
-      <c r="BK12" s="8"/>
-      <c r="BL12" s="8"/>
-      <c r="BM12" s="8"/>
-      <c r="BN12" s="8"/>
-      <c r="BO12" s="8"/>
-      <c r="BP12" s="8"/>
-      <c r="BQ12" s="8"/>
-      <c r="BR12" s="8"/>
-      <c r="BS12" s="8"/>
-      <c r="BT12" s="8"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="7"/>
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="7"/>
+      <c r="AZ12" s="7"/>
+      <c r="BA12" s="7"/>
+      <c r="BB12" s="7"/>
+      <c r="BC12" s="7"/>
+      <c r="BD12" s="7"/>
+      <c r="BE12" s="7"/>
+      <c r="BF12" s="7"/>
+      <c r="BG12" s="7"/>
+      <c r="BH12" s="7"/>
+      <c r="BI12" s="7"/>
+      <c r="BJ12" s="7"/>
+      <c r="BK12" s="7"/>
+      <c r="BL12" s="7"/>
+      <c r="BM12" s="7"/>
+      <c r="BN12" s="7"/>
+      <c r="BO12" s="7"/>
+      <c r="BP12" s="7"/>
+      <c r="BQ12" s="7"/>
+      <c r="BR12" s="7"/>
+      <c r="BS12" s="7"/>
+      <c r="BT12" s="7"/>
     </row>
     <row r="13" ht="64" customHeight="1" spans="2:72">
       <c r="B13" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="5" t="s">
-        <v>266</v>
+      <c r="D13" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="5" t="s">
-        <v>267</v>
+      <c r="I13" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="5" t="s">
-        <v>273</v>
+      <c r="Y13" s="4" t="s">
+        <v>274</v>
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
@@ -4974,33 +5005,33 @@
       <c r="AQ13" s="2"/>
       <c r="AR13" s="2"/>
       <c r="AS13" s="2"/>
-      <c r="AT13" s="8"/>
-      <c r="AU13" s="8"/>
-      <c r="AV13" s="8"/>
-      <c r="AW13" s="8"/>
-      <c r="AX13" s="8"/>
-      <c r="AY13" s="8"/>
-      <c r="AZ13" s="8"/>
-      <c r="BA13" s="8"/>
-      <c r="BB13" s="8"/>
-      <c r="BC13" s="8"/>
-      <c r="BD13" s="8"/>
-      <c r="BE13" s="8"/>
-      <c r="BF13" s="8"/>
-      <c r="BG13" s="8"/>
-      <c r="BH13" s="8"/>
-      <c r="BI13" s="8"/>
-      <c r="BJ13" s="8"/>
-      <c r="BK13" s="8"/>
-      <c r="BL13" s="8"/>
-      <c r="BM13" s="8"/>
-      <c r="BN13" s="8"/>
-      <c r="BO13" s="8"/>
-      <c r="BP13" s="8"/>
-      <c r="BQ13" s="8"/>
-      <c r="BR13" s="8"/>
-      <c r="BS13" s="8"/>
-      <c r="BT13" s="8"/>
+      <c r="AT13" s="7"/>
+      <c r="AU13" s="7"/>
+      <c r="AV13" s="7"/>
+      <c r="AW13" s="7"/>
+      <c r="AX13" s="7"/>
+      <c r="AY13" s="7"/>
+      <c r="AZ13" s="7"/>
+      <c r="BA13" s="7"/>
+      <c r="BB13" s="7"/>
+      <c r="BC13" s="7"/>
+      <c r="BD13" s="7"/>
+      <c r="BE13" s="7"/>
+      <c r="BF13" s="7"/>
+      <c r="BG13" s="7"/>
+      <c r="BH13" s="7"/>
+      <c r="BI13" s="7"/>
+      <c r="BJ13" s="7"/>
+      <c r="BK13" s="7"/>
+      <c r="BL13" s="7"/>
+      <c r="BM13" s="7"/>
+      <c r="BN13" s="7"/>
+      <c r="BO13" s="7"/>
+      <c r="BP13" s="7"/>
+      <c r="BQ13" s="7"/>
+      <c r="BR13" s="7"/>
+      <c r="BS13" s="7"/>
+      <c r="BT13" s="7"/>
     </row>
     <row r="14" ht="64" customHeight="1" spans="2:72">
       <c r="B14" s="2" t="s">
@@ -5008,21 +5039,21 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -5030,28 +5061,28 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-      <c r="U14" s="5" t="s">
-        <v>280</v>
+      <c r="U14" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="V14" s="2"/>
-      <c r="W14" s="5" t="s">
-        <v>281</v>
+      <c r="W14" s="4" t="s">
+        <v>282</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="5" t="s">
-        <v>283</v>
+      <c r="AC14" s="4" t="s">
+        <v>284</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
@@ -5069,33 +5100,33 @@
       <c r="AQ14" s="2"/>
       <c r="AR14" s="2"/>
       <c r="AS14" s="2"/>
-      <c r="AT14" s="8"/>
-      <c r="AU14" s="8"/>
-      <c r="AV14" s="8"/>
-      <c r="AW14" s="8"/>
-      <c r="AX14" s="8"/>
-      <c r="AY14" s="8"/>
-      <c r="AZ14" s="8"/>
-      <c r="BA14" s="8"/>
-      <c r="BB14" s="8"/>
-      <c r="BC14" s="8"/>
-      <c r="BD14" s="8"/>
-      <c r="BE14" s="8"/>
-      <c r="BF14" s="8"/>
-      <c r="BG14" s="8"/>
-      <c r="BH14" s="8"/>
-      <c r="BI14" s="8"/>
-      <c r="BJ14" s="8"/>
-      <c r="BK14" s="8"/>
-      <c r="BL14" s="8"/>
-      <c r="BM14" s="8"/>
-      <c r="BN14" s="8"/>
-      <c r="BO14" s="8"/>
-      <c r="BP14" s="8"/>
-      <c r="BQ14" s="8"/>
-      <c r="BR14" s="8"/>
-      <c r="BS14" s="8"/>
-      <c r="BT14" s="8"/>
+      <c r="AT14" s="7"/>
+      <c r="AU14" s="7"/>
+      <c r="AV14" s="7"/>
+      <c r="AW14" s="7"/>
+      <c r="AX14" s="7"/>
+      <c r="AY14" s="7"/>
+      <c r="AZ14" s="7"/>
+      <c r="BA14" s="7"/>
+      <c r="BB14" s="7"/>
+      <c r="BC14" s="7"/>
+      <c r="BD14" s="7"/>
+      <c r="BE14" s="7"/>
+      <c r="BF14" s="7"/>
+      <c r="BG14" s="7"/>
+      <c r="BH14" s="7"/>
+      <c r="BI14" s="7"/>
+      <c r="BJ14" s="7"/>
+      <c r="BK14" s="7"/>
+      <c r="BL14" s="7"/>
+      <c r="BM14" s="7"/>
+      <c r="BN14" s="7"/>
+      <c r="BO14" s="7"/>
+      <c r="BP14" s="7"/>
+      <c r="BQ14" s="7"/>
+      <c r="BR14" s="7"/>
+      <c r="BS14" s="7"/>
+      <c r="BT14" s="7"/>
     </row>
     <row r="15" ht="64" customHeight="1" spans="2:72">
       <c r="B15" s="2" t="s">
@@ -5104,19 +5135,19 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G15" s="5" t="s">
         <v>286</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>287</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -5124,7 +5155,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -5132,15 +5163,15 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
-      <c r="AC15" s="5" t="s">
-        <v>290</v>
+      <c r="AC15" s="4" t="s">
+        <v>291</v>
       </c>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
@@ -5158,33 +5189,33 @@
       <c r="AQ15" s="2"/>
       <c r="AR15" s="2"/>
       <c r="AS15" s="2"/>
-      <c r="AT15" s="8"/>
-      <c r="AU15" s="8"/>
-      <c r="AV15" s="8"/>
-      <c r="AW15" s="8"/>
-      <c r="AX15" s="8"/>
-      <c r="AY15" s="8"/>
-      <c r="AZ15" s="8"/>
-      <c r="BA15" s="8"/>
-      <c r="BB15" s="8"/>
-      <c r="BC15" s="8"/>
-      <c r="BD15" s="8"/>
-      <c r="BE15" s="8"/>
-      <c r="BF15" s="8"/>
-      <c r="BG15" s="8"/>
-      <c r="BH15" s="8"/>
-      <c r="BI15" s="8"/>
-      <c r="BJ15" s="8"/>
-      <c r="BK15" s="8"/>
-      <c r="BL15" s="8"/>
-      <c r="BM15" s="8"/>
-      <c r="BN15" s="8"/>
-      <c r="BO15" s="8"/>
-      <c r="BP15" s="8"/>
-      <c r="BQ15" s="8"/>
-      <c r="BR15" s="8"/>
-      <c r="BS15" s="8"/>
-      <c r="BT15" s="8"/>
+      <c r="AT15" s="7"/>
+      <c r="AU15" s="7"/>
+      <c r="AV15" s="7"/>
+      <c r="AW15" s="7"/>
+      <c r="AX15" s="7"/>
+      <c r="AY15" s="7"/>
+      <c r="AZ15" s="7"/>
+      <c r="BA15" s="7"/>
+      <c r="BB15" s="7"/>
+      <c r="BC15" s="7"/>
+      <c r="BD15" s="7"/>
+      <c r="BE15" s="7"/>
+      <c r="BF15" s="7"/>
+      <c r="BG15" s="7"/>
+      <c r="BH15" s="7"/>
+      <c r="BI15" s="7"/>
+      <c r="BJ15" s="7"/>
+      <c r="BK15" s="7"/>
+      <c r="BL15" s="7"/>
+      <c r="BM15" s="7"/>
+      <c r="BN15" s="7"/>
+      <c r="BO15" s="7"/>
+      <c r="BP15" s="7"/>
+      <c r="BQ15" s="7"/>
+      <c r="BR15" s="7"/>
+      <c r="BS15" s="7"/>
+      <c r="BT15" s="7"/>
     </row>
     <row r="16" ht="64" customHeight="1" spans="2:72">
       <c r="B16" s="2" t="s">
@@ -5192,11 +5223,11 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="7" t="s">
-        <v>292</v>
+      <c r="F16" s="5" t="s">
+        <v>293</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -5205,43 +5236,45 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
+      <c r="Q16" s="3" t="s">
+        <v>296</v>
+      </c>
       <c r="R16" s="2"/>
       <c r="S16" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="U16" s="2"/>
       <c r="V16" s="3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="W16" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AB16" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="AC16" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
+      </c>
+      <c r="AC16" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
@@ -5259,33 +5292,33 @@
       <c r="AQ16" s="2"/>
       <c r="AR16" s="2"/>
       <c r="AS16" s="2"/>
-      <c r="AT16" s="8"/>
-      <c r="AU16" s="8"/>
-      <c r="AV16" s="8"/>
-      <c r="AW16" s="8"/>
-      <c r="AX16" s="8"/>
-      <c r="AY16" s="8"/>
-      <c r="AZ16" s="8"/>
-      <c r="BA16" s="8"/>
-      <c r="BB16" s="8"/>
-      <c r="BC16" s="8"/>
-      <c r="BD16" s="8"/>
-      <c r="BE16" s="8"/>
-      <c r="BF16" s="8"/>
-      <c r="BG16" s="8"/>
-      <c r="BH16" s="8"/>
-      <c r="BI16" s="8"/>
-      <c r="BJ16" s="8"/>
-      <c r="BK16" s="8"/>
-      <c r="BL16" s="8"/>
-      <c r="BM16" s="8"/>
-      <c r="BN16" s="8"/>
-      <c r="BO16" s="8"/>
-      <c r="BP16" s="8"/>
-      <c r="BQ16" s="8"/>
-      <c r="BR16" s="8"/>
-      <c r="BS16" s="8"/>
-      <c r="BT16" s="8"/>
+      <c r="AT16" s="7"/>
+      <c r="AU16" s="7"/>
+      <c r="AV16" s="7"/>
+      <c r="AW16" s="7"/>
+      <c r="AX16" s="7"/>
+      <c r="AY16" s="7"/>
+      <c r="AZ16" s="7"/>
+      <c r="BA16" s="7"/>
+      <c r="BB16" s="7"/>
+      <c r="BC16" s="7"/>
+      <c r="BD16" s="7"/>
+      <c r="BE16" s="7"/>
+      <c r="BF16" s="7"/>
+      <c r="BG16" s="7"/>
+      <c r="BH16" s="7"/>
+      <c r="BI16" s="7"/>
+      <c r="BJ16" s="7"/>
+      <c r="BK16" s="7"/>
+      <c r="BL16" s="7"/>
+      <c r="BM16" s="7"/>
+      <c r="BN16" s="7"/>
+      <c r="BO16" s="7"/>
+      <c r="BP16" s="7"/>
+      <c r="BQ16" s="7"/>
+      <c r="BR16" s="7"/>
+      <c r="BS16" s="7"/>
+      <c r="BT16" s="7"/>
     </row>
     <row r="17" ht="64" customHeight="1" spans="2:72">
       <c r="B17" s="2" t="s">
@@ -5301,9 +5334,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="5" t="s">
-        <v>304</v>
-      </c>
+      <c r="M17" s="4"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -5317,7 +5348,7 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
@@ -5338,77 +5369,77 @@
       <c r="AQ17" s="2"/>
       <c r="AR17" s="2"/>
       <c r="AS17" s="2"/>
-      <c r="AT17" s="8"/>
-      <c r="AU17" s="8"/>
-      <c r="AV17" s="8"/>
-      <c r="AW17" s="8"/>
-      <c r="AX17" s="8"/>
-      <c r="AY17" s="8"/>
-      <c r="AZ17" s="8"/>
-      <c r="BA17" s="8"/>
-      <c r="BB17" s="8"/>
-      <c r="BC17" s="8"/>
-      <c r="BD17" s="8"/>
-      <c r="BE17" s="8"/>
-      <c r="BF17" s="8"/>
-      <c r="BG17" s="8"/>
-      <c r="BH17" s="8"/>
-      <c r="BI17" s="8"/>
-      <c r="BJ17" s="8"/>
-      <c r="BK17" s="8"/>
-      <c r="BL17" s="8"/>
-      <c r="BM17" s="8"/>
-      <c r="BN17" s="8"/>
-      <c r="BO17" s="8"/>
-      <c r="BP17" s="8"/>
-      <c r="BQ17" s="8"/>
-      <c r="BR17" s="8"/>
-      <c r="BS17" s="8"/>
-      <c r="BT17" s="8"/>
+      <c r="AT17" s="7"/>
+      <c r="AU17" s="7"/>
+      <c r="AV17" s="7"/>
+      <c r="AW17" s="7"/>
+      <c r="AX17" s="7"/>
+      <c r="AY17" s="7"/>
+      <c r="AZ17" s="7"/>
+      <c r="BA17" s="7"/>
+      <c r="BB17" s="7"/>
+      <c r="BC17" s="7"/>
+      <c r="BD17" s="7"/>
+      <c r="BE17" s="7"/>
+      <c r="BF17" s="7"/>
+      <c r="BG17" s="7"/>
+      <c r="BH17" s="7"/>
+      <c r="BI17" s="7"/>
+      <c r="BJ17" s="7"/>
+      <c r="BK17" s="7"/>
+      <c r="BL17" s="7"/>
+      <c r="BM17" s="7"/>
+      <c r="BN17" s="7"/>
+      <c r="BO17" s="7"/>
+      <c r="BP17" s="7"/>
+      <c r="BQ17" s="7"/>
+      <c r="BR17" s="7"/>
+      <c r="BS17" s="7"/>
+      <c r="BT17" s="7"/>
     </row>
     <row r="18" ht="64" customHeight="1" spans="2:72">
       <c r="B18" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="5" t="s">
-        <v>309</v>
+      <c r="M18" s="4" t="s">
+        <v>310</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="P18" s="5" t="s">
         <v>311</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>312</v>
       </c>
       <c r="Q18" s="3"/>
       <c r="R18" s="2"/>
       <c r="S18" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
-      <c r="X18" s="5" t="s">
-        <v>313</v>
+      <c r="X18" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="Y18" s="2"/>
-      <c r="Z18" s="5" t="s">
-        <v>314</v>
+      <c r="Z18" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
@@ -5429,81 +5460,81 @@
       <c r="AQ18" s="2"/>
       <c r="AR18" s="2"/>
       <c r="AS18" s="2"/>
-      <c r="AT18" s="8"/>
-      <c r="AU18" s="8"/>
-      <c r="AV18" s="8"/>
-      <c r="AW18" s="8"/>
-      <c r="AX18" s="8"/>
-      <c r="AY18" s="8"/>
-      <c r="AZ18" s="8"/>
-      <c r="BA18" s="8"/>
-      <c r="BB18" s="8"/>
-      <c r="BC18" s="8"/>
-      <c r="BD18" s="8"/>
-      <c r="BE18" s="8"/>
-      <c r="BF18" s="8"/>
-      <c r="BG18" s="8"/>
-      <c r="BH18" s="8"/>
-      <c r="BI18" s="8"/>
-      <c r="BJ18" s="8"/>
-      <c r="BK18" s="8"/>
-      <c r="BL18" s="8"/>
-      <c r="BM18" s="8"/>
-      <c r="BN18" s="8"/>
-      <c r="BO18" s="8"/>
-      <c r="BP18" s="8"/>
-      <c r="BQ18" s="8"/>
-      <c r="BR18" s="8"/>
-      <c r="BS18" s="8"/>
-      <c r="BT18" s="8"/>
+      <c r="AT18" s="7"/>
+      <c r="AU18" s="7"/>
+      <c r="AV18" s="7"/>
+      <c r="AW18" s="7"/>
+      <c r="AX18" s="7"/>
+      <c r="AY18" s="7"/>
+      <c r="AZ18" s="7"/>
+      <c r="BA18" s="7"/>
+      <c r="BB18" s="7"/>
+      <c r="BC18" s="7"/>
+      <c r="BD18" s="7"/>
+      <c r="BE18" s="7"/>
+      <c r="BF18" s="7"/>
+      <c r="BG18" s="7"/>
+      <c r="BH18" s="7"/>
+      <c r="BI18" s="7"/>
+      <c r="BJ18" s="7"/>
+      <c r="BK18" s="7"/>
+      <c r="BL18" s="7"/>
+      <c r="BM18" s="7"/>
+      <c r="BN18" s="7"/>
+      <c r="BO18" s="7"/>
+      <c r="BP18" s="7"/>
+      <c r="BQ18" s="7"/>
+      <c r="BR18" s="7"/>
+      <c r="BS18" s="7"/>
+      <c r="BT18" s="7"/>
     </row>
     <row r="19" ht="64" customHeight="1" spans="2:72">
       <c r="B19" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="5" t="s">
-        <v>318</v>
+      <c r="M19" s="4" t="s">
+        <v>319</v>
       </c>
       <c r="N19" s="2"/>
-      <c r="O19" s="3" t="s">
-        <v>319</v>
+      <c r="O19" s="6" t="s">
+        <v>320</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="T19" s="5" t="s">
         <v>323</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>324</v>
       </c>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Y19" s="2"/>
-      <c r="Z19" s="5" t="s">
-        <v>325</v>
+      <c r="Z19" s="4" t="s">
+        <v>326</v>
       </c>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
@@ -5524,37 +5555,37 @@
       <c r="AQ19" s="2"/>
       <c r="AR19" s="2"/>
       <c r="AS19" s="2"/>
-      <c r="AT19" s="8"/>
-      <c r="AU19" s="8"/>
-      <c r="AV19" s="8"/>
-      <c r="AW19" s="8"/>
-      <c r="AX19" s="8"/>
-      <c r="AY19" s="8"/>
-      <c r="AZ19" s="8"/>
-      <c r="BA19" s="8"/>
-      <c r="BB19" s="8"/>
-      <c r="BC19" s="8"/>
-      <c r="BD19" s="8"/>
-      <c r="BE19" s="8"/>
-      <c r="BF19" s="8"/>
-      <c r="BG19" s="8"/>
-      <c r="BH19" s="8"/>
-      <c r="BI19" s="8"/>
-      <c r="BJ19" s="8"/>
-      <c r="BK19" s="8"/>
-      <c r="BL19" s="8"/>
-      <c r="BM19" s="8"/>
-      <c r="BN19" s="8"/>
-      <c r="BO19" s="8"/>
-      <c r="BP19" s="8"/>
-      <c r="BQ19" s="8"/>
-      <c r="BR19" s="8"/>
-      <c r="BS19" s="8"/>
-      <c r="BT19" s="8"/>
+      <c r="AT19" s="7"/>
+      <c r="AU19" s="7"/>
+      <c r="AV19" s="7"/>
+      <c r="AW19" s="7"/>
+      <c r="AX19" s="7"/>
+      <c r="AY19" s="7"/>
+      <c r="AZ19" s="7"/>
+      <c r="BA19" s="7"/>
+      <c r="BB19" s="7"/>
+      <c r="BC19" s="7"/>
+      <c r="BD19" s="7"/>
+      <c r="BE19" s="7"/>
+      <c r="BF19" s="7"/>
+      <c r="BG19" s="7"/>
+      <c r="BH19" s="7"/>
+      <c r="BI19" s="7"/>
+      <c r="BJ19" s="7"/>
+      <c r="BK19" s="7"/>
+      <c r="BL19" s="7"/>
+      <c r="BM19" s="7"/>
+      <c r="BN19" s="7"/>
+      <c r="BO19" s="7"/>
+      <c r="BP19" s="7"/>
+      <c r="BQ19" s="7"/>
+      <c r="BR19" s="7"/>
+      <c r="BS19" s="7"/>
+      <c r="BT19" s="7"/>
     </row>
     <row r="20" ht="64" customHeight="1" spans="2:72">
       <c r="B20" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
@@ -5566,8 +5597,8 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="5" t="s">
-        <v>327</v>
+      <c r="M20" s="4" t="s">
+        <v>328</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -5576,15 +5607,15 @@
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
-      <c r="Z20" s="5" t="s">
-        <v>329</v>
+      <c r="Z20" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
@@ -5605,33 +5636,33 @@
       <c r="AQ20" s="2"/>
       <c r="AR20" s="2"/>
       <c r="AS20" s="2"/>
-      <c r="AT20" s="8"/>
-      <c r="AU20" s="8"/>
-      <c r="AV20" s="8"/>
-      <c r="AW20" s="8"/>
-      <c r="AX20" s="8"/>
-      <c r="AY20" s="8"/>
-      <c r="AZ20" s="8"/>
-      <c r="BA20" s="8"/>
-      <c r="BB20" s="8"/>
-      <c r="BC20" s="8"/>
-      <c r="BD20" s="8"/>
-      <c r="BE20" s="8"/>
-      <c r="BF20" s="8"/>
-      <c r="BG20" s="8"/>
-      <c r="BH20" s="8"/>
-      <c r="BI20" s="8"/>
-      <c r="BJ20" s="8"/>
-      <c r="BK20" s="8"/>
-      <c r="BL20" s="8"/>
-      <c r="BM20" s="8"/>
-      <c r="BN20" s="8"/>
-      <c r="BO20" s="8"/>
-      <c r="BP20" s="8"/>
-      <c r="BQ20" s="8"/>
-      <c r="BR20" s="8"/>
-      <c r="BS20" s="8"/>
-      <c r="BT20" s="8"/>
+      <c r="AT20" s="7"/>
+      <c r="AU20" s="7"/>
+      <c r="AV20" s="7"/>
+      <c r="AW20" s="7"/>
+      <c r="AX20" s="7"/>
+      <c r="AY20" s="7"/>
+      <c r="AZ20" s="7"/>
+      <c r="BA20" s="7"/>
+      <c r="BB20" s="7"/>
+      <c r="BC20" s="7"/>
+      <c r="BD20" s="7"/>
+      <c r="BE20" s="7"/>
+      <c r="BF20" s="7"/>
+      <c r="BG20" s="7"/>
+      <c r="BH20" s="7"/>
+      <c r="BI20" s="7"/>
+      <c r="BJ20" s="7"/>
+      <c r="BK20" s="7"/>
+      <c r="BL20" s="7"/>
+      <c r="BM20" s="7"/>
+      <c r="BN20" s="7"/>
+      <c r="BO20" s="7"/>
+      <c r="BP20" s="7"/>
+      <c r="BQ20" s="7"/>
+      <c r="BR20" s="7"/>
+      <c r="BS20" s="7"/>
+      <c r="BT20" s="7"/>
     </row>
     <row r="21" ht="64" customHeight="1" spans="2:72">
       <c r="B21" s="2" t="s">
@@ -5639,7 +5670,7 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -5649,8 +5680,8 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="5" t="s">
-        <v>331</v>
+      <c r="M21" s="4" t="s">
+        <v>332</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -5659,17 +5690,17 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Y21" s="2"/>
-      <c r="Z21" s="5" t="s">
-        <v>334</v>
+      <c r="Z21" s="4" t="s">
+        <v>335</v>
       </c>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
@@ -5690,33 +5721,33 @@
       <c r="AQ21" s="2"/>
       <c r="AR21" s="2"/>
       <c r="AS21" s="2"/>
-      <c r="AT21" s="8"/>
-      <c r="AU21" s="8"/>
-      <c r="AV21" s="8"/>
-      <c r="AW21" s="8"/>
-      <c r="AX21" s="8"/>
-      <c r="AY21" s="8"/>
-      <c r="AZ21" s="8"/>
-      <c r="BA21" s="8"/>
-      <c r="BB21" s="8"/>
-      <c r="BC21" s="8"/>
-      <c r="BD21" s="8"/>
-      <c r="BE21" s="8"/>
-      <c r="BF21" s="8"/>
-      <c r="BG21" s="8"/>
-      <c r="BH21" s="8"/>
-      <c r="BI21" s="8"/>
-      <c r="BJ21" s="8"/>
-      <c r="BK21" s="8"/>
-      <c r="BL21" s="8"/>
-      <c r="BM21" s="8"/>
-      <c r="BN21" s="8"/>
-      <c r="BO21" s="8"/>
-      <c r="BP21" s="8"/>
-      <c r="BQ21" s="8"/>
-      <c r="BR21" s="8"/>
-      <c r="BS21" s="8"/>
-      <c r="BT21" s="8"/>
+      <c r="AT21" s="7"/>
+      <c r="AU21" s="7"/>
+      <c r="AV21" s="7"/>
+      <c r="AW21" s="7"/>
+      <c r="AX21" s="7"/>
+      <c r="AY21" s="7"/>
+      <c r="AZ21" s="7"/>
+      <c r="BA21" s="7"/>
+      <c r="BB21" s="7"/>
+      <c r="BC21" s="7"/>
+      <c r="BD21" s="7"/>
+      <c r="BE21" s="7"/>
+      <c r="BF21" s="7"/>
+      <c r="BG21" s="7"/>
+      <c r="BH21" s="7"/>
+      <c r="BI21" s="7"/>
+      <c r="BJ21" s="7"/>
+      <c r="BK21" s="7"/>
+      <c r="BL21" s="7"/>
+      <c r="BM21" s="7"/>
+      <c r="BN21" s="7"/>
+      <c r="BO21" s="7"/>
+      <c r="BP21" s="7"/>
+      <c r="BQ21" s="7"/>
+      <c r="BR21" s="7"/>
+      <c r="BS21" s="7"/>
+      <c r="BT21" s="7"/>
     </row>
     <row r="22" ht="64" customHeight="1" spans="2:72">
       <c r="B22" s="2" t="s">
@@ -5732,32 +5763,32 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="5" t="s">
-        <v>335</v>
+      <c r="M22" s="4" t="s">
+        <v>336</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" s="5" t="s">
-        <v>336</v>
+      <c r="O22" s="4" t="s">
+        <v>337</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
-      <c r="Z22" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="AA22" s="5" t="s">
+      <c r="Z22" s="4" t="s">
         <v>340</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
@@ -5777,83 +5808,65 @@
       <c r="AQ22" s="2"/>
       <c r="AR22" s="2"/>
       <c r="AS22" s="2"/>
-      <c r="AT22" s="8"/>
-      <c r="AU22" s="8"/>
-      <c r="AV22" s="8"/>
-      <c r="AW22" s="8"/>
-      <c r="AX22" s="8"/>
-      <c r="AY22" s="8"/>
-      <c r="AZ22" s="8"/>
-      <c r="BA22" s="8"/>
-      <c r="BB22" s="8"/>
-      <c r="BC22" s="8"/>
-      <c r="BD22" s="8"/>
-      <c r="BE22" s="8"/>
-      <c r="BF22" s="8"/>
-      <c r="BG22" s="8"/>
-      <c r="BH22" s="8"/>
-      <c r="BI22" s="8"/>
-      <c r="BJ22" s="8"/>
-      <c r="BK22" s="8"/>
-      <c r="BL22" s="8"/>
-      <c r="BM22" s="8"/>
-      <c r="BN22" s="8"/>
-      <c r="BO22" s="8"/>
-      <c r="BP22" s="8"/>
-      <c r="BQ22" s="8"/>
-      <c r="BR22" s="8"/>
-      <c r="BS22" s="8"/>
-      <c r="BT22" s="8"/>
+      <c r="AT22" s="7"/>
+      <c r="AU22" s="7"/>
+      <c r="AV22" s="7"/>
+      <c r="AW22" s="7"/>
+      <c r="AX22" s="7"/>
+      <c r="AY22" s="7"/>
+      <c r="AZ22" s="7"/>
+      <c r="BA22" s="7"/>
+      <c r="BB22" s="7"/>
+      <c r="BC22" s="7"/>
+      <c r="BD22" s="7"/>
+      <c r="BE22" s="7"/>
+      <c r="BF22" s="7"/>
+      <c r="BG22" s="7"/>
+      <c r="BH22" s="7"/>
+      <c r="BI22" s="7"/>
+      <c r="BJ22" s="7"/>
+      <c r="BK22" s="7"/>
+      <c r="BL22" s="7"/>
+      <c r="BM22" s="7"/>
+      <c r="BN22" s="7"/>
+      <c r="BO22" s="7"/>
+      <c r="BP22" s="7"/>
+      <c r="BQ22" s="7"/>
+      <c r="BR22" s="7"/>
+      <c r="BS22" s="7"/>
+      <c r="BT22" s="7"/>
     </row>
     <row r="23" ht="64" customHeight="1" spans="2:72">
       <c r="B23" s="2" t="s">
-        <v>81</v>
+        <v>342</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="3" t="s">
-        <v>341</v>
-      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="3" t="s">
-        <v>342</v>
-      </c>
+      <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="5" t="s">
-        <v>343</v>
-      </c>
+      <c r="M23" s="4"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>345</v>
-      </c>
+      <c r="O23" s="4"/>
+      <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
-      <c r="S23" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="T23" s="5" t="s">
-        <v>347</v>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
-      <c r="X23" s="3" t="s">
-        <v>348</v>
-      </c>
+      <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
-      <c r="Z23" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="AA23" s="5" t="s">
-        <v>350</v>
-      </c>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
@@ -5872,71 +5885,83 @@
       <c r="AQ23" s="2"/>
       <c r="AR23" s="2"/>
       <c r="AS23" s="2"/>
-      <c r="AT23" s="8"/>
-      <c r="AU23" s="8"/>
-      <c r="AV23" s="8"/>
-      <c r="AW23" s="8"/>
-      <c r="AX23" s="8"/>
-      <c r="AY23" s="8"/>
-      <c r="AZ23" s="8"/>
-      <c r="BA23" s="8"/>
-      <c r="BB23" s="8"/>
-      <c r="BC23" s="8"/>
-      <c r="BD23" s="8"/>
-      <c r="BE23" s="8"/>
-      <c r="BF23" s="8"/>
-      <c r="BG23" s="8"/>
-      <c r="BH23" s="8"/>
-      <c r="BI23" s="8"/>
-      <c r="BJ23" s="8"/>
-      <c r="BK23" s="8"/>
-      <c r="BL23" s="8"/>
-      <c r="BM23" s="8"/>
-      <c r="BN23" s="8"/>
-      <c r="BO23" s="8"/>
-      <c r="BP23" s="8"/>
-      <c r="BQ23" s="8"/>
-      <c r="BR23" s="8"/>
-      <c r="BS23" s="8"/>
-      <c r="BT23" s="8"/>
+      <c r="AT23" s="7"/>
+      <c r="AU23" s="7"/>
+      <c r="AV23" s="7"/>
+      <c r="AW23" s="7"/>
+      <c r="AX23" s="7"/>
+      <c r="AY23" s="7"/>
+      <c r="AZ23" s="7"/>
+      <c r="BA23" s="7"/>
+      <c r="BB23" s="7"/>
+      <c r="BC23" s="7"/>
+      <c r="BD23" s="7"/>
+      <c r="BE23" s="7"/>
+      <c r="BF23" s="7"/>
+      <c r="BG23" s="7"/>
+      <c r="BH23" s="7"/>
+      <c r="BI23" s="7"/>
+      <c r="BJ23" s="7"/>
+      <c r="BK23" s="7"/>
+      <c r="BL23" s="7"/>
+      <c r="BM23" s="7"/>
+      <c r="BN23" s="7"/>
+      <c r="BO23" s="7"/>
+      <c r="BP23" s="7"/>
+      <c r="BQ23" s="7"/>
+      <c r="BR23" s="7"/>
+      <c r="BS23" s="7"/>
+      <c r="BT23" s="7"/>
     </row>
     <row r="24" ht="64" customHeight="1" spans="2:72">
       <c r="B24" s="2" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="D24" s="3" t="s">
+        <v>344</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="G24" s="3" t="s">
+        <v>345</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="5" t="s">
-        <v>351</v>
+      <c r="M24" s="4" t="s">
+        <v>346</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="P24" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>348</v>
+      </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="3" t="s">
-        <v>353</v>
+      <c r="S24" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>350</v>
       </c>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
+      <c r="X24" s="3" t="s">
+        <v>351</v>
+      </c>
       <c r="Y24" s="2"/>
-      <c r="Z24" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="AA24" s="2"/>
+      <c r="Z24" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="AA24" s="4" t="s">
+        <v>353</v>
+      </c>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
@@ -5955,97 +5980,73 @@
       <c r="AQ24" s="2"/>
       <c r="AR24" s="2"/>
       <c r="AS24" s="2"/>
-      <c r="AT24" s="8"/>
-      <c r="AU24" s="8"/>
-      <c r="AV24" s="8"/>
-      <c r="AW24" s="8"/>
-      <c r="AX24" s="8"/>
-      <c r="AY24" s="8"/>
-      <c r="AZ24" s="8"/>
-      <c r="BA24" s="8"/>
-      <c r="BB24" s="8"/>
-      <c r="BC24" s="8"/>
-      <c r="BD24" s="8"/>
-      <c r="BE24" s="8"/>
-      <c r="BF24" s="8"/>
-      <c r="BG24" s="8"/>
-      <c r="BH24" s="8"/>
-      <c r="BI24" s="8"/>
-      <c r="BJ24" s="8"/>
-      <c r="BK24" s="8"/>
-      <c r="BL24" s="8"/>
-      <c r="BM24" s="8"/>
-      <c r="BN24" s="8"/>
-      <c r="BO24" s="8"/>
-      <c r="BP24" s="8"/>
-      <c r="BQ24" s="8"/>
-      <c r="BR24" s="8"/>
-      <c r="BS24" s="8"/>
-      <c r="BT24" s="8"/>
+      <c r="AT24" s="7"/>
+      <c r="AU24" s="7"/>
+      <c r="AV24" s="7"/>
+      <c r="AW24" s="7"/>
+      <c r="AX24" s="7"/>
+      <c r="AY24" s="7"/>
+      <c r="AZ24" s="7"/>
+      <c r="BA24" s="7"/>
+      <c r="BB24" s="7"/>
+      <c r="BC24" s="7"/>
+      <c r="BD24" s="7"/>
+      <c r="BE24" s="7"/>
+      <c r="BF24" s="7"/>
+      <c r="BG24" s="7"/>
+      <c r="BH24" s="7"/>
+      <c r="BI24" s="7"/>
+      <c r="BJ24" s="7"/>
+      <c r="BK24" s="7"/>
+      <c r="BL24" s="7"/>
+      <c r="BM24" s="7"/>
+      <c r="BN24" s="7"/>
+      <c r="BO24" s="7"/>
+      <c r="BP24" s="7"/>
+      <c r="BQ24" s="7"/>
+      <c r="BR24" s="7"/>
+      <c r="BS24" s="7"/>
+      <c r="BT24" s="7"/>
     </row>
     <row r="25" ht="64" customHeight="1" spans="2:72">
       <c r="B25" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>358</v>
-      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>360</v>
-      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="3" t="s">
-        <v>361</v>
+      <c r="M25" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="O25" s="3" t="s">
+        <v>355</v>
+      </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
-      <c r="S25" s="3" t="s">
-        <v>362</v>
-      </c>
+      <c r="S25" s="2"/>
       <c r="T25" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="U25" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="V25" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="W25" s="3" t="s">
-        <v>365</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
       <c r="X25" s="2"/>
-      <c r="Y25" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="AB25" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="AC25" s="3" t="s">
-        <v>369</v>
-      </c>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
@@ -6062,67 +6063,99 @@
       <c r="AQ25" s="2"/>
       <c r="AR25" s="2"/>
       <c r="AS25" s="2"/>
-      <c r="AT25" s="8"/>
-      <c r="AU25" s="8"/>
-      <c r="AV25" s="8"/>
-      <c r="AW25" s="8"/>
-      <c r="AX25" s="8"/>
-      <c r="AY25" s="8"/>
-      <c r="AZ25" s="8"/>
-      <c r="BA25" s="8"/>
-      <c r="BB25" s="8"/>
-      <c r="BC25" s="8"/>
-      <c r="BD25" s="8"/>
-      <c r="BE25" s="8"/>
-      <c r="BF25" s="8"/>
-      <c r="BG25" s="8"/>
-      <c r="BH25" s="8"/>
-      <c r="BI25" s="8"/>
-      <c r="BJ25" s="8"/>
-      <c r="BK25" s="8"/>
-      <c r="BL25" s="8"/>
-      <c r="BM25" s="8"/>
-      <c r="BN25" s="8"/>
-      <c r="BO25" s="8"/>
-      <c r="BP25" s="8"/>
-      <c r="BQ25" s="8"/>
-      <c r="BR25" s="8"/>
-      <c r="BS25" s="8"/>
-      <c r="BT25" s="8"/>
+      <c r="AT25" s="7"/>
+      <c r="AU25" s="7"/>
+      <c r="AV25" s="7"/>
+      <c r="AW25" s="7"/>
+      <c r="AX25" s="7"/>
+      <c r="AY25" s="7"/>
+      <c r="AZ25" s="7"/>
+      <c r="BA25" s="7"/>
+      <c r="BB25" s="7"/>
+      <c r="BC25" s="7"/>
+      <c r="BD25" s="7"/>
+      <c r="BE25" s="7"/>
+      <c r="BF25" s="7"/>
+      <c r="BG25" s="7"/>
+      <c r="BH25" s="7"/>
+      <c r="BI25" s="7"/>
+      <c r="BJ25" s="7"/>
+      <c r="BK25" s="7"/>
+      <c r="BL25" s="7"/>
+      <c r="BM25" s="7"/>
+      <c r="BN25" s="7"/>
+      <c r="BO25" s="7"/>
+      <c r="BP25" s="7"/>
+      <c r="BQ25" s="7"/>
+      <c r="BR25" s="7"/>
+      <c r="BS25" s="7"/>
+      <c r="BT25" s="7"/>
     </row>
     <row r="26" ht="64" customHeight="1" spans="2:72">
       <c r="B26" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="D26" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>361</v>
+      </c>
       <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="I26" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>363</v>
+      </c>
       <c r="K26" s="3" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
+      <c r="M26" s="3" t="s">
+        <v>365</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
+      <c r="S26" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>369</v>
+      </c>
       <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
+      <c r="Y26" s="4" t="s">
+        <v>370</v>
+      </c>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
+      <c r="AA26" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB26" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="AC26" s="6" t="s">
+        <v>373</v>
+      </c>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
@@ -6139,37 +6172,37 @@
       <c r="AQ26" s="2"/>
       <c r="AR26" s="2"/>
       <c r="AS26" s="2"/>
-      <c r="AT26" s="8"/>
-      <c r="AU26" s="8"/>
-      <c r="AV26" s="8"/>
-      <c r="AW26" s="8"/>
-      <c r="AX26" s="8"/>
-      <c r="AY26" s="8"/>
-      <c r="AZ26" s="8"/>
-      <c r="BA26" s="8"/>
-      <c r="BB26" s="8"/>
-      <c r="BC26" s="8"/>
-      <c r="BD26" s="8"/>
-      <c r="BE26" s="8"/>
-      <c r="BF26" s="8"/>
-      <c r="BG26" s="8"/>
-      <c r="BH26" s="8"/>
-      <c r="BI26" s="8"/>
-      <c r="BJ26" s="8"/>
-      <c r="BK26" s="8"/>
-      <c r="BL26" s="8"/>
-      <c r="BM26" s="8"/>
-      <c r="BN26" s="8"/>
-      <c r="BO26" s="8"/>
-      <c r="BP26" s="8"/>
-      <c r="BQ26" s="8"/>
-      <c r="BR26" s="8"/>
-      <c r="BS26" s="8"/>
-      <c r="BT26" s="8"/>
+      <c r="AT26" s="7"/>
+      <c r="AU26" s="7"/>
+      <c r="AV26" s="7"/>
+      <c r="AW26" s="7"/>
+      <c r="AX26" s="7"/>
+      <c r="AY26" s="7"/>
+      <c r="AZ26" s="7"/>
+      <c r="BA26" s="7"/>
+      <c r="BB26" s="7"/>
+      <c r="BC26" s="7"/>
+      <c r="BD26" s="7"/>
+      <c r="BE26" s="7"/>
+      <c r="BF26" s="7"/>
+      <c r="BG26" s="7"/>
+      <c r="BH26" s="7"/>
+      <c r="BI26" s="7"/>
+      <c r="BJ26" s="7"/>
+      <c r="BK26" s="7"/>
+      <c r="BL26" s="7"/>
+      <c r="BM26" s="7"/>
+      <c r="BN26" s="7"/>
+      <c r="BO26" s="7"/>
+      <c r="BP26" s="7"/>
+      <c r="BQ26" s="7"/>
+      <c r="BR26" s="7"/>
+      <c r="BS26" s="7"/>
+      <c r="BT26" s="7"/>
     </row>
     <row r="27" ht="64" customHeight="1" spans="2:72">
       <c r="B27" s="2" t="s">
-        <v>371</v>
+        <v>114</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -6179,12 +6212,12 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="3"/>
+      <c r="K27" s="3" t="s">
+        <v>374</v>
+      </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-      <c r="N27" s="3" t="s">
-        <v>372</v>
-      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
@@ -6216,89 +6249,67 @@
       <c r="AQ27" s="2"/>
       <c r="AR27" s="2"/>
       <c r="AS27" s="2"/>
-      <c r="AT27" s="8"/>
-      <c r="AU27" s="8"/>
-      <c r="AV27" s="8"/>
-      <c r="AW27" s="8"/>
-      <c r="AX27" s="8"/>
-      <c r="AY27" s="8"/>
-      <c r="AZ27" s="8"/>
-      <c r="BA27" s="8"/>
-      <c r="BB27" s="8"/>
-      <c r="BC27" s="8"/>
-      <c r="BD27" s="8"/>
-      <c r="BE27" s="8"/>
-      <c r="BF27" s="8"/>
-      <c r="BG27" s="8"/>
-      <c r="BH27" s="8"/>
-      <c r="BI27" s="8"/>
-      <c r="BJ27" s="8"/>
-      <c r="BK27" s="8"/>
-      <c r="BL27" s="8"/>
-      <c r="BM27" s="8"/>
-      <c r="BN27" s="8"/>
-      <c r="BO27" s="8"/>
-      <c r="BP27" s="8"/>
-      <c r="BQ27" s="8"/>
-      <c r="BR27" s="8"/>
-      <c r="BS27" s="8"/>
-      <c r="BT27" s="8"/>
+      <c r="AT27" s="7"/>
+      <c r="AU27" s="7"/>
+      <c r="AV27" s="7"/>
+      <c r="AW27" s="7"/>
+      <c r="AX27" s="7"/>
+      <c r="AY27" s="7"/>
+      <c r="AZ27" s="7"/>
+      <c r="BA27" s="7"/>
+      <c r="BB27" s="7"/>
+      <c r="BC27" s="7"/>
+      <c r="BD27" s="7"/>
+      <c r="BE27" s="7"/>
+      <c r="BF27" s="7"/>
+      <c r="BG27" s="7"/>
+      <c r="BH27" s="7"/>
+      <c r="BI27" s="7"/>
+      <c r="BJ27" s="7"/>
+      <c r="BK27" s="7"/>
+      <c r="BL27" s="7"/>
+      <c r="BM27" s="7"/>
+      <c r="BN27" s="7"/>
+      <c r="BO27" s="7"/>
+      <c r="BP27" s="7"/>
+      <c r="BQ27" s="7"/>
+      <c r="BR27" s="7"/>
+      <c r="BS27" s="7"/>
+      <c r="BT27" s="7"/>
     </row>
     <row r="28" ht="64" customHeight="1" spans="2:72">
       <c r="B28" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>375</v>
-      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>377</v>
-      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="3"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="N28" s="3" t="s">
+        <v>376</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="Q28" s="3" t="s">
-        <v>378</v>
-      </c>
+      <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
-      <c r="T28" s="3" t="s">
-        <v>379</v>
-      </c>
+      <c r="T28" s="2"/>
       <c r="U28" s="2"/>
-      <c r="V28" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="W28" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="X28" s="3" t="s">
-        <v>382</v>
-      </c>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
-      <c r="Z28" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="AA28" s="5" t="s">
-        <v>384</v>
-      </c>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
-      <c r="AC28" s="5" t="s">
-        <v>385</v>
-      </c>
+      <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
@@ -6315,69 +6326,87 @@
       <c r="AQ28" s="2"/>
       <c r="AR28" s="2"/>
       <c r="AS28" s="2"/>
-      <c r="AT28" s="8"/>
-      <c r="AU28" s="8"/>
-      <c r="AV28" s="8"/>
-      <c r="AW28" s="8"/>
-      <c r="AX28" s="8"/>
-      <c r="AY28" s="8"/>
-      <c r="AZ28" s="8"/>
-      <c r="BA28" s="8"/>
-      <c r="BB28" s="8"/>
-      <c r="BC28" s="8"/>
-      <c r="BD28" s="8"/>
-      <c r="BE28" s="8"/>
-      <c r="BF28" s="8"/>
-      <c r="BG28" s="8"/>
-      <c r="BH28" s="8"/>
-      <c r="BI28" s="8"/>
-      <c r="BJ28" s="8"/>
-      <c r="BK28" s="8"/>
-      <c r="BL28" s="8"/>
-      <c r="BM28" s="8"/>
-      <c r="BN28" s="8"/>
-      <c r="BO28" s="8"/>
-      <c r="BP28" s="8"/>
-      <c r="BQ28" s="8"/>
-      <c r="BR28" s="8"/>
-      <c r="BS28" s="8"/>
-      <c r="BT28" s="8"/>
+      <c r="AT28" s="7"/>
+      <c r="AU28" s="7"/>
+      <c r="AV28" s="7"/>
+      <c r="AW28" s="7"/>
+      <c r="AX28" s="7"/>
+      <c r="AY28" s="7"/>
+      <c r="AZ28" s="7"/>
+      <c r="BA28" s="7"/>
+      <c r="BB28" s="7"/>
+      <c r="BC28" s="7"/>
+      <c r="BD28" s="7"/>
+      <c r="BE28" s="7"/>
+      <c r="BF28" s="7"/>
+      <c r="BG28" s="7"/>
+      <c r="BH28" s="7"/>
+      <c r="BI28" s="7"/>
+      <c r="BJ28" s="7"/>
+      <c r="BK28" s="7"/>
+      <c r="BL28" s="7"/>
+      <c r="BM28" s="7"/>
+      <c r="BN28" s="7"/>
+      <c r="BO28" s="7"/>
+      <c r="BP28" s="7"/>
+      <c r="BQ28" s="7"/>
+      <c r="BR28" s="7"/>
+      <c r="BS28" s="7"/>
+      <c r="BT28" s="7"/>
     </row>
     <row r="29" ht="64" customHeight="1" spans="2:72">
       <c r="B29" s="2" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>379</v>
+      </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="K29" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>381</v>
+      </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="3" t="s">
-        <v>388</v>
-      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
+      <c r="Q29" s="3" t="s">
+        <v>382</v>
+      </c>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
+      <c r="T29" s="3" t="s">
+        <v>383</v>
+      </c>
       <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
+      <c r="V29" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="W29" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>386</v>
+      </c>
       <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
+      <c r="Z29" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA29" s="4" t="s">
+        <v>388</v>
+      </c>
       <c r="AB29" s="2"/>
-      <c r="AC29" s="5" t="s">
+      <c r="AC29" s="4" t="s">
         <v>389</v>
       </c>
       <c r="AD29" s="2"/>
@@ -6396,82 +6425,70 @@
       <c r="AQ29" s="2"/>
       <c r="AR29" s="2"/>
       <c r="AS29" s="2"/>
-      <c r="AT29" s="8"/>
-      <c r="AU29" s="8"/>
-      <c r="AV29" s="8"/>
-      <c r="AW29" s="8"/>
-      <c r="AX29" s="8"/>
-      <c r="AY29" s="8"/>
-      <c r="AZ29" s="8"/>
-      <c r="BA29" s="8"/>
-      <c r="BB29" s="8"/>
-      <c r="BC29" s="8"/>
-      <c r="BD29" s="8"/>
-      <c r="BE29" s="8"/>
-      <c r="BF29" s="8"/>
-      <c r="BG29" s="8"/>
-      <c r="BH29" s="8"/>
-      <c r="BI29" s="8"/>
-      <c r="BJ29" s="8"/>
-      <c r="BK29" s="8"/>
-      <c r="BL29" s="8"/>
-      <c r="BM29" s="8"/>
-      <c r="BN29" s="8"/>
-      <c r="BO29" s="8"/>
-      <c r="BP29" s="8"/>
-      <c r="BQ29" s="8"/>
-      <c r="BR29" s="8"/>
-      <c r="BS29" s="8"/>
-      <c r="BT29" s="8"/>
+      <c r="AT29" s="7"/>
+      <c r="AU29" s="7"/>
+      <c r="AV29" s="7"/>
+      <c r="AW29" s="7"/>
+      <c r="AX29" s="7"/>
+      <c r="AY29" s="7"/>
+      <c r="AZ29" s="7"/>
+      <c r="BA29" s="7"/>
+      <c r="BB29" s="7"/>
+      <c r="BC29" s="7"/>
+      <c r="BD29" s="7"/>
+      <c r="BE29" s="7"/>
+      <c r="BF29" s="7"/>
+      <c r="BG29" s="7"/>
+      <c r="BH29" s="7"/>
+      <c r="BI29" s="7"/>
+      <c r="BJ29" s="7"/>
+      <c r="BK29" s="7"/>
+      <c r="BL29" s="7"/>
+      <c r="BM29" s="7"/>
+      <c r="BN29" s="7"/>
+      <c r="BO29" s="7"/>
+      <c r="BP29" s="7"/>
+      <c r="BQ29" s="7"/>
+      <c r="BR29" s="7"/>
+      <c r="BS29" s="7"/>
+      <c r="BT29" s="7"/>
     </row>
     <row r="30" ht="64" customHeight="1" spans="2:72">
       <c r="B30" s="2" t="s">
-        <v>109</v>
+        <v>390</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="G30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>393</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+      <c r="N30" s="3" t="s">
+        <v>392</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
-      <c r="U30" s="3" t="s">
-        <v>394</v>
-      </c>
+      <c r="U30" s="2"/>
       <c r="V30" s="2"/>
-      <c r="W30" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="X30" s="5" t="s">
-        <v>396</v>
-      </c>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
-      <c r="AB30" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="AC30" s="3" t="s">
-        <v>398</v>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="4" t="s">
+        <v>393</v>
       </c>
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
@@ -6489,73 +6506,83 @@
       <c r="AQ30" s="2"/>
       <c r="AR30" s="2"/>
       <c r="AS30" s="2"/>
-      <c r="AT30" s="8"/>
-      <c r="AU30" s="8"/>
-      <c r="AV30" s="8"/>
-      <c r="AW30" s="8"/>
-      <c r="AX30" s="8"/>
-      <c r="AY30" s="8"/>
-      <c r="AZ30" s="8"/>
-      <c r="BA30" s="8"/>
-      <c r="BB30" s="8"/>
-      <c r="BC30" s="8"/>
-      <c r="BD30" s="8"/>
-      <c r="BE30" s="8"/>
-      <c r="BF30" s="8"/>
-      <c r="BG30" s="8"/>
-      <c r="BH30" s="8"/>
-      <c r="BI30" s="8"/>
-      <c r="BJ30" s="8"/>
-      <c r="BK30" s="8"/>
-      <c r="BL30" s="8"/>
-      <c r="BM30" s="8"/>
-      <c r="BN30" s="8"/>
-      <c r="BO30" s="8"/>
-      <c r="BP30" s="8"/>
-      <c r="BQ30" s="8"/>
-      <c r="BR30" s="8"/>
-      <c r="BS30" s="8"/>
-      <c r="BT30" s="8"/>
+      <c r="AT30" s="7"/>
+      <c r="AU30" s="7"/>
+      <c r="AV30" s="7"/>
+      <c r="AW30" s="7"/>
+      <c r="AX30" s="7"/>
+      <c r="AY30" s="7"/>
+      <c r="AZ30" s="7"/>
+      <c r="BA30" s="7"/>
+      <c r="BB30" s="7"/>
+      <c r="BC30" s="7"/>
+      <c r="BD30" s="7"/>
+      <c r="BE30" s="7"/>
+      <c r="BF30" s="7"/>
+      <c r="BG30" s="7"/>
+      <c r="BH30" s="7"/>
+      <c r="BI30" s="7"/>
+      <c r="BJ30" s="7"/>
+      <c r="BK30" s="7"/>
+      <c r="BL30" s="7"/>
+      <c r="BM30" s="7"/>
+      <c r="BN30" s="7"/>
+      <c r="BO30" s="7"/>
+      <c r="BP30" s="7"/>
+      <c r="BQ30" s="7"/>
+      <c r="BR30" s="7"/>
+      <c r="BS30" s="7"/>
+      <c r="BT30" s="7"/>
     </row>
     <row r="31" ht="64" customHeight="1" spans="2:72">
       <c r="B31" s="2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="E31" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>400</v>
+      <c r="J31" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
-      <c r="N31" s="3" t="s">
-        <v>360</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
+      <c r="U31" s="3" t="s">
+        <v>398</v>
+      </c>
       <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
+      <c r="W31" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="X31" s="4" t="s">
+        <v>400</v>
+      </c>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
       <c r="AB31" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="AC31" s="2"/>
+      <c r="AC31" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
@@ -6572,37 +6599,37 @@
       <c r="AQ31" s="2"/>
       <c r="AR31" s="2"/>
       <c r="AS31" s="2"/>
-      <c r="AT31" s="8"/>
-      <c r="AU31" s="8"/>
-      <c r="AV31" s="8"/>
-      <c r="AW31" s="8"/>
-      <c r="AX31" s="8"/>
-      <c r="AY31" s="8"/>
-      <c r="AZ31" s="8"/>
-      <c r="BA31" s="8"/>
-      <c r="BB31" s="8"/>
-      <c r="BC31" s="8"/>
-      <c r="BD31" s="8"/>
-      <c r="BE31" s="8"/>
-      <c r="BF31" s="8"/>
-      <c r="BG31" s="8"/>
-      <c r="BH31" s="8"/>
-      <c r="BI31" s="8"/>
-      <c r="BJ31" s="8"/>
-      <c r="BK31" s="8"/>
-      <c r="BL31" s="8"/>
-      <c r="BM31" s="8"/>
-      <c r="BN31" s="8"/>
-      <c r="BO31" s="8"/>
-      <c r="BP31" s="8"/>
-      <c r="BQ31" s="8"/>
-      <c r="BR31" s="8"/>
-      <c r="BS31" s="8"/>
-      <c r="BT31" s="8"/>
+      <c r="AT31" s="7"/>
+      <c r="AU31" s="7"/>
+      <c r="AV31" s="7"/>
+      <c r="AW31" s="7"/>
+      <c r="AX31" s="7"/>
+      <c r="AY31" s="7"/>
+      <c r="AZ31" s="7"/>
+      <c r="BA31" s="7"/>
+      <c r="BB31" s="7"/>
+      <c r="BC31" s="7"/>
+      <c r="BD31" s="7"/>
+      <c r="BE31" s="7"/>
+      <c r="BF31" s="7"/>
+      <c r="BG31" s="7"/>
+      <c r="BH31" s="7"/>
+      <c r="BI31" s="7"/>
+      <c r="BJ31" s="7"/>
+      <c r="BK31" s="7"/>
+      <c r="BL31" s="7"/>
+      <c r="BM31" s="7"/>
+      <c r="BN31" s="7"/>
+      <c r="BO31" s="7"/>
+      <c r="BP31" s="7"/>
+      <c r="BQ31" s="7"/>
+      <c r="BR31" s="7"/>
+      <c r="BS31" s="7"/>
+      <c r="BT31" s="7"/>
     </row>
     <row r="32" ht="64" customHeight="1" spans="2:72">
       <c r="B32" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -6611,21 +6638,23 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
+      <c r="J32" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>404</v>
+      </c>
       <c r="L32" s="2"/>
-      <c r="M32" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="N32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="3" t="s">
+        <v>364</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
-      <c r="T32" s="3" t="s">
-        <v>403</v>
-      </c>
+      <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
@@ -6633,7 +6662,9 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
+      <c r="AB32" s="3" t="s">
+        <v>405</v>
+      </c>
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
@@ -6651,37 +6682,37 @@
       <c r="AQ32" s="2"/>
       <c r="AR32" s="2"/>
       <c r="AS32" s="2"/>
-      <c r="AT32" s="8"/>
-      <c r="AU32" s="8"/>
-      <c r="AV32" s="8"/>
-      <c r="AW32" s="8"/>
-      <c r="AX32" s="8"/>
-      <c r="AY32" s="8"/>
-      <c r="AZ32" s="8"/>
-      <c r="BA32" s="8"/>
-      <c r="BB32" s="8"/>
-      <c r="BC32" s="8"/>
-      <c r="BD32" s="8"/>
-      <c r="BE32" s="8"/>
-      <c r="BF32" s="8"/>
-      <c r="BG32" s="8"/>
-      <c r="BH32" s="8"/>
-      <c r="BI32" s="8"/>
-      <c r="BJ32" s="8"/>
-      <c r="BK32" s="8"/>
-      <c r="BL32" s="8"/>
-      <c r="BM32" s="8"/>
-      <c r="BN32" s="8"/>
-      <c r="BO32" s="8"/>
-      <c r="BP32" s="8"/>
-      <c r="BQ32" s="8"/>
-      <c r="BR32" s="8"/>
-      <c r="BS32" s="8"/>
-      <c r="BT32" s="8"/>
+      <c r="AT32" s="7"/>
+      <c r="AU32" s="7"/>
+      <c r="AV32" s="7"/>
+      <c r="AW32" s="7"/>
+      <c r="AX32" s="7"/>
+      <c r="AY32" s="7"/>
+      <c r="AZ32" s="7"/>
+      <c r="BA32" s="7"/>
+      <c r="BB32" s="7"/>
+      <c r="BC32" s="7"/>
+      <c r="BD32" s="7"/>
+      <c r="BE32" s="7"/>
+      <c r="BF32" s="7"/>
+      <c r="BG32" s="7"/>
+      <c r="BH32" s="7"/>
+      <c r="BI32" s="7"/>
+      <c r="BJ32" s="7"/>
+      <c r="BK32" s="7"/>
+      <c r="BL32" s="7"/>
+      <c r="BM32" s="7"/>
+      <c r="BN32" s="7"/>
+      <c r="BO32" s="7"/>
+      <c r="BP32" s="7"/>
+      <c r="BQ32" s="7"/>
+      <c r="BR32" s="7"/>
+      <c r="BS32" s="7"/>
+      <c r="BT32" s="7"/>
     </row>
     <row r="33" ht="64" customHeight="1" spans="2:72">
       <c r="B33" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -6693,33 +6724,29 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>404</v>
-      </c>
+      <c r="M33" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
+      <c r="T33" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
       <c r="Z33" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="AA33" s="3" t="s">
-        <v>406</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
-      <c r="AC33" s="3" t="s">
-        <v>407</v>
-      </c>
+      <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
@@ -6736,40 +6763,127 @@
       <c r="AQ33" s="2"/>
       <c r="AR33" s="2"/>
       <c r="AS33" s="2"/>
-      <c r="AT33" s="8"/>
-      <c r="AU33" s="8"/>
-      <c r="AV33" s="8"/>
-      <c r="AW33" s="8"/>
-      <c r="AX33" s="8"/>
-      <c r="AY33" s="8"/>
-      <c r="AZ33" s="8"/>
-      <c r="BA33" s="8"/>
-      <c r="BB33" s="8"/>
-      <c r="BC33" s="8"/>
-      <c r="BD33" s="8"/>
-      <c r="BE33" s="8"/>
-      <c r="BF33" s="8"/>
-      <c r="BG33" s="8"/>
-      <c r="BH33" s="8"/>
-      <c r="BI33" s="8"/>
-      <c r="BJ33" s="8"/>
-      <c r="BK33" s="8"/>
-      <c r="BL33" s="8"/>
-      <c r="BM33" s="8"/>
-      <c r="BN33" s="8"/>
-      <c r="BO33" s="8"/>
-      <c r="BP33" s="8"/>
-      <c r="BQ33" s="8"/>
-      <c r="BR33" s="8"/>
-      <c r="BS33" s="8"/>
-      <c r="BT33" s="8"/>
+      <c r="AT33" s="7"/>
+      <c r="AU33" s="7"/>
+      <c r="AV33" s="7"/>
+      <c r="AW33" s="7"/>
+      <c r="AX33" s="7"/>
+      <c r="AY33" s="7"/>
+      <c r="AZ33" s="7"/>
+      <c r="BA33" s="7"/>
+      <c r="BB33" s="7"/>
+      <c r="BC33" s="7"/>
+      <c r="BD33" s="7"/>
+      <c r="BE33" s="7"/>
+      <c r="BF33" s="7"/>
+      <c r="BG33" s="7"/>
+      <c r="BH33" s="7"/>
+      <c r="BI33" s="7"/>
+      <c r="BJ33" s="7"/>
+      <c r="BK33" s="7"/>
+      <c r="BL33" s="7"/>
+      <c r="BM33" s="7"/>
+      <c r="BN33" s="7"/>
+      <c r="BO33" s="7"/>
+      <c r="BP33" s="7"/>
+      <c r="BQ33" s="7"/>
+      <c r="BR33" s="7"/>
+      <c r="BS33" s="7"/>
+      <c r="BT33" s="7"/>
     </row>
-    <row r="34" ht="62" customHeight="1" spans="2:15">
+    <row r="34" ht="64" customHeight="1" spans="2:72">
       <c r="B34" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="O34" t="s">
-        <v>392</v>
+        <v>119</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="AA34" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2"/>
+      <c r="AL34" s="2"/>
+      <c r="AM34" s="2"/>
+      <c r="AN34" s="2"/>
+      <c r="AO34" s="2"/>
+      <c r="AP34" s="2"/>
+      <c r="AQ34" s="2"/>
+      <c r="AR34" s="2"/>
+      <c r="AS34" s="2"/>
+      <c r="AT34" s="7"/>
+      <c r="AU34" s="7"/>
+      <c r="AV34" s="7"/>
+      <c r="AW34" s="7"/>
+      <c r="AX34" s="7"/>
+      <c r="AY34" s="7"/>
+      <c r="AZ34" s="7"/>
+      <c r="BA34" s="7"/>
+      <c r="BB34" s="7"/>
+      <c r="BC34" s="7"/>
+      <c r="BD34" s="7"/>
+      <c r="BE34" s="7"/>
+      <c r="BF34" s="7"/>
+      <c r="BG34" s="7"/>
+      <c r="BH34" s="7"/>
+      <c r="BI34" s="7"/>
+      <c r="BJ34" s="7"/>
+      <c r="BK34" s="7"/>
+      <c r="BL34" s="7"/>
+      <c r="BM34" s="7"/>
+      <c r="BN34" s="7"/>
+      <c r="BO34" s="7"/>
+      <c r="BP34" s="7"/>
+      <c r="BQ34" s="7"/>
+      <c r="BR34" s="7"/>
+      <c r="BS34" s="7"/>
+      <c r="BT34" s="7"/>
+    </row>
+    <row r="35" ht="62" customHeight="1" spans="2:15">
+      <c r="B35" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="O35" t="s">
+        <v>396</v>
       </c>
     </row>
   </sheetData>
